--- a/train.xlsx
+++ b/train.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
   <si>
     <t>Nội dung</t>
   </si>
@@ -22,271 +22,1072 @@
     <t>Nhãn</t>
   </si>
   <si>
+    <t>bạn muốn ai ai việt_tân giới bình_luận vỉa_hè rằng huấn_luyện_viên park_hang_seo 65 tuổi nên vì còn có_thể giúp_ích đội_tuyển bóng_đá còn bác trọng 78 tuổi già rồi nên chứ giúp_ích gì đất_nước mà chỉ kéo dài thêm sự trì_trệ cản_trở_sự phát_triển đất_nước mà thôi bạn nghĩ sao suy_nghĩ trên</t>
+  </si>
+  <si>
+    <t>mới_đây trên cɑ ́ c diễn_đàn hội nhóm ô_tô xôn_xao trước bài đăng nguyễn văn_vinh thôn bầu xã kim chung đông_anh hà_nội truy_tìm kẻ lấy mất ô_tô th mới_đây trên cɑ ́ c diễn_đàn hội nhóm ô_tô xôn_xao trước bài đăng nguyễn văn_vinh thôn bầu xã kim chung đông_anh hà_nội truy_tìm kẻ lấy mất ô_tô theo chủ xe chia_sẻ do gia_đình nhu_cầu bán chiếc xe ô_tô màu đỏ nên lên mạng xã_hội rao bán giá 400 triệu đồng ngày 2 12 vừa_qua đàn_ông mặc quần_áo đen liên_hệ ngỏ ý_muốn mua xe đó hai bên hẹn gặp khu_vực cầu_chui số 3 đông_bầu kim_cɦuƞǥ đông_anh khách xem lái thử ô_tô lúc đầu vinh ngồi chung đàn_ông thấy điều gì bất_thường lúc xuống xe rồi nói_chuyện vớii tài_xế chở vị khách mua xe lợi_dụng lúc vinh đề_phòng đàn_ông trên xe nhấn ga phóng mất 5 phút thấy vị khách quay nên vinh gọi điện phía đầu dây bên kia khóa máy lúc mới tá hỏa biết chở vị kɦách tài_xế taxi chứ phɑ ̉ i người_nhà</t>
+  </si>
+  <si>
+    <t>tuổi 23 con_gái thành_long như_anh ngô_trác_lâm con ngoài giá_thú tài_tử thành_long phục_vụ nhà_hàng canada</t>
+  </si>
+  <si>
+    <t>luật_sư johnny_depp từ_chối bào_chữa kanye_west phương_mai camille_vasquez luật_sư giúp johnny_depp thắng kiện amber_heard từ_chối bào_chữa kanye_west vì rapper bình_luận kỳ_thị do_thái</t>
+  </si>
+  <si>
+    <t>tới nào việt nam mới biết sự_thật đáng buồn việt_tân cả thế_giới đều biết nước nghèo_khó kinh_tế nhưng giầu_có bệnh_tật ung_thư cả thế_giới đều biết bạt_ngàn tượng_đài ngàn tỉ nhưng trường_học bệnh_viện trạm y_tế cầu_đường còn thiếu_thốn khắp mọi nơi cả thế_giới đều biết siêu_cường_quốc dân oan siêu_cường_quốc xuất_khẩu lao_động cả thế_giới đang bàn quyền vi_sinh_vật thì tước_đoạt quyền con_người tính_mạng con_người rẻ_rúng cả thế_giới đều biết rất đáng thương nhưng sao tưởng mình đang sống thiên_đường cả thế_giới đều biết quan_chức trùm quan tham tham_nhũng cả tổng_bí_thư còn vạch cả chiến_dịch đốt lò nhưng chẳng ăn_thua còn rất điều cần_thiết nhưng vẫn động_thái nào cầm_quyền biến trở_nên văn_minh giàu đẹp hơn liệu dân từng đòi_hỏi thứ mình cần liệu cầm_quyền nghe tiếng thở_than dân hay</t>
+  </si>
+  <si>
+    <t>nữ tiktoker lê_quỳnh như đột_ngột qua_đời tuổi 29 theanh28 mới_đây thông_tin lê_quỳnh_như thí_sinh top 20 the_next face 2021 đột_ngột qua_đời khiến bàng_hoàng thương_xót rất bạn_bè đồng_nghiệp từng làm_việc chung gửi lời chia buồn tới gia_đình quỳnh_như lê_quỳnh_như 1994 quê đắk_lắk còn biết tiktoker sở_hữu hơn 200 nghìn lượt theo_dõi nàng tạo ấn_tượng xem bởi phong_cách thời_trang độc_đáo cá_tính đa_dạng</t>
+  </si>
+  <si>
+    <t>chú chó biết nấu cơm chủ vắng theo scmp theo lời hướng_dẫn chủ chú chó luckey mày_mò tìm cách ấn nút nồi cơm_điện nấu cơm chủ vắng</t>
+  </si>
+  <si>
+    <t>tiến_sỹ nhưng lương bằng nhân_viên văn_phòng bình_thường theanh28_entertainment mới_đây tiến_sĩ trẻ học nước_ngoài vừa giảng_dạy nghiên_cứu khoa_học vừa giao đủ thứ việc nhưng chỉ nhận mức lương 6 triệu đồng tháng thu_nhập tăng thêm rất thấp mức lương giảng_viên lên mạng tìm_kiếm việc_làm thêm ý_định chuyển sang nơi khác biết đây giảng_viên trường đh công_lập khu_vực đồng_bằng sông cửu_long mới học tiến_sĩ nước_ngoài tiến_sĩ viết em mới tốt_nghiệp tiến_sĩ dạy trường công mức lương thấp 6 triệu tiền thưởng công_bố thấp rất khó mới nhận em 5 công_bố ssci ngành quản_lý gồm 3 bài báo q1 2 bài độc_lập bài đồng tác_giả bài báo q2 độc_lập q4 độc_lập khả_năng nghiên_cứu độc_lập em mong_muốn có_thể làm nghiên_cứu bán thời_gian trường tổ_chức khác kiếm thêm thu_nhập tiến_sĩ biết mình du_học lĩnh_vực quản_lý vận_tải bằng học_bổng tự tìm_kiếm quá_trình học trường đh đóng bảo_hiểm trả lương triệu đồng tháng trước ký cam_kết sẽ công_tác trường 10 nếu sẽ phạt gấp 3 lần số tiền trường cấp khoảng hơn 100 triệu đồng nói thêm thu_nhập tiến_sĩ hay mỗi mà dạy vượt thì 100 giờ chỉ trả 7 triệu đồng chỗ tôi trường tư ngoài xin dạy chưa kể lịch dạy trường kín tuần thêm công_việc cố_vấn học_tập hướng_dẫn sinh_viên tôi đang cân_nhắc việc chuyển sang trường khác vì lương hiện_tại thấp trường mặn mà gì nghiên_cứu khoa_học</t>
+  </si>
+  <si>
+    <t>lao_động xa xứ giằng_xé vì bỏ trốn làm chui đức_hùng làm_việc bất_hợp_pháp chị thanh trả lương cao hơn nhưng luôn nơm_nớp lo_sợ phát_hiện trục_xuất</t>
+  </si>
+  <si>
+    <t>jack chính_thức rời công_ty lần thứ 2 lập công_ty riêng theanh28 loạt ồn_ào jack chính_thức rời công_ty cũ tự thành_lập công_ty riêng lấy tên j97_entertainment thông_tin màn comeback hé lộ trước đó</t>
+  </si>
+  <si>
+    <t>đề_xuất kéo_dài thời_hiệu kỷ_luật hành_chính cán_bộ công_chức sơn_hà chính_phủ đề_xuất cán_bộ công_chức viên_chức khiển_trách thời_hiệu xử_lý kỷ_luật hành_chính tăng 2 lên 5 cảnh_cáo 10 thay_vì 5 như hiện_nay</t>
+  </si>
+  <si>
+    <t>tóc_tiên tôi hết ảo_tưởng hôn_nhân lãng_mạn hoàng_dung hoàng_thanh tóc_tiên nói làm vợ nhạc_sĩ touliver hết tôn_thờ chủ_nghĩa lãng_mạn tình_yêu chỉ quan_trọng chân_thành khiếu hài_hước cảm_thông</t>
+  </si>
+  <si>
+    <t>đại_biểu quốc_hội bộ ngành điều_hành xăng dầu vẫn lúng_túng anh_minh đại_biểu quốc_hội rằng thị_trường xăng dầu vẫn đứt_gãy chuỗi cung_ứng nhất tỉnh thành phía nam thấy điều_hành bộ ngành liên_quan còn lúng_túng</t>
+  </si>
+  <si>
+    <t>cộng_sản vẽ bánh hồng_hà hôm 26 tháng mười 2022 trang thông_tin chính_phủ đưa tuyên_bố tầm nhìn tới 2050 trở_thành nước phát_triển thu_nhập cao ngay_lập_tức phía bên dưới facebook khanh_hung bình_luận mỗi 40 qua ít_nhất lần nghe tuyên_bố nhiệm_kỳ vị cứ 5 lần mỗi lần vị lên tìm cách vốn bằng thì lấy cơ_sở nào đòi nước phát_triển thu_nhập cao đấy chưa kể 2010 vị tuyên_bố 2020 sẽ nước phát_triển 2020 thì tuyên_bố 2030 sẽ nước phát_triển giờ sắp hết 2022 thì tuyên_bố 2050 sẽ trở_thành nước phát_triển thu_nhập cao như_vậy có_thể khẳng_định bánh_vẽ chính_phủ tăng tầm nhìn 2020 lên 2050 chính_phủ thì phải biết bánh_vẽ tuyên_giáo thì phải biết nói ngược nói xuôi đúng dân đen khổ vì cặp đôi</t>
+  </si>
+  <si>
+    <t>đám cỗ chồng giò thịt bay vèo_vèo qua tường hàng_xóm  bên vườn chồng em vật_thể lạ cứ bay vèo_vèo sang bên chú em dụi mắt đeo kính nhìn thì phát_hiện vật_thể lạ đó giò thịt</t>
+  </si>
+  <si>
+    <t>thật_sự quá thương chiến_binh áo xanh áo trắng theanh28 gs nguyễn trí trả_lời phỏng_vấn bên lề phiên thảo_luận sáng 28 10 kỳ họp thứ_tư quốc_hội khóa xv nhấn_mạnh lương chế_độ phụ_cấp cán_bộ ngành y_tế quá thấp điều_kiện làm_việc đảm_bảo</t>
+  </si>
+  <si>
+    <t>đề_nghị tăng lương cơ_sở 2023 sơn_hà 11 đại_biểu quốc_hội đề_nghị tăng lương cơ_sở trước 6 tháng thay_vì 7 2023 như đề_xuất chính_phủ nhằm tháo_gỡ khó_khăn ngành giáo_dục y_tế</t>
+  </si>
+  <si>
+    <t>phó_chủ_tịch hội_đồng lý_luận trung_ương nguyễn_quang_thuấn cảnh_cáo viết_tuân ủy_ban kiểm_tra trung_ương cảnh_cáo nguyễn_quang_thuấn phó_chủ_tịch hội_đồng lý_luận trung_ương nguyên bí_thư đảng_ủy nguyên chủ_tịch viện hàn_lâm khoa_học xã_hội</t>
+  </si>
+  <si>
+    <t>diệu_nhi kiếp vẫn muốn làm vợ tú tân_cao diễn_viên diệu_nhi hứa vẫn lấy tú nếu kiếp khiến khách mời bật khóc tiệc cưới chiều 10 10</t>
+  </si>
+  <si>
     <t>mai_ngô gái thị_phi thành á_hậu hoàng_dung á_hậu mai_ngô từng dừng hoạt_động giải_trí bốn vì áp_lực chỉ_trích ăn_nói ngỗ_ngược phát_ngôn gây sốc</t>
   </si>
   <si>
+    <t>nghệ_sĩ tên tuổi tranh giải trần_hữu_trang tân_cao thu_vân lê_trung_thảo võ_minh_lâm thi tài_năng diễn_viên sân_khấu cải_lương trần_hữu trang 2022</t>
+  </si>
+  <si>
+    <t>lương nhà_nước đủ sống lê_tuyết 12 làm công_chức xã lương trịnh tấn_phương 45 tuổi bằng 3 thu_nhập vợ vốn công_nhân khu chế_xuất tân_thuận</t>
+  </si>
+  <si>
+    <t>thái_hòa vợ hy_sinh tôi sống nghề mai_nhật thái_hòa nói biết_ơn hồng_thu vợ kém 11 tuổi chăm con vun_vén tổ_ấm sống trọn nghề diễn</t>
+  </si>
+  <si>
+    <t>tú hứa mang hạnh_phúc diệu_nhi tân_cao diễn_viên tú hứa bố_mẹ hai bên sẽ mang hạnh_phúc diệu_nhi tiệc cưới tối 22 10</t>
+  </si>
+  <si>
+    <t>hà_lê cùng bạn gái dạo chơi đảo nami hoàng_anh ca_sĩ hà_lê bạn gái biên_đạo gia_linh kém 13 tuổi dạo chơi dưới hàng lá phong ngân hạnh đảo nami</t>
+  </si>
+  <si>
+    <t>miền trung có_thể chia thành hai tiểu_vùng viết_tuân chính_phủ đề_xuất giữ nguyên không_gian phát_triển đất_nước theo 6 vùng kinh_tế xã_hội chia trung_du miền núi phía bắc miền trung_thành hai tiểu_vùng</t>
+  </si>
+  <si>
+    <t>cháy chung_cư mini cầu giấy hà_nội theanh28 vừa xong vụ cháy lớn xảy tòa chung_cư mini ngõ 132 cầu giấy hà_nội nhận tin báo đội cảnh_sát pccc cnch công_an quận cầu giấy điều 4 xe chữa_cháy cùng hơn 20 cán_bộ chiến_sĩ tới hiện_trường dập lửa khoảng 19h30 lực_lượng cảnh_sát pccc cnch dập tắt hoàn_toàn đám cháy tổ_chức cứu 11 thoát nạn an_toàn 3 bị_thương rất may tử_vong</t>
+  </si>
+  <si>
+    <t>10 chết do mưa_lũ miền trung đà_nẵng 10 chết mưa_lũ miền trung đó đà_nẵng 6 hai trẻ quảng_nam hai đàn_ông thừa_thiên_huế</t>
+  </si>
+  <si>
+    <t>sáng nay quốc_hội_thảo_luận kinh_tế xã_hội sơn_hà sáng 27 10 quốc_hội bắt_đầu phiên đầu_tiên hai ngày thảo_luận kết_quả_thực_hiện kế_hoạch phát_triển kinh_tế xã_hội 2022 dự_kiến kế_hoạch 2023</t>
+  </si>
+  <si>
+    <t>vũ_ngọc son làm show bưu_điện tp hcm tân_cao hai thiết_kế vũ_ngọc son sẽ giới_thiệu bộ sưu_tập ký_ức tuổi_thơ show lần đầu tổ_chức bưu_điện tp hcm</t>
+  </si>
+  <si>
+    <t>nhồi_nhét giỏi thật đấy theanh28 mới_đây đội csgt số 3 nhận tin báo xe_khách hành_vi chở quá số quy_định đang di_chuyển bến_xe giáp_bát nam_định ngay_lập_tức đội 3 bố_trí_lực_lượng kịp_thời phát_hiện xử_lý thời_điểm kiểm_tra xe ô_tô khách 29 chỗ nhồi_nhét tận 58 trên xe</t>
+  </si>
+  <si>
+    <t>dự_kiến trình phương_án nghỉ tết 7 ngày hồng_chiêu cơ_quan chuyên_môn chọn phương_án nghỉ tết_âm_lịch 29 tháng_chạp trình chính_phủ gần tháng lấy ý_kiến</t>
+  </si>
+  <si>
+    <t>cần xác_định khu lưu_trú công_nhân xã_hội lê_tuyết theo doanh_nghiệp việc xây_dựng khu lưu_trú công_nhân khu công_nghiệp cần ưu_đãi tiền thuê đất vốn vay giống như dự_án xã_hội</t>
+  </si>
+  <si>
+    <t>phương_vy idol tôi từng sốc vì cân nặng 83 kg hoàng_dung phương_vy idol nói chồng mỹ chăm con yêu động_viên vợ tập_thể_hình tâng cân kiểm_soát sinh</t>
+  </si>
+  <si>
+    <t>không_thể xây vì phải chờ kế_hoạch sử_dụng đất hàng thu_hằng mất 3 nguyễn công khang chưa thể chuyển mục_đích sử_dụng 56 m2 đất xây vì phải chờ phê_duyệt kế_hoạch sử_dụng đất hàng huyện</t>
+  </si>
+  <si>
+    <t>khai_quật chiếc quan_tài màu đỏ như máu chuyên_gia vừa mở liền hét lớn chạy nǥay th 2003 công_nhân khai_thác đá núi thổ_nhĩ_cơ khu tự_trị nội mông_cổ trung_quốc vô_tình đào ngôi mộ cổ nǥay đó công_nhân báo_cáo chính_quyền địa_phương cɑ ́ c chuyên_gia khảo_cổ_học gọi khai_quật nghiên_cứu ngôi mộ cổ chẳng ai có_thể ngờ ngội mộ ẩn_chứa thứ khả_năng hại chết</t>
+  </si>
+  <si>
+    <t>ảnh chụp trên cao vùng nước ô_nhiễm nhất thế_giới thế_đan sông_citarum indonesia sông tame gần denton hay sông tiete brazil vùng nước ô_nhiễm nhất thế_giới</t>
+  </si>
+  <si>
+    <t>người_mẫu nguyễn_diana qua_đời tuổi 26 tam_kỳ người_mẫu nguyễn_diana bông hồng lai top 15 hoa_hậu hoàn_vũ 2019 đột_ngột mất tuổi 26</t>
+  </si>
+  <si>
+    <t>bộ_trưởng y_tế bệnh_viện thành con_nợ vì chậm thanh_toán bảo_hiểm y_tế viết_tuân theo bà đào hồng_lan bệnh_viện đang trở_thành con_nợ do chi_phí khám chữa bệnh bỏ chưa quỹ bảo_hiểm y_tế thanh_toán</t>
+  </si>
+  <si>
+    <t>phát_hiện ngôi mộ 600 năm_tuổi ông_già noel bên dưới nhà_thờ cổ dân_trí ngôi mộ cổ chôn_cất thi_thể vị thánh vốn nguyên_mẫu ông_già noel dưới tàn_tích nhà_thờ cổ thổ_nhĩ_kỳ</t>
+  </si>
+  <si>
+    <t>phòng trưng_bày phục_trang kỷ_vật nghệ_sĩ chí_tài tuấn_việt tân_cao hàng trăm món đồ gồm quần_áo đĩa cd danh_hài chí_tài bảo_quản trưng_bày đoàn lô_tô sài_gòn tân_thời</t>
+  </si>
+  <si>
+    <t>trương quỳnh_anh tôi khó mở lòng đổ_vỡ hoàng_dung ca_sĩ trương quỳnh_anh nói đổ_vỡ tình_cảm chấp_nhận làm mẹ đơn_thân thấy khó mở lòng yêu ai</t>
+  </si>
+  <si>
+    <t>quả na dai đấu_giá 89 triệu đồng việt_an quả na dai nữ doanh_nhân mua 89 triệu đồng buổi đấu_giá gây quỹ từ_thiện khuôn_khổ hội_chợ na chi_lăng</t>
+  </si>
+  <si>
+    <t>phương_án thay_thế hoàn_hảo vị_trí kante dành potter xoilac9 hâm_mộ đội bóng thành london lo_ngại vết_thương n golo_kante sẽ ảnh_hưởng nhỏ phong_độ thi_đấu theo thông_tin mới nhất bác_sĩ thông_báo khả_năng tiền_vệ nước pháp góp_mặt world_cup 2022 rất thấp bên cạnh đó 7 gắn_bó chelsea cầu_thủ 31 tuổi muốn thử_thách bản_thân mình bằng việc tìm_kiếm bến đỗ mới nếu_như kante quyết_định the_blues cần phải chuẩn_bị bổ_sung tân_binh xuất_sắc có_thể thay_thế vị_trí quan_trọng đội_hình thi_đấu blđ chelsea đang nhắm cái tên có_thể thay_thế vị_trí cầu_thủ mang áo số 7 tuy_nhiên theo danny_murphy cựu cầu_thủ blackburn_rovers cầu_thủ declan_rice sẽ tuyển_thủ xứng_đáng vị_trí tiền_vệ trung_tâm</t>
+  </si>
+  <si>
+    <t>90 lao_động làm_việc nước_ngoài tay_nghề thấp hồng_chiêu lao_động có_mặt hơn 40 quốc_gia chủ_yếu làm công_việc giản_đơn thời_gian tới cần tăng tỷ_lệ trình_độ cao theo chuyên_gia</t>
+  </si>
+  <si>
+    <t>đề_nghị giải_trình cuộc thanh_tra 6 7 chưa kết_luận viết_tuân một_số đại_biểu quốc_hội đề_nghị cơ_quan_chức_năng biết nguyên_nhân giải_pháp chế_tài xử_lý cuộc thanh_tra 2015 2016 nay vẫn chưa ban_hành kết_luận</t>
+  </si>
+  <si>
+    <t>sao kim có_thể chứa đại_dương nước bên dưới lớp vỏ theo i _e bên dưới bề_mặt địa_ngục sao kim có_thể đại_dương nước khổng_lồ hé lộ tiến_trình hình_thành phát_triển hành_tinh hệ mặt_trời</t>
+  </si>
+  <si>
+    <t>gái luộc ghẹ rụng càng bố_mẹ chàng trai bênh ƞhưng lớn_tiếng nói_thế ấy mới ngấm  tìm_hiểu giai_đoạn cực_kỳ_quan_trọng chuyện tình cɑ ̉ m biết rõ hơn đối_phương bình_thường quen nhau thì êm_thấm nhưng xảy chuyện mới biết mình đaƞg quen đích_thực nɦư thế_nào biết_bao cặp đẹp_đôi lắm ngỡ nɦư hợp nhau lắm nhưng cuối_cùng vẫn chia_tay vì chịu nổi tính_cách nhau mà chịu nổi thì chọn chia_tay tốt nhất vì mai cưới chắc gì hòa_hợp ʋới nhau mới_đây nàng vô_cùng thất_vọng trước thái_độ bạn trai dành mình chuyện gì đâu chỉ nhân lúc bố_mẹ người_yêu qᴜê lên có_mang theo vài con ghẹ nấu_nướng a tới z rồi tự tay hấp ghẹ vì hai bác nhờ_vả do kinh_nghiệm nên hỏi người_yêu thì ɦướng dẫn bỏ cả con hấp mà em</t>
+  </si>
+  <si>
+    <t>kanye west mất danh_hiệu tỷ_phú phương_mai rapper kanye west còn forbes xếp_hạng tỷ_phú adidas cùng đối_tác lớn khác chấm_dứt hợp_đồng</t>
+  </si>
+  <si>
+    <t>dễ cú sốc chính_sách giảm mức hưởng bhxh lần lê_tuyết theo chuyên_gia nên tách khoản đóng_góp lao_động doanh_nghiệp quỹ bảo_hiểm xã_hội giảm mức hưởng trợ_cấp lần bởi sẽ gây xáo_trộn lớn</t>
+  </si>
+  <si>
+    <t>nguyễn phú_trọng chầu bắc_triều hiếu chân truyền_thông ngoài nước đưa tin nguyễn phú_trọng tổng_bí_thư đảng cộng_sản csvn sẽ thăm chính_thức trung_quốc ngày 30 tháng mười tới ngày 2 tháng mười sắp tới trọng lãnh_tụ đảng cộng_sản thực_chất lãnh_đạo quốc_gia đầu_tiên tới trung_quốc ngay đảng cộng_sản trung_quốc cstq hoàn_tất đại_hội toàn_quốc lần thứ 20 hôm 23 tháng mười đây tổng_bí_thư tập_cận bình bầu nhiệm_kỳ thứ ba thiết_lập bộ_máy cai_trị toàn tay_chân thân_tín do đảng csvn công_bố rất ít thông_tin chuyến trọng nên khó biết tại_sao xuất_ngoại hơn ba tự cấm_cung vội_vã như thế lúc sức_khỏe tốt như thể_hiện dịp hiếm_hoi xuất_hiện trước công_chúng liệu phải ẩn lời mời tập_cận bình sự hối_thúc nào đó mà trọng không_thể trì_hoãn nguyễn_nam hội nhà_báo độc_lập nhận_định có_thể trọng muốn tiếp_nhận cách mà đồng cấp trung_quốc có_thể thu_xếp nhân_sự bàn_cờ chính_trị nhưng chúng_tôi nghĩ nếu học cách thu_xếp nhân_sự đảng thì trọng nhất_thiết phải gấp như_vậy chính_trị hành_vi mang tính biểu_tượng hành_vi tiền_nhiệm cựu tổng_bí_thư hồ cẩm_đào xốc nách đưa khỏi nghị_trường đại_hội đảng cstq hôm 22 tháng mười biểu_thị lập_trường tập cắt đứt quá_khứ cải_cách bắt_đầu thời_đại mới tương_tự như_vậy hành_vi triệu_tập trọng sang bắc_kinh lúc đảng cstq tập đang bận_rộn công_việc hậu đại_hội hẳn ẩn_ý khó lường tìm_hiểu động_cơ chuyến nên xem qua quan_điểm tập như sự sắp_xếp nhân_sự chính_sách đối_ngoại trung_quốc nhiệm_kỳ thứ ba sắp tới nếu sự thay_đổi đáng chú_ý đường_lối đảng cstq trình_bày đại_hội 20 thì đó trung_quốc sẽ ưu_tiên an_ninh quốc_phòng hơn tăng_trưởng kinh_tế nhằm thực_hiện giấc mộng trung_hoa tập khôi_phục vị_thế lịch_sử trung_quốc như cường_quốc trung_tâm thế_giới thực_hiện tham_vọng trung_quốc sẽ thâu_tóm đài_loan vùng lãnh_thổ đế_chế trung_hoa cũ thống_nhất đất_nước đủ năng_lực cạnh_tranh hoa_kỳ tất_cả lĩnh_vực kinh_tế khoa_học công_nghệ quân_sự tập dường_như đang nóng_ruột đại_hội 20 ngoài việc đưa cơ_quan lãnh_đạo chóp_bu đảng cstq tay_chân thân_tín mình tập còn đưa quân_ủy_trung_ương mà kiêm chức chủ_tịch tướng lãnh kinh_nghiệm chiến_trường tướng lãnh phụ_trách mặt_trận đài_loan chỉ_huy binh_chủng hiện_đại như_hỏa_tiễn quân_ủy_trung_ương cơ_quan chỉ_huy tối_cao quân_đội trung_quốc nắm chức cao nhất đây thì quan_trọng ngang nắm chức tổng_bí_thư đảng hoặc thủ_tướng trung_quốc số sáu tướng_lĩnh mới đề_bạt quân_ủy_trung_ương hai tướng từng tham_gia chiến_tranh biên_giới 1980 thế_kỷ trước trương hựu_hiệp 72 tuổi hiện giữ chức phó_chủ_tịch thứ nhất lưu_chấn_lập 58 tuổi quân_ủy_viên đó chuyện mà đảng csvn nguyễn phú_trọng không_thể chú_ý việc quan_trọng thứ hai kế_sách thâu_tóm đài_loan tập củng_cố mạng_lưới phên giậu che_chắn nội_địa trung_quốc nếu chiến_tranh đài_loan lan rộng lôi_kéo sự tham_gia hoa_kỳ nước đông_á qua bằng thủ_đoạn trung_quốc thu_phục nga bắc hàn phía bắc lào cambodia miến_điện phía nam nước giáp biên trung_quốc thì vẫn đu dây thủ lợi dù hai nước cùng thể_chế chính_trị kinh_tế phụ_thuộc nặng_nề trung_quốc hơn thế nữa hai nước chỉ đối_tác_chiến_lược toàn_diện nhau mà còn hai đảng cộng_sản lịch_sử gắn_bó lâu_dài cai_trị thời_gian gần đây bắc_kinh điều hài_lòng hà_nội nhất việc ngày_càng biểu_hiện_thân_thiện hoa_kỳ nhiệm_kỳ thứ hai tập hơn qua kể đại_hội 12 đảng csvn tháng_giêng 2017 trọng sang bắc_kinh triều cống ngay cả đại_hội 13 đầu 2021 trọng đích_thân sang báo_cáo như thông_lệ mà chỉ cử quan_chức cấp_bộ làm sứ thần đó trọng tiếp thân_mật lãnh_đạo cao_cấp hoa_kỳ như phó_tổng_thống kamala_harris bộ_trưởng quốc_phòng lloyd_austin đang ráo_riết vận_động tổng_thống joe_biden mỹ sớm sang thăm quan_hệ hoa_kỳ có_thể nói đang ổn tới mức hoa_kỳ xếp cùng singapore làm đối_tác an_ninh hàng_đầu chiến_lược ấn_độ_dương thái_bình_dương sẵn_sàng viện_trợ đáng_kể bỏ_qua hành_vi vi_phạm_nhân_quyền bất_hảo hà_nội bắc_kinh đôi lần cảnh_cáo hà_nội tránh xa hoa_kỳ bằng thủ_đoạn như đóng_cửa biên_giới hàng nông_sản_xuất_khẩu viện_trợ vaccine covid 19 như nước asean khác v v nhưng cây gậy đó càng làm thêm khó xử đảng csvn giống như bản_sao thu nhỏ đảng cstq đang kẹt giữa bên sức_ép đảng cstq đàn_anh bên sức phản_kháng dân trước thủ_đoạn bắc_kinh cuộc khảo_sát dư_luận viện nghiên_cứu đông_nam á singapore ghi_nhận tới 84 dân tin_tưởng thiện_cảm hoa_kỳ làm cầm_quyền khó xử mỗi muốn mềm_mỏng trung_quốc trung_quốc thường nói quét trước quét ngoài ngõ dẹp xong phe_phái chống_đối thâu_tóm quyền_lực đảng cstq phải_chăng lúc tập bắt_đầu quét ngoài ngõ mà đảng csvn chọn chiếu_cố đầu_tiên lần việc tập mời trọng sang bắc_kinh ngay đại_hội đảng có_thể nhằm nắn_gân đảng csvn lôi_kéo đảng csvn nhà_nước trở_lại cái gọi cộng_đồng chung vận_mệnh phương_châm 4 tốt 16 chữ vàng mất_sức quyến_rũ nếu nhất_thời tập chưa thành_công việc biến thành chư_hầu dựa trên mối quan_hệ anh_em hai đảng cộng_sản thì ít_ra sẽ gây áp_lực buộc đảng csvn phải rời xa hoa_kỳ công_khai thể_hiện lập_trường gắn_bó trung_quốc hơn nữa chuyến trọng do vậy sẽ phải chuyến thăm_viếng bình_thường thể_hiện mối quan_hệ tình_cảm tốt_đẹp giữa đảng cộng_sản hai nước có_thể giữa cá_nhân tập như nhận_định trên trang bbc tiếng việt điện_văn chúc_mừng tập trúng_cử nhiệm_kỳ thứ ba trọng bày_tỏ tôi mong sớm gặp đồng_chí chúng_ta cùng nhau đi_sâu trao_đổi vấn_đề chiến_lược góp_phần tăng_cường hơn nữa tin_cậy chính_trị đề định_hướng lớn tương_lai phát_triển tốt_đẹp quan_hệ hai nước định_hướng tương_lai thế_nào thì còn phải chờ xem nhưng e rằng thân_phận đàn_em trọng đảng csvn khó mà cưỡng nổi sức_ép hoàng đế tập_cận_bình đó có_thể chuyện buồn nữa đất_nước</t>
+  </si>
+  <si>
+    <t>lâm_chí_dĩnh xuất_hiện tai_nạn như_anh tài_tử đài_loan lâm_chí dĩnh lần đầu đăng ảnh vụ tai_nạn trên xe tesla hồi tháng 7</t>
+  </si>
+  <si>
+    <t>amber heard nêu 16 lý_do kháng_cáo johnny_depp phương_mai diễn_viên amber heard nộp văn_bản giải_trình 16 lý_do kháng_cáo kết_quả phiên_tòa chồng cũ johnny_depp</t>
+  </si>
+  <si>
+    <t>đẹp brazil đăng_quang miss grand international 2022 đạt_phan indonesiaisabella menin 26 tuổi brazil vượt 67 thí_sinh giành chiến_thắng chung_kết hoa_hậu hòa_bình quốc_tế 2022 jakarta tối 25 10</t>
+  </si>
+  <si>
+    <t>minh_tinh beauty and the beast qua_đời đạt_phan angela_lansbury hát ca_khúc đoạt oscar beauty and the beast 1991 mất tuổi 96 tám thập_niên hoạt_động nghệ_thuật</t>
+  </si>
+  <si>
+    <t>cơ_hội gặp_mặt tuyển_thủ hàng_đầu clb borussia dortmund fan hâm_mộ theanh28 trận giao_hữu quốc_tế giữa đt dortmund sẽ diễn ngày 30 11 trên sân mỹ_đình đây có_thể xem cơ_hội lớn đt cọ_xát trước aff cup 2022 thầy_trò hlv park_hang_seo sẽ dịp so tài lực_lượng rất mạnh dortmund</t>
+  </si>
+  <si>
+    <t>vay 6tr tổ_chức sinh_nhật bạn ǥái tàn tiệc thanh_niên chê xe nghèo chở th gần ngày_sinh_nhật bạn gái anh_chàng ý_định rủ chơi vì túi vẫn còn 2 triệu đồng số tiền phải quá nhưng đủ chầu vui_vẻ lãng_mạn hai nhưƞǥ phút chót nàng hỏi vay bạn trai 8 triệu tổ_chức sinh_nhật mời bạn_bè đông_đủ dự lúc chafng chỉ vỏn_vẹn 2 triệu thế_là phɑ ̉ i vội chạy đủ đường hỏi vay thêm số tiền 6 triệu đồng bạn gái có_thể tổ_chức tiệc người_yêu vui_lòng ngại lên rừng xuống biển huống gì vay_mượn 6 triệu chẳng_lẽ kɦông làm tưởng_chừng gái sẽ cɑ ̉ m động nhưng cái kết quá chua_chát khiến anh_chàng cay_đắng nhận ra_công_sức lẫn tình cɑ ̉ m chỉ trò_hề ǥái mời 15 16 dự tàn_tiệc bạn trai thanh_toán gần 6 triệu định dẫn xe chở bạn gái lúc nàng nhất_quyết khước chỉ xe bạn thân lý_do xe bạn trai phɑ ̉ i kiểu sang xịn nàng sĩ_diện trước bạn_bè</t>
+  </si>
+  <si>
+    <t>gen z mặc_kệ chuyện hôn_nhân con_cái zing nền kinh_tế hỗn_loạn thị_trường việc_làm rối_ren đang làm giảm kỳ_vọng trẻ gen z chuyện hẹn_hò kết_hôn sinh con</t>
+  </si>
+  <si>
+    <t>gần 3 tháng man united vẫn chưa biết thua trên sân_nhà theanh28 lần gần nhất man_united thua trên sân_nhà trận_đấu gặp brighton vòng premier_league diễn hồi 7 8 như vậy kể ngày đó tới nay thì man united vẫn chưa biết mùi thua đá trên sân_nhà old_trafford</t>
+  </si>
+  <si>
+    <t>thầy ten hag xác_nhận ronaldo từ_chối sân theanh28 phát_biểu cuộc họp_báo trước thềm trận_đấu giữa man_utd chelsea diễn lúc 23h30 ngày_mai 22 10 hlv erik ten_hag khẳng_định cristiano_ronaldo từ_chối sân muốn đưa ronaldo sân thay phút 87 man utd dẫn 2 0 quyết_định sân bỏ ngay đó hành_động ronaldo khiến man utd cấm thi_đấu trận tiếp_theo gặp chelsea mức phạt cao nhất mà cr7 phải đối_diện 2 tuần lương tương_đương hơn triệu usd</t>
+  </si>
+  <si>
+    <t>giải_thưởng nhân_quyền lê đình lượng 2022 bảo_vệ chủ_quyền trước nguy_cơ trung quốc sẽ tổ_chức tokyo nhật bản việt_tân lúc đảng cộng_sản trung_quốc thách_thức trật_tự thế_giới gia_tăng hành_động quân_sự chèn_ép nước láng_giềng thì cầm_quyền cộng_sản tỏ rõ thái_độ hèn giặc ác dân hơn bao_giờ hết hà_nội chẳng_những lên_tiếng cảnh_báo nguy_cơ chủ_quyền quốc_gia xâm_phạm cùng nhân_dân tạo_dựng sức_mạnh dân_tộc chống ngoại_xâm mà họ còn đàn_áp bắt giam biểu_tình phản_đối trung_cộng nhu_cầu tạo nhận_thức mối đe_dọa ngoại bang ngày_càng trở_nên cấp_thiết hơn vì lý_do nên đảng việt_tân quyết_định giải_thưởng nhân_quyền lê đình_lượng 2022 mang chủ_đề bảo_vệ chủ_quyền trước nguy_cơ trung quốc chủ_đề đảng việt_tân muốn đề_cao sự hy_sinh rất hoạt_động đang giam_cầm hoặc đang tranh_đấu kêu_gọi sự quan_tâm đồng_bào như dư_luận thế_giới mối đe_dọa trung_quốc đối_với chủ_quyền như lê đình_lượng hoạt_động bất_chấp sự đàn_áp cầm_quyền can_đảm xuống đường biểu_tình chống trung_cộng giơ cao tấm biểu_ngữ lên_án hành_vi xâm_lược bắc_kinh như tổ_chức tưởng_niệm chiến_sĩ hy_sinh bảo_vệ hai quần_đảo trường_sa hoàng_sa thế nhưng hành_động bày_tỏ lòng yêu nước ôn_hòa họ nhà_nước cộng_sản khuyến_khích mà ngược_lại họ còn đàn_áp bắt giam quyền tự_do ngôn_luận tự_do tụ_họp quyền lên_tiếng bảo_vệ chủ_quyền đất_nước họ hà_nội tước_đoạt tất_cả cá_nhân hay tổ_chức hoạt_động mục_tiêu tạo sự quan_tâm đồng_bào thế_giới đối_với việc bảo_vệ chủ_quyền sẽ đối_tượng nhận giải_thưởng nhân_quyền lê đình_lượng 2022 tên cá_nhân hay tổ_chức tuyển_chọn sẽ công_bố thời_điểm đầu tháng 12 buổi lễ trao giải_thưởng nhân_quyền lê đình_lượng 2022 sẽ tổ_chức ngày 10 tháng 12 tokyo nhật_bản đánh_dấu ngày tuyên_ngôn_quốc_tế nhân_quyền ra_đời ngày_sinh_nhật lê đình_lượng đồng_thời sự_kiện tổ_chức nhật_bản nhằm thêm trao_đổi giới_chức chính_phủ nhật_bản thân hữu nhật việc có_thể cùng làm tạo sự quan_tâm thế_giới giúp ngăn_chặn hành_vi xâm_lấn trung_quốc chúng_tôi mong_mỏi giải_thưởng sẽ nỗ_lực đóng_góp cụ_thể nỗ_lực cảnh_báo mối đe_dọa trung_quốc như công_cuộc tranh_đấu tự_do dân_chủ yếu_tố không_thể thiếu tạo_dựng sức_mạnh dân_tộc chống ngoại_xâm</t>
+  </si>
+  <si>
+    <t>cha_mẹ luôn yêu_thương con vô_bờ_bến theanh28 hình_ảnh chủ quán cà_phê phường long_tuyền quận bình_thủy thành_phố cần_thơ ghi đăng_tải lên mạng xã_hội theo lời anh_chàng kể đó trời mưa tầm_tã gia_đình 3 ghé quán trú tạm gọi nước mẹ mang hộp cơm cả cùng nhau dùng_bữa ngừng thúc_giục con_trai ăn cơm mau rồi học nè con</t>
+  </si>
+  <si>
+    <t>tiếng chào cao hơn mâm cỗ sao việt_tân tiếng chào cao hơn mâm cỗ sao chỉ vậy_mà ngành csgt phải bỏ cả thời_giờ làm_việc soạn dự_thảo tào_lao quá</t>
+  </si>
+  <si>
+    <t>hơn 200 cửa_hàng 7 tỉnh_thành hết sạch xăng theanh28 chiều_tối 10 10 bộ công_thương báo_cáo tình_hình xăng dầu trên cả nước theo đó cơ_quan hơn 200 doanh_nghiệp kinh_doanh bán_lẻ xăng dầu xin đóng_cửa hoặc tạm ngừng kinh_doanh tập_trung tp hcm an_giang bình_phước đắk_lắk riêng tp hcm 121 cửa_hàng thông_báo tạm_thời hết xăng dầu qua kiểm_tra lực_lượng chức_năng xác_định_lý_do chính 121 cửa_hàng hết xăng do đặt xăng nhưng phía đơn_vị cung_cấp chưa phản_hồi hoặc chưa thông_tin thời_gian giao hàng</t>
+  </si>
+  <si>
+    <t>diễn_viên vua bịp tvb qua_đời như_anh diễn_viên dương_quần nổi_tiếng phim vua bịp đài tvb qua_đời tuổi 88 vì ung_thư bàng_quang</t>
+  </si>
+  <si>
+    <t>gen g có_thể khó vô_địch cktg 2022 vì lý_do đặc_biệt gamek vn lý_do đặc_biệt đang hâm_mộ đưa nhận_định khả_năng vô_địch cktg 2022 gen g</t>
+  </si>
+  <si>
+    <t>đề_xuất tư_nhân mua công_nghệ nước_ngoài làm đường_sắt hoài_thu đánh_giá không_thể mãi vay thuê đầu_tư ngoại xây từng tuyến đường_sắt đại_biểu hoàng_văn_cường đề_nghị dành phần nguồn_lực hỗ_trợ đầu_tư nước thực_hiện</t>
+  </si>
+  <si>
+    <t>lý_luận cùn tuyên_giáo truyền dư_luận viên giờ vẫn thay_đổi nhất_là giai_đoạn hiện_nay trước trọng triều kiến bắc_kinh việt_tân gặp pháp mỹ thì tuyên_truyền giặc đàn_bà đánh gặp trung_quốc bộ mày thích đánh lắm hả nó mạnh thế sao đánh</t>
+  </si>
+  <si>
+    <t>chủ chốt cưới ngay shiper chuyển_khoản 5 tỷ mua theanh28_entertainment em chẳng biết đây chuyện vui hay buồn nữa bác ạ dạo gần đây em làm_ăn gọi phất lên tí nên muốn đổi đón bố_mẹ lên cùng ông_bà hưởng tuổi già ngoài công_việc chính thì em vẫn chạy ship thêm đồ ăn vì cái đam_mê dịch_chuyển mình thế nên hôm xem em tiện mặc đồ shipper hãng mà luôn căn em xem thì khá mới khang_trang em ưng cái bụng lắm ấy thế_mà lúc em định chốt đơn thì chị chủ nhìn em cái đầu xuống chân rồi hỏi ủa em xem giùm ai à em lúc đứng hình mất 5 giây rồi hiểu vấn_đề em mới bảo chị chuẩn_bị hợp_đồng giúp em nhé em chốt căn cái lúc chị đơ rồi bảo em nổ ngon thì chuyển luôn tiền hợp_đồng chị sẵn chỉ cần kí xong em tăng xông quá làm_sao chuyển đc 5 tỷ mà ngay em gọi ngay con_em làm ngân_hàng thì nó bảo app mbbank em bh chuyển đc ngay mỗi lần đc chuyển 5 tỷ vì mb mới cái tính_năng tự_động chia nhỏ lệnh nên tiền ngay mà phí chỉ 9k9 lúc em làm luôn bác ạ ting cái bên điện_thoại em chị chủ nhận tiền bả đứng hình rồi bất_ngờ hỏi em em em người_yêu chưa làm chồng chị nhé ủa sao bác bác em lời khuyên</t>
+  </si>
+  <si>
+    <t>nóng trang nemo truy_tố khung hình_phạt cao nhất 2 t ù theanh28 ngày 7 10 tand q tp hcm xác_nhận nhận hồ_sơ viện ksnd q đối_với vụ án gây_rối trật_tự công_cộng theo đó viện ksnd q truy_tố bị_can n x h t 30 tuổi tên gọi khác trang_nemo p q q n n k cùng 23 tuổi n p t 31 tuổi p h n 24 tuổi cùng tội gây_rối trật_tự công_cộng cả 5 bị_can đều áp_dụng biện_pháp ngăn_chặn cấm khỏi nơi cư_trú đồng_thời đều truy_tố theo khoản điều 318 bộ_luật hình_sự khung hình_phạt cao nhất 2 t ù</t>
+  </si>
+  <si>
+    <t>phong_độ tuổi 86 tài_tử ỷ thiên_đồ long_ký nghinh_xuân vương đức_thuận từng đóng ỷ thiên_đồ long_ký 2019 đều_đặn đạp xe 25 km trượt_băng tập tạ tuổi 86</t>
+  </si>
+  <si>
+    <t>bất_ngờ xảy lượt trận uefa champions_league rạng sáng nay theanh28 real madrid đứt mạch 20 trận bất_bại juventus lần đầu loại khỏi vòng bảng kể 2013 messi tiếp_tục lập kỷ_lục trở_thành cầu_thủ lớn_tuổi nhất ghi 2 bàn kiến_tạo 2 lần trận_đấu champions_league haaland không_thể ghi_bàn lưới đội bóng cũ</t>
+  </si>
+  <si>
+    <t>đoàn_thiên_ân_diễn đầm dạ_hội cut out miss_grand tân_cao đẹp đoàn_thiên_ân_diện thiết_kế phong_cách gợi_cảm do đỗ_long thực_hiện_tại vòng bán_kết miss grand international 2022 tối 22 10</t>
+  </si>
+  <si>
+    <t>xây_dựng tp hcm trở_thành điểm tầng_lớp trung_lưu trí_thức sơn_hà 10 25 tới trình_độ phát_triển tp hcm phải ngang tầm thành_phố lớn châu á điểm tầng_lớp trung_lưu trí_thức theo tổng_bí_thư nguyễn phú_trọng</t>
+  </si>
+  <si>
+    <t>hoàng_bách tôi sợ vợ hoàng_dung tuấn_việt nhạc_sĩ hoàng_bách nói sợ biết_ơn vợ doanh_nhân thanh_thảo vì hy_sinh thấu_hiểu đồng_hành 16 qua</t>
+  </si>
+  <si>
+    <t>đoàn_thiên_ân_trượt top 10 miss_grand tân_cao đoàn_thiên_ân dừng top 20 miss grand international 2022 nhờ thắng giải bình_chọn khiến khán_giả tiếc_nuối</t>
+  </si>
+  <si>
+    <t>diệu_nhi tú hội_ngộ bạn_bè trước ngày cưới tân_cao cặp_sao tổ_chức bữa tiệc thân_mật cùng hội bạn đồng_nghiệp thân_thiết như trấn thành jun phạm ngô_kiến_huy trước ngày cưới</t>
+  </si>
+  <si>
+    <t>bộ tứ khuôn_mặt lãnh_đạo độc_tài kiên_quyết bám víu quyền_lực việt_tân bộ tứ khuôn_mặt lãnh_đạo độc_tài kiên_quyết bám víu quyền_lực trung_quốc tập_cận_bình nga putin nguyễn phú_trọng triều_tiên kim_jong_un điểm chung quốc_gia quyền tự_do dân_chủ bóp_nghẹt bỏ_tù đối_lập thanh_trừng bất_đồng chính_kiến</t>
+  </si>
+  <si>
+    <t>chín hộ dân sống trên nóc nhà_tù 113 năm_tuổi lê_tân chín hộ dân phường hồng_gai tp hạ_long mong tái_định_cư vì sống ngôi xây trên nóc trại_giam 113 tiềm_ẩn nguy_cơ sụt lún</t>
+  </si>
+  <si>
+    <t>đại_biểu đề_nghị cải_cách chính_sách tiền_lương 2024 viết_tuân đại_biểu nguyễn_huy_thái đề_nghị tăng lương cơ_sở 2023 nếu đất_nước tăng_trưởng kinh_tế tốt thì 2024 cải_cách chính_sách tiền_lương</t>
+  </si>
+  <si>
+    <t>phụ_nữ độc_thân chưa con ngày_càng giàu hơn zing vướng_bận chuyện gia_đình đặt nhu_cầu sự_nghiệp hưởng_thụ bản_thân làm ưu_tiên trước nhất phụ_nữ chọn kết_hôn hay con đang tích_lũy tài_sản hơn</t>
+  </si>
+  <si>
+    <t>blg muốn chiêu mộ 2 vô_địch cktg kỳ chuyển_nhượng cuối mùa giải 2022 thethaovanhoa vn blg đang tham_vọng xây_dựng dải ngân_hà thực_sự lpl mùa giải 2023</t>
+  </si>
+  <si>
+    <t>lễ rước dâu bằng xích_lô liêu hà_trinh tân_cao diễn_viên mc liêu hà_trinh chồng doanh_nhân anh_khoa rước dâu bằng dàn xích_lô theo phong_cách sài_gòn xưa</t>
+  </si>
+  <si>
+    <t>sở_hữu chéo doanh_nghiệp sân ngân_hàng vẫn phức_tạp anh_minh nhìn_nhận thị_trường trái_phiếu sở_hữu chéo ngân_hàng vừa_qua tồn_tại bất_ổn đại_biểu quốc_hội đề_nghị chính_phủ cần giải_pháp căn_cơ lành_mạnh hoá thị_trường</t>
+  </si>
+  <si>
+    <t>arsenal vẫn lạnh_lẽo vị_trí đầu_bảng 12 vòng_đấu theanh28 kết_thúc vòng 12 premier_league vị_trí trên bảng xếp_hạng thay_đổi arsenal vẫn giậm chân chỗ vị_trí đầu_bảng dù tối qua họ chỉ trận hòa giờ man city chỉ còn kém 2 điểm chiến_thắng 2 trước gà trống đại_gia newcastle lần đầu lọt top 4 khiến top 6 lúc nhìn quen bởi sự thiếu_vắng liverpool lữ_đoàn đỏ đang xếp thứ 8 vị_trí giúp vé dự cup châu âu</t>
+  </si>
+  <si>
+    <t>hot đoàn_thiên_ân_hội_ngộ top 4 mgv ntk quách thái_công tình_tứ bên bạn trai mừng sinh_nhật 8 tuổi shynh_house theanh28 tối qua mạng xã_hội xôn_xao hình_ảnh hoa_hậu đoàn_thiên_ân cùng top 4 miss grand vietnam 2022 đọ sắc outfit hồng cực cháy ngoài sự tham_gia nàng hậu buổi sinh_nhật mang phần ấm_cúng còn quy_tụ dàn sao cực chất hit chớ nên sớm chưa quên người_yêu cũ bước bên em gây chú_ý nhất sự xuất_hiện cặp đôi ntk quách thái_công bạn trai huy_yves tình_tứ bên nhau thưởng_thức màn trình_diễn đông_nhi hà_nhi trọng hiếu không_thể thiếu màn quẩy sung_sức dj mie</t>
+  </si>
+  <si>
+    <t>hàn_quốc tăng số_lượng nới lỏng yêu_cầu lao_động việt hồng_chiêu hàn_quốc nâng tỷ_lệ tuyển_dụng tối_đa lên 20 lao_động nước_ngoài trình_độ cao thị_thực e7 cần kinh_nghiệm tốt_nghiệp đại_học trở lên</t>
+  </si>
+  <si>
+    <t>nể đàn_ông dành 40 chăm_sóc mẹ vợ 115 tuổi chịu mặc áo phụ_nữ mẹ vợ vui_lòng th sinh mà người_ta phát_minh máy điều hòa nhiệt_độ lớn lên trưởng_thành thập_kỷ đầy biến_động lịch_sử cận_đại truƞǥ_quốc cụ li chứng_kiến sự sụp_đổ chế_độ phong_kiến trung_quốc thành_lập chính_phủ mới nội_chiến cách_mạng văn_hóa cải_cách mở_cửa cuối 70 thế_kỷ trước con_trai duy_nhất qua_đời cụ li chuyển tới sống cùng con_gái con rể đó nay tay đàn_ông lo_lắng cɦo mẹ vợ nɦư mẹ ruột mình lòng hiếu thɑ ̉ o vô_địch con rể còn thể_hiện bẳng việc chấp_nhận mặc áo vạt chéo phụ_nữ suốt cả mùa hè khiến bà mẹ vợ đau_buồn nguôi_ngoai trước cái chết chị_gái cách đây 20</t>
+  </si>
+  <si>
+    <t>h hen niê lên bìa tạp_chí thời_trang dubai tân_cao hoa_hậu h hen niê đẹp việt đầu_tiên xuất_hiện trên bìa tạp_chí thời_trang victor dubai</t>
+  </si>
+  <si>
+    <t>giằng_co tăng lương nhà_máy lê_tuyết lương tối_thiểu vùng tăng 7 nhà_máy đưa phương_án thương_lượng điều_chỉnh mức mới song dễ đạt thỏa_thuận công_nhân</t>
+  </si>
+  <si>
+    <t>tp hcm tạm ngưng cấp_nước hai quận trung_tâm hoàng_anh công_ty cấp_nước bến_thành sẽ tạm ngưng cấp_nước 22h ngày 17 9 6h ngày 18 9 trạm phân_phối nước số 2a điện_biên_phủ phường đa_kao quận</t>
+  </si>
+  <si>
+    <t>ca_sĩ hàn cưới nữ_hoàng trượt_băng thanh_thanh ca_sĩ ko_woo rim cưới kim_yuna cựu vận_động_viên biệt_danh nữ_hoàng trượt_băng hàn_quốc hơn 5 tuổi hôm 22 10</t>
+  </si>
+  <si>
+    <t>xoá độc_quyền dữ_liệu đất_đai thu_hằng sở tài_nguyên môi_trường tp hcm mở cổng dữ_liệu đất_đai môi_trường ứng_dụng_công phát_triển giúp_việc quản_lý tra_cứu thông_tin thuận_tiện</t>
+  </si>
+  <si>
+    <t>messi xác_nhận qatar 2022 sẽ kì world_cup cuối_cùng theanh28 siêu_sao argentina xác_nhận sẽ chia_tay đội_tuyển quốc_gia kỳ world_cup 2022 diễn qatar cuối nay qatar 2022 sẽ kỳ world_cup cuối_cùng tôi chắc_chắn như_vậy quyết_định đưa lionel messi nói</t>
+  </si>
+  <si>
+    <t>tp hcm chi xong gói hỗ_trợ thất_nghiệp 95 300 lao_động lê_tuyết bảo_hiểm xã_hội tp hcm chi gần 266 tỷ đồng 95 300 lao_động hưởng 8 3 3 triệu đồng gói bổ_sung quỹ bảo_hiểm_thất_nghiệp theo nghị_quyết 24</t>
+  </si>
+  <si>
+    <t>dòng chữ lạ viết trên tay hành_khách tàu_điện ngồi quá bất_ngờ th mới_đây dẫn cɦương trình trên đài phát_thanh úc tên emɱa_chow nhìn thấy dòng chữ lạ tàu_điện mà dòng chữ đó vɨết trên lưng bàn_tay hành_khách ngồi nhay trước chow biết chụp hình_ảnh dòng chữ đó vì ɦành khách kia cứ liên_tục đưa tay lên xoa gáy hình_ảnh mà chow đăng lên mɑ ̣ ng đó xem tới triệu lượt chia_sẻ nhanh_chóng như hiện_tượng viral trên mạng xã_hội</t>
+  </si>
+  <si>
+    <t>ăn bạch_tuộc sống phát_hiện bạch_tuộc con khoang miệng mỹ_nga báo đại_đoàn_kết phụ_nữ hàn_quốc 63 tuổi gặp phải sự_cố ăn món bạch_tuộc sống bà cảm_thấy ngứa râm_ran miệng như con vật gì đang bò</t>
+  </si>
+  <si>
+    <t>vpbank bạo tay chi 100 tỷ đồng tài_trợ bản_quyền world_cup theanh28 bóng_đá môn thể_thao yêu thích nhất xem trận bóng đỉnh_cao world_cup món ăn tinh_thần không_thể thiếu hàng chục triệu việt vì_vậy tài_trợ kinh_phí mua bản_quyền world_cup 2022 phù_hợp mong_muốn mang giá_trị thịnh_vượng tinh_thần cộng_đồng vpbank đúng tinh_thần sứ_mệnh vì thịnh_vượng mà vpbank đang thực_hiện</t>
+  </si>
+  <si>
+    <t>còn 4 4 triệu lao_động chịu ảnh_hưởng covid 19 hồng_chiêu lao_động mất việc nghỉ giãn việc quý iii còn 4 4 triệu giảm hơn nửa so quý trước thấp nhất đại_dịch xuất_hiện 2020</t>
+  </si>
+  <si>
+    <t>chính_thức netflix xác_nhận phát_hành độc_quyền toàn châu á series phim đầu_tiên mang tên kẻ độc_hành huỳnh_lập theanh28 kẻ độc_hành trải qua thời_gian hơn hậu_kì nội_dung vô_cùng ấn_tượng thế_giới tâm_linh sự đầu_tư chỉnh chu ekip theo chia_sẻ mới nhất ekip huỳnh_lập kẻ độc_hành phần tiền truyện web drama ai chết giơ_tay thời_lượng 8 tập phim sẽ đưa khán_giả câu_chuyện tâm_linh đậm chất như ma da vong tiền chủ cô_hồn ngoài đường phim sẽ phát_hành trên nền_tảng netflix ngày 28 10 2022</t>
+  </si>
+  <si>
+    <t>châu_tinh trì lần đầu dùng mạng xã_hội nghinh_xuân tài_tử hong_kong châu_tinh_trì 60 tuổi gây chú_ý lần đầu dùng mạng xã_hội tuyển nhân_sự</t>
+  </si>
+  <si>
+    <t>iphone 15 pro sẽ khai_tử nút vật_lý vozer chuyên_gia phân_tích ming chi kuo biết mẫu iphone 15 pro thế_hệ tiếp_theo có_thể hoán_đổi nút nguồn âm_lượng vật_lý bằng phiên_bản sử_dụng phản_hồi xúc_giác</t>
+  </si>
+  <si>
+    <t>bé trai nặng 5 kg chào_đời bằng phương_pháp sinh thường  mới_đây khoa_sản bệnh_viện đa_khoa huyện phú_bình thái_nguyên biết ngày hôm_qua 29 09 bác_sĩ vừa đỡ_đẻ thành_công sản_phụ 30 phút bé trai nặng 5 kg chào_đời an_toàn bằng phương_pháp sinh thường trước sự bất_ngờ toàn_bộ kíp đỡ_đẻ theo bác_sĩ trực_tiếp thực_hiện ca đẻ biết đây trường_hợp hiếm gặp em bé trọng_lượng lớn nhất trước nay chào_đời bệnh_viện bằng phương_pháp sinh thường</t>
+  </si>
+  <si>
+    <t>paris hilton tôi từng lạm_dụng tình_dục trường phương_mai paris hilton biết từng nhân_viên trường nội_trú utah quấy_rối tình_dục thời học_sinh</t>
+  </si>
+  <si>
+    <t>thành_công thất_bại đảng csvn nguyễn_hưng_quốc bộ_máy tuyên_truyền cầm_quyền hoàn_toàn thất_bại việc thuyết_phục dân_chúng họ đang quan_tâm độc_lập chủ_quyền đất_nước nhưng họ thành_công việc họ làm đại đa_số dân_chúng mặc_kệ tất_cả điều đó mặc_kệ hoàng_sa trường_sa mặc_kệ biển_đông mặc_kệ danh_dự tổ_quốc mặc_kệ hết mọi chỉ lo cái mình chiếc xe mình bữa ăn_nhậu tràn_trề bia rượu mình nó đúng cái cảnh chế_lan_viên tự phê_phán mình ngày trước lũ chúng_ta ngủ giường chiếu hẹp giấc mơ con đè nát cuộc_đời con hạnh_phúc đựng tà_áo đẹp mái yên rủ bóng xuống tâm_hồn cái đảng cộng_sản phê_phán ngày_trước cái họ đang làm bây_giờ</t>
+  </si>
+  <si>
+    <t>bắt_giữ 5 cụ bà u70 chơi xóc_đĩa online theanh28 công_an quận ba_đình hà_nội vừa bắt_giữ 5 đối_tượng liên_quan việc tổ_chức đánh_bạc bằng hình_thức chơi xóc_đĩa trên trang_web đánh_bạc online lva788 com tang_vật thu_giữ khoảng 17 triệu đồng_tiền_mặt 5 điện_thoại_di_động laptop cùng đồ_vật liên_quan danh_tính đối_tượng xác_định tr thị_m sn 1967 trúc bạch ba_đình hà_nội v thị_y sn 1962 đống_mác hai bà trưng hà_nội ng thị_kh sn 1952 thanh_lương hai bà trưng hà_nội đ t thanh_th sn 1962 nguyễn_du hai bà trưng hà_nội ng thị_tuyết m sn 1957 trúc bạch ba_đình hà_nội</t>
+  </si>
+  <si>
+    <t>hôm_nay bộ giao_thông vận_tải y_tế bộ_trưởng mới viết_tuân quốc_hội sẽ phê_chuẩn bổ_nhiệm nhân_sự bộ_trưởng giao_thông vận_tải y_tế bầu tổng_kiểm_toán nhà_nước bằng hình_thức bỏ_phiếu kín chiều 21 10</t>
+  </si>
+  <si>
+    <t>thạch_thu_thảo mang trang_phục sếu đầu_đỏ thi miss_earth hoàng_dung thạch_thu_thảo chọn bộ dạ_hội lấy cảm_hứng loài sếu đầu_đỏ truyền_tải thông_điệp bảo_vệ động_vật hoang_dã miss earth 2022</t>
+  </si>
+  <si>
+    <t>trọng đảng hãy học đài_loan vũ_việt đài_loan lãnh_thổ trung_hoa lục_địa đảo nhỏ sát bên trung_cộng dân_số đài_loan chỉ khoảng 24 triệu dân nhưng họ chưa bao_giờ khuất_phục trước đảng cộng_sản tq trung_cộng chưa bao_giờ dám tấn_công đài_loan dân_số lớn gấp 4 lần đài_loan lãnh_thổ lớn gấp gần 10 lần đài_loan cớ_sao đảng trọng phải quỵ lụy trung_cộng chính_phủ đài_loan chẳng màng chuyện đại_hội đảng tập bầu ta thế_nào họ cần phải qua gặp tập điều mà đài_loan làm lo phát_triển xây_dựng lực_lượng phòng_thủ tốt trung_cộng từng tấn_công lần thời đảng trọng cầm_quyền qua đó liệu ngăn_chặn tham_vọng lưỡi bò biển_đông hèn_yếu chính sự mời_gọi nước khác xâm_chiếm</t>
+  </si>
+  <si>
+    <t>sao friends ghét keanu_reeves phương_mai matthew_perry đóng chandler_bing friends nói tự_truyện rằng từng ước keanu reeves chết thay bạn thân</t>
+  </si>
+  <si>
+    <t>bom tấn kinh_dị mồi quỷ dữ trải nghiệm trừ_tà kinh_hoàng dịp halloween theanh28 thanh_niên nào cảm_thấy cuộc_sống mình chưa đủ mệt_mỏi thì nên trải nghiệm bộ phim mồi quỷ dữ tăng thêm nhịp tim thử_thách cuộc_sống bộ phim xoay quanh xơ ann phụ_nữ đầu_tiên phép chủ_trì buổi lễ trừ t à đó phát_hiện hàng_loạt câu_chuyện đáng sợ quá_khứ mình</t>
+  </si>
+  <si>
+    <t>hoài lâm quay trở_lại rồi_đây theanh28 mới_đây hoài_lâm chính_thức comeback đêm nhạc hoa nở màu đà_lạt tối 15 10 thu_hút hơn 800 xem nam ca_sĩ gây chú_ý xuất_hiện ngoại_hình khác_biệt lần tái_xuất hoài_lâm lúc hát chênh phô quên lời lâm lần gập cảm_ơn khán_giả thông_cảm bỏ_qua mình sai_sót</t>
+  </si>
+  <si>
+    <t>nha_trang muốn giữ phần resort dọc biển phục_vụ dân bùi_toàn chính_quyền nha_trang kiến_nghị giữ một_số công_trình resort dài 400 m dọc đường trần_phú phải di_dời phục_vụ dân du_khách</t>
+  </si>
+  <si>
+    <t>cuộc_sống con_người sẽ như thế_nào 50 nữa báo phụ_nữ thay_đổi thế_kỷ 21 sẽ do hai yếu_tố chính thúc_đẩy đó sự tiến_bộ nhanh công_nghệ sự_biến_đổi xấu khí_hậu môi_trường</t>
+  </si>
+  <si>
+    <t>có_thể tồn_tại sự sống trên mặt_trăng sao thổ vtv vn nghiên_cứu mới công_bố trên tạp_chí khoa_học vũ_trụ thấy khả_năng tồn_tại sự sống trên mặt_trăng enceladus sao thổ</t>
+  </si>
+  <si>
+    <t>qua campuchia làm tôi mạnh_mẽ hơn  t sang cam làm_ăn đéo phải casino t biết hết đường tiểu_ngạch anh_em biên_phòng quen_mặt nên soát kĩ tháng t 10 lần</t>
+  </si>
+  <si>
+    <t>trứng gà giả làm cao_su gây xôn_xao tiktok chuyên_gia nói gì vietnamnet xem xong video bình_luận sợ_hãi loại trứng gà giả làm cao_su liệu thực_tế có_thể loại trứng như</t>
+  </si>
+  <si>
+    <t>mạng_lưới dư_luận viên tấn_công_xã_hội dân_sự việt nam facebook phải hành_động việt_tân bắt_đầu_từ khoảng ngày 20 10 mạng_lưới tinh_vi tài_khoản facebook giả xả rác spam trang facebook hoạt_động nổi_tiếng hàng chục hoạt_động báo_cáo rằng tài_khoản facebook họ spam bởi lời bình_luận lặp_đi lặp_lại dùng xác_định nạn_nhân cuộc tấn_công bot phải đặt tài_khoản họ chế_độ riêng_tư ngăn_chặn bình_luận rác trang facebook hơn triệu theo_dõi bao_gồm việt_tân trang việt_ngữ đài_á châu tự_do đài_tiếng_nói hoa_kỳ nhắm mục_tiêu tất_cả tài_khoản trang facebook nhắm mục_tiêu đều thuộc hoạt_động phương_tiện truyền_thông độc_lập bình_luận rác vu_cáo rằng việt_tân bỏ_rơi thành_viên tổ_chức thái_lan đang xin tỵ nạn chính_trị bình_luận mẫu bao_gồm lãnh_đạo việt_tân hãy kế thoát kiếp lưu_vong việt_tân hãy đưa rời khỏi thái_lan hãy trả ơn kế kể ngày 28 tháng 10 cuộc tấn_công bot vẫn tiếp_tục dường_như_không cản_trở mặc_dù nạn_nhân cố_gắng báo_cáo hành_vi lạm_dụng rõ công_ty meta đang theo_dõi sự_việc hay thực_hiện bất_kỳ hành_động nào hay 2021 tố_giác frances_haugen tiết_lộ rằng giám_đốc điều_hành facebook biết sự hiện_hữu mạng_lưới tấn_công đối_thủ chuyên thực_hiện cuộc phối_hợp tấn_công bằng cách thực_hiện hàng_loạt báo_cáo sai xả rác spam lời đe_dọa khiêu_khích theo tài_liệu nội_bộ facebook công_ty đánh_giá rằng khả_năng trung_bình cao hoạt_động ủy quyền chỉ_đạo bởi chính_phủ quân_đội tài_liệu nội_bộ công_ty đề_cập sự tồn_tại 15 triệu tài_khoản giả gần đây cái gọi dư_luận viên do cầm_quyền điều_khiển spam tài_khoản facebook nhóm xã_hội dân_sự thông_tin sai_lệch đội quân dư_luận viên đưa lời đe_dọa hành_hung chuyên đồng_loạt lợi_dụng báo_cáo nội_dung trang chỉ_trích nhà_nước facebook gỡ xuống việt_tân kêu_gọi meta hành_động ngay lập_tức xóa tài_khoản giả đóng mạng_lưới hại bảo_đảm mạng xã_hội an_toàn chúng_tôi kêu_gọi tất_cả nạn_nhân đội quân dư_luận viên csvn tấn_công hãy báo_cáo tài_khoản giả lực_lượng dư_luận viên đồng_thời tất_cả chúng_ta hãy cùng đăng trên trang facebook mình lời yêu_cầu công_ty facebook phải dẹp bỏ_mạng_lưới tài_khoản giả đội quân dư_luận viên</t>
+  </si>
+  <si>
+    <t>tp hcm sắp thêm hơn 2 000 xã_hội gia_minh hai dự_án xã_hội 2 064 căn xây quận 7 tp thủ_đức cuối tháng 8 giúp công_nhân thu_nhập thấp dễ tiếp_cận theo sở xây_dựng thành_phố</t>
+  </si>
+  <si>
+    <t>phương_trinh_jolie tôi sợ sinh_nhật tân_cao ca_sĩ phương_trinh jolie nói sợ sinh_nhật vì cảm_giác mình già dù vậy hạnh_phúc vì đón tuổi mới quây_quần bên chồng_con</t>
+  </si>
+  <si>
+    <t>cuộc_sống tiêu_ân_tuấn ly_hôn như_anh tiêu_ân_tuấn sao đài_loan đóng tiểu_lý phi_đao dành thời_gian đam_mê nhiếp_ảnh ly_dị 2020</t>
+  </si>
+  <si>
+    <t>thanh_niên chỉ còn triệu tài_khoản vẫn tự_tin đặt mua iphone 14 tặng crush theanh28_entertainment theo ghi_nhận p v đ chỉ còn vỏn_vẹn triệu đồng tài_khoản vẫn hết_sức tự_tin đặt iphone 14 chính hãng sự ngỡ_ngàng phần bốc_đồng mấy bạn hỏi chi_tiết hơn đ chia_sẻ bản_thân tin rằng món quà sẽ giúp đ người_yêu ngay lập_tức hỏi bí_quyết gì khiến đ tự_tin vậy anh_chàng biết thành_công săn ưu_đãi khủng nhất thị_trường đợt pre order mở thanh_toán bằng thẻ tín_dụng tpbank evo tích_góp thêm ưu_đãi bán_lẻ cộng tiện_ích thẻ hoàn tiền 10 lên 500k tháng chi_tiêu online thì đ khẳng_định sẽ mua iphone 14 giá chỉ bằng iphone 13 còn việc dù tài_khoản còn số tiền khiêm_tốn mà vẫn mạnh_mẽ chinh_phục sản_phẩm hot nhất hiện_nay thì đ nói thêm thẻ tín_dụng tpbank evo miễn lãi 45 ngày chuyển_đổi trả_góp 0 lãi_suất</t>
+  </si>
+  <si>
+    <t>lao_động nghỉ 3 ngày tết_dương_lịch 2023 hồng_chiêu lao_động nghỉ 31 12 2022 hết 2 2023 do tết_dương_lịch rơi chủ_nhật nên nghỉ bù thứ hai tuần kế_tiếp</t>
+  </si>
+  <si>
+    <t>justin_bieber cắt đứt quan_hệ kanye_west tam_kỳ ca_sĩ justin_bieber biết cắt đứt quan_hệ kanye west rapper chỉ_trích vợ người_mẫu hailey_bieber</t>
+  </si>
+  <si>
+    <t>anna việt nam chính_thức khởi_tố theanh28 chiều 12 10 thượng_tá trần_long_khánh thủ_trưởng cơ_quan cảnh_sát điều_tra công_an tp phan_thiết tỉnh bình_thuận ký quyết_định khởi_tố vụ án hình_sự đối_với n t v a tina_dương tội lạm_dụng tín_nhiệm chiếm_đoạt tài_sản</t>
+  </si>
+  <si>
+    <t>dự_án công_viên hà_nội chậm tiến_độ võ_hải 9 dự_án công_viên mới hà_nội chưa khởi_công hoặc chưa hoàn_thành việc cải_tạo công_viên cũ gặp bất_cập theo sở xây_dựng hà_nội</t>
+  </si>
+  <si>
+    <t>gong hyo jin cưới mỹ như_anh gong hyo_jin diễn_viên hàn đóng hoa trà nở kết_hôn ca_sĩ kevin oh ngày 11 10</t>
+  </si>
+  <si>
+    <t>thoát nghèo nhờ liên_kết trồng rau_sạch lê_hải mô_hình liên_kết trồng rau_sạch xã quyết_tiến quản_bạ giúp dân nâng cao thu_nhập cải_thiện đời_sống</t>
+  </si>
+  <si>
+    <t>biển ngoài hành_tinh sâu 100 mét thế_giới y_hệt trái_đất cổ_đại thư báo nlđ khoa_học nasa xác_định vùng_biển mê tan lỏng sâu 100 mét mặt_trăng titan sao thổ nơi mà khí_hậu địa_hình bản_sao hoàn_hảo trái_đất vài tỉ trước</t>
+  </si>
+  <si>
+    <t>nhà_máy đỏ mắt tìm dù công_nhân thất_nghiệp  thị_trường lao_động đối_mặt nghịch_lý hàng_loạt công_nhân thất_nghiệp do nhà_máy giảm đơn hàng song doanh_nghiệp mở_rộng sản_xuất khó tuyển</t>
+  </si>
+  <si>
+    <t>phạt 7 5 triệu đồng vì đăng tin sai sự_thật theanh28 h n s trú quận cẩm_lệ thành_phố đà_nẵng lực_lượng chức_năng xử_phạt hành_chính số tiền 7 5 triệu đồng vì hành_vi cung_cấp hình_ảnh sai sự_thật trên mạng xã_hội cụ_thể cung_cấp hình_ảnh hộp cơm thịt chuột học_sinh</t>
+  </si>
+  <si>
+    <t>rộ tin tỷ_phú phạm nhật_vượng cấm xuất_cảnh việt_tân_page facebook gần đây tỷ_phú liên_tục thanh_trừng flc tân_hoàng_minh tân_tạo nếu vingroup phạm nhật_vượng mục_tiêu tiếp_theo thì chính_trường thời_gian tới sẽ rất biến_động lớn</t>
+  </si>
+  <si>
+    <t>biểu_tình ủng_hộ dân iran diễn khắp nơi trên thế_giới hồng_hà theo tờ the_guardian cuộc biểu_tình diễn berlin mà cảnh_sát biết thu_hút hơn 80 000 số cuộc biểu_tình khắp thế_giới bao_gồm cả úc nhật_bản đây cuộc biểu_tình lớn nhằm thể_hiện_tình đoàn_kết biểu_tình iran đồng_thời kêu_gọi chính_phủ dân_chủ hãy ngưng đàm_phán nhà_nước tội_phạm gọi cộng_hoà hồi_giáo ban tổ_chức dự_kiến ban_đầu 50 000 tham_gia nhưng đó thu_hút hơn 80 000 cảnh_sát báo_cáo cuộc tuần_hành sự_cố rắc_rối nào chỉ bắt_đầu sự_kiện pháo_hoa đốt cuộc tuần_hành berlin cuộc biểu_tình lớn nhất trước nay iran nước_ngoài iran nước đang cung_cấp vũ_khí drone nga cuộc xâm_lược ukraina sớm_muộn gì chế_độ kh ủng b ố như nga iran sẽ cả thế_giới tẩy_chay</t>
+  </si>
+  <si>
+    <t>vợ_chồng chàng chân thanh_minh việc yêu vì tiền nhận tiền mừng trăng_mật th đám_cưới anh_chàng chân tô_đình khánh diễn cách đây vài ngày nhưng vẫn còn dư_âm lớn trên mạng xã_hội anh_chàng kết_hôn cùng bạn ǥái xinh_đẹp trần_thương hôn_lễ kết_thúc ngày thấy khánh bắt_đầu livestream bán hàng trở_lại rất đông dùng mạng hỏi_thăm vì_sao nghỉ_ngơi hay tuần_trăng_mật khánh chia_sẻ thật lòng đám_cưới vợ khánh khỏe nên livestream một_mình khánh biết vợ_chồng thống_nhất sẽ dùng số tiền hưởng tuần_trăng_mật làm từ_thiện chuyện tiền mừng xem livestream muốn chuyển_khoản nhưng cương_quyết nhận</t>
+  </si>
+  <si>
+    <t>vợ gào khóc bên thi_thể chồng theanh28_entertainment đừng vì vài_ba cốc bia chén rượu mà làm khổ đêm qua vụ tai_nạn thương_tâm xảy trên đường minh_khai hai bà trưng hà_nội nạn_nhân nam thanh_niên khoảng 30 tuổi uống quá_chén làm_chủ tốc_độ lao cột điện ven đường t ử v ong tại_chỗ liên_hệ người_thân thì ngay lập_tức vợ nam thanh_niên tới ngã khuỵu xuống đường gào khóc bên cạnh thi_thể chồng đừng vì chén chú chén mà cuối_cùng chịu thiệt_thòi đau_thương chính người_thân mình anh_em nhé</t>
+  </si>
+  <si>
+    <t>bình_phước tham_gia liên_kết vùng xuất_khẩu nông_sản thế_đan bảy tỉnh gồm bình_phước bình_dương tây_ninh đồng_nai lâm_đồng đắk nông đắk_lắk xây_dựng vùng trồng đăng_ký xuất_khẩu trung_quốc</t>
+  </si>
+  <si>
+    <t>tp hcm 20 khu đất xây xã_hội lê_tuyết 20 khu đất rộng 38 ha thuộc đề_án đầu_tư xây ít_nhất triệu căn_hộ thu_nhập thấp công_nhân khu công_nghiệp thành_phố theo sở xây_dựng tp hcm</t>
+  </si>
+  <si>
+    <t>david de gea lỡ hẹn world_cup 2022 theanh28 mới_đây tờ báo as uy_tín tây_ban_nha biết thủ_môn david_de gea sẽ lỡ hẹn world_cup 2022 gạt khỏi danh_sách sơ_bộ 55 tuyển_thủ tây_ban_nha hlv luis_enrique</t>
+  </si>
+  <si>
+    <t>gói hỗ_trợ tiền trọ giải_ngân hơn 50 hồng_chiêu gói hỗ_trợ tiền trọ nhằm kéo lao_động quay thị_trường mới giải_ngân hơn 3 500 tỷ đồng đạt 54 5 theo bộ lao_động thương_binh xã_hội</t>
+  </si>
+  <si>
+    <t>bạn trai tỏ_tình châu_tấn như_anh ca_sĩ trác việt 35 tuổi bày_tỏ tình_cảm châu_tấn dịp sinh_nhật diễn_viên 48 tuổi</t>
+  </si>
+  <si>
+    <t>công_nhân xoay_xở nhà_máy ít việc giảm lương lê_tuyết kỳ_vọng đơn hàng_phục_hồi dịch song gần đây sức_mua thị_trường lớn như mỹ châu âu giảm mạnh khiến nhà_máy giảm việc công_nhân dệt may điện_tử gặp khó_khăn</t>
+  </si>
+  <si>
+    <t>đau_lòng bé trai 4 tuổi t ử v ong bất_thường trường_học theanh28 khoảng 14h chiều nay giấc_ngủ trưa như_thường_lệ trường mầm_non bắc_sơn nhóm trẻ cùng dậy tiếp_tục buổi học chiều nhưng cháu phạm_thái s sn 2018 lớp nhỡ 2 dậy cô_giáo kiểm_tra thì phát_hiện cháu còn cử_động sự_việc nhanh_chóng báo lên ban giám_hiệu nhà_trường đồng_thời cõng cháu đưa cấp_cứu phòng_khám đa_khoa khu_vực bắc_sơn nhưng bác_sỹ kết_luận cháu t ử v ong trước phòng_khám</t>
+  </si>
+  <si>
+    <t>bà nội đưa cháu dɑ ̣ o thì đau bụng bèn bé ngoài một_mình con dâu nóng_mặt đòi trả ʋề gấp th mẹ trẻ cɦo biết vốn_dĩ hôm đó ʋề sớm hơn thường_lệ bộ xa thấy thấp thoɑ ́ ng bóng mẹ chồng con_trai nhỏ 9 tháng chiều nào bà đưa cháu dɑ ̣ o chủ_yếu muốn gặp già khác xung_quanh trò_chuyện tán_gẫu con dâu hài_lòng chút nào vì có_khi trời vừa mưa xong thì bà vẫn đưa cháu dɑ ̣ o tuy_nhiên vẫn bỏ_qua tất_cả ƭận mắt chứng_kiến cảnh con_trai nhỏ chơ_vơ ngoài đường một_mình</t>
+  </si>
+  <si>
+    <t>kanye_west đối_mặt vụ kiện 250 triệu usd thanh_giang rapper kanye_west đối_mặt vụ kiện 250 triệu usd do bình_luận sai cái chết đàn_ông da_màu george_floyd</t>
+  </si>
+  <si>
+    <t>thiên_ân cơ_hội top 20 miss grand_international tân_cao đẹp đoàn_thiên_ân vượt thí_sinh thái_lan lượt bình_chọn cơ_hội top 20 chung_cuộc miss grand international 2022</t>
+  </si>
+  <si>
+    <t>nịnh_thần trung_quốc việt_tân càng gần thời_điểm tổng_bí_thư nguyễn phú_trọng sang chầu trung_quốc đám quan nịnh thần bắt_đầu bật loa ca_ngợi thiên_triều</t>
+  </si>
+  <si>
+    <t>sao đài_loan bán hàng_chợ đêm bê_bối như_anh vương_tín_tường sao đài_loan từng đóng hoàng_tử ếch mở sạp đồ ăn_ở chợ đêm scandal quấy_rối tình_dục</t>
+  </si>
+  <si>
+    <t>nội_dung bài phát_biểu hoàng tứ duy tổng_bí_thư đảng việt tân chuyến vận_động dân_chủ nhân_quyền việt nam quốc_hội canada việt_tân cảm_ơn quý_vị tham_dự buổi tiếp_tân hôm_nay tôi muốn chia_sẻ quý_vị tầm nhìn việt_tân đối_với tầm nhìn liên_quan như thế_nào lợi_ích canada vùng ấn_độ_dương thái_bình_dương gì chúng_ta có_thể làm thúc_đẩy lợi_ích chung mà tôi tin rằng đó tự_do dân_chủ hơn tôi nghĩ cách tốt nhất mô_tả ngày_nay giống như ly nước trên mặt đó ly nước nửa đầy dân năng_động làm_việc chăm_chỉ vị_trí chiến_lược tất_nhiên món ăn tuyệt_vời nền văn_hóa sôi_động nhưng ly nước nửa cạn sự phát_triển đồng_đều mức_độ tham_nhũng đàn_áp chính_trị trầm_trọng hàng trăm tù_nhân chính_trị rất mâu_thuẫn chính_phủ muốn thúc_đẩy kinh_tế tri_thức nhưng hạn_chế internet họ nói biến_đổi khí_hậu nhưng giam_giữ hoạt_động môi_trường đang hoạt_động sự thay_đổi tóm đó quốc_gia tiềm_năng to_lớn nhưng kìm_hãm bởi hệ_thống độc_tài cụ_thể đảng duy_nhất cầm_quyền còn theo chủ_nghĩa mác nhưng vẫn còn theo sát chủ_nghĩa lê nin ai biết rằng hệ_thống chính_trị tốt tuy_nhiên một_số bên ngoài có_thể nghĩ rằng thế_giới cần quan_tâm điều nhưng nay chúng_ta nhắc_nhở rằng thể_chế chuyên_quyền điều đáng lo_ngại cách chế_độ đối_xử dân mình ảnh_hưởng nước láng_giềng cộng_đồng quốc_tế rộng_lớn hơn cuộc xâm_lược ukraine chúng_ta thấy cách bạo_chúa tầm nhìn sai_lệch thế_giới có_thể gây rất đau_khổ nước láng_giềng chính dân mình gây nguy_hiểm phần còn thế_giới trung_quốc chúng_ta thấy chế_độ độc_tài vừa mối đe_dọa đối_với công_dân sống bên biên_giới nước vừa mối đe_dọa đối_với toàn_bộ khu_vực may_mắn thay phần_lớn thế_giới tập_hợp hỗ_trợ ukraine ngày_càng lãnh_đạo ủng_hộ đài_loan dân_chủ nhưng một_số quốc_gia hầu_hết đều hồ_sơ nhân_quyền tồi_tệ đang gây trở_ngại sự đồng thuận quốc_tế nước cộng_hòa xã_hội chủ_nghĩa quốc_gia như_vậy mọi cuộc bỏ_phiếu đại_hội_đồng liên_hiệp_quốc nay lên_án việc nga xâm_lược ukraine hành_động tàn_bạo đối_với thường_dân việc sáp_nhập bất_hợp_pháp lãnh_thổ ukraine chính_quyền hà_nội đều bỏ_phiếu_trắng đúng_ra vì lợi_ích chính mình cần ủng_hộ hệ_thống quốc_tế quốc_gia tôn_trọng hiến_chương liên_hiệp_quốc nguyên_tắc quốc_gia lớn hơn bắt_nạt nước láng_giềng nhỏ hơn tuy_nhiên vì bản_chất chuyên_quyền họ chế_độ hà_nội không_thể hành_động vì lợi_ích quốc_gia trên thực_tế hà_nội đang gây mất ổn_định khu_vực bằng cách lên kế_hoạch tập_trận nga đứng phía quân_đội myanmar gần đây nhất tham_gia hội_đồng nhân_quyền liên_hiệp_quốc che_đậy hành_vi vi_phạm_nhân_quyền chúng_tôi việt_tân hình_dung tôn_trọng chuẩn_mực quốc_tế trật_tự dựa trên luật_lệ đất_nước như_vậy sẽ tạo nên hiệp_hội quốc_gia đông_nam_á asean tự_do hơn đó có_thể giúp kiềm_chế khuynh_hướng tồi_tệ nhất bắc_kinh như_vậy sẽ dễ_dàng thu_hút nhân_tài sự ủng_hộ đông_đảo cộng_đồng việt nước_ngoài bao_gồm hàng trăm ngàn canada nhập_cư gốc việt thuộc thế_hệ thứ nhất thứ hai cộng_đồng có_thể đóng vai_trò cầu_nối giữa hai quốc_gia nâng cao vị_thế canada tư_cách quốc_gia ấn_độ_dương thái_bình_dương quyền_lực mềm canada vậy chúng_ta có_thể làm gì thứ nhất không_thể bỏ_qua chế_độ hà_nội làm đúng trách_nhiệm điều có_nghĩa_là thúc_giục chính_quyền hà_nội tôn_trọng cam_kết quốc_tế mà họ ký nay thành_viên hội_đồng nhân_quyền liên_hiệp_quốc càng phải trách_nhiệm hơn nữa thứ hai lên_tiếng chống hành_vi vi_phạm_nhân_quyền ví_dụ nghị_sĩ có_thể cân_nhắc việc nhận bảo_trợ tù_nhân lương_tâm vận_động họ trả tự_do thứ_ba canada nên làm_việc trực_tiếp dân bằng cách hỗ_trợ tổ_chức xã_hội dân_sự độc_lập đây lĩnh_vực mà cơ_quan đại_diện ngoại_giao canada có_thể tăng_cường nỗ_lực hiện_tại họ chúng_ta đều đồng_ý rằng vai_trò quan_trọng chiến_lược ấn_độ_dương thái_bình_dương canada câu hỏi đặt như thế_nào sẽ đối_tác đáng tin_cậy hơn chúng_tôi tin rằng vì lợi_ích chung cần phải quốc_gia tự_do dân_chủ cảm_ơn quý_vị</t>
+  </si>
+  <si>
+    <t>indonesia bạo_loạn trận bóng_đá ít_nhất 127 qua_đời khoảng 180 bị_thương theanh28 tối 10 2022 trận đấu arema persebaya giải vđqg indonesia tổ_chức trên sân kanjuruhan tỉnh đông_java như_thường_lệ hơn 40 000 khán_giả chật kín sân theo_dõi trận_đấu 2 trận thua liên_tiếp trên sân_nhà arema tiếp_tục phong_độ tốt thua persebaya chung_cuộc 2 3 thất_vọng trận thua đội chủ cđv quá_khích tràn xuống sân đ ập p há tạo nên khung_cảnh hỗn_loạn lực_lượng an_ninh bố_trí mỏng nên không_thể kiểm_soát đám đông</t>
+  </si>
+  <si>
+    <t>con làm bài 1h sáng chưa xong bố bức_xúc nhắn nhóm chat học_sinh thức ngủ th cháu en nay lớp mà thấy lúc_nào học miết nhớ hồi xưa hết 3 cấp 3 chẳng học thêm học nếm gì giờ thì thời_thế thay_đổi cháu nào như cháu nấy học cứ gọi liên_tục sáng tới tối thôi mẹ ạ kể sương sương thì sáng chiều học chính khóa trên lớp xong xíu rồi học thêm học thêm xong tối làm bài_tập khuya lắc khuya lơ mới ngủ mà gần như ngày nào học thêm cuối tuần thì học ƞǥoại khóa học ngoɑ ̣ i ngữ tham_gia cái cái kia nhìn thằng cháu đúng bơ_phờ nghĩ mà thươƞǥ vì chẳng hiểu sao giờ học như thế nhưng nghỉ vì mẹ nó lo học chẳng bằng bạn bằng bè rõ khổ học đương_nhiên tốt nhưng học quá đến_nỗi nhìn phờ_phạc thế kia thì đúng đáng lo thật mẹ ạ trẻ nhỏ_tuổi cần ăn ngủ đầy_đủ còn nhìn thằng cháu em mới lớp mà bữa nào 10 11h đêm mới học xong thấy thương gì đâu mới_đây đọc trên mấy cái group vụ học_sinh làm bài_tập mãi 1h sáng vẫn cɦưa xong kết quɑ ̉ bố cậu bé nổi đóa vớ giáo_viên luôn nè mẹ</t>
+  </si>
+  <si>
+    <t>dự_án đô_thị biển đâu mà to thế bùi_quang_minh bạn 16 chữ vàng vàng trung_quốc xây trái_phép căn_cứ quân_sự trên biển_đông chỗ mấy đảo nhỏ chim thèm ỉa đấy đảo đá_vành_khăn đá_chữ_thập quần_đảo trường_sa thuộc chủ_quyền đấy ít tự_hào rằng ta khôn_ngoan khéo_léo suốt thời_gian qua bạn vàng cướp nổi gì cả mà cướp thì đời chưa đòi đời khôn_ngoan khéo_léo đòi buộc nó trả trả lởi câu hỏi phóng_viên phát_ngôn bộ ngoại_giao tuyên_bố đầy_đủ bằng_chứng lịch_sử cơ_sở pháp_lý khẳng_định mọi</t>
+  </si>
+  <si>
+    <t>selena_gomez gặp vợ justin_bieber phương_mai selena_gomez hailey_baldwin vợ justin_bieber gây bất_ngờ lần đầu chụp ảnh chung sự_kiện đồn bất_đồng</t>
+  </si>
+  <si>
+    <t>hà_nội nghiên_cứu thí_điểm làn_đường xe_đạp võ_hải tp hà_nội nghiên_cứu làn_đường xe_đạp phát_triển đồng_bộ_hạ_tầng giao_thông nhằm đảm_bảo trật_tự an_toàn giảm ùn_tắc</t>
+  </si>
+  <si>
+    <t>diva trần thu hà phan mạnh quỳnh chia_sẻ nhau giao_lộ thời_gian theanh28 diva nhạc việt dành lời khen tác_giả ca_khúc chàng trai viết lên cây phan_mạnh_quỳnh kho âm_nhạc phong_phú đa_dạng phong_cách chứ chỉ nhạc phim hay nhạc trữ_tình như mọi nói âm_nhạc phan_mạnh quỳnh viết giống như kể chuyện rất gần_gũi phong_cách tôi còn phan_mạnh_quỳnh vừa cảm_thấy vinh_dự nhưng rất áp_lực trước đàn chị diva phải danh_hiệu nói_chơi mà trải qua năm_tháng thể_hiện đẳng_cấp chị hà_trần còn quỳnh_chỉ mới diễn cách đây 2 chuẩn_bị sự thay_đổi âm_nhạc vì_thế nói đẳng_cấp ca_hát thì quỳnh_thua chị hà bậc việc kết_hợp chị hà giao_lộ thời_gian trải nghiệm khó quên</t>
+  </si>
+  <si>
+    <t>vtv chính_thức sở_hữu bản_quyền world_cup 2022 theanh28 vtv vừa chính_thức công_bố trở_thành đơn_vị sở_hữu bản_quyền truyền_thông fifa world_cup 2022 vtv gửi lời cảm_ơn sự đóng_góp tài_trợ quan_trọng đơn_vị đồng_hành đó 2 tập_đoàn 4 ngân_hàng</t>
+  </si>
+  <si>
+    <t>địa_phương đau_đầu vì lao_động xuất_khẩu bỏ trốn hồng_chiêu gần 900 lao_động cư_trú bất_hợp_pháp chiếm 8 8 6 000 làm_việc hàn_quốc tỉnh thanh_hóa tìm mọi cách xử_lý song hiệu_quả</t>
+  </si>
+  <si>
+    <t>đội_tuyển nữ cùng bảng mỹ hà_lan world_cup 2023 theanh28 theo kết_quả bốc_thăm vòng bảng world_cup 2023 đội nữ nằm bảng_đấu rất khó_khăn theo đó chúng_ta nằm bảng e đối_thủ mỹ đương_kim vô_địch thế_giới hà_lan đương_kim á quân thế_giới đội thắng play off nhánh a cameroon thái_lan hoặc bồ_đào_nha giải world_cup nữ 2023 sẽ diễn ngày 20 7 20 8 2023 hai quốc_gia new_zealand australia bảng_e đội nữ sẽ thi_đấu new_zealand</t>
+  </si>
+  <si>
+    <t>kiến_nghị sửa luật bổ_sung nơi sinh hộ_chiếu sơn_hà đại_biểu_kiến_nghị đưa nội_dung sửa luật xuất_cảnh nhập_cảnh công_dân chương_trình kỳ họp quốc_hội thứ_tư nhằm bổ_sung nơi sinh hộ_chiếu</t>
+  </si>
+  <si>
+    <t>bác_sĩ m ổ tim cả ngày thù_lao 140 000 đồng theanh28 đứng m ổ tim bệnh_nhân suốt 7h 16h ngày tiền công chỉ 140 000 đồng khiến bác_sĩ e_ngại chọn ngành ph ẫu thu ật tim</t>
+  </si>
+  <si>
+    <t>hai bố con mừng sinh_nhật cửa_hàng gà rán xem nǥhèo khổ bóc_trần lối tư_duy nhóm thượng_đẳng th trên bàn chiếc bánh kem dâu_tây nhỏ cắm nến cậu bé nhắm_mắt chắp hai tay cầu_nguyện bố ngồi đối_diện dùng điện_thoại quay khoảnh_khắc mừng_tuổi mới con_trai cảnh ý_nghĩa ấm_áp như_vậy thế nhưng phần bình_luận rằng đây bữa tiệc sinh_nhật nghèo_khổ</t>
+  </si>
+  <si>
+    <t>nghiên_cứu coi covid 19 bệnh đặc_hữu viết_tuân ủy_ban kinh_tế đề_nghị chính_phủ nghiên_cứu kinh_nghiệm nước xem covid 19 bệnh đặc_hữu coi đây kinh_nghiệm tốt</t>
+  </si>
+  <si>
+    <t>đề_xuất xử_lý hình_sự hành_vi thu_gom sổ bảo_hiểm lê_tuyết tp hcm đề_xuất xử_lý hình_sự hành_vi thu_gom sổ bảo_hiểm xã_hội tăng tính răn_đe bảo_vệ quyền_lợi lao_động góp_phần hạn_chế rút lần</t>
+  </si>
+  <si>
+    <t>12 nghiện trà sữa gái hà_nội tiêu tốn gần nửa tỷ đồng vozer trưởng_phòng công_ty truyền_thông mức lương hấp_dẫn 18 triệu đồng tháng lúc cao_điểm chị h chi 3 thu_nhập thói_quen uống trà sữa hàng ngày trung_bình mỗi ngày uống 2 3 cốc</t>
+  </si>
+  <si>
+    <t>kiến_nghị nới quyền trúng đấu_giá_biển số xe sơn_hà phép trúng đấu_giá_biển số chuyển_nhượng sẽ tối_ưu nguồn thu ngân_sách phù_hợp quy_định sở_hữu theo một_số chuyên_gia</t>
+  </si>
+  <si>
+    <t>tp hcm khả_năng xuất_hiện mưa_đá đỉnh_điểm xấp_xỉ mức báo_động 3 theanh28 theo đài_khí_tượng thủy_văn khu_vực nam_bộ ngày hôm_nay 27 9 khu_vực tp hcm tiếp_tục mưa diện rộng nơi mưa to dông lượng mưa phổ_biến 20 40mm 24 giờ nơi trên 50mm 24 giờ mưa dông khả_năng xảy lốc sét mưa_đá gió giật mạnh đề_phòng ngập_úng khu_vực trũng thấp vùng kém khả_năng tiêu_thoát nước đô_thị đợt mưa diện rộng khả_năng duy_trì vài ngày tới đài_khí_tượng thủy_văn khu_vực nam_bộ dự_báo</t>
+  </si>
+  <si>
+    <t>đoàn_thiên_ân_diễn áo_tắm miss grand_international tân_cao thiên_ân_sải bước trên đường catwalk dài dựng sát bờ biển phần thi áo_tắm miss grand international 2022 sáng 12 10</t>
+  </si>
+  <si>
+    <t>giải_tỏa gần 3 300 ha nuôi ngao trái_phép lê_tân ubnd tp hải_phòng yêu_cầu giải_tỏa khu_vực nuôi ngao 117 hộ dân trên diện_tích gần 3 300 ha vùng ven biển thuộc quận hải_an huyện kiến_thụy</t>
+  </si>
+  <si>
+    <t>con tɾai chơi game thi toàn điểm thấp bỗng ngày mẹ buông_xuôi thì con liên_tục đạt điểm_cao th đứa ƭɾẻ lúc_nào ƌó sẽ tự biết suყ nghĩ khôn lớƞ kɦôƞǥ cầƞ mẹ kè_kè bên cạnh đốc_thúc ɦoặc cɦỉ cɑ ́ c mẹ chịu buông ƅỏ cố cɦấp coƞ tự_do pɦɑ ́ t triển coƞ mới ƭɦể ƅộc_lộ hết khả_năng ɱìƞɦ chị bạn mẹ dịu_dàng xinh_đẹp thấu_hiểu con_cái 2 trước lần chị thấy bạn mắt toàn quầng thâm tóc thì rụng tá lả cổ_họng thì cứ khàn khàn nói_chuyện nǥuyên_nhân vì con_trai nghe lời ấy lo_lắng hai vợ_chồng đều tốt chẳng_lẽ con trở_thành côn_đồ đường_phố kết quɑ ̉ mấy ngày trước gặp ấy mọc tóc gương_mặt tươi_vui bởi_vì con_trai ấy ngoan_ngoãn công ăn việc_làm ổn_định thì_ra lúc trước chị chỉ lo bò trắng răng</t>
+  </si>
+  <si>
+    <t>bí_thư điện_biên giới_thiệu làm bộ_trưởng giao_thông vận_tải viết_tuân thủ_tướng trình quốc_hội đề_nghị phê_chuẩn bổ_nhiệm nguyễn_văn_thắng bí_thư tỉnh_ủy điện_biên làm bộ_trưởng giao_thông vận_tải nhiệm_kỳ 2021 2026</t>
+  </si>
+  <si>
+    <t>vì_sao cố_định lịch nghỉ tết hồng_chiêu lịch nghỉ tết khó cố_định do ngày nghỉ chính_thức có_thể trùng cuối tuần xen_kẽ ngày làm_việc cần áp_dụng nghỉ bù hoặc hoán_đổi</t>
+  </si>
+  <si>
+    <t>sắp hết hạn gói hỗ_trợ thuê giải_ngân 11 hồng_chiêu gói 6 600 tỷ đồng giải_ngân hơn 11 hạn nhận hồ_sơ còn 4 ngày địa_phương tỷ_lệ chi thấp dưới như hải_phòng thanh_hóa an_giang quảng_ngãi</t>
+  </si>
+  <si>
+    <t>hoa_hậu đỗ_mỹ_linh tung ảnh cưới tân_cao hoa_hậu đỗ_mỹ_linh công_bố ảnh cưới cùng bạn trai đỗ vinh_quang chủ_tịch hà_nội fc dịp sinh_nhật tuổi 26</t>
+  </si>
+  <si>
+    <t>bao_nhiêu dự_định ấp dủ dồn hết đây theanh28_entertainment đoạn clip chị_gái cô_dâu ghi đăng_tải trên mạng xã_hội theo lời chủ clip biết em_gái phải tích_góp hơn 26 mới đủ tiền lấy chồng thế nhưng đúng ngày tổ_chức lễ cưới mưa rất to ngay cả rạp cưới cổng hoa ngập biển nước cao gần mét bởi_vậy nên quan_khách không_thể lễ cưới chỉ đành tạm hoãn chứng_kiến bao công_sức lãng_phí cô_dâu khỏi buồn lòng cô_dâu chia_sẻ ngay dựng rạp cưới trời mưa rất to tuy_nhiên chẳng_thể ngờ rằng chỉ đêm nước dâng rất cao thậm_chí hơn cả nửa bàn ghế cổng hoa rạp cưới tất_cả đều lộn_xộn ướt nhẹp dù khá buồn nhưng cô_dâu vẫn cố tự an_ủi chính mình theo cô_dâu tiết_lộ trước tổ_chức lễ cưới gia_đình xem_ngày rất kĩ tháng chỉ 2 ngày tốt ngày 16 22 vì lo_sợ sang gần tháng 11 trời sẽ mưa nên cả quyết_định chọn ngày 16 sớm tuy_nhiên mọi chuyện như mong_đợi sự lạc_quan cô_dâu chú_rể khiến dân_tình khỏi ngỡ_ngàng dù không_thể tổ_chức lễ cưới nhưng họ vẫn coi đây kỉ_niệm đáng nhớ cuộc_đời mong rằng cả hai sẽ mãi hạnh_phúc như hiện_tại</t>
+  </si>
+  <si>
+    <t>cán_bộ thà đứng trước hội_đồng kỷ_luật còn hơn đứng trước hội_đồng xét_xử viết_tuân theo đại_biểu nguyễn_hữu_thông bộ_phận cán_bộ công_chức viên_chức đó lãnh_đạo quản_lý đang tâm_lý sợ sai sợ trách_nhiệm làm cầm_chừng</t>
+  </si>
+  <si>
+    <t>chật_vật kêu_gọi lao_động bất_hợp_pháp hồi_hương hà_tĩnh lần thứ hai qua chu_ngọc_tửu bắc thuyết_phục gia_đình gọi con đang cư_trú bất_hợp_pháp nước nhưng kết_quả gần như vô_vọng</t>
+  </si>
+  <si>
+    <t>2 qua_đời vụ tai_nạn ô_tô đà_lạt theanh28 tối 13 10 khoảng 19h30 chiếc ô_tô 7 chỗ bất_ngờ lao xuống hồ xuân_hương đà_lạt lực_lượng cứu_hộ khẩn_trương có_mặt hiện_trường trục_vớt ô_tô tìm_kiếm nạn_nhân biết lao xuống hồ ô_tô tất_cả 4 2 thoát ngoài 2 còn qua khỏi</t>
+  </si>
+  <si>
+    <t>hồ_ngọc_hà lúc nghe trộm đột_nhập kim_lý lo mất nhẫn_cưới hoàng_dung dũng_thịnh hà_hồ nói kim_lý hốt_hoảng hơn báo tin trộm đột_nhập biệt_thự tp hcm sợ mất nhẫn_cưới cả hai</t>
+  </si>
+  <si>
+    <t>bộ giáo_dục đang xem_thường tính_mạng nhân_dân hồng_hà ngày 6 tháng chín 2022 báo tuổi_trẻ đưa tin bộ lđ tb xh cử đoàn thanh_tra việc học_viên đăng_ký nộp học_phí trường cao_đẳng dược hà_nội nhưng dự kỳ thi tốt_nghiệp trường cao_đẳng y_tế phú_thọ nhận bằng trường cao_đẳng lê_quý_đôn biên_hòa đồng_nai nghề dược nghề liên_quan trực_tiếp tới tính m ạng khác vì_thế phải tự_nhiên mà quy_định rất nghiêm_ngặt đối_với nghề dược_sĩ vậy_mà xứ thiên_đường xhcn chẳng cần học chỉ cần đóng tiền bằng cử_nhân dược rồi thử_hỏi rằng trường thì cử_nhân sẽ bán thuốc kê thuốc bao_nhiêu dân ốm_đau bệnh_tật nếu xảy ch ết thì chỉ dân thiệt thôi chứ lãnh_đạo ký duyệt thiệt gì đâu khó hiểu chỗ tại_sao sự_việc tiêu_cực diễn trường cao_đẳng mà bộ giáo_dục bộ công_an hay viện kiểm_sát vào_cuộc điều_tra xử_lý bộ lđ tb xh thanh_tra nhỉ hay sự_việc đâu đấy chìm_xuồng như bao vụ khác</t>
+  </si>
+  <si>
+    <t>yêu_cầu xác_định trách_nhiệm thành_phố lớn ngập_lụt viết_tuân thành_phố lớn đầu_tư hiện_đại bất_ngờ ngập_lụt nguyên_nhân do đâu trách_nhiệm thuộc ai đại_biểu hoàng_đức_thắng băn_khoăn</t>
+  </si>
+  <si>
+    <t>hai nguyên lãnh_đạo huyện khánh_hòa_vi_phạm đất_đai viết_tuân ủy_ban kiểm_tra trung_ương đề_nghị ban bí_thư kỷ_luật hai nguyên lãnh_đạo huyện khánh_hòa vì vi_phạm_pháp_luật đất_đai xây_dựng gây hậu_quả rất nghiêm_trọng</t>
+  </si>
+  <si>
+    <t>trọng đảng hãy học đài_loan việt_tân_page facebook đài_loan lãnh_thổ trung_hoa lục_địa đảo nhỏ sát bên trung_cộng dân_số đài_loan chỉ khoảng 24 triệu dân nhưng họ chưa bao_giờ khuất_phục trước đảng cộng_sản tq trung_cộng chưa bao_giờ dám tấn_công đài_loan dân_số lớn gấp 4 lần đài_loan lãnh_thổ lớn gấp gần 10 lần đài_loan cớ_sao đảng trọng phải quỵ lụy trung_cộng</t>
+  </si>
+  <si>
+    <t>đỗ_mỹ_linh tôi cưới chồng vì gia_thế tân_cao khang_ngô đỗ_mỹ_linh nói chồng sắp cưới con_trai bầu hiển yêu thật lòng đồng_điệu chứ vì tiền_tài gia_thế</t>
+  </si>
+  <si>
+    <t>bảy giận_dỗi vì sân thi_đấu theanh28 trận đấu man_utd thắng tottenham 2 0 premier_league rạng sáng nay ngôi_sao cristiano_ronaldo vô_cùng bực_tức sân thi_đấu dù kết_quả lúc đó an_bài phút thứ 90 tỷ_số ấy 2 0 cameraman chĩa máy quay phía ronaldo lúc cr7 rời ghế dự_bị rồi tiến thẳng đường_hầm đáp tình_cảm 2 cậu bé cổ_động_viên</t>
+  </si>
+  <si>
     <t>gỗ quan lũ dân việt_tân chuyện kiểm_lâm ban quản_lý rừng lâm_tặc mặc_nhiên khai_thác gỗ lậu chặt phá rừng còn chuyện xa_lạ đối_với cầm_quyền nữa vụ_việc phá rừng phải tự_nhiên mà chúng_ta thường thấy mùa lũ_lụt biết_bao dân trôi của_cải trâu_bò lợn gà quan quyền cao chức trọng thì hả_hê mâm cao cỗ đầy bộ bàn ghế tủ kệ hạng sang khối gỗ quý_hiếm đây nguyên_nhân hệ cứ lũ_lụt nghe câu lũ dân gỗ quan vậy ai tiếp_tay lâm_tặc phá rừng thế_lực nào có_thể ngang_nhiên làm việc lực_lượng kiểm_lâm chuyên_trách bảo_vệ rừng cơ_quan công_an lực_lượng bảo_vệ pháp_luật giữ_gìn an_ninh trật_tự đâu mà lâm_tặc ngang_nhiên phá rừng lấy gỗ trục_lợi kẻ_gian lấn_chiếm đất rừng bán kiếm lợi hàng tỷ đồng đây chắc_chắn phải bảo_kê cán_bộ công_chức thì lâm_tặc mới ngang_nhiên rừng chặt phá nếu bảo_kê chống lưng thì chỉ cần động_thái nhỏ xâm_hại rừng đất lâm_nghiệp sẽ cơ_quan_chức_năng thẩm_quyền xử_lý ngay chứ đừng nói chặt hàng chục m3 gỗ vận_chuyển khỏi rừng trót_lọt hay rừng chặt phá vài ha rồi trồng cây trên đó thậm_chí bán đất lâm_nghiệp kiếm lợi hàng tỷ đồng nạn lâm_tặc phá rừng lấy gỗ trục_lợi lấn_chiếm sang_nhượng đất lâm_nghiệp trái_phép thu lợi bất_chính đang diễn tương_đối phổ_biến sự tham_gia sân cán_bộ công_chức tất_nhiên cụ_thể ai thì chúng_ta không_thể biết chính_xác nhưng phải số_lượng nhỏ cánh rừng sẽ chảy_máu giữ vững màu xanh đồi núi nhằm chống suy_thoái môi_trường biến_đổi khí_hậu ngày_càng diễn_biến phức_tạp như hiện_nay thì chỉ chính_quyền đưa biện_pháp phòng_chống xử_lý kẻ lợi_dụng chức_vụ quyền_hạn bảo_kê chống lưng trực_tiếp hoặc gián_tiếp tiếp_tay lâm_tặc phá rừng hoặc nhóm lấn_chiếm đất rừng sang_nhượng đất rừng thu lợi bất_chính</t>
   </si>
   <si>
+    <t>nhà_trai ngồi xích_lô hỏi cưới hoa_hậu đỗ_mỹ_linh tân_cao doanh_nhân đỗ vinh_quang con_trai bầu hiển cùng đoàn chín xích_lô mang sính_lễ hỏi cưới hoa_hậu đỗ_mỹ_linh chiều 17 10</t>
+  </si>
+  <si>
+    <t>chồng nhậu khuya vợ dùng xăng phóng_hỏa khiến cả 2 bỏng nặng theanh28 vụ_việc xảy tối 28 9 huyện tam_đảo tỉnh vĩnh_phúc nguyên_nhân ban_đầu sự_việc ngày hôm đó 28 9 n v t sn 1963 em_trai xây giúp tối cùng ngày t uống bia cùng anh_em nhưng t vợ xảy cãi_vã lúc nóng_giận vợ tên m sn 1965 dùng xăng p hóng h ỏa khiến cả 2 đều b ỏn g nặng</t>
+  </si>
+  <si>
+    <t>cơn mưa một_số tuyến đường quận tân_phú bủa_vây bởi dòng nước_màu đỏ nồng_nặc mùi hoá_chất ảnh_hưởng hàng trăm hộ dân đình_văn cơn mưa một_số tuyến đường quận tân_phú bủa_vây bởi dòng nước_màu đỏ nồng_nặc mùi hoá_chất ảnh_hưởng hàng trăm hộ dân</t>
+  </si>
+  <si>
+    <t>phan_như_thảo giảm 20 kg hoàng_dung người_mẫu phan_như_thảo nói tập cardio hàng ngày giữ chế_độ ăn_uống chừng_mực giảm 20 kg</t>
+  </si>
+  <si>
+    <t>ngân_sách 2023 chi bao_nhiêu cải_cách tăng lương anh_minh dự_toán chi ngân_sách dành 12 500 tỷ đồng cải_cách tiền_lương lương hưu điều_chỉnh một_số chế_độ trợ_cấp phụ_cấp chính_sách an_sinh xã_hội gắn lương cơ_sở</t>
+  </si>
+  <si>
+    <t>bhxh nên thêm phần hỗ_trợ trẻ_em gia_đình tham_gia lê_tuyết chính_sách bhxh nên phần hỗ_trợ trẻ_em gia_đình giảm thời_gian đóng tối_thiểu 20 còn 15 thu_hút tham_gia theo lãnh_đạo tổ_chức ilo</t>
+  </si>
+  <si>
+    <t>mạo_danh bảo_hiểm xã_hội lừa lao_động hồng_chiêu bảo_hiểm xã_hội cảnh_báo lao_động phía nam nhóm giả_danh cán_bộ cơ_quan lừa làm hồ_sơ nhận trợ_cấp thai_sản thất_nghiệp</t>
+  </si>
+  <si>
+    <t>chàng trai đầu_tiên mang vòng nguyệt_quế thái_bình theanh28 đặng lê_nguyên_vũ học_sinh trường thpt bắc_duyên_hà huyện hưng_hà tỉnh thái_bình xuất_sắc giành 4 suất chơi trận chung_kết thứ 22 đường lên đỉnh olympia tư_cách nhất cuộc thi quý giành 300 điểm đây thí_sinh đầu_tiên mang cầu truyền_hình trực_tiếp chung_kết đường lên đỉnh olympia thái_bình 22 phát_sóng đặng lê_nguyên_vũ học_sinh giỏi liền từng thi học_sinh giỏi toán giành huy_chương vàng olympic tiếng 2016 đây 2 3 môn_học cậu tự_tin nhất điểm trung_bình đều trên 9 0 toán 9 7 hóa 9 6 tiếng 9 5</t>
+  </si>
+  <si>
+    <t>bảo_ngọc đăng_quang hoa_hậu liên lục_địa 2022 tân_cao bảo_ngọc 21 tuổi cao 85 m vượt 70 thí_sinh đoạt vương_miện miss intercontinental 2022 chung_kết sáng 15 10 giờ hà_nội</t>
+  </si>
+  <si>
+    <t>vất_vả vì em theanh28_entertainment chàng trai chia_sẻ đoạn clip tặng quà người_yêu kèm theo dòng trạng_thái mong em yêu luôn cái nghề điều đáng nói đó chính sự đối_nghịch giữa trạng_thái hai đôi bàn_tay clip lột_tả rất rõ sự yêu_thương hi_sinh mà chủ clip dành bạn gái tay gái trắng_trẻo nõn_nà thì đôi tay bạn trai đầy vết chai_sạn đen_nhẻm theo_dõi trang cá_nhân chủ clip có_thể thấy anh_chàng thường_xuyên đăng_tải công_việc lao_động chân tay mình tuy công_việc nặng_nhọc khiến đôi tay trở_nên lấm_lem nhưng tất_cả chỉ đang phấn_đấu tương_lai sau_này tốt_đẹp hơn thế nhưng dù vất_vả đâu chủ clip vẫn cố_gắng dành_dụm mua tặng người_yêu chiếc nhẫn vàng thật đẹp tự mình đeo tay đáp tình_cảm bạn trai gái bên dưới phần bình_luận bày_tỏ đầy ngọt_ngào yêu_anh tình_cảm hai khiến dân_tình khỏi ngưỡng_mộ chúc phúc cặp đôi sẽ hạnh_phúc mãi</t>
+  </si>
+  <si>
+    <t>uỷ_ban kinh_tế hệ luỵ thị_trường trái_phiếu chứng_khoán bất_ổn anh_minh uỷ_ban kinh_tế đề_nghị làm rõ trách_nhiệm quản_lý nhà_nước việc thị_trường bất_động_sản trái_phiếu chứng_khoán vừa_qua tăng_trưởng nóng tiềm_ẩn rủi_ro</t>
+  </si>
+  <si>
+    <t>siêu_sao 37 tuổi sẽ phải tập_luyện cùng đội trẻ man united theanh28 sáng nay giờ london cameraman bắt_gặp cristiano_ronaldo tự lái_xe tới trung_tâm huấn_luyện carrington chấp_hành_hình_phạt hlv erik ten hag siêu_sao 37 tuổi sẽ phải tập cùng đội trẻ u21 manchester_united hành_động tự_ý đường_hầm trận gặp tottenham vòng 12 premier_league lần gần nhất mà ronaldo_tập cùng đội trẻ có_lẽ thời sir alex_ferguson mới chân ướt chân ráo tới manchester 18 tuổi thì cr7 sân đội</t>
+  </si>
+  <si>
+    <t>tp hcm công_bố nền_tảng dữ_liệu đất_đai trực_tuyến thu_hằng dân doanh_nghiệp có_thể xem dữ_liệu phân khu diện_tích quy_hoạch kế_hoạch mục_đích sử_dụng đất toàn thành_phố trên nền_tảng trực_tuyến</t>
+  </si>
+  <si>
+    <t>đề_nghị miễn hai loại thuế lao_động việt nhật hồng_chiêu bộ lao_động thương_binh xã_hội đề_nghị phía nhật_bản miễn thuế cư_trú thuế thu_nhập lao_động vì giảm 30 thu_nhập đồng yên rớt_giá</t>
+  </si>
+  <si>
+    <t>20 ngày bảo_ngọc thi hoa_hậu liên lục_địa tân_cao bảo_ngọc nổi_bật chiều cao 85 mét tự_tin vòng thi phụ trước thắng chung_kết miss intercontinental 2022</t>
+  </si>
+  <si>
+    <t>triệu văn_trác tôi phước mới gặp vợ như_anh triệu văn_trác sao võ_thuật trung_quốc nói phúc mới gặp vợ trương đan_lộ gắn_bó 20 qua</t>
+  </si>
+  <si>
+    <t>nóng bắt tạm giam tina dương theanh28 trưa 13 10 cơ_quan csđt công_an tỉnh bình_thuận pc02 ban_hành quyết_định khởi_tố bị_can lệnh bắt bị_can tạm giam đối_với n t v a còn gọi tina_dương n t v a tina_dương 27 tuổi trú h lạng_giang tỉnh bắc_giang pc02 công_an tỉnh bình_thuận bắt điều_tra hành_vi lạm_dụng tín_nhiệm c hiếm đ oạt tài_sản theo điều 175 bộ_luật hình_sự 2015 sửa_đổi bổ_sung 2017 quyết_định khởi_tố bị_can lệnh bắt tạm giam n t v a pc02 công_an bình_thuận viện ksnd tỉnh bình_thuận phê_chuẩn cùng ngày</t>
+  </si>
+  <si>
+    <t>trâm học catwalk thi mrs international_global 2022 hải_my nữ doanh_nhân catwalk trainer bi tô rèn_luyện kỹ_năng đi_đứng uyển_chuyển dự thi hoa_hậu quý bà quốc_tế 2022 tháng 2023 malaysia</t>
+  </si>
+  <si>
+    <t>đề_xuất quy_định bảng lương riêng cán_bộ y_tế viết_tuân đại_biểu quốc_hội đề_xuất quy_định bảng lương theo bậc ngạch riêng nhân_viên y_tế vì họ phải đào_tạo thời_gian dài tiêu_chuẩn cao</t>
+  </si>
+  <si>
+    <t>nước lũ tràn vùng trũng thừa_thiên_huế võ_thạnh khu dân_cư xã dọc sông bồ huyện quảng_điền nước lũ bủa_vây tuyến đường ngập sâu nửa mét</t>
+  </si>
+  <si>
+    <t>khó_khăn chồng_chất theanh28_entertainment mới sinh_viên thứ 4 nhưng n lên chức bố cách đây dù đang ngồi trên ghế giảng_đường nhưng n phải bươn_chải đủ công_việc kiếm tiền lo gia_đình nhỏ vợ n u sn 2001 đang học thứ 3 đại_học n u_quen nhau 2020 cả 2 cùng làm thêm quán cà_phê trên đường hồ_tùng mậu hà_nội yêu thời_gian ngắn cả 2 dọn cùng nhau kết_quả vài tháng u_phát_hiện mình có_thai loay_hoay biết xử_lý thế_nào phải u_mang thai 3 tháng n mới dám báo_cáo bố_mẹ lúc em quê nói_chuyện bố_mẹ việc u có_thai bố_mẹ em rất s ố c bố mắng thậm_chí còn đuổi em cấm em quay hà_nội em kể tình_hình u đó cả 2 quyết_định bệnh_viện bỏ thai nhưng vừa cổng bệnh_viện thì u_ôm chặt lấy tay em khóc rất mấy phút em quyết_định bỏ thai nữa lúc đó em nghĩ dù ai nói gì đi_nữa thì em vẫn sẽ giữ con n nói vừa trở phòng trọ thì mẹ n gọi điện nói cả 2 đứa cùng quê bàn_bạc tổ_chức đám_cưới ngày vợ em nhập_viện sinh em bé 2 vợ_chồng đồng nào phải xin tiền bố_mẹ thật_sự quãng thời_gian đó em thấy cuộc_sống bế_tắc em biết sinh em bé cuộc_sống phía trước còn chông_gai vất_vả hơn gấp_bội n chia_sẻ con tuổi u gửi con quê nhờ bà nội chăm_sóc xuống hà_nội học tiếp cuộc_sống sinh_viên vốn thiếu_thốn căn phòng trọ đôi vợ_chồng trở_thành lò lửa vụ xích_mích chuyện cơm_nước giặt_giũ khoảng thời_gian 2 vợ_chồng phải ăn mì tôm cả tuần liền vì hết tiền lần cả 2 còn quyết_định ly_hôn nhưng bố_mẹ 2 bên gia_đình can_ngăn sang thứ 4 đại_học n thời_gian hơn làm thêm hiện_tại n có_thể tự lo tiền ăn_uống tiền đóng tiền học vợ chia_sẻ dự_định sắp tới n nói bọn em đang cố_gắng hoàn_thành việc học đó cả 2 sẽ tìm việc_làm kiếm tiền tự lo con_cái mọi sự rồi nên vợ_chồng em sẽ cùng nhau phấn_đấu cuộc_sống cải_thiện hơn n chia_sẻ</t>
+  </si>
+  <si>
+    <t>giám_đốc sở hứa từ_chức nếu giải_ngân xong tiền thuê hồng_chiêu giám_đốc sở lao_động thương_binh xã_hội tỉnh sơn_la nguyễn_tuấn cam_kết sẽ từ_chức nếu hôm_nay chi_trả xong tiền trọ 13 công_nhân</t>
+  </si>
+  <si>
+    <t>ngôi làng đổi_thay nhờ xuất_khẩu lao_động hà_tĩnh mỗi lao_động làm_việc nước_ngoài gửi khoảng 500 tỷ đồng khiến xã cương_gián nghi_xuân hà_tĩnh như lột_xác biệt_thự mọc lên khắp_xã</t>
+  </si>
+  <si>
+    <t>hồ_ngọc_hà trở_lại công_việc tân_cao ca_sĩ hồ_ngọc_hà nắm tay kim_lý dự sự_kiện tp hcm sự_cố_hủy loạt show mỹ lý_do sức_khỏe tốt</t>
+  </si>
+  <si>
+    <t>đỗ_mỹ_linh chuẩn_bị 5 váy cưới tân_cao hoa_hậu đỗ_mỹ_linh chọn bốn mẫu đầm chụp ảnh cưới châu âu thiết_kế diện hôn_lễ sẽ diễn ngày 23 10</t>
+  </si>
+  <si>
+    <t>vấn_đề lớn dự_án luật thanh_tra sửa_đổi sơn_hà giữ thanh_tra huyện thành_lập thanh_tra tổng_cục cục thuộc bộ thể_chế_hóa chủ_trương phòng_chống tham_nhũng vấn_đề lớn dự_án luật sửa_đổi</t>
+  </si>
+  <si>
+    <t>quận huyện tp hcm cắt nước cuối tuần thái_anh nước 8 quận huyện thành_phố cắt hoặc yếu đêm 10 sáng hôm do trạm bơm hoà_phú cùng nhà_máy nước tân_hiệp bảo_trì</t>
+  </si>
+  <si>
+    <t>anna bắc giang thao_túng cả cộng_đồng mạng luôn rồi theanh28 theo nguồn thông_tin hay trước khởi_tố bắt tạm giam n t v a tức tina_dương nộp 148 triệu đồng khắc_phục hậu_quả công_an trao_trả số tiền b đ _h nạn_nhân vụ án số tiền v a nộp cơ_quan csđt công_an tp phan_thiết tỉnh bình_thuận nhằm khắc_phục hậu_quả ngay cơ_quan khởi_tố vụ án lạm_dụng tín_nhiệm c hiếm đ oạt tài_sản vụ_việc thuê ôtô rồi mang bán anna khai số tiền do buôn_bán online livestream trên mạng xã_hội thời_gian gần đây</t>
+  </si>
+  <si>
+    <t>sai_lầm trọng_tài khiến bình định mất oan 2 điểm theanh28 trưởng ban trọng_tài vff dương văn_hiền thừa_nhận trọng_tài trần_ngọc nhớ quyết_định thổi penalty oan cầu_thủ bình_định trận gặp hagl hôm chiều 28 10</t>
+  </si>
+  <si>
+    <t>sao game of thrones cưới phương_mai nữ diễn_viên lena_headey đóng vai cersei game of thrones cùng tài_tử marc menchaca kết_hôn hai yêu</t>
+  </si>
+  <si>
+    <t>công_nhân thiếu chỗ gửi con hồng_chiêu thiếu trường công chi_phí trường tư cao công_nhân phải tăng ca nên đưa con nhóm lớp mầm_non hoặc gửi quê ông_bà chăm</t>
+  </si>
+  <si>
+    <t>chuyến trọng tạo tiền_lệ nguy_hiểm vũ_việt cuộc xâm_lăng ukraine bắt_nguồn cựu tổng_thống viktor_yanukovych cựu tổng_thống thân nga thần phục putin tạo putin ấn_tượng rằng ukraine phần không_thể tách rời nga trọng đang làm như_vậy đối_với trung_quốc lãnh_tụ tập chuyến trọng cầu_an đảng cầu_cạnh chỗ dựa chế_độ cầm_quyền ấy cái giá phải trả sẽ rất đắt bằng quyền tự_quyết dân_tộc tuy_vậy trọng bộ chính_trị quan_tâm điều đó họ chỉ quan_tâm sự tồn_vong chế_độ đối_với họ còn đảng còn tất_cả tiền_đồ đất_nước quan_trọng bằng đảng hà_nội quỵ lụy trung_quốc chỉ khuyến_khích làm tăng thêm quyết_tâm tham_vọng thôn_tính đảng đang khóa chặt con đường nhân_dân hòa_nhập thế_giới văn_minh bài_học ukraine bài_học ukraine đang phải chiến_đấu bảo_vệ_quốc_gia chỉ vì họ từng kẻ quỵ lụy putin</t>
+  </si>
+  <si>
+    <t>công_nhân bỏ quê vì nhà_máy ít việc lê_tuyết nhà_máy giảm 50 đơn hàng huỳnh_văn_toản 40 tuổi nghỉ_việc đưa con cà_mau trở_lại nghề biển gần 20 rời quê làm công_nhân</t>
+  </si>
+  <si>
+    <t>địa_điểm nóng nhất tối nay sự_kiện âm_nhạc phố bộ theanh28 phố bộ hà_nội tối nay sự_kiện âm_nhạc siêu hoành_tráng thu_hút hàng nghìn khán_giả phiêu mình theo giai điệp cực cháy bữa tiệc âm_nhạc nóng càng nóng sự xuất_hiện binz tóc_tiên phiêu quên lối</t>
+  </si>
+  <si>
+    <t>mỹ_nhân vô_gian đạo khen dung_nhan tuổi 50 như_anh trần_tuệ_lâm đóng vô_gian đạo cùng lương triều_vỹ tạp_chí thời_trang khen sắc vóc tuổi 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sơn_hà dự_thảo luật khám bệnh chữa bệnh sửa_đổi còn ý_kiến khác nhau liên_quan xã_hội_hóa hoạt_động y_tế kiểm_tra đánh_giá năng_lực hành_nghề bác_sĩ</t>
+  </si>
+  <si>
+    <t>công_an phú yên bức t ử dân bi_lun nạn_nhân thanh_niên khỏe_mạnh công_an đông_hòa phú_yên mời lên điều_tra 3 ngày giam_giữ gia_đình báo tin con mình c hế t do tự_tử điều bức_xúc gia_đình nhìn mặt hay đem_xá c diễn tiến đó công_an tự_ý đem chôn mà gia_đình biết chôn đâu hiện gia_đình đang theo đuõi việc đòi xá c con chúng_tôi sẽ cập_nhật thêm vụ_việc gia_đình</t>
+  </si>
+  <si>
+    <t>ét o ét ai tui nhờ mấy hôm mất nước theanh28 công_ty cổ_phần viwaco vừa thông_báo gửi khách_hàng việc tạm ngừng cấp_nước đấu nối kỹ_thuật tuyến ống truyền_tải nước_sạch sông đà do_vậy dân cần tích_trữ nước sử_dụng tiết_kiệm dự_kiến thời_gian tạm ngừng cấp_nước 20h ngày 29 10 15h ngày 30 10</t>
+  </si>
+  <si>
+    <t>nguyễn_văn_thắng làm bộ_trưởng giao_thông vận_tải viết_tuân nguyễn_văn_thắng bí_thư tỉnh_ủy điện_biên quốc_hội phê_chuẩn bổ_nhiệm giữ chức bộ_trưởng giao_thông vận_tải tỷ_lệ tán_thành 87 15</t>
+  </si>
+  <si>
+    <t>doanh_nghiệp lớn than khát lao_động chất_lượng cao hồng_chiêu chỉ hơn 26 lao_động qua đào_tạo bằng_cấp chứng_chỉ còn phần_lớn thiếu kỹ_năng đáp_ứng nhu_cầu doanh_nghiệp theo bộ lao_động thương_binh xã_hội</t>
+  </si>
+  <si>
+    <t>góc bạn thân người_ta theanh28_entertainment ai nói giữa nam nữ khái_niệm_tình bạn h k quen nhau hồi cấp 3 tới giờ cả 2 tuổi kết_hôn nhưng vẫn chơi thân nhau đợt h bạn nữ lấy chồng xa vì_thế trước ngày cưới tuần k ngần_ngại mà bao luôn h chuyến du_lịch bắc nam chuẩn_bị công_cuộc đeo gông con bạn thân đúng bạn người_ta con người_ta luôn khiến mình ngưỡng_mộ k còn chia_sẻ rằng thấy con bạn lúc học tới lúc làm lúc_nào tiết_kiệm chả dám du_lịch đâu hết thì săn vé rẻ mới dám nên hoàn_thành ước_mơ nó mãn_nguyện trước lấy chồng thôi mà đúng gái số hưởng nhất nghe bảo 11 11 traveloka sale lớn vé bay phòng vé vui_chơi rẻ gấp lần anh_em tham_khảo book ngay vé vi_vu cuối nhá đặc_biệt 11h mỗi ngày flashsale lớn tung coupon triệu lận à quên nữa đang chương_trình tham_gia thử_thách mở rương kho báu cơ_hội lấy voucher giảm cộng dồn 300k nữa tranh_thủ book vé nha mng ơiii</t>
+  </si>
+  <si>
+    <t>đỗ_mỹ_linh chồng hát khiêu_vũ tiệc cưới tân_cao hoa_hậu đỗ_mỹ_linh doanh_nhân đỗ vinh_quang hát khiêu_vũ kéo mọi hòa điệu tiệc cưới</t>
+  </si>
+  <si>
+    <t>nữ_sinh 17 tuổi chuyên toán việt nam trở_thành kiện_tướng cờ vua thế_giới theanh28 ngày 5 17 9 giải vô_địch cờ_vua thanh_niên thế_giới 3 lứa tuổi u14 u16 u18 world youth chess championships 2022 diễn romania gỉa_đấu gồm 11 vòng_đấu quy_tụ 620 kỳ_thủ hơn 70 liên_đoàn tới khắp châu_lục kỳ_thủ nguyễn hồng_nhung thi_đấu hạng_mục u16 nữ kết_thúc giải nguyễn hồng_nhung bằng điểm vô_địch nhưng chỉ nhận huy_chương bạc vì kém chỉ_số phụ</t>
+  </si>
+  <si>
+    <t>nàng kiếm 40 tỷ nhờ học_lỏm nuôi nấm quý liều cạn tiền cắm xe_máy đẻ th khắp nơi tìm_kiếm bí_quyết nhưng vô_ích cùng lần thất_bại nợ_nần chồng_chất đến_nỗi hàng tháng liền phải trốn phòng thí_nghiệm thì chị thɑ ̉ o tìm bí_quyết nuôi_trồng đông trùng hạ thɑ ̉ o thu lợi_nhuận cao chẳng đâu xa bí_quyết ấy nằm nǥay hàng_xóm làm nông cạnh đây có_lẽ lời tóm_tắt ngắn_gọn mà đầy_đủ nhất ʋề quá_trình thu ʋề 40 tỷ mỗi nhờ lòng quyết ƭâm từ_bỏ chị nguyễn_thị_hồng phụ_nữ công nuôi_trồng thành_công đông trùng hạ thɑ ̉ o đầu_tiên</t>
+  </si>
+  <si>
+    <t>mất cơ_hội việc_làm vì đồng_hương cư_trú bất_hợp_pháp hồng_chiêu học ngoại_ngữ chuẩn_bị sẵn_sàng kỳ thi sang hàn_quốc làm_việc diệp sốc hay tin quê mình nằm danh_sách dừng tuyển lao_động</t>
+  </si>
+  <si>
+    <t>ám_ảnh ngày halloween theanh28 thông_tin cập_nhật chức_trách hàn_quốc sáng 30 10 biết ít_nhất 149 thiệt_mạng 76 khác bị_thương vụ gi ẫm đ ạp quận itaewon thủ_đô seoul_tối 29 10 hàng chục nghìn chen_chúc trên con phố chật_hẹp tham_gia lễ_hội halloween khu_vực</t>
+  </si>
+  <si>
+    <t>sẽ số hóa toàn_bộ dữ_liệu bảo_vật quốc_gia hiểu_nhân viện bảo_tồn di_tích đặt mục_tiêu 100 dữ_liệu bảo_vật quốc_gia số hóa ứng_dụng trên nền_tảng</t>
+  </si>
+  <si>
+    <t>khó xử_phạt vi_phạm làm thực_phẩm bẩn thu_hằng theo bà phạm_khánh phong_lan khó nhất xử_lý thực_phẩm bẩn mẫu giám_sát dù chứa dư_lượng hóa_chất cao song giá_trị xử_phạt</t>
+  </si>
+  <si>
+    <t>tuần trước thua đội cuối bảng tuần thua đội đứng thứ 19 theanh28 trận thua khó tin trước nottingham forest tuần trước tuần liverpool trở sân_nhà anfield chỉ việc tiếp_đón leeds_united đội bóng đang xếp thứ 19 trên bxh cứ tưởng điểm_tựa sân_nhà nơi khiến man city phải ôm hận cách đây 2 tuần sẽ giúp liverpool dễ_dàng chiến_thắng nhưng the_kop thua sốc 2 trước leeds_united qua đó trận thua thứ 2 liên_tiếp trước 2 đội đứng đội_sổ giờ lữ_đoàn đỏ vẫn chỉ 16 điểm đứng thứ 9 trên bxh</t>
+  </si>
+  <si>
+    <t>bạn thân người_ta chất_lượng thật theanh28_entertainment cụ_thể đoạn clip ghi có_thể thấy bàn tiệc cưới cặp đôi toàn vàng cọc tiền xếp thành từng chồng phiên bạn thân cô_dâu tặng quà cưới chỉ câu nói thôi khiến quan_khách vỗ_tay nhiệt_liệt 6 trước lời hứa nó nào em đám_cưới giàu sẽ em tỷ nhưng mà bây_giờ chưa giàu mới khá thôi nên tặng em 5 trăm triệu đó anh_chàng cầm xấp tiền đưa lên khay tặng đôi uyên_ương con_số 5 trăm triệu mà chàng trai nói chỉ khá thôi số tiền mừng cưới không_tưởng đối_với đáng nói anh_chàng còn nhấn_mạnh số tiền bao_nhiêu quan_trọng quan_trọng tình bạn hai hạnh_phúc bạn thân số tiền nó nói lên tất_cả nhưng mà đây cái tình_cảm mà dành 2 đứa đầu trải qua bao thăng_trầm gây_lộn tùm_lum hết mà ngày hôm_nay ngày vui nói_chung lúc_nào đốc_thúc nó cưới thì cưới ngày hôm_nay thành sự_thật chúc_mừng 2 em chúc 2 em hạnh_phúc anh_chàng chia_sẻ</t>
+  </si>
+  <si>
+    <t>tháp cắt áp gần 60 tuổi trung_tâm sài_gòn đình_văn tháp_bêtông cao gần 50 m hình_dáng như tên_lửa giúp giảm áp_lực ống nước đảm_bảo dòng_chảy 70 khoảng 7 triệu dân thành_phố</t>
+  </si>
+  <si>
+    <t>khu_vực vcs có_thể sở_hữu thêm suất dự chung_kết thế_giới 2023 gamek vn nếu điều thực_sự diễn thì sẽ tin cực_kỳ vui_mừng đối_với khu_vực vcs chúng_ta</t>
+  </si>
+  <si>
+    <t>bà đào hồng_lan làm bộ_trưởng y_tế sơn_hà tỷ_lệ tán_thành 87 15 quốc_hội thông_qua nghị_quyết phê_chuẩn bổ_nhiệm bà đào hồng_lan bí_thư ban cán_sự đảng quyền bộ_trưởng y_tế giữ chức bộ_trưởng y_tế</t>
+  </si>
+  <si>
+    <t>phát_hiện bằng_chứng thấy người_ngoài hành_tinh có_thể sống xung_quanh sao thiên_vương bảo_tuấn tienphong vn khoa_học vừa tìm manh_mối việc tìm sự sống ngoài hành_tinh cụ_thể nó nằm vệ_tinh băng_giá xung_quanh sao thiên_vương</t>
+  </si>
+  <si>
+    <t>ca_sỹ tuấn_hưng ubnd quận hoàn_kiếm cấp phép biểu_diễn ban_công theanh28 hai tuần phạt 12 5 triệu đồng do tự_ý tổ_chức biểu_diễn phép ban_công thì tối_ngày 23 9 đại_diện ca_sĩ tuấn_hưng hay nam ca_sĩ ubnd quận hoàn_kiếm hà_nội phép tiếp_tục tổ_chức show góc ban_công dự_kiến tuấn_hưng hát ban_công trên phố hàng_khay tối 24 9</t>
+  </si>
+  <si>
+    <t>tôi mua cốc trà sữa 50k còn phải đắn_đo suy_nghĩ theanh28 tài_sản tỷ_phú mark_zuckerberg tiếp_tục bốc_hơi 11 tỷ usd meta công_bố báo_cáo kết_quả kinh_doanh quý iii đầy thất_vọng khoản lỗ khiến tổng_tài_sản chủ facebook sụt hơn 100 tỷ usd chỉ 13 tháng qua mức cao 142 tỷ usd tháng 9 2021 tài_sản tỷ_phú zuckerberg hiện chỉ còn 38 tỷ usd theo chỉ_số tỷ_phú bloomberg</t>
+  </si>
+  <si>
+    <t>bộ_trưởng nội_vụ kéo_dài thời_hiệu kỷ_luật hành_chính cán_bộ cần_thiết viết_tuân theo bộ_trưởng phạm_thị thanh_trà thời_hiệu kỷ_luật hành_chính cán_bộ khiển_trách tăng 2 lên 5 cảnh_cáo 5 lên 10 phù_hợp</t>
+  </si>
+  <si>
+    <t>bạo_lực gia_đình có_thể phải lao_động công_ích viết_tuân hành_vi bạo_lực gia_đình lựa_chọn hình_phạt lao_động công_ích như chăm_sóc cây_xanh khu công_cộng hoặc sửa_chữa làm sạch đường làng ngõ xóm</t>
+  </si>
+  <si>
+    <t>nên chia hai mức khởi_điểm đấu_giá_biển số ôtô sơn_hà căn_cứ chia hai mức khởi_điểm đấu_giá_biển số 20 40 triệu đồng chưa vững_chắc thể_hiện sự phân_biệt đối_xử theo một_số chuyên_gia</t>
+  </si>
+  <si>
+    <t>nữ_công_nhân lên làm sếp lê_tuyết bắt_đầu vị_trí công_nhân trực_tiếp sản_xuất nhờ nỗ_lực học_hỏi ngại khó lên sếp quản_lý cả nghìn lao_động</t>
+  </si>
+  <si>
+    <t>du_thuyền nổi hồ tây sẽ tháo_dỡ việt_an ubnd quận tây_hồ sẽ tháo_dỡ du_thuyền nổi bỏ đang neo đậu trên mặt hồ tây trả cảnh_quan mặt hồ</t>
+  </si>
+  <si>
+    <t>học_sinh tiểu_học bắc_giang qua_đời vì ghế đá đổ theanh28 nạn_nhân xác_định em ntđ sinh 2015 học_sinh lớp 2a trường tiểu_học liên_chung huyện tân_yên theo camera an_ninh ghi chiều 5 10 lúc chơi_đùa cùng bạn ntđ cùng bạn vịn ghế đá khiến ghế đá đổ ập xuống trúng vụ_việc xảy nhà_trường đưa cháu ntđ cấp_cứu nhưng do bị_thương nặng học_sinh đ t ử v ong đó</t>
+  </si>
+  <si>
+    <t>công_an ra_quân thì làm cái mẹ gì đc bây_giờ vozer chào chúng m phân_vân quá đưa lên đây ae ý_kiến công_an giờ xin ra_quân lia_lịa mà_t phân_vân vl thì bằng_cấp như bọn t thì làm clg đc trình_độ thạc_sĩ nhưng chuyên_ngành tội_phạm_học nghĩ mãi mà ra_quân méo biết làm nghề_ngỗng gì đây</t>
+  </si>
+  <si>
+    <t>máy_bay boeing gặp sự_cố rơi bánh cất_cánh theanh28 ngày 11 10 thành_phố taranto miền nam_italy chiếc máy_bay boeing 747 400 dreamlifter vừa rời khỏi đường_băng chiếc bánh_xe bộ_phận hạ_cánh vă ng ngoài hình_ảnh hiện_trường thấy khói bốc lên bánh_xe bộ_phận hạ_cánh chính chiếc bánh_xe tách khỏi máy_bay rơ i xuống mặt_đất chiếc bánh_xe đó tìm thấy trang_trại nằm ngoài khu_vực sân_bay</t>
+  </si>
+  <si>
+    <t>lương_thùy_linh sinh_viên tồ chân dài đắt show tân_cao quang_khang mẹ_lương_thùy_linh tức_giận đổi phong_cách giản_dị sang mặc váy trễ vai khoét ngực đăng_quang hoa_hậu</t>
+  </si>
+  <si>
+    <t>bảo_ngọc tôi trầy da tróc vảy mới đoạt hoa_hậu tân_cao ngọc_thịnh bảo ngọc nói xứng_đáng đăng_quang hoa_hậu liên lục_địa nhờ nỗ_lực liên_tục bận_tâm lời chê dư_luận</t>
+  </si>
+  <si>
+    <t>ba lý_do quận huyện tp hcm chậm chi tiền hỗ_trợ nhà_trọ lê_tuyết hồ_sơ doanh_nghiệp nộp quận tắc chờ xác_nhận đủ ba tháng cán_bộ sợ sai kỷ_luật nguyên_nhân khiến gói hỗ_trợ nhà_trọ tp hcm chậm_trễ</t>
+  </si>
+  <si>
+    <t>đất tp hcm bồi_thường tối_đa gấp 15 lần giá nhà_nước thái_anh hệ_số điều_chỉnh giá đất thành_phố lập phương_án bồi_thường 2022 tối_đa gấp 15 lần so giá nhà_nước còn hệ_số giá đất nông_nghiệp gấp 35 lần</t>
+  </si>
+  <si>
+    <t>đt nga tham_dự euro 2024 theanh28 fifa loại lượt trận tranh vé dự world_cup 2022 mới_đây đt nga tiếp_tục lãnh_đạo uefa cấm tham_dự vòng_loại euro 2024 đồng_nghĩa việc họ sẽ không_thể tham_dự giải_đấu lớn nhất châu âu nga đội duy_nhất uefa cấm dự euro 2024 đồng_minh nga belarus chịu lệnh trừng_phạt như_vậy sẽ tổng_cộng 53 đội_tuyển đá vòng_loại tranh 23 vé dự vòng chung_kết đội chủ đức</t>
+  </si>
+  <si>
+    <t>diệu_nhi hát nhảy đám_cưới tân_cao diễn_viên diệu_nhi cùng chồng tú hát nhảy khuya cùng hội bạn tiệc cưới tối 10 10</t>
+  </si>
+  <si>
+    <t>chủ_tịch tp đà_nẵng khiển_trách viết_tuân lê_trung_chinh phó_bí_thư thành_ủy bí_thư ban cán_sự đảng chủ_tịch ubnd tp đà_nẵng ủy_ban kiểm_tra trung_ương khiển_trách</t>
+  </si>
+  <si>
+    <t>karim_benzema trở_thành chủ_nhân danh_hiệu quả bóng vàng 2022 theanh28 cống_hiến thầm_lặng thì cuối_cùng karim_benzema hái quả ngọt danh_hiệu qbv 2022 hoàn_toàn xứng_đáng mà hề tranh_cãi nào cư_dân mạng điều đó khiến qbv vẫn chưa ai sinh 9x xướng tên mặc_dù 9x u30 hết cả rồi thế mới thấy cầu_thủ 8x thi_đấu sức_bền đáng kinh_khủng</t>
+  </si>
+  <si>
+    <t>yêu hiểu chuyện dễ bảo bao_giờ giận_dỗi chỉ có_thể đàn_ông theanh28_entertainment câu_chuyện tình_cảm éo_le chàng trai họ ô 20 tuổi quảng_đông trung_quốc mới_đây khiến cư_dân mạng nước dậy sóng cụ_thể chàng trai vốn mối tình say_đắm người_yêu ảo trên mạng hai làm_quen qua mạng hơn 2 trước thời_gian thường_xuyên trò_chuyện nhau thì tiến tới hẹn_hò cả hai thậm_chí còn cùng thừa_nhận đối_phương mối tình đầu nhau trong_suốt thời_gian hẹn_hò chàng trai_trẻ hết_lòng yêu_thương chiều_chuộng mua món quà tặng người_yêu bé_bỏng đổ gần đây chàng trai chủ_động làm thêm mỗi tháng kiếm 2000 tệ khoảng 7 triệu thì đều gửi người_yêu nửa tiêu vặt đáp trả món quà chàng trai bạn gái luôn vui_vẻ đón_nhận nói lời đường_mật mối quan_hệ cả hai cứ êm_đềm như_vậy chàng trai cảm_thấy bản_thân may_mắn vì bạn gái xinh_xắn dễ_thương vậy còn rất hiểu chuyện hề giận_dỗi vô_cớ gì chàng trai điều khiến rất lấy làm tự_hào mà đem khoe bạn_bè nhưng suốt 2 hẹn_hò chưa lần gặp người_yêu trực_tiếp vì bạn gái luôn từ_chối lý_do khác nhau lý_do bạn gái đem nhất_là phụ_huynh quản rất nghiêm muốn con yêu sớm do đó mới ngăn_cản bạn trai tới gặp nghe bạn gái từ_chối lần chàng trai_trẻ vì buồn_phiền lo_lắng nên đem câu_chuyện mình xin tư_vấn bạn ngờ ngay đó bạn phát_hiện điểm bất_thường bạn gái kể trên nguyên_nhân bạn nhìn ảnh bạn gái phát_hiện số tấm ảnh mái_tóc lệch hẳn xem thêm ảnh so_sánh thật kỹ bạn đưa kết_luận bạn gái kia đội tóc giả hơn_nữa đem hỏi bạn bên thiết_kế khẳng_định bức ảnh qua chỉnh_sửa lúc rằng chàng trai l ừa tuy_nhiên ô vẫn tin_tưởng hỏi trực_tiếp bạn gái mình ngờ ngay đọc tin nhắn chàng trai hỏi bộ tóc giả bạn gái nhanh tay chặn ngay chàng trai trả_lời bất_cứ câu nào vấn_đề kể trên mặc_dù rất bất_ngờ hành_động bạn gái nhưng vì chưa câu trả_lời thuyết_phục nên chàng trai vẫn kiên_trì dò_hỏi thông_tin bạn gái sau_cùng vì làm_phiền quá bạn gái ô cuối_cùng liên_lạc thú_nhận mọi chuyện hóa_ra bạn gái hẹn_hò cùng ô 2 nay vốn đàn_ông dùng phần_mềm thay_đổi giọng nói hiệu_ứng chỉnh_sửa gương_mặt lẫn vóc_dáng giống con_gái chàng trai_trẻ suy_sụp chia_sẻ rằng tôi từng vì bạn gái mà từ_chối gái khác ý mình ngờ ấy đàn_ông cư_dân mạng khuyên chàng trai tố_giác vụ_việc lừa_đảo thấy sự_việc ngày_một lớn thu_hút sự chú_ý sau_cùng bạn gái kia nhắn_tin tuyên_bố trả tiền mong ô làm lớn chuyện thêm</t>
+  </si>
+  <si>
+    <t>tân_binh 100 triệu antony huyền_thoại paul_scholes chê như đang diễn hề trên sân theanh28 trận thắng 3 0 mu trước sheriff europa_league rạng sáng nay phút 38 trận_đấu tân_binh 100 củ man_united antony thực_hiện kỹ_năng rê bóng bằng gầm giày 720 độ nhưng chuyền hỏng ngay đó hết hiệp thì antony thầy ten hag sân ngay luôn huyền_thoại mu paul_scholes tỏ hài_lòng tình_huống</t>
+  </si>
+  <si>
+    <t>dàn sao dự đám_cưới diệu_nhi anh_tú tân_cao trấn thành ngọc_trinh minh_hằng lan_ngọc hội_tụ phan_thiết chúc_mừng hôn_lễ đôi diễn_viên diệu_nhi tú</t>
+  </si>
+  <si>
+    <t>hàng nghìn tấn ngao chết sự_cố chìm tàu chở dầu phạm_chiểu hàng nghìn tấn ngao nuôi xã thái_đô huyện thái_thụy chết trắng đầm tàu hà_an 01 chở dầu chìm mưa giông</t>
+  </si>
+  <si>
+    <t>lâm_tâm như khoe vai trần thanh_thanh diễn_viên lâm_tâm như khen trẻ_trung diện đầm xanh trễ vai lễ trao giải kim chung tối 22 10</t>
+  </si>
+  <si>
+    <t>miss hong_kong 2022 tôi sợ lấy chồng  lâm_ngọc_vị hoa_hậu hong_kong 2022 nói sợ lấy chồng vì mang_tiếng gái hư</t>
+  </si>
+  <si>
+    <t>sói ngoài đời thực hội_chứng kì_dị bậc nhất mà y_học chưa thể lý_giải th người_ta thường nhắc sói như hiện_tượng khó lý_giải ai trở_thành chó_sói đêm trăng_tròn vậy_liệu sói tồn_tại ngoài đời thực câu trả_lời nhưng phɑ ̉ i con sói hiện_hình đêm trăng_tròn họ hoàn_toàn bình_thường nhưng mang căn_bệnh hiểm_ác mang tên sói hội cɦứng sói hay ma_sói dɑ ̣ ng bệnh_lý hiếm gặp nhất thế_giới xác_suất 000 000</t>
+  </si>
+  <si>
+    <t>mỹ_nhân thiên_long_bát_bộ cưới như_anh trương_mông đóng vương ngữ_yên thiên_long_bát_bộ 2013 tổ_chức hôn_lễ ca_sĩ hàn_kim eun_sung</t>
+  </si>
+  <si>
+    <t>trương_phi_thật lịch_sử nghệ_thuật gia tài  trương phi_thường miêu_tả cuốn tiểu_thuyết tam_quốc diễn_nghĩa hình_tượng đại_tướng quân hữu dũng vô mưu nhưng trương_phi_thật lịch_sử như thế_nào</t>
+  </si>
+  <si>
+    <t>chủ sea games 32 chốt môn thi_đấu đặt quy_định lạ theanh28 truyền_thông campuchia đưa tin quốc_gia chính_thức công_bố số_lượng môn thi_đấu kỳ đại_hội thể_thao đông_nam á lần thứ 32 2023 theo đó sea_games 32 49 môn 608 nội_dung tuy_nhiên số 49 môn thi môn nằm hệ_thống thi_đấu olympic thế mạnh như b ắn sú ng b ắn cung rowing canoeing tuy_nhiên rất môn thể_thao lạ đưa chương_trình thi_đấu như field and indoor_hockey floorball cờ_khmer hay đua moto nước điều rất đặc_biệt campuchia đưa quy_định rất lạ_lùng chỉ vđv chủ mới tham_gia 100 môn thể_thao đối_kháng hoặc võ_thuật còn nước khác phải cân_nhắc phân_chia lực_lượng thi_đấu tối_đa 70 nội_dung</t>
+  </si>
+  <si>
+    <t>bộ_trưởng công_thương miền nam thiếu xăng vì phụ_thuộc xăng_lậu anh_minh tình_trạng cây_xăng đóng_cửa chỉ tập_trung tp hcm tỉnh phía nam khu_vực trước đây phụ_thuộc nguồn xăng trôi_nổi theo bộ_trưởng nguyễn_hồng_diên</t>
+  </si>
+  <si>
     <t>xuất_khẩu lao_động 40 giải bài_toán việc_làm hồng_chiêu mỗi lao_động xuất_khẩu gửi 3 4 tỷ usd giúp làng quê thay_đổi tuy_nhiên lĩnh_vực chưa chiến_lược tổng_thể phần_lớn tay_nghề thấp</t>
   </si>
   <si>
-    <t>lương_thùy_linh sinh_viên tồ chân dài đắt show tân_cao quang_khang mẹ_lương_thùy_linh tức_giận đổi phong_cách giản_dị sang mặc váy trễ vai khoét ngực đăng_quang hoa_hậu</t>
-  </si>
-  <si>
-    <t>travis_scott phủ_nhận ngoại_tình phương_mai rapper travis scott nói người_mẫu rojean kar bịa chuyện ngoại_tình lưng bạn gái kylie_jenner</t>
-  </si>
-  <si>
-    <t>quả na dai đấu_giá 89 triệu đồng việt_an quả na dai nữ doanh_nhân mua 89 triệu đồng buổi đấu_giá gây quỹ từ_thiện khuôn_khổ hội_chợ na chi_lăng</t>
-  </si>
-  <si>
-    <t>cần xác_định khu lưu_trú công_nhân xã_hội lê_tuyết theo doanh_nghiệp việc xây_dựng khu lưu_trú công_nhân khu công_nghiệp cần ưu_đãi tiền thuê đất vốn vay giống như dự_án xã_hội</t>
-  </si>
-  <si>
-    <t>dân mỹ khổ như báo_chí cách_mạng viết  ngày hôm_qua 26 tháng mười báo điện_tử cafe biz đưa tin dân mỹ dám mua kẹo mùa halloween vì lạm_phát rồi báo cafe biz đưa tin rằng bất_chấp lạm_phát dân mỹ vẫn vung 10 6 tỷ usd halloween thật_sự báo_chí cách mệnh bây_giờ nó lạ lắm cứ đá nhau chan_chát thế thì ai mà tin dân mỹ đọc xong chắc họ cười sặc cơm mất mở_miệng chê_bai mỹ dè bĩu mỹ nhưng thực_ra chửi mỹ công_việc định_cư mỹ ước_mơ</t>
-  </si>
-  <si>
-    <t>mới_đây trên cɑ ́ c diễn_đàn hội nhóm ô_tô xôn_xao trước bài đăng nguyễn văn_vinh thôn bầu xã kim chung đông_anh hà_nội truy_tìm kẻ lấy mất ô_tô th mới_đây trên cɑ ́ c diễn_đàn hội nhóm ô_tô xôn_xao trước bài đăng nguyễn văn_vinh thôn bầu xã kim chung đông_anh hà_nội truy_tìm kẻ lấy mất ô_tô theo chủ xe chia_sẻ do gia_đình nhu_cầu bán chiếc xe ô_tô màu đỏ nên lên mạng xã_hội rao bán giá 400 triệu đồng ngày 2 12 vừa_qua đàn_ông mặc quần_áo đen liên_hệ ngỏ ý_muốn mua xe đó hai bên hẹn gặp khu_vực cầu_chui số 3 đông_bầu kim_cɦuƞǥ đông_anh khách xem lái thử ô_tô lúc đầu vinh ngồi chung đàn_ông thấy điều gì bất_thường lúc xuống xe rồi nói_chuyện vớii tài_xế chở vị khách mua xe lợi_dụng lúc vinh đề_phòng đàn_ông trên xe nhấn ga phóng mất 5 phút thấy vị khách quay nên vinh gọi điện phía đầu dây bên kia khóa máy lúc mới tá hỏa biết chở vị kɦách tài_xế taxi chứ phɑ ̉ i người_nhà</t>
-  </si>
-  <si>
-    <t>gong hyo jin cưới mỹ như_anh gong hyo_jin diễn_viên hàn đóng hoa trà nở kết_hôn ca_sĩ kevin oh ngày 11 10</t>
-  </si>
-  <si>
-    <t>khó_khăn chồng_chất theanh28_entertainment mới sinh_viên thứ 4 nhưng n lên chức bố cách đây dù đang ngồi trên ghế giảng_đường nhưng n phải bươn_chải đủ công_việc kiếm tiền lo gia_đình nhỏ vợ n u sn 2001 đang học thứ 3 đại_học n u_quen nhau 2020 cả 2 cùng làm thêm quán cà_phê trên đường hồ_tùng mậu hà_nội yêu thời_gian ngắn cả 2 dọn cùng nhau kết_quả vài tháng u_phát_hiện mình có_thai loay_hoay biết xử_lý thế_nào phải u_mang thai 3 tháng n mới dám báo_cáo bố_mẹ lúc em quê nói_chuyện bố_mẹ việc u có_thai bố_mẹ em rất s ố c bố mắng thậm_chí còn đuổi em cấm em quay hà_nội em kể tình_hình u đó cả 2 quyết_định bệnh_viện bỏ thai nhưng vừa cổng bệnh_viện thì u_ôm chặt lấy tay em khóc rất mấy phút em quyết_định bỏ thai nữa lúc đó em nghĩ dù ai nói gì đi_nữa thì em vẫn sẽ giữ con n nói vừa trở phòng trọ thì mẹ n gọi điện nói cả 2 đứa cùng quê bàn_bạc tổ_chức đám_cưới ngày vợ em nhập_viện sinh em bé 2 vợ_chồng đồng nào phải xin tiền bố_mẹ thật_sự quãng thời_gian đó em thấy cuộc_sống bế_tắc em biết sinh em bé cuộc_sống phía trước còn chông_gai vất_vả hơn gấp_bội n chia_sẻ con tuổi u gửi con quê nhờ bà nội chăm_sóc xuống hà_nội học tiếp cuộc_sống sinh_viên vốn thiếu_thốn căn phòng trọ đôi vợ_chồng trở_thành lò lửa vụ xích_mích chuyện cơm_nước giặt_giũ khoảng thời_gian 2 vợ_chồng phải ăn mì tôm cả tuần liền vì hết tiền lần cả 2 còn quyết_định ly_hôn nhưng bố_mẹ 2 bên gia_đình can_ngăn sang thứ 4 đại_học n thời_gian hơn làm thêm hiện_tại n có_thể tự lo tiền ăn_uống tiền đóng tiền học vợ chia_sẻ dự_định sắp tới n nói bọn em đang cố_gắng hoàn_thành việc học đó cả 2 sẽ tìm việc_làm kiếm tiền tự lo con_cái mọi sự rồi nên vợ_chồng em sẽ cùng nhau phấn_đấu cuộc_sống cải_thiện hơn n chia_sẻ</t>
+    <t>hội bạn thân mừng đám_cưới liêu hà_trinh tân_cao thanh_duy khả_như ngô_kiến_huy jun phạm hội_ngộ đám_cưới diễn_viên mc liêu hà_trinh tối 10 10</t>
+  </si>
+  <si>
+    <t>sao mộc nước khả_năng tồn_tại sự sống kỳ_lạ thư báo nlđ phát_hiện mới nhất dựa trên dữ_liệu nasa thấy sao mộc đám mây nước khổng_lồ trữ_lượng oxy khá lớn khả_năng tồn_tại dạng sự sống đặc_biệt</t>
+  </si>
+  <si>
+    <t>ngành_nghề đưa lao_động sang châu phi hồng_chiêu xây_dựng thợ hàn thợ_điện đốc_công thuyền_viên nghề cục quản_lý lao_động ngoài nước cấp phép doanh_nghiệp đưa lao_động làm_việc châu phi</t>
+  </si>
+  <si>
+    <t>di_dời xóm nhà_thuyền 40 tồn_tại lê_tân 62 hộ dân hơn 150 nhân_khẩu sống xóm nhà_thuyền trên sông tam_bạc sẽ nhận 10 triệu đồng mỗi hộ di_dời nơi khác</t>
+  </si>
+  <si>
+    <t>áp_lực kiếm tiền lao_động xa xứ đức_hùng liên_tục làm thêm thành 12 tiếng mỗi ngày ăn cơm chung cụ già trại dưỡng_lão chị hồng muốn tích_cóp tiền tối_đa gửi quê nuôi bốn con ăn_học</t>
+  </si>
+  <si>
+    <t>bộ_trưởng nguyễn_văn hùng hy_vọng học_hỏi ngành công_nghiệp văn_hóa hàn hoàng_anh bộ_trưởng nguyễn_văn hùng mong_muốn hàn_quốc chia_sẻ kinh_nghiệm phát_triển ngành công_nghiệp văn_hóa gặp_gỡ đồng cấp seoul ngày 16 10</t>
+  </si>
+  <si>
+    <t>đêm hội trăng rằm trẻ hoàn_cảnh khó_khăn minh_huy đêm hội trăng rằm hoạt_động ý_nghĩa như múa_lân ca_nhạc tặng quà trẻ_em khó_khăn diễn thành_phố mới bình_dương</t>
+  </si>
+  <si>
+    <t>kỷ_luật phó_tt dùng facebook ủy_ban kiểm_tra trung_ương xem_xét kỷ_luật phó_tt vũ_đức_đam phó_tt phạm bình_minh bí_thư hà_nội đinh_tiến_dũng chẳng biết mừng hay chán</t>
+  </si>
+  <si>
+    <t>ngôi làng ma khiến cư_dân sợ_hãi bỏ nguyễn_thảo goldthorpe nam_yorkshire mệnh_danh ngôi làng ma thời hiện_đại ngôi làng theo thống_kê nơi tỷ_lệ tội_phạm cao kỷ_lục vương_quốc</t>
+  </si>
+  <si>
+    <t>chốt danh_sách bốn bộ_trưởng đăng_đàn trả_lời chất_vấn sơn_hà thủ_tướng bộ_trưởng nguyễn_thanh_nghị nguyễn_mạnh hùng phạm_thị thanh_trà tổng_thanh_tra chính_phủ đoàn hồng_phong sẽ đăng_đàn trả_lời chất_vấn</t>
+  </si>
+  <si>
+    <t>trường thcs lê quý đôn cấm thu tất_cả loại quỹ kể_cả quỹ phụ_huynh theanh28 mới_đây trên diễn_đàn mạng xã_hội lan_truyền_thông_tin trường thcs lê_quý_đôn tp thủ_đức tp hcm yêu_cầu phụ_huynh đóng quỹ lớp đóng quỹ khuyến_học đóng quỹ ban đại_diện cha_mẹ học_sinh đặc_biệt phụ_huynh muốn tài_trợ nhà_trường phải văn_bản đồng_ý phòng giáo_dục thông_tin khiến chú_ý bởi bối_cảnh đầu năm_học mới trường lớp đều kêu_gọi phụ_huynh đóng_góp quỹ lớp quỹ phụ_huynh thậm_chí nơi còn đưa khoản thu độc lạ gây phản_ứng trái chiều</t>
+  </si>
+  <si>
+    <t>tăng lương sớm sẽ tạo tiền_đề cải_cách tiền_lương hồng_chiêu chuyên_gia đồng_tình sớm điều_chỉnh lương cơ_sở đầu 2023 tạo tiền_đề khởi_động cải_cách tiền_lương vài lần lỡ hẹn</t>
+  </si>
+  <si>
+    <t>trồng na bở thu 5 triệu đồng mỗi cây lê_tân bốn nay dân trồng na bở xã liên_khê huyện thủy_nguyên đều_đặn thu mỗi 5 7 triệu đồng cây đời_sống dần ổn_định</t>
+  </si>
+  <si>
+    <t>17 tuổi lên chức bố nuôi con suốt 3 mới ngậm_ngùi phát_hiện đứa trẻ phɑ ̉ i con_ruột th em nhỏ bạn hồi đó đang học thì bất_ngờ mang thai đúng lỡ_dở cả cuộc_đời vì đó phɑ ̉ i nghỉ học rồi nuôi con dù sau_này nỗ_lực thi rồi học cɑ ́ c kiểu thì gián_đoạn hết mấy trời vừa mừng nhưng vừa tiếc bạn thực_sự phɑ ̉ i chứng_kiến trường_hợp như_vậy mới thấy vấn_đề giáo_dục giới_tính vấn_đề bố_mẹ nên e_ngại mà phải tìm cách truyền_đạt cɦo con mình hiểu càng sớm càng tốt cả ạ mới_đây câu_chuyện nam sinh 17 tuổi lên chức bố đó 3 mới phát_hiện con_trai mình đaƞg nuôi_nấng thực_tế phɑ ̉ i con mình nhận sự quan_tâm đông_đảo cư_dân mạng</t>
+  </si>
+  <si>
+    <t>12 du_khách cắm trại trái_phép trên đảo tiền_tiêu lê_tân 12 du_khách cơ_quan_chức_năng huyện đảo tô phát_hiện cắm trại trái_phép trên hòn_bồ cát đảo tiền_tiêu vùng_biển đông_bắc</t>
+  </si>
+  <si>
+    <t>hoài_lâm trở_lại hát hoàng_dung hoài_lâm dự_kiến hát đêm nhạc hoa nở màu đà_lạt ngày 15 10 thời_gian dài im tiếng</t>
+  </si>
+  <si>
+    <t>cách nhà_máy xoay_xở giữ lao_động chờ đơn hàng lê_tuyết lúc thiếu đơn hàng nhà_máy long_rich tp thủ_đức công_nhân nghỉ hưởng lương tổ_chức ăn trưa lao_động công_ty giữ mối liên_lạc</t>
+  </si>
+  <si>
+    <t>ba ưu_tiên tân bộ_trưởng nguyễn_văn_thắng viết_tuân bộ_trưởng nguyễn_văn_thắng nói quyết_tâm hoàn_thành đúng tiến_độ công_trình giao_thông trọng_điểm quốc_gia thu_hút vốn xã_hội_hóa thúc_đẩy giải_ngân vốn đầu_tư công</t>
+  </si>
+  <si>
+    <t>tổ_chức đám_cưới tập_thể 15 đôi bạn trẻ  thành_đoàn hà_nội sẽ tổ_chức đám_cưới tập_thể theo nếp sống mới 15 đôi bạn trẻ tối 15 10 vườn hoa đền bà kiệu quận hoàn_kiếm</t>
+  </si>
+  <si>
+    <t>nguyễn văn_thể rời ghế bộ_trưởng giao_thông vận_tải viết_tuân quốc_hội thông_qua nghị_quyết phê_chuẩn miễn_nhiệm bộ_trưởng giao_thông vận_tải nguyễn văn_thể_theo nguyện_vọng cá_nhân sáng 21 10</t>
+  </si>
+  <si>
+    <t>đỗ_mỹ_linh ngồi xe siêu sang chồng tân_cao hoa_hậu đỗ_mỹ_linh doanh_nhân đỗ vinh_quang rước dâu bằng xe rolls royce_phantom chiều 23 10</t>
+  </si>
+  <si>
+    <t>bảo_tàng tượng sáp bỏ_hoang gia nghĩa bạn muốn trải nghiệm theanh28 đây có_lẽ tàn_tích cuối_cùng còn sót bảo_tàng tượng sáp gia_nghĩa chắc rất dân địa_phương biết nơi tuy gọi bảo_tàng tượng sáng nhưng đưa tay sờ thử thì thực_chất đồ nhựa bảo_tàng chia thành hai khu_vực khu triển_lãm con đường cổ khu trưng_bày câu_chuyện lịch_sử khuôn_viên_ngoại_trừ bảo_tàng tượng sáp còn một_vài thiết_bị trò_chơi cảnh_quan đơn_giản hình_như kiểm_tra định_kỳ khuyến_khích chơi kinh_nghiệm trốn bảo_vệ chơi</t>
+  </si>
+  <si>
+    <t>trái_đất trung_tâm vũ_trụ vozer xa_xưa tôn_giáo nói rằng trái_đất trung_tâm vũ_trụ hiện_tại có_thể khẳng_định trái_đất trung_tâm vũ_trụ khả_kiến bên ngoài đó sự vô_tận vậy nếu vô_tận mọi phía thì thực_sự trái_đất vẫn trung_tâm cách nào phủ_định điều đó đức_phật bảo thế_giới ta đang sống chỉ như bọt_biển giữa muôn_trùng thế_giới rằng vũ_trụ vô_thủy vô chung thế_thì đâu mà chả_là trung_tâm như_vậy tôn_giáo chẳng phải góc nhìn chân_thực nhất trước khoa_học ngàn rồi còn gì khoa_học vẫn mãi đang nghiên_cứu bề nổi thế_giới chưa khỏi cái bọt_biển đại_dương như đức phật mô_tả cả thế_giới diêm phù_đàn dù ai siêu_trí_tuệ nhân_tạo nhưng công_nghệ đạt giới_hạn nó tâm_thức con_người bắt_đầu chỗ_đứng thế_giới 2000 trước trở_lại tầm cao mới phải fen v</t>
+  </si>
+  <si>
+    <t>đoàn_thiên_ân fan chào_đón miss_grand tân_cao hoa_hậu đoàn_thiên_ân tất_bật hoạt_động giao_lưu_truyền_thông thi miss grand international 2022 fan chào_đón indonesia</t>
+  </si>
+  <si>
+    <t>hình_ảnh sinh_vật lạ giống sói khiến dân mạng xôn_xao tranh_cãi theo dân_trí sự xuất_hiện sinh_vật lạ hình_ảnh do camera giám_sát ghi khiến xem bối_rối gây tranh_cãi cộng_đồng mạng</t>
+  </si>
+  <si>
+    <t>phương anh_đào tôi thiết yêu_đương tuổi 30 mai_nhật phương anh_đào nói chia_tay mối tình tập_trung sự_nghiệp chưa vội kết_hôn tuổi 30</t>
+  </si>
+  <si>
+    <t>hai nam thanh_niên may xòe đường va_chạm chậu hoa khiến thế_giới bên kia theanh28 sự_việc thương_tâm xảy lúc 12h trưa nay 26 10 xã sơn_cẩm tp thái_nguyên camera dân ghi hai nam thanh_niên còn rất trẻ tuổi_đầu mũ lái_xe tốc_độ cao nhưng rõ vì lý_do gì mà xòe đường cháu ngồi lúc va_chạm chậu hoa đặt ngoài cửa_nhà niệm luôn tại_chỗ</t>
   </si>
   <si>
     <t>sinh_viên nhất hát bài 2 3 con mực ví yếu sinh_lực cái nghèo ập quá nhanh theanh28_entertainment sinh_viên nhất lên hà_nội chỉ tháng đầu_tiên tiêu gần 20 triệu bạn l sinh_viên học_viện ngoại_giao thái_bình lên hà_nội nhập_học bố_mẹ đưa 30 triệu đóng học_phí chuẩn_bị chỗ hiểu kiểu gì sinh_viên nhất đóng học_phí 10 triệu đó tiêu luôn 10tr còn chỉ 17 ngày bắt_đầu nhập_học ngày đầu_tiên l tới trung_tâm thương_mại lớn hà_nội tiêu phát 7tr chiếc hóa_đơn dài vô_cùng tận chưa dừng đó l sốc nhìn tổng_số tiền tiêu việc săn sale online mình lên gần 10tr đó 6tr tiền mỹ_phẩm skincare cuộc_sống bỗng_nhiên thấy nặng_nề dữ cái nghèo bỗng đè lên vai bé tên l l mua đồ sale giảm_giá rất nhưng vẫn bay tận 10 triệu tới nỗi mà bill trừ tiền lazada giá_trị_hóa đơn 2010k mà đọc lời chúc trên bill lazada la_roche posay chúc bạn nữ ngày 20 10 vui_vẻ cả tiền lẫn tình tiếp_tục chốt đơn ầm_ầm nhé ko biết nên vui hay nên buồn chí_phèo bệnh còn thị_nở chăm_sóc nấu cháo hành l giờ_đây biết kêu ai chăm_chỉ tự nấu mì tôm hành mà thôi</t>
   </si>
   <si>
-    <t>nên chia hai mức khởi_điểm đấu_giá_biển số ôtô sơn_hà căn_cứ chia hai mức khởi_điểm đấu_giá_biển số 20 40 triệu đồng chưa vững_chắc thể_hiện sự phân_biệt đối_xử theo một_số chuyên_gia</t>
-  </si>
-  <si>
-    <t>tổ_chức đám_cưới tập_thể 15 đôi bạn trẻ  thành_đoàn hà_nội sẽ tổ_chức đám_cưới tập_thể theo nếp sống mới 15 đôi bạn trẻ tối 15 10 vườn hoa đền bà kiệu quận hoàn_kiếm</t>
-  </si>
-  <si>
-    <t>trọng đảng hãy học đài_loan vũ_việt đài_loan lãnh_thổ trung_hoa lục_địa đảo nhỏ sát bên trung_cộng dân_số đài_loan chỉ khoảng 24 triệu dân nhưng họ chưa bao_giờ khuất_phục trước đảng cộng_sản tq trung_cộng chưa bao_giờ dám tấn_công đài_loan dân_số lớn gấp 4 lần đài_loan lãnh_thổ lớn gấp gần 10 lần đài_loan cớ_sao đảng trọng phải quỵ lụy trung_cộng chính_phủ đài_loan chẳng màng chuyện đại_hội đảng tập bầu ta thế_nào họ cần phải qua gặp tập điều mà đài_loan làm lo phát_triển xây_dựng lực_lượng phòng_thủ tốt trung_cộng từng tấn_công lần thời đảng trọng cầm_quyền qua đó liệu ngăn_chặn tham_vọng lưỡi bò biển_đông hèn_yếu chính sự mời_gọi nước khác xâm_chiếm</t>
+    <t>fan chi triệu usd mừng sinh_nhật triệu_lệ_dĩnh như_anh fan diễn_viên trung_quốc_triệu_lệ dĩnh chi hàng triệu usd quảng_cáo dịp 35 tuổi</t>
+  </si>
+  <si>
+    <t>thiếu lưu_trú công_nhân lê_tuyết công_nhân thuê thiếu_hụt nhưng doanh_nghiệp muốn đầu_tư xây_dựng khó đủ đường nghịch_lý tồn_tại qua</t>
+  </si>
+  <si>
+    <t>nuôi cá_tầm núi_rừng khe_san lê_tân đầu_tư hàng trăm triệu đồng đưa cá_tầm sapa núi_rừng khe_san huyện tiên yên nuôi_dưỡng trần_văn mạ thu cả tỷ đồng hơn</t>
+  </si>
+  <si>
+    <t>bộ giáo_dục đang xem_thường tính_mạng nhân_dân việt_tân_page facebook nghề dược nghề liên_quan trực_tiếp tới tính m ạng khác vì_thế phải tự_nhiên mà quy_định rất nghiêm_ngặt đối_với nghề dược_sĩ vậy_mà xứ thiên_đường xhcn chẳng cần học chỉ cần đóng tiền bằng cử_nhân dược rồi thử_hỏi rằng trường thì cử_nhân sẽ bán thuốc kê thuốc bao_nhiêu dân ốm_đau bệnh_tật nếu xảy ch ết thì chỉ dân thiệt thôi chứ lãnh_đạo ký duyệt thiệt gì đâu</t>
+  </si>
+  <si>
+    <t>5 nguyễn văn_thể làm bộ_trưởng giao_thông vận_tải đoàn_loan 5 cương_vị bộ_trưởng giao_thông vận_tải nguyễn văn_thể góp_phần định_hình tuyến cao_tốc bắc_nam kéo_giảm tai_nạn giao_thông</t>
+  </si>
+  <si>
+    <t>nguyên giám_đốc sở y_tế quảng_ngãi kỷ_luật phạm_linh nguyễn_xuân_mến nguyên giám_đốc sở y_tế quảng_ngãi khiển_trách do thiếu chỉ_đạo trung_tâm kiểm_soát bệnh_tật tỉnh mượn kit test việt_á</t>
+  </si>
+  <si>
+    <t>ủy_ban kinh_tế cần cân_nhắc việc thu_hồi đất xây thương_mại viết_tuân thẩm_tra dự_án luật đất_đai sửa_đổi ủy_ban kinh_tế đề_nghị cân_nhắc việc nhà_nước thu_hồi đất dự_án thương_mại tạo quỹ đất đấu_giá hoặc đấu_thầu</t>
+  </si>
+  <si>
+    <t>angelababy ám_ảnh hôn_nhân đổ_vỡ như_anh diễn_viên trung_quốc angelababy nói e_ngại yêu_đương vì sợ cảnh cãi nhau chia_tay</t>
+  </si>
+  <si>
+    <t>11 nghệ_sĩ tổ_chức đêm nhạc kỷ_niệm_tình anh_em tân_cao touliver binz soobin rhymastic justatee làm live concert kỷ_niệm 11 gắn_bó khẳng_định tình anh_em</t>
+  </si>
+  <si>
+    <t>bè cá quý_hiếm trên vịnh lan_hạ lê_tân bè cá rộng khoảng 3 500 m2 nằm trên vịnh lan_hạ nơi bảo_tồn cung_cấp giống 16 loài cá quý_hiếm giá_trị kinh_tế cao dân</t>
+  </si>
+  <si>
+    <t>thói_quen theanh28_entertainment l 28 tuổi nhân_viên văn_phòng thường mang cả việc công_ty làm thêm tới 10 giờ đêm rồi mới bắt_đầu ăn tối do đó ít nấu_ăn mà đa_số gọi đồ ăn bên ngoài ngoài ăn tối muộn l rất hay thức đêm thường ngủ 2 giờ sáng chứ ít ngủ sớm hai tháng trước đang tắm thì l sờ thấy khối_u bên ngực trái liền ra_hiệu thuốc mua một_số loại thuốc chống viêm uống kết_quả cục u không_những chẳng biến mất mà còn tiếp_tục phát_triển to thậm_chí còn rất đau chạm đó phải tới bệnh_viện kiểm_tra đây chẩn_đoán mắc bệnh ung_thư vú giai_đoạn đầu bác_sĩ biết chế_độ ăn_uống lành_mạnh thức khuya lười vận_động thói_quen sinh_hoạt chưa khoa_học yếu_tố nguy_cơ cao dẫn bệnh ung_thư v ú</t>
+  </si>
+  <si>
+    <t>tp hcm đảm_bảo_an_ninh cấp_nước hai quận trung_tâm hoàng_anh cấp_nước bến_thành công_an quận 3 vừa ký_kết quy_chế phối_hợp đảm_bảo_an_ninh trật_tự lĩnh_vực cấp_nước trên địa_bàn chiều 25 10</t>
+  </si>
+  <si>
+    <t>nghệ_sĩ hoài_phương sáng_tác nhạc tặng bà_xã việt_hương thanh_hy nghệ_sĩ hoài_phương sáng_tác ca_khúc queen of roses tặng sinh_nhật việt_hương kỷ_niệm 4 thành_lập hương_thị ra_mắt sản_phẩm mới</t>
   </si>
   <si>
     <t>cứ liên_quan đất_đai anh_em mất đoàn_kết theanh28 vụ_việc xảy xã trung_hoà huyện yên_mỹ tỉnh hưng_yên do mâu_thuẫn chuyện đất_đai biết gia_đình bà đ 61 tuổi con_trai 3 con_gái bà đ mảnh đất ngoài mặt_đường 3 mảnh đất ngõ đó suất đất ngoài mặt_đường bà đ chia con_trai còn 3 con_gái mỗi suất đất ngõ bên đồng_ý ký biên_bản phương_án trên tuy_nhiên 3 con_gái bà đ nhà_mẹ đẻ muốn đòi suất đất ngoài đường thế nhưng bà đ đồng_ý vì đất phân_chia rồi khoảng 9h30 sáng 30 10 3 con_gái mang can xăng khoảng 4 5 lít tới nhà_mẹ đẻ đổ sàn rồi phóng_hỏa lúc sự_việc xảy con_trai đang trên tầng nên bị_thương 2 3 con_gái b ỏn g nặng đang cấp_cứu bệnh_viện còn nhẹ tự sơ_cứu mẹ b ỏn g</t>
   </si>
   <si>
-    <t>tp hcm sẽ biến mất 2030 việt_tân tp hcm sẽ biến mất 2030 hy_vọng tên sài_gòn sẽ trở_lại như xưa</t>
-  </si>
-  <si>
-    <t>ái phương hát bình_yên chia_tay tân_cao ca_sĩ ái phương kể hành_trình tìm bình_yên tổn_thương tình_yêu qua mv đông_tây_nam_bắc</t>
-  </si>
-  <si>
-    <t>cộng_sản vẽ bánh hồng_hà hôm 26 tháng mười 2022 trang thông_tin chính_phủ đưa tuyên_bố tầm nhìn tới 2050 trở_thành nước phát_triển thu_nhập cao ngay_lập_tức phía bên dưới facebook khanh_hung bình_luận mỗi 40 qua ít_nhất lần nghe tuyên_bố nhiệm_kỳ vị cứ 5 lần mỗi lần vị lên tìm cách vốn bằng thì lấy cơ_sở nào đòi nước phát_triển thu_nhập cao đấy chưa kể 2010 vị tuyên_bố 2020 sẽ nước phát_triển 2020 thì tuyên_bố 2030 sẽ nước phát_triển giờ sắp hết 2022 thì tuyên_bố 2050 sẽ trở_thành nước phát_triển thu_nhập cao như_vậy có_thể khẳng_định bánh_vẽ chính_phủ tăng tầm nhìn 2020 lên 2050 chính_phủ thì phải biết bánh_vẽ tuyên_giáo thì phải biết nói ngược nói xuôi đúng dân đen khổ vì cặp đôi</t>
-  </si>
-  <si>
-    <t>bhxh nên thêm phần hỗ_trợ trẻ_em gia_đình tham_gia lê_tuyết chính_sách bhxh nên phần hỗ_trợ trẻ_em gia_đình giảm thời_gian đóng tối_thiểu 20 còn 15 thu_hút tham_gia theo lãnh_đạo tổ_chức ilo</t>
-  </si>
-  <si>
-    <t>phương_trinh_jolie tôi sợ sinh_nhật tân_cao ca_sĩ phương_trinh jolie nói sợ sinh_nhật vì cảm_giác mình già dù vậy hạnh_phúc vì đón tuổi mới quây_quần bên chồng_con</t>
-  </si>
-  <si>
-    <t>nữ_công_nhân lên làm sếp lê_tuyết bắt_đầu vị_trí công_nhân trực_tiếp sản_xuất nhờ nỗ_lực học_hỏi ngại khó lên sếp quản_lý cả nghìn lao_động</t>
-  </si>
-  <si>
-    <t>ngân_sách 2023 chi bao_nhiêu cải_cách tăng lương anh_minh dự_toán chi ngân_sách dành 12 500 tỷ đồng cải_cách tiền_lương lương hưu điều_chỉnh một_số chế_độ trợ_cấp phụ_cấp chính_sách an_sinh xã_hội gắn lương cơ_sở</t>
-  </si>
-  <si>
-    <t>hôm_nay bộ giao_thông vận_tải y_tế bộ_trưởng mới viết_tuân quốc_hội sẽ phê_chuẩn bổ_nhiệm nhân_sự bộ_trưởng giao_thông vận_tải y_tế bầu tổng_kiểm_toán nhà_nước bằng hình_thức bỏ_phiếu kín chiều 21 10</t>
-  </si>
-  <si>
-    <t>chàng trai xe tiền tỷ tặng bạn gái cả vòng kim_cương nhưng vẫn cao lên 15cm vì quá mải tập_trung làm_ăn  câu_chuyện có_lẽ riêng ai thời_đại công_nghệ 4 0 mạng xã_hội bùng_nổ lúc mọi sẽ mối khác ngon hơn chàng trai mới_đây chẳng ngoại_lệ chỉ vì lo người_yêu sau_này sẽ cuộc_sống ấm_êm mà tập_trung sự_nghiệp kiếm tiền chính vì điều đó mà thời_gian dành bạn gái gần như_không mặc_dù xe tiền tỷ tặng cả vòng kim_cương nhưng người_yêu vẫn giúp tăng thêm 15cm thế mới thấy chị_em mà muốn chồng giàu thì phải chấp_nhận ta thời_gian mình muốn chồng đẹp zai thì phải chấp_nhận ta nhòm_ngó muốn thời_gian bên cạnh mình thì phải chấp_nhận ta giàu_sang</t>
+    <t>ban cán_sự đảng bộ giáo_dục đào_tạo nhiệm_kỳ 2016 2021 đề_nghị kỷ_luật viết_tuân ủy_ban kiểm_tra trung_ương đề_nghị bộ chính_trị xem_xét kỷ_luật ban cán_sự đảng bộ giáo_dục đào_tạo nhiệm_kỳ 2016 2021</t>
+  </si>
+  <si>
+    <t>thị_trường lao_động dễ tổn_thương lê_tuyết nhân_công giá rẻ lợi_thế cạnh_tranh qua nhưng lao_động dễ mất việc lưới an_sinh chưa đủ sức chống_đỡ nếu thị_trường gặp sự_cố</t>
+  </si>
+  <si>
+    <t>hà_nội ghi_nhận 12 ca tử_vong liên_quan sốt_xuất_huyết  chiều 27 10 khổng minh_tuấn phó_giám_đốc cdc hà_nội biết hà_nội ghi_nhận 12 ca tử_vong liên_quan sốt_xuất_huyết 12 bệnh_nhân địa_chỉ quận huyện như thanh_oai thanh_trì hà_đông phú_xuyên đan_phượng ba_đình long_biên hiện tất_cả quận huyện thị_xã 92 xã phường thị_trấn hà_nội đều ghi_nhận ca bệnh đặc_biệt bệnh_nhân tập_trung một_số quận huyện vùng_ven như đan_phượng hơn 950 ca mắc thanh_oai thường_tín thanh_trì</t>
+  </si>
+  <si>
+    <t>lê_hiếu đón con_trai đầu_lòng hoàng_dung ca_sĩ lê_hiếu đón con_trai đầu_lòng nặng 3 4 kg bệnh_viện phụ_sản quốc_tế tp hcm tối 26 10</t>
+  </si>
+  <si>
+    <t>bộ_trưởng đào hồng_lan mong chính_sách đảm_bảo nguồn_lực ngành y lâu_dài viết_tuân bộ_trưởng y_tế biết sẽ đề_xuất chính_sách tiền_lương phụ_cấp phù_hợp nhân_viên y_tế mục_tiêu đảm_bảo nguồn nhân_lực phục_vụ lâu_dài</t>
+  </si>
+  <si>
+    <t>chủ_tịch tỉnh hải_dương khiển_trách viết_tuân thủ_tướng khiển_trách triệu_thế_hùng chủ_tịch ubnd tỉnh hải_dương nhiệm_kỳ 2016 2021 do vi_phạm khuyết_điểm công_tác ban bí_thư kỷ_luật đảng</t>
+  </si>
+  <si>
+    <t>barca mùa thứ 2 liên_tiếp uống c2 theanh28 mặc_dù tậu lewan đỗ chính bayern thế nhưng barca vẫn khá_khẩm hơn đối_đầu trước đội bóng_nước đức tiếp_tục thua tan_nát 0 3 trên sân nou camp rạng sáng nay trận thua giúp barca vị_trí thứ 3 vẫn vượt qua vòng bảng lọt vòng knock out europa_league chứ phải uefa champions_league</t>
+  </si>
+  <si>
+    <t>xả súng kinh_hoàng phú_quốc khiến 2 qua khỏi bị_thương theanh28 vụ thanh_toán nhau bằng hoa cải vừa xảy bến tràm xã cửa_dương phú_quốc nguồn tin biết ít_nhất 2 nằm_xuống 2 bị_thương nặng biết đây vụ thanh_toán nhau giữa 2 băng_nhóm địa_phương dân nhập_cư</t>
+  </si>
+  <si>
+    <t>nông_dân vùng_cao đổi_đời nhờ mô_hình nuôi_trồng kết_hợp thế_đan ít nông_dân địa_phương tăng thu_nhập ổn_định cuộc_sống nhờ mạnh_dạn thay_đổi cây_trồng vật_nuôi giá_trị kinh_tế cao</t>
+  </si>
+  <si>
+    <t>thu_hẹp phần việc nhà_nước giảm tăng lương lê_tuyết ngân_sách có_hạn nhà_nước nên rút_lui lĩnh_vực thị_trường làm tốt giúp tinh_giản bộ_máy tăng lương nhóm làm công_việc còn theo chuyên_gia nguyễn quang_đồng</t>
+  </si>
+  <si>
+    <t>sóng_ngầm nghỉ_việc nhà_nước thu_hằng 6 gắn_bó khu_vực công trần_công hoàng 32 tuổi quyết_định nghỉ_việc dù đang lãnh_đạo phòng cơ_hội thăng_tiến bởi thu_nhập tương_xứng</t>
+  </si>
+  <si>
+    <t>trương bá chi_thu 14 triệu usd livestream như_anh diễn_viên hong_kong trương bá chi bán số hàng_hóa hơn 100 triệu nhân_dân_tệ hơn 13 9 triệu usd livestream</t>
+  </si>
+  <si>
+    <t>lãnh_đạo tài đảng bắt hết rồi việt_tân nhân_tài đảng bắt tù hết rồi còn mớ chuẩn_bị lò còn đâu nữa mà kiếm đừng mị_dân nữa tuyên_giáo ơi</t>
+  </si>
+  <si>
+    <t>tuấn_hưng tôi thanh_lam diva duy_nhất hà_thu tuấn_hưng tự nhận giọng hát mức trung_bình khá ngưỡng_mộ phong_cách âm_nhạc thanh_lam</t>
+  </si>
+  <si>
+    <t>lúng_túng xử_lý hơn 3 200 tỷ đồng nợ xấu bhxh lê_tuyết hơn 3 200 tỷ đồng nợ bảo_hiểm xã_hội bhxh kéo_dài ảnh_hưởng hơn 206 000 lao_động nhưng cơ_quan quản_lý kêu khó thu_hồi</t>
+  </si>
+  <si>
+    <t>helen thanh_đào phủ_nhận lừa_đảo như_anh diễn_viên helen thanh_đào phủ_nhận cùng bạn trai hoàng_cảnh_dụ lừa_đảo chiếm_đoạt tài_sản</t>
+  </si>
+  <si>
+    <t>bình_an từ_bỏ đam_mê tốc_độ vì phương_nga hà_thu diễn_viên bình_an lái_xe motor lên sân_khấu tiệc cưới biết sẽ từ_bỏ đam_mê vì phương_nga</t>
+  </si>
+  <si>
+    <t>bác_sĩ nguyễn tri_thức bệnh_viện loay_hoay biết mua_sắm thế_nào đúng viết_tuân tháng qua nhân_viên y_tế bệnh_viện vẫn loay_hoay chuyện mua_sắm đấu_thầu làm giảm thời_gian tập_trung chuyên_môn theo bác_sĩ nguyễn tri_thức</t>
+  </si>
+  <si>
+    <t>rich kid 2k1 chia_sẻ cách thao_túng tâm_lý bằng 3 bí kíp càng tiêu càng lời theanh28_entertainment bạn bảo mình rich kid mình chịu mình nhận thôi chả chối mỗi tháng tiền_tiêu vặt mình bằng thu_nhập cả gia_đình buổi shopping sương sương vài chục triệu chuyện bình_thường nhưng tụi mình giàu chứ ng nhỏ giáo_dục cách chi_tiêu tích_luỹ đầu_tư rồi nên mỗi đồng chi_tiêu đều tính_toán phải vung tay tiêu xàu thiếu suy_nghĩ như cách mình mua_sắm chỉ vì nhu_cầu đam_mê mà mục_đích khác nhau thường sẽ mỗi món đồ đặc tiền mình xài nhất hàng công_nghệ điện_tử mỹ_phẩm mình sẽ dùng quay video unbox trải nghiệm đánh_giá up lên nền_tảng mạng xã_hội tiktok youtube reels dần xây kênh nhận affiliate trở_thành vip thương_hiệu thì bạn sẽ luôn ưu_tiên mua bộ sưu_tập mới nhất giá ưu_đãi thường_xuyên nhận hàng dùng thử mỗi dịp sinh_nhật lễ tết đều nhận quà hay chương_trình ưu_đãi riêng tận_dụng chương_trình khuyến_mãi triệt_để thẻ tín_dụng bạn hay tỏ thông_minh kiểu nói thẻ tín_dụng nhưng thật chất đó phát_minh vĩ_đại tài_chính lợi chính sử_dụng quan_trọng bạn phải biết làm_chủ bản_thân chi_tiêu thông_minh thì lợi phải ngân_hàng mà chủ thẻ như lúc mua con iphone 14 mới tính mua gần 30 củ nhưng cơ_hội trúng hẳn voucher nghỉ_dưỡng trị_giá 10 triệu quá hời mà xài xong bạn hơn cả tháng trả tiền lúc đó tiền đấy bạn có_thể xoay t3 con chứng ngon_lành thêm điều bạn sở_hữu thẻ tín_dụng đều biết dùng thẻ tín_dụng ăn shopping thì luôn nhận thêm ưu_đãi giảm_giá hoàn tiền quà tặng hời hơn rất như nam a_bank đang khuyến_mãi kỷ_niệm 30 hoàn tiền chi_tiêu còn tặng voucher nghỉ_dưỡng đà_lạt nha_trang toàn khách_sạn resort xịn nếu mà sợ làm_chủ bản_thân sử_dụng thẻ tín_dụng thì bản_thân cứ mức phép bản_thân chi_tiêu trước bạn sẽ kiểm_soát tâm_lý muốn xài tiền mình kiểu gì bạn nói rich kid nói đạo_lý xài tiền bố_mẹ thôi chả cãi đâu bạn nói đúng quá cơ_mà nếu bạn giàu thì chắc bạn chả nói thế đâu nhờ rich kid 2k1 chia_sẻ</t>
+  </si>
+  <si>
+    <t>rau chợ dán mác vietgap chỉ tp hcm việt_an theo cục_trưởng quản_lý chất_lượng nông_lâm_thủy_sản hiện_tượng nhập rau chợ rồi dán mác vietgap đưa siêu_thị chỉ xảy tp hcm</t>
+  </si>
+  <si>
+    <t>tặng vàng công_nhân lễ cưới tập_thể  mỗi vợ_chồng công_nhân nhận chỉ vàng 9999 liên_đoàn lao_động thái_nguyên đám_cưới tập_thể tối 20 10</t>
+  </si>
+  <si>
+    <t>chỉ nó trung_quốc mới đủ sức cạnh_tranh hoa_kỳ việt_tân tướng lê_văn cương bắt_đầu xuất chiêu cuồng tập theo định_hướng tuyên_giáo lót đường chuyến nguyễn phú_trọng</t>
+  </si>
+  <si>
+    <t>đàm_vĩnh_hưng viết nhật_ký chăm con hoàng_dung đàm_vĩnh_hưng làm sổ nhật_ký viết_tay lưu cảm_xúc hình_ảnh con_trai ruột polo huỳnh chào_đời lớn lên từng ngày</t>
+  </si>
+  <si>
+    <t>haaland gặp van dijk tắt điện man xanh thất_bại đầu_tiên mùa giải theanh28 cuộc đối_đầu giữa nunez haaland hồi kết ai lên_tiếng cái tên sáng nhất trận cầu_thủ mùa mo salah bằng bàn thắng duy_nhất giúp liverpool chiến_thắng 0 trước man city_niềm vui cđv the_kop niềm vui fan arsenal kết_quả giúp pháo_thủ bỏ xa man xanh 4 điểm trên bxh</t>
+  </si>
+  <si>
+    <t>viên vịnh nghi fan tẩy_chay như_anh bộ_phận khán_giả tẩy_chay diễn_viên hong_kong_viên vịnh nghi chê giả_tạo thật lòng</t>
+  </si>
+  <si>
+    <t>chủ đầu_tư metro nhổn ga hà_nội phản_hồi dân lún nứt võ_hải tối 19 8 ban quản_lý đường_sắt đô_thị hà_nội mrb thừa_nhận một_số công_trình ảnh_hưởng bởi dự_án nhổn ga hà_nội nhưng hư_hại trước</t>
+  </si>
+  <si>
+    <t>chi pu xin_lỗi khán_giả hủy album tân_cao ca_sĩ chi pu xin_lỗi khán_giả vì một_số mv gây ồn_ào nội_dung thông_báo hủy kế_hoạch album đầu_tay</t>
   </si>
   <si>
     <t>tháo ngòi_nổ giữa công_nhân giới chủ lê_tuyết mặt thuyết_phục công_nhân ngừng việc lưu_kim_hồng chủ_tịch công_đoàn công_ty nidec đề_nghị ban giám_đốc xem_lại mức tăng lương tránh đình_công</t>
   </si>
   <si>
-    <t>vợ gào khóc bên thi_thể chồng theanh28_entertainment đừng vì vài_ba cốc bia chén rượu mà làm khổ đêm qua vụ tai_nạn thương_tâm xảy trên đường minh_khai hai bà trưng hà_nội nạn_nhân nam thanh_niên khoảng 30 tuổi uống quá_chén làm_chủ tốc_độ lao cột điện ven đường t ử v ong tại_chỗ liên_hệ người_thân thì ngay lập_tức vợ nam thanh_niên tới ngã khuỵu xuống đường gào khóc bên cạnh thi_thể chồng đừng vì chén chú chén mà cuối_cùng chịu thiệt_thòi đau_thương chính người_thân mình anh_em nhé</t>
-  </si>
-  <si>
-    <t>kỷ_luật phó_tt dùng facebook ủy_ban kiểm_tra trung_ương xem_xét kỷ_luật phó_tt vũ_đức_đam phó_tt phạm bình_minh bí_thư hà_nội đinh_tiến_dũng chẳng biết mừng hay chán</t>
-  </si>
-  <si>
-    <t>bạn trai tỏ_tình châu_tấn như_anh ca_sĩ trác việt 35 tuổi bày_tỏ tình_cảm châu_tấn dịp sinh_nhật diễn_viên 48 tuổi</t>
-  </si>
-  <si>
-    <t>địa_điểm nóng nhất tối nay sự_kiện âm_nhạc phố bộ theanh28 phố bộ hà_nội tối nay sự_kiện âm_nhạc siêu hoành_tráng thu_hút hàng nghìn khán_giả phiêu mình theo giai điệp cực cháy bữa tiệc âm_nhạc nóng càng nóng sự xuất_hiện binz tóc_tiên phiêu quên lối</t>
-  </si>
-  <si>
-    <t>mất cơ_hội việc_làm vì đồng_hương cư_trú bất_hợp_pháp hồng_chiêu học ngoại_ngữ chuẩn_bị sẵn_sàng kỳ thi sang hàn_quốc làm_việc diệp sốc hay tin quê mình nằm danh_sách dừng tuyển lao_động</t>
-  </si>
-  <si>
-    <t>phạt 7 5 triệu đồng vì đăng tin sai sự_thật theanh28 h n s trú quận cẩm_lệ thành_phố đà_nẵng lực_lượng chức_năng xử_phạt hành_chính số tiền 7 5 triệu đồng vì hành_vi cung_cấp hình_ảnh sai sự_thật trên mạng xã_hội cụ_thể cung_cấp hình_ảnh hộp cơm thịt chuột học_sinh</t>
-  </si>
-  <si>
-    <t>minh_tinh gốc á đầu_tiên xuất_hiện trên tiền mỹ phương_mai anna may_wong diễn_viên mang hai dòng máu mỹ trung_quốc sẽ trở_thành phụ_nữ gốc á đầu_tiên có_mặt trên tiền mỹ</t>
-  </si>
-  <si>
-    <t>justin_bieber cắt đứt quan_hệ kanye_west tam_kỳ ca_sĩ justin_bieber biết cắt đứt quan_hệ kanye west rapper chỉ_trích vợ người_mẫu hailey_bieber</t>
-  </si>
-  <si>
-    <t>công_an ra_quân thì làm cái mẹ gì đc bây_giờ vozer chào chúng m phân_vân quá đưa lên đây ae ý_kiến công_an giờ xin ra_quân lia_lịa mà_t phân_vân vl thì bằng_cấp như bọn t thì làm clg đc trình_độ thạc_sĩ nhưng chuyên_ngành tội_phạm_học nghĩ mãi mà ra_quân méo biết làm nghề_ngỗng gì đây</t>
+    <t>ý_kiến trái chiều đề_xuất giảm mức hưởng bhxh lần lê_tuyết theo cơ_quan quản_lý chỉ rút phần đóng lao_động sẽ hạn_chế nhận bảo_hiểm xã_hội lần song chuyên_gia rằng giải_quyết gốc_rễ mà còn gây bất_ổn</t>
+  </si>
+  <si>
+    <t>sẽ xử_lý nghiêm hành_vi đầu_cơ xăng dầu găm hàng đẩy giá bán theanh28 trước tình_trạng cửa_hàng bán_lẻ xăng dầu tạm ngưng hoạt_động gây bất_ổn ảnh_hưởng tiêu_dùng bộ_trưởng công_thương nguyễn_hồng_diên chỉ_đạo tổng_cục quản_lý thị_trường giám_sát kiểm_tra làm rõ nguyên_nhân kịp_thời phát_hiện kiên_quyết xử_lý nghiêm_khắc mọi hành_vi vi_phạm theo quy_định pháp_luật</t>
+  </si>
+  <si>
+    <t>quá ngưỡng_mộ thanh lam tuấn hưng quyết_định mở liveshow nữ diva tỏa sáng theanh28 mới_đây nam ca_sĩ tuấn_hưng tự nhận giọng hát mức trung_bình khá mà thần_tượng nhất chính diva thanh_lam mệnh_danh 4 diva nhạc_nhẹ bên cạnh hồng_nhung mỹ_linh trần_thu hà tri ân khán_giả ủng_hộ suốt thời_gian qua tuấn_hưng quyết_định mở liveshow chị tôi đặc_biệt kết_hợp cùng diva thanh_lam đêm nhạc hôm đó</t>
+  </si>
+  <si>
+    <t>britney spears nói từng mẹ đánh vì chơi khuya thanh_giang ca_sĩ britney spears chỉ_trích mẹ từng tát nặng_tay vì chơi 4h sáng mới</t>
+  </si>
+  <si>
+    <t>đoàn_thiên_ân tôi khóc vì tin mình trượt top 10 tân_cao indonesiangười đẹp đoàn_thiên_ân_khóc vì hụt_hẫng dừng bước top 20 rằng có_thể tiến xa hơn miss grand international 2022</t>
   </si>
   <si>
     <t>mùa bẻ măng rừng vùng_cao tư_huynh mùa măng rộ dân vùng_cao mỹ_thạnh huyện thuận_nam lên rừng bẻ măng mang bán thu_nhập 350 000 400 000 đồng ngày</t>
   </si>
   <si>
-    <t>hot đoàn_thiên_ân_hội_ngộ top 4 mgv ntk quách thái_công tình_tứ bên bạn trai mừng sinh_nhật 8 tuổi shynh_house theanh28 tối qua mạng xã_hội xôn_xao hình_ảnh hoa_hậu đoàn_thiên_ân cùng top 4 miss grand vietnam 2022 đọ sắc outfit hồng cực cháy ngoài sự tham_gia nàng hậu buổi sinh_nhật mang phần ấm_cúng còn quy_tụ dàn sao cực chất hit chớ nên sớm chưa quên người_yêu cũ bước bên em gây chú_ý nhất sự xuất_hiện cặp đôi ntk quách thái_công bạn trai huy_yves tình_tứ bên nhau thưởng_thức màn trình_diễn đông_nhi hà_nhi trọng hiếu không_thể thiếu màn quẩy sung_sức dj mie</t>
-  </si>
-  <si>
-    <t>hai nam thanh_niên may xòe đường va_chạm chậu hoa khiến thế_giới bên kia theanh28 sự_việc thương_tâm xảy lúc 12h trưa nay 26 10 xã sơn_cẩm tp thái_nguyên camera dân ghi hai nam thanh_niên còn rất trẻ tuổi_đầu mũ lái_xe tốc_độ cao nhưng rõ vì lý_do gì mà xòe đường cháu ngồi lúc va_chạm chậu hoa đặt ngoài cửa_nhà niệm luôn tại_chỗ</t>
-  </si>
-  <si>
-    <t>yêu_cầu xác_định trách_nhiệm thành_phố lớn ngập_lụt viết_tuân thành_phố lớn đầu_tư hiện_đại bất_ngờ ngập_lụt nguyên_nhân do đâu trách_nhiệm thuộc ai đại_biểu hoàng_đức_thắng băn_khoăn</t>
-  </si>
-  <si>
-    <t>bảo_ngọc tôi trầy da tróc vảy mới đoạt hoa_hậu tân_cao ngọc_thịnh bảo ngọc nói xứng_đáng đăng_quang hoa_hậu liên lục_địa nhờ nỗ_lực liên_tục bận_tâm lời chê dư_luận</t>
-  </si>
-  <si>
-    <t>phương_vy idol tôi từng sốc vì cân nặng 83 kg hoàng_dung phương_vy idol nói chồng mỹ chăm con yêu động_viên vợ tập_thể_hình tâng cân kiểm_soát sinh</t>
-  </si>
-  <si>
-    <t>bộ y_tế lên_tiếng phản_ánh đại_biểu quốc_hội viết_tuân ngày đại_biểu nguyễn tri_thức giám_đốc bệnh_viện chợ_rẫy phản_ánh quốc_hội việc khó mua thiết_bị đại_diện bộ y_tế lên_tiếng phản_hồi</t>
-  </si>
-  <si>
-    <t>hồ_ngọc_hà_hủy_show mỹ tâm_giao đại_diện ca_sĩ hồ_ngọc_hà biết hủy loạt show mỹ vì sức_khỏe đảm_bảo</t>
-  </si>
-  <si>
-    <t>sao mộc nước khả_năng tồn_tại sự sống kỳ_lạ thư báo nlđ phát_hiện mới nhất dựa trên dữ_liệu nasa thấy sao mộc đám mây nước khổng_lồ trữ_lượng oxy khá lớn khả_năng tồn_tại dạng sự sống đặc_biệt</t>
-  </si>
-  <si>
-    <t>chi pu xin_lỗi khán_giả hủy album tân_cao ca_sĩ chi pu xin_lỗi khán_giả vì một_số mv gây ồn_ào nội_dung thông_báo hủy kế_hoạch album đầu_tay</t>
-  </si>
-  <si>
-    <t>sáng nay quốc_hội_thảo_luận kinh_tế xã_hội sơn_hà sáng 27 10 quốc_hội bắt_đầu phiên đầu_tiên hai ngày thảo_luận kết_quả_thực_hiện kế_hoạch phát_triển kinh_tế xã_hội 2022 dự_kiến kế_hoạch 2023</t>
-  </si>
-  <si>
-    <t>sao the_flash đối_mặt án tù 26 phương_mai tài_tử ezra_miller từ_chối thỏa_thuận đầu_thú tòa_án đối_mặt án tù lên 26 nếu kết_tội đột_nhập ăn_trộm</t>
-  </si>
-  <si>
-    <t>gái luộc ghẹ rụng càng bố_mẹ chàng trai bênh ƞhưng lớn_tiếng nói_thế ấy mới ngấm  tìm_hiểu giai_đoạn cực_kỳ_quan_trọng chuyện tình cɑ ̉ m biết rõ hơn đối_phương bình_thường quen nhau thì êm_thấm nhưng xảy chuyện mới biết mình đaƞg quen đích_thực nɦư thế_nào biết_bao cặp đẹp_đôi lắm ngỡ nɦư hợp nhau lắm nhưng cuối_cùng vẫn chia_tay vì chịu nổi tính_cách nhau mà chịu nổi thì chọn chia_tay tốt nhất vì mai cưới chắc gì hòa_hợp ʋới nhau mới_đây nàng vô_cùng thất_vọng trước thái_độ bạn trai dành mình chuyện gì đâu chỉ nhân lúc bố_mẹ người_yêu qᴜê lên có_mang theo vài con ghẹ nấu_nướng a tới z rồi tự tay hấp ghẹ vì hai bác nhờ_vả do kinh_nghiệm nên hỏi người_yêu thì ɦướng dẫn bỏ cả con hấp mà em</t>
-  </si>
-  <si>
-    <t>đỗ_mỹ_linh tôi cưới chồng vì gia_thế tân_cao khang_ngô đỗ_mỹ_linh nói chồng sắp cưới con_trai bầu hiển yêu thật lòng đồng_điệu chứ vì tiền_tài gia_thế</t>
-  </si>
-  <si>
-    <t>bí_thư điện_biên giới_thiệu làm bộ_trưởng giao_thông vận_tải viết_tuân thủ_tướng trình quốc_hội đề_nghị phê_chuẩn bổ_nhiệm nguyễn_văn_thắng bí_thư tỉnh_ủy điện_biên làm bộ_trưởng giao_thông vận_tải nhiệm_kỳ 2021 2026</t>
-  </si>
-  <si>
-    <t>rửa chân 10 đàn_ông massage khiến đàn cá cùng qua_đời gamek vn rửa chân 10 đàn_ông massage khiến cả đàn cá cùng đăng xuất wong nhân_viên văn_phòng bắc_kinh trung_quốc rất ít thời_gian chăm_sóc bản_thân vì áp_lực công_việc rồi ngày anh_chàng bất_ngờ người_yêu thông_qua buổi hẹn_hò mai_mối sắp_đặt trước người_yêu wong rủ tới tiệm massgae chân thông_qua hình_thức ngâm chân bể nước rồi cá rỉa thế nhưng chẳng ai_ngờ chỉ ít_lâu wong nhúng chân toàn_bộ cá bể đều lần_lượt đăng xuất bằng hết tới đây trước sức_ép phía quản_lý wong mới thành_thật khai nhận rằng mình rửa chân suốt 10 hề ý_định phá_hoại tiệm massage may bạn gái wong thông_cảm điều yêu_cầu anh_chàng chia_tay</t>
-  </si>
-  <si>
-    <t>hn dân hoang_mang vì tin_đồn sữa đỉa dương_tùng 24h com vn ngày gần đây một_số huyện ngoại_thành hà_nội như mê_linh sóc_sơn đông_anh rộ lên tin_đồn phụ_nữ pha sữa con lúc thấy con đỉa đang bơi đó</t>
-  </si>
-  <si>
-    <t>vpbank bạo tay chi 100 tỷ đồng tài_trợ bản_quyền world_cup theanh28 bóng_đá môn thể_thao yêu thích nhất xem trận bóng đỉnh_cao world_cup món ăn tinh_thần không_thể thiếu hàng chục triệu việt vì_vậy tài_trợ kinh_phí mua bản_quyền world_cup 2022 phù_hợp mong_muốn mang giá_trị thịnh_vượng tinh_thần cộng_đồng vpbank đúng tinh_thần sứ_mệnh vì thịnh_vượng mà vpbank đang thực_hiện</t>
-  </si>
-  <si>
-    <t>mỹ_nhân thiên_long_bát_bộ cưới như_anh trương_mông đóng vương ngữ_yên thiên_long_bát_bộ 2013 tổ_chức hôn_lễ ca_sĩ hàn_kim eun_sung</t>
+    <t>hợp_thức_hóa vướng_mắc tính vi_phạm sửa luật đất_đai viết_tuân chủ_tịch quốc_hội yêu_cầu khắc_phục bất_cập thực_tiễn hợp_thức_hóa vướng_mắc tính_chất vi_phạm xây_dựng luật đất_đai sửa_đổi</t>
+  </si>
+  <si>
+    <t>nữ_sinh lớp 12 đoạt hcv vô_địch u18 nữ nội_dung cờ tiêu_chuẩn theanh28 nguyễn_thiên_ngân lớp 12 trường thpt chu_văn_an thái_nguyên đoạt hcv vô_địch u18 nữ nội_dung cờ tiêu_chuẩn 90 giải vô_địch cờ_vua trẻ châu á 2022 cách đây 3 thiên_ngân từng 2 hcv vô_địch thế_giới u14 nữ nội_dung cờ nhanh cờ chớp</t>
   </si>
   <si>
     <t>vì_sao đàn_ông thích một_mình vozer chắc_chắn nguyên_nhân khiến một_số đàn_ông thời nay dị_ứng hôn_nhân thậm_chí quá bi_quan nói lấy vợ chẳng khác gì tù bởi công_trình nghiên_cứu gần đây vẫn chỉ rằng xét trên phương_diện loài_người phương_thức sống nào tốt_đẹp hơn cuộc_sống lứa_đôi song bên cạnh đó vẫn lắm bậc cha_mẹ đứng ngồi yên vì con_trai đầu bốn vẫn chịu lấy vợ khiến làn_sóng độc_thân ngừng gia_tăng trên thế_giới</t>
   </si>
   <si>
-    <t>ngành_nghề đưa lao_động sang châu phi hồng_chiêu xây_dựng thợ hàn thợ_điện đốc_công thuyền_viên nghề cục quản_lý lao_động ngoài nước cấp phép doanh_nghiệp đưa lao_động làm_việc châu phi</t>
-  </si>
-  <si>
-    <t>phụ_nữ độc_thân chưa con ngày_càng giàu hơn zing vướng_bận chuyện gia_đình đặt nhu_cầu sự_nghiệp hưởng_thụ bản_thân làm ưu_tiên trước nhất phụ_nữ chọn kết_hôn hay con đang tích_lũy tài_sản hơn</t>
-  </si>
-  <si>
-    <t>bằng_chứng sốc sinh_vật sống đang hiện_diện trên sao kim thư báo nlđ khoa_học mỹ xác_định thành_phần chỉ có_thể tạo bởi sự sống đám mây sao kim</t>
-  </si>
-  <si>
-    <t>thầy ten hag xác_nhận ronaldo từ_chối sân theanh28 phát_biểu cuộc họp_báo trước thềm trận_đấu giữa man_utd chelsea diễn lúc 23h30 ngày_mai 22 10 hlv erik ten_hag khẳng_định cristiano_ronaldo từ_chối sân muốn đưa ronaldo sân thay phút 87 man utd dẫn 2 0 quyết_định sân bỏ ngay đó hành_động ronaldo khiến man utd cấm thi_đấu trận tiếp_theo gặp chelsea mức phạt cao nhất mà cr7 phải đối_diện 2 tuần lương tương_đương hơn triệu usd</t>
-  </si>
-  <si>
-    <t>sóng_ngầm nghỉ_việc nhà_nước thu_hằng 6 gắn_bó khu_vực công trần_công hoàng 32 tuổi quyết_định nghỉ_việc dù đang lãnh_đạo phòng cơ_hội thăng_tiến bởi thu_nhập tương_xứng</t>
-  </si>
-  <si>
-    <t>chủ_tịch tp đà_nẵng khiển_trách viết_tuân lê_trung_chinh phó_bí_thư thành_ủy bí_thư ban cán_sự đảng chủ_tịch ubnd tp đà_nẵng ủy_ban kiểm_tra trung_ương khiển_trách</t>
-  </si>
-  <si>
-    <t>bắt_giữ 5 cụ bà u70 chơi xóc_đĩa online theanh28 công_an quận ba_đình hà_nội vừa bắt_giữ 5 đối_tượng liên_quan việc tổ_chức đánh_bạc bằng hình_thức chơi xóc_đĩa trên trang_web đánh_bạc online lva788 com tang_vật thu_giữ khoảng 17 triệu đồng_tiền_mặt 5 điện_thoại_di_động laptop cùng đồ_vật liên_quan danh_tính đối_tượng xác_định tr thị_m sn 1967 trúc bạch ba_đình hà_nội v thị_y sn 1962 đống_mác hai bà trưng hà_nội ng thị_kh sn 1952 thanh_lương hai bà trưng hà_nội đ t thanh_th sn 1962 nguyễn_du hai bà trưng hà_nội ng thị_tuyết m sn 1957 trúc bạch ba_đình hà_nội</t>
-  </si>
-  <si>
-    <t>bà đào hồng_lan làm bộ_trưởng y_tế sơn_hà tỷ_lệ tán_thành 87 15 quốc_hội thông_qua nghị_quyết phê_chuẩn bổ_nhiệm bà đào hồng_lan bí_thư ban cán_sự đảng quyền bộ_trưởng y_tế giữ chức bộ_trưởng y_tế</t>
-  </si>
-  <si>
-    <t>phương_án thay_thế hoàn_hảo vị_trí kante dành potter xoilac9 hâm_mộ đội bóng thành london lo_ngại vết_thương n golo_kante sẽ ảnh_hưởng nhỏ phong_độ thi_đấu theo thông_tin mới nhất bác_sĩ thông_báo khả_năng tiền_vệ nước pháp góp_mặt world_cup 2022 rất thấp bên cạnh đó 7 gắn_bó chelsea cầu_thủ 31 tuổi muốn thử_thách bản_thân mình bằng việc tìm_kiếm bến đỗ mới nếu_như kante quyết_định the_blues cần phải chuẩn_bị bổ_sung tân_binh xuất_sắc có_thể thay_thế vị_trí quan_trọng đội_hình thi_đấu blđ chelsea đang nhắm cái tên có_thể thay_thế vị_trí cầu_thủ mang áo số 7 tuy_nhiên theo danny_murphy cựu cầu_thủ blackburn_rovers cầu_thủ declan_rice sẽ tuyển_thủ xứng_đáng vị_trí tiền_vệ trung_tâm</t>
-  </si>
-  <si>
-    <t>chuyến trọng tạo tiền_lệ nguy_hiểm vũ_việt cuộc xâm_lăng ukraine bắt_nguồn cựu tổng_thống viktor_yanukovych cựu tổng_thống thân nga thần phục putin tạo putin ấn_tượng rằng ukraine phần không_thể tách rời nga trọng đang làm như_vậy đối_với trung_quốc lãnh_tụ tập chuyến trọng cầu_an đảng cầu_cạnh chỗ dựa chế_độ cầm_quyền ấy cái giá phải trả sẽ rất đắt bằng quyền tự_quyết dân_tộc tuy_vậy trọng bộ chính_trị quan_tâm điều đó họ chỉ quan_tâm sự tồn_vong chế_độ đối_với họ còn đảng còn tất_cả tiền_đồ đất_nước quan_trọng bằng đảng hà_nội quỵ lụy trung_quốc chỉ khuyến_khích làm tăng thêm quyết_tâm tham_vọng thôn_tính đảng đang khóa chặt con đường nhân_dân hòa_nhập thế_giới văn_minh bài_học ukraine bài_học ukraine đang phải chiến_đấu bảo_vệ_quốc_gia chỉ vì họ từng kẻ quỵ lụy putin</t>
-  </si>
-  <si>
-    <t>nóng bắt tạm giam tina dương theanh28 trưa 13 10 cơ_quan csđt công_an tỉnh bình_thuận pc02 ban_hành quyết_định khởi_tố bị_can lệnh bắt bị_can tạm giam đối_với n t v a còn gọi tina_dương n t v a tina_dương 27 tuổi trú h lạng_giang tỉnh bắc_giang pc02 công_an tỉnh bình_thuận bắt điều_tra hành_vi lạm_dụng tín_nhiệm c hiếm đ oạt tài_sản theo điều 175 bộ_luật hình_sự 2015 sửa_đổi bổ_sung 2017 quyết_định khởi_tố bị_can lệnh bắt tạm giam n t v a pc02 công_an bình_thuận viện ksnd tỉnh bình_thuận phê_chuẩn cùng ngày</t>
-  </si>
-  <si>
-    <t>dàn sao dự đám_cưới diệu_nhi anh_tú tân_cao trấn thành ngọc_trinh minh_hằng lan_ngọc hội_tụ phan_thiết chúc_mừng hôn_lễ đôi diễn_viên diệu_nhi tú</t>
-  </si>
-  <si>
-    <t>hồ_ngọc_hà trở_lại công_việc tân_cao ca_sĩ hồ_ngọc_hà nắm tay kim_lý dự sự_kiện tp hcm sự_cố_hủy loạt show mỹ lý_do sức_khỏe tốt</t>
-  </si>
-  <si>
-    <t>gen z mặc_kệ chuyện hôn_nhân con_cái zing nền kinh_tế hỗn_loạn thị_trường việc_làm rối_ren đang làm giảm kỳ_vọng trẻ gen z chuyện hẹn_hò kết_hôn sinh con</t>
-  </si>
-  <si>
-    <t>dễ cú sốc chính_sách giảm mức hưởng bhxh lần lê_tuyết theo chuyên_gia nên tách khoản đóng_góp lao_động doanh_nghiệp quỹ bảo_hiểm xã_hội giảm mức hưởng trợ_cấp lần bởi sẽ gây xáo_trộn lớn</t>
-  </si>
-  <si>
-    <t>danh_ca mù andrea_bocelli gây xúc_động lễ quả bóng_vàng tân_cao danh_ca mù italy andrea bocelli hát khúc aria nổi_tiếng nessun dorma gala quả bóng vàng 2022</t>
-  </si>
-  <si>
-    <t>con làm bài 1h sáng chưa xong bố bức_xúc nhắn nhóm chat học_sinh thức ngủ th cháu en nay lớp mà thấy lúc_nào học miết nhớ hồi xưa hết 3 cấp 3 chẳng học thêm học nếm gì giờ thì thời_thế thay_đổi cháu nào như cháu nấy học cứ gọi liên_tục sáng tới tối thôi mẹ ạ kể sương sương thì sáng chiều học chính khóa trên lớp xong xíu rồi học thêm học thêm xong tối làm bài_tập khuya lắc khuya lơ mới ngủ mà gần như ngày nào học thêm cuối tuần thì học ƞǥoại khóa học ngoɑ ̣ i ngữ tham_gia cái cái kia nhìn thằng cháu đúng bơ_phờ nghĩ mà thươƞǥ vì chẳng hiểu sao giờ học như thế nhưng nghỉ vì mẹ nó lo học chẳng bằng bạn bằng bè rõ khổ học đương_nhiên tốt nhưng học quá đến_nỗi nhìn phờ_phạc thế kia thì đúng đáng lo thật mẹ ạ trẻ nhỏ_tuổi cần ăn ngủ đầy_đủ còn nhìn thằng cháu em mới lớp mà bữa nào 10 11h đêm mới học xong thấy thương gì đâu mới_đây đọc trên mấy cái group vụ học_sinh làm bài_tập mãi 1h sáng vẫn cɦưa xong kết quɑ ̉ bố cậu bé nổi đóa vớ giáo_viên luôn nè mẹ</t>
-  </si>
-  <si>
-    <t>công_an phú yên bức t ử dân bi_lun nạn_nhân thanh_niên khỏe_mạnh công_an đông_hòa phú_yên mời lên điều_tra 3 ngày giam_giữ gia_đình báo tin con mình c hế t do tự_tử điều bức_xúc gia_đình nhìn mặt hay đem_xá c diễn tiến đó công_an tự_ý đem chôn mà gia_đình biết chôn đâu hiện gia_đình đang theo đuõi việc đòi xá c con chúng_tôi sẽ cập_nhật thêm vụ_việc gia_đình</t>
-  </si>
-  <si>
-    <t>hồ_ngọc_hà lúc nghe trộm đột_nhập kim_lý lo mất nhẫn_cưới hoàng_dung dũng_thịnh hà_hồ nói kim_lý hốt_hoảng hơn báo tin trộm đột_nhập biệt_thự tp hcm sợ mất nhẫn_cưới cả hai</t>
-  </si>
-  <si>
-    <t>chín hộ dân sống trên nóc nhà_tù 113 năm_tuổi lê_tân chín hộ dân phường hồng_gai tp hạ_long mong tái_định_cư vì sống ngôi xây trên nóc trại_giam 113 tiềm_ẩn nguy_cơ sụt lún</t>
-  </si>
-  <si>
-    <t>thanh_niên chỉ còn triệu tài_khoản vẫn tự_tin đặt mua iphone 14 tặng crush theanh28_entertainment theo ghi_nhận p v đ chỉ còn vỏn_vẹn triệu đồng tài_khoản vẫn hết_sức tự_tin đặt iphone 14 chính hãng sự ngỡ_ngàng phần bốc_đồng mấy bạn hỏi chi_tiết hơn đ chia_sẻ bản_thân tin rằng món quà sẽ giúp đ người_yêu ngay lập_tức hỏi bí_quyết gì khiến đ tự_tin vậy anh_chàng biết thành_công săn ưu_đãi khủng nhất thị_trường đợt pre order mở thanh_toán bằng thẻ tín_dụng tpbank evo tích_góp thêm ưu_đãi bán_lẻ cộng tiện_ích thẻ hoàn tiền 10 lên 500k tháng chi_tiêu online thì đ khẳng_định sẽ mua iphone 14 giá chỉ bằng iphone 13 còn việc dù tài_khoản còn số tiền khiêm_tốn mà vẫn mạnh_mẽ chinh_phục sản_phẩm hot nhất hiện_nay thì đ nói thêm thẻ tín_dụng tpbank evo miễn lãi 45 ngày chuyển_đổi trả_góp 0 lãi_suất</t>
-  </si>
-  <si>
-    <t>hai bố con mừng sinh_nhật cửa_hàng gà rán xem nǥhèo khổ bóc_trần lối tư_duy nhóm thượng_đẳng th trên bàn chiếc bánh kem dâu_tây nhỏ cắm nến cậu bé nhắm_mắt chắp hai tay cầu_nguyện bố ngồi đối_diện dùng điện_thoại quay khoảnh_khắc mừng_tuổi mới con_trai cảnh ý_nghĩa ấm_áp như_vậy thế nhưng phần bình_luận rằng đây bữa tiệc sinh_nhật nghèo_khổ</t>
-  </si>
-  <si>
-    <t>xây_dựng tp hcm trở_thành điểm tầng_lớp trung_lưu trí_thức sơn_hà 10 25 tới trình_độ phát_triển tp hcm phải ngang tầm thành_phố lớn châu á điểm tầng_lớp trung_lưu trí_thức theo tổng_bí_thư nguyễn phú_trọng</t>
-  </si>
-  <si>
-    <t>lâm_chí_linh trầm_cảm sinh như_anh minh_tinh đài_loan lâm_chí_linh trầm_cảm sinh con tuổi gần 50 chồng vực dậy tinh_thần</t>
-  </si>
-  <si>
-    <t>chủ chốt cưới ngay shiper chuyển_khoản 5 tỷ mua theanh28_entertainment em chẳng biết đây chuyện vui hay buồn nữa bác ạ dạo gần đây em làm_ăn gọi phất lên tí nên muốn đổi đón bố_mẹ lên cùng ông_bà hưởng tuổi già ngoài công_việc chính thì em vẫn chạy ship thêm đồ ăn vì cái đam_mê dịch_chuyển mình thế nên hôm xem em tiện mặc đồ shipper hãng mà luôn căn em xem thì khá mới khang_trang em ưng cái bụng lắm ấy thế_mà lúc em định chốt đơn thì chị chủ nhìn em cái đầu xuống chân rồi hỏi ủa em xem giùm ai à em lúc đứng hình mất 5 giây rồi hiểu vấn_đề em mới bảo chị chuẩn_bị hợp_đồng giúp em nhé em chốt căn cái lúc chị đơ rồi bảo em nổ ngon thì chuyển luôn tiền hợp_đồng chị sẵn chỉ cần kí xong em tăng xông quá làm_sao chuyển đc 5 tỷ mà ngay em gọi ngay con_em làm ngân_hàng thì nó bảo app mbbank em bh chuyển đc ngay mỗi lần đc chuyển 5 tỷ vì mb mới cái tính_năng tự_động chia nhỏ lệnh nên tiền ngay mà phí chỉ 9k9 lúc em làm luôn bác ạ ting cái bên điện_thoại em chị chủ nhận tiền bả đứng hình rồi bất_ngờ hỏi em em em người_yêu chưa làm chồng chị nhé ủa sao bác bác em lời khuyên</t>
-  </si>
-  <si>
-    <t>ngôi làng ma khiến cư_dân sợ_hãi bỏ nguyễn_thảo goldthorpe nam_yorkshire mệnh_danh ngôi làng ma thời hiện_đại ngôi làng theo thống_kê nơi tỷ_lệ tội_phạm cao kỷ_lục vương_quốc</t>
-  </si>
-  <si>
-    <t>giải_tỏa gần 3 300 ha nuôi ngao trái_phép lê_tân ubnd tp hải_phòng yêu_cầu giải_tỏa khu_vực nuôi ngao 117 hộ dân trên diện_tích gần 3 300 ha vùng ven biển thuộc quận hải_an huyện kiến_thụy</t>
+    <t>nghi phạm ra_tay bạn gái hải_dương qua cơn nguy_kịch theanh28 liên_quan tới vụ án_mạng tối hôm 10 10 tứ_kỳ hải_dương khiến gái qua khỏi ra_tay bạn gái cơ_sở spa nghi phạm tự ra_tay chính mình nhưng may_mắn bác_sĩ bệnh_viện đa_khoa tỉnh hải_dương cứu sống thành_công hiện qua cơn nguy_kịch biết nguyên_nhân vụ_việc do mâu_thuẫn tình_cảm</t>
+  </si>
+  <si>
+    <t>biển số vừa tài_sản cá_nhân vừa công_cụ quản_lý nhà_nước nên cần hạn_chế một_số quyền tài_sản tránh đầu_cơ phức_tạp xử_lý sơn_hà biển số vừa tài_sản cá_nhân vừa công_cụ quản_lý nhà_nước nên cần hạn_chế một_số quyền tài_sản tránh đầu_cơ phức_tạp xử_lý</t>
+  </si>
+  <si>
+    <t>cử_tri lo_lắng giá dịch_vụ tăng nhưng tiền_lương chưa tăng sơn_hà giá dịch_vụ khoản phí đều tăng tiền_lương cán_bộ công_chức viên_chức lao_động chưa tăng khiến cử_tri lo_lắng</t>
+  </si>
+  <si>
+    <t>tăng thanh_hà ngọc nữ bà mẹ ba con hoàng_dung tuổi 36 diễn_viên tăng_thanh hà_hiện kinh_doanh làm nội_trợ mẹ ba con hạn_chế tham_gia showbiz</t>
   </si>
   <si>
     <t>kiến_nghị chi tiếp 100 tỷ đồng hỗ_trợ lao_động hồng_chiêu chính_phủ kiến_nghị thường_vụ quốc_hội phép chi tiếp hơn 100 tỷ đồng quỹ bảo_hiểm_thất_nghiệp hỗ_trợ 414 000 đủ điều_kiện hưởng 8 3 3 triệu đồng</t>
   </si>
   <si>
-    <t>chốt danh_sách bốn bộ_trưởng đăng_đàn trả_lời chất_vấn sơn_hà thủ_tướng bộ_trưởng nguyễn_thanh_nghị nguyễn_mạnh hùng phạm_thị thanh_trà tổng_thanh_tra chính_phủ đoàn hồng_phong sẽ đăng_đàn trả_lời chất_vấn</t>
-  </si>
-  <si>
-    <t>tp hcm chi xong gói hỗ_trợ thất_nghiệp 95 300 lao_động lê_tuyết bảo_hiểm xã_hội tp hcm chi gần 266 tỷ đồng 95 300 lao_động hưởng 8 3 3 triệu đồng gói bổ_sung quỹ bảo_hiểm_thất_nghiệp theo nghị_quyết 24</t>
-  </si>
-  <si>
-    <t>hội bạn thân mừng đám_cưới liêu hà_trinh tân_cao thanh_duy khả_như ngô_kiến_huy jun phạm hội_ngộ đám_cưới diễn_viên mc liêu hà_trinh tối 10 10</t>
-  </si>
-  <si>
-    <t>nguyễn_văn_thắng làm bộ_trưởng giao_thông vận_tải viết_tuân nguyễn_văn_thắng bí_thư tỉnh_ủy điện_biên quốc_hội phê_chuẩn bổ_nhiệm giữ chức bộ_trưởng giao_thông vận_tải tỷ_lệ tán_thành 87 15</t>
-  </si>
-  <si>
-    <t>rau vietgap phải bán giá_chợ  siêu_thị nay nông_dân trồng rau xã văn_đức huyện gia_lâm phải bỏ mác vietgap cạnh_tranh rau chợ</t>
-  </si>
-  <si>
-    <t>ét o ét ai tui nhờ mấy hôm mất nước theanh28 công_ty cổ_phần viwaco vừa thông_báo gửi khách_hàng việc tạm ngừng cấp_nước đấu nối kỹ_thuật tuyến ống truyền_tải nước_sạch sông đà do_vậy dân cần tích_trữ nước sử_dụng tiết_kiệm dự_kiến thời_gian tạm ngừng cấp_nước 20h ngày 29 10 15h ngày 30 10</t>
+    <t>bạn_đời con_gái thành_long phủ_nhận sống đầu đường xó chợ như_anh andi bạn_đời ngô_trác_lâm con_rơi tài_tử thành_long phủ_nhận hai sống đầu đường xó chợ</t>
+  </si>
+  <si>
+    <t>châu_tinh_trì tới nghinh_xuân vua hài hong_kong châu_tinh_trì tới tp hcm du_lịch thưởng_thức ẩm_thực</t>
+  </si>
+  <si>
+    <t>fifa nên loại iran trao vé dự world_cup ukraine duy phong vck fifa world_cup 2022 sẽ khai_mạc cuối tháng 11 nhưng lúc đang xuất_hiện làn_sóng phản_đối iran tham_dự giải_đấu nguyên_nhân xuất_phát chính_trị bởi iran quốc_gia ủng_hộ nga mạnh_mẽ nhất cuộc_chiến quân_sự ukraine kèm theo đó việc gần đây nhóm cá_nhân bóng_đá thể_thao iran gửi đơn chính_thức cơ_quan quản_lý bóng_đá thế_giới yêu_cầu cấm ddtqg dự world_cup 2022 bởi sự can_thiệp chính_phủ bằng cách ngăn_chặn phụ_nữ sân vận_động quốc_gia hồi_giáo trái quy_định fifa giám_đốc điều_hành shakhtar_donetsk sergei_palkin gửi thông_điệp tới fifa kêu_gọi cấm iran tham_dự world_cup 2022 thay đó vị lãnh_đạo shakhtar donetsk rằng nên trao suất đội_tuyển ukraine shakhtar donetsk kêu_gọi fifa cộng_đồng quốc_tế lập_tức cấm đội_tuyển iran tham_dự world_cup 2022 vì quốc_gia trực_tiếp tham_gia cuộc tấn_công khủng_bố nhắm dân dukraine suất nên dành đội_tuyển ukraine vòng play off ukraine gặp bất_lợi nhưng chiến_đấu bằng cả trái_tim quyết_định hợp_lý cả mặt lịch_sử thể_thao giám_đốc điều_hành shakhtar_donetsk sergei palkin kêu_gọi iran mộ 6 đại_diện châu á giành vé tham_dự vck fifa world_cup 2022 giải_đấu thầy trò carlos queiroz nằm bảng b cùng mỹ xứ wales đó ukraine không_thể vượt qua vòng_loại họ thua xứ wales chung_kết play off khu_vực châu âu trước đó fifa từng ủng_hộ uefa cấm đội_tuyển nga tham_dự vòng play off world_cup 2022 như_không thể_thao nước xuất_hiện giải_đấu khác nhau</t>
+  </si>
+  <si>
+    <t>nghệ_sĩ hà_văn trọng qua_đời hà_thu nghệ_sĩ hà_văn_trọng đạo_diễn phim số đỏ mất sáng 21 10 bệnh_viện trung_ương quân_đội 108 thọ 85 tuổi</t>
   </si>
 </sst>
 </file>
@@ -644,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -695,7 +1496,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -711,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -727,7 +1528,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -743,7 +1544,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -751,7 +1552,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -767,7 +1568,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -791,7 +1592,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -807,7 +1608,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -855,7 +1656,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -871,7 +1672,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -879,7 +1680,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -935,7 +1736,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -943,7 +1744,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -975,7 +1776,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1031,7 +1832,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1071,7 +1872,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1095,7 +1896,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1143,7 +1944,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1159,7 +1960,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1167,7 +1968,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1175,7 +1976,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1183,7 +1984,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1199,7 +2000,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1231,7 +2032,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1239,7 +2040,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1263,7 +2064,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1271,7 +2072,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1279,7 +2080,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1295,7 +2096,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1311,7 +2112,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1359,7 +2160,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1367,6 +2168,2142 @@
         <v>90</v>
       </c>
       <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357">
         <v>1</v>
       </c>
     </row>

--- a/train.xlsx
+++ b/train.xlsx
@@ -22,1072 +22,1072 @@
     <t>Nhãn</t>
   </si>
   <si>
+    <t>gong hyo jin cưới mỹ như_anh gong hyo_jin diễn_viên hàn đóng hoa trà nở kết_hôn ca_sĩ kevin oh ngày 11 10</t>
+  </si>
+  <si>
+    <t>bạo_lực gia_đình có_thể phải lao_động công_ích viết_tuân hành_vi bạo_lực gia_đình lựa_chọn hình_phạt lao_động công_ích như chăm_sóc cây_xanh khu công_cộng hoặc sửa_chữa làm sạch đường làng ngõ xóm</t>
+  </si>
+  <si>
+    <t>bác_sĩ m ổ tim cả ngày thù_lao 140 000 đồng theanh28 đứng m ổ tim bệnh_nhân suốt 7h 16h ngày tiền công chỉ 140 000 đồng khiến bác_sĩ e_ngại chọn ngành ph ẫu thu ật tim</t>
+  </si>
+  <si>
+    <t>vtv chính_thức sở_hữu bản_quyền world_cup 2022 theanh28 vtv vừa chính_thức công_bố trở_thành đơn_vị sở_hữu bản_quyền truyền_thông fifa world_cup 2022 vtv gửi lời cảm_ơn sự đóng_góp tài_trợ quan_trọng đơn_vị đồng_hành đó 2 tập_đoàn 4 ngân_hàng</t>
+  </si>
+  <si>
+    <t>mai_ngô gái thị_phi thành á_hậu hoàng_dung á_hậu mai_ngô từng dừng hoạt_động giải_trí bốn vì áp_lực chỉ_trích ăn_nói ngỗ_ngược phát_ngôn gây sốc</t>
+  </si>
+  <si>
+    <t>fred đại đế chấn bé đù nunez_tỏa sáng giúp đội 3 điểm theanh28 gì bất_ngờ trận man_united tottenham mà phải hành_quân sân old_trafford nơi khiến arsenal liverpool bại_trận thì gà trống thành london chung số_phận phơi_áo 2 0 sự_tỏa sáng fred đại đế bruno đó cầu_thủ mà mọi chê suốt thời_gian qua chấn_bé đù nunez tự ghi tên mình lên bảng điện_tử bằng bàn thắng duy_nhất giúp liverpool tiếp_tục 3 điểm thứ 2 liên_tiếp</t>
+  </si>
+  <si>
+    <t>hà_nội hỗ_trợ tiền đóng bảo_hiểm xã_hội tự_nguyện lao_động võ_hải chính_quyền thủ_đô trích kinh_phí ngân_sách hỗ_trợ tiền đóng bhxh tự_nguyện dân trên địa_bàn mức 10 30 tùy_nhóm</t>
+  </si>
+  <si>
+    <t>miss hong_kong 2022 tôi sợ lấy chồng  lâm_ngọc_vị hoa_hậu hong_kong 2022 nói sợ lấy chồng vì mang_tiếng gái hư</t>
+  </si>
+  <si>
+    <t>amber heard nêu 16 lý_do kháng_cáo johnny_depp phương_mai diễn_viên amber heard nộp văn_bản giải_trình 16 lý_do kháng_cáo kết_quả phiên_tòa chồng cũ johnny_depp</t>
+  </si>
+  <si>
+    <t>đề_nghị tăng lương cơ_sở 2023 sơn_hà 11 đại_biểu quốc_hội đề_nghị tăng lương cơ_sở trước 6 tháng thay_vì 7 2023 như đề_xuất chính_phủ nhằm tháo_gỡ khó_khăn ngành giáo_dục y_tế</t>
+  </si>
+  <si>
+    <t>hàn_quốc tăng số_lượng nới lỏng yêu_cầu lao_động việt hồng_chiêu hàn_quốc nâng tỷ_lệ tuyển_dụng tối_đa lên 20 lao_động nước_ngoài trình_độ cao thị_thực e7 cần kinh_nghiệm tốt_nghiệp đại_học trở lên</t>
+  </si>
+  <si>
+    <t>nghi phạm ra_tay bạn gái hải_dương qua cơn nguy_kịch theanh28 liên_quan tới vụ án_mạng tối hôm 10 10 tứ_kỳ hải_dương khiến gái qua khỏi ra_tay bạn gái cơ_sở spa nghi phạm tự ra_tay chính mình nhưng may_mắn bác_sĩ bệnh_viện đa_khoa tỉnh hải_dương cứu sống thành_công hiện qua cơn nguy_kịch biết nguyên_nhân vụ_việc do mâu_thuẫn tình_cảm</t>
+  </si>
+  <si>
+    <t>sao game of thrones cưới phương_mai nữ diễn_viên lena_headey đóng vai cersei game of thrones cùng tài_tử marc menchaca kết_hôn hai yêu</t>
+  </si>
+  <si>
+    <t>phó_chủ_tịch hội_đồng lý_luận trung_ương nguyễn_quang_thuấn cảnh_cáo viết_tuân ủy_ban kiểm_tra trung_ương cảnh_cáo nguyễn_quang_thuấn phó_chủ_tịch hội_đồng lý_luận trung_ương nguyên bí_thư đảng_ủy nguyên chủ_tịch viện hàn_lâm khoa_học xã_hội</t>
+  </si>
+  <si>
+    <t>thật_sự quá thương chiến_binh áo xanh áo trắng theanh28 gs nguyễn trí trả_lời phỏng_vấn bên lề phiên thảo_luận sáng 28 10 kỳ họp thứ_tư quốc_hội khóa xv nhấn_mạnh lương chế_độ phụ_cấp cán_bộ ngành y_tế quá thấp điều_kiện làm_việc đảm_bảo</t>
+  </si>
+  <si>
+    <t>travis_scott phủ_nhận ngoại_tình phương_mai rapper travis scott nói người_mẫu rojean kar bịa chuyện ngoại_tình lưng bạn gái kylie_jenner</t>
+  </si>
+  <si>
+    <t>thành_công thất_bại đảng csvn nguyễn_hưng_quốc bộ_máy tuyên_truyền cầm_quyền hoàn_toàn thất_bại việc thuyết_phục dân_chúng họ đang quan_tâm độc_lập chủ_quyền đất_nước nhưng họ thành_công việc họ làm đại đa_số dân_chúng mặc_kệ tất_cả điều đó mặc_kệ hoàng_sa trường_sa mặc_kệ biển_đông mặc_kệ danh_dự tổ_quốc mặc_kệ hết mọi chỉ lo cái mình chiếc xe mình bữa ăn_nhậu tràn_trề bia rượu mình nó đúng cái cảnh chế_lan_viên tự phê_phán mình ngày trước lũ chúng_ta ngủ giường chiếu hẹp giấc mơ con đè nát cuộc_đời con hạnh_phúc đựng tà_áo đẹp mái yên rủ bóng xuống tâm_hồn cái đảng cộng_sản phê_phán ngày_trước cái họ đang làm bây_giờ</t>
+  </si>
+  <si>
+    <t>công_nhân bỏ quê vì nhà_máy ít việc lê_tuyết nhà_máy giảm 50 đơn hàng huỳnh_văn_toản 40 tuổi nghỉ_việc đưa con cà_mau trở_lại nghề biển gần 20 rời quê làm công_nhân</t>
+  </si>
+  <si>
+    <t>đàm_vĩnh_hưng viết nhật_ký chăm con hoàng_dung đàm_vĩnh_hưng làm sổ nhật_ký viết_tay lưu cảm_xúc hình_ảnh con_trai ruột polo huỳnh chào_đời lớn lên từng ngày</t>
+  </si>
+  <si>
+    <t>nữ_sinh 17 tuổi chuyên toán việt nam trở_thành kiện_tướng cờ vua thế_giới theanh28 ngày 5 17 9 giải vô_địch cờ_vua thanh_niên thế_giới 3 lứa tuổi u14 u16 u18 world youth chess championships 2022 diễn romania gỉa_đấu gồm 11 vòng_đấu quy_tụ 620 kỳ_thủ hơn 70 liên_đoàn tới khắp châu_lục kỳ_thủ nguyễn hồng_nhung thi_đấu hạng_mục u16 nữ kết_thúc giải nguyễn hồng_nhung bằng điểm vô_địch nhưng chỉ nhận huy_chương bạc vì kém chỉ_số phụ</t>
+  </si>
+  <si>
+    <t>tác_giả vua trò_chơi chết cố cứu đuối nước phương_mai họa_sĩ truyện_tranh nhật_bản kazuki takahashi xác_nhận thiệt_mạng cố_gắng cứu khỏi chết_đuối</t>
+  </si>
+  <si>
+    <t>iphone 15 pro sẽ khai_tử nút vật_lý vozer chuyên_gia phân_tích ming chi kuo biết mẫu iphone 15 pro thế_hệ tiếp_theo có_thể hoán_đổi nút nguồn âm_lượng vật_lý bằng phiên_bản sử_dụng phản_hồi xúc_giác</t>
+  </si>
+  <si>
+    <t>đoàn_thiên_ân_diễn đầm dạ_hội cut out miss_grand tân_cao đẹp đoàn_thiên_ân_diện thiết_kế phong_cách gợi_cảm do đỗ_long thực_hiện_tại vòng bán_kết miss grand international 2022 tối 22 10</t>
+  </si>
+  <si>
+    <t>hai nam thanh_niên may xòe đường va_chạm chậu hoa khiến thế_giới bên kia theanh28 sự_việc thương_tâm xảy lúc 12h trưa nay 26 10 xã sơn_cẩm tp thái_nguyên camera dân ghi hai nam thanh_niên còn rất trẻ tuổi_đầu mũ lái_xe tốc_độ cao nhưng rõ vì lý_do gì mà xòe đường cháu ngồi lúc va_chạm chậu hoa đặt ngoài cửa_nhà niệm luôn tại_chỗ</t>
+  </si>
+  <si>
+    <t>nữ_sinh lớp 12 đoạt hcv vô_địch u18 nữ nội_dung cờ tiêu_chuẩn theanh28 nguyễn_thiên_ngân lớp 12 trường thpt chu_văn_an thái_nguyên đoạt hcv vô_địch u18 nữ nội_dung cờ tiêu_chuẩn 90 giải vô_địch cờ_vua trẻ châu á 2022 cách đây 3 thiên_ngân từng 2 hcv vô_địch thế_giới u14 nữ nội_dung cờ nhanh cờ chớp</t>
+  </si>
+  <si>
+    <t>công_nhân thiếu chỗ gửi con hồng_chiêu thiếu trường công chi_phí trường tư cao công_nhân phải tăng ca nên đưa con nhóm lớp mầm_non hoặc gửi quê ông_bà chăm</t>
+  </si>
+  <si>
+    <t>fan chi triệu usd mừng sinh_nhật triệu_lệ_dĩnh như_anh fan diễn_viên trung_quốc_triệu_lệ dĩnh chi hàng triệu usd quảng_cáo dịp 35 tuổi</t>
+  </si>
+  <si>
+    <t>cách nhà_máy xoay_xở giữ lao_động chờ đơn hàng lê_tuyết lúc thiếu đơn hàng nhà_máy long_rich tp thủ_đức công_nhân nghỉ hưởng lương tổ_chức ăn trưa lao_động công_ty giữ mối liên_lạc</t>
+  </si>
+  <si>
+    <t>nguyên chánh_án tand tỉnh hòa_bình khai_trừ đảng viết_tuân hà_quang_dĩnh nguyên tỉnh_ủy_viên nguyên bí_thư ban cán_sự đảng nguyên chánh_án tand tỉnh hòa_bình ban bí_thư khai_trừ đảng</t>
+  </si>
+  <si>
+    <t>qua campuchia làm tôi mạnh_mẽ hơn  t sang cam làm_ăn đéo phải casino t biết hết đường tiểu_ngạch anh_em biên_phòng quen_mặt nên soát kĩ tháng t 10 lần</t>
+  </si>
+  <si>
+    <t>cuộc_sống tiêu_ân_tuấn ly_hôn như_anh tiêu_ân_tuấn sao đài_loan đóng tiểu_lý phi_đao dành thời_gian đam_mê nhiếp_ảnh ly_dị 2020</t>
+  </si>
+  <si>
+    <t>11 nghệ_sĩ tổ_chức đêm nhạc kỷ_niệm_tình anh_em tân_cao touliver binz soobin rhymastic justatee làm live concert kỷ_niệm 11 gắn_bó khẳng_định tình anh_em</t>
+  </si>
+  <si>
+    <t>cơn mưa một_số tuyến đường quận tân_phú bủa_vây bởi dòng nước_màu đỏ nồng_nặc mùi hoá_chất ảnh_hưởng hàng trăm hộ dân đình_văn cơn mưa một_số tuyến đường quận tân_phú bủa_vây bởi dòng nước_màu đỏ nồng_nặc mùi hoá_chất ảnh_hưởng hàng trăm hộ dân</t>
+  </si>
+  <si>
+    <t>chưa xem_xét giảm thêm thuế xăng_dầu anh_minh uỷ_ban tài_chính ngân_sách quốc_hội rằng nếu cần_thiết có_thể giảm tiếp thuế bảo_vệ môi_trường trước tính tới giảm thuế tiêu_thụ đặc_biệt vat</t>
+  </si>
+  <si>
+    <t>sinh_viên nhất hát bài 2 3 con mực ví yếu sinh_lực cái nghèo ập quá nhanh theanh28_entertainment sinh_viên nhất lên hà_nội chỉ tháng đầu_tiên tiêu gần 20 triệu bạn l sinh_viên học_viện ngoại_giao thái_bình lên hà_nội nhập_học bố_mẹ đưa 30 triệu đóng học_phí chuẩn_bị chỗ hiểu kiểu gì sinh_viên nhất đóng học_phí 10 triệu đó tiêu luôn 10tr còn chỉ 17 ngày bắt_đầu nhập_học ngày đầu_tiên l tới trung_tâm thương_mại lớn hà_nội tiêu phát 7tr chiếc hóa_đơn dài vô_cùng tận chưa dừng đó l sốc nhìn tổng_số tiền tiêu việc săn sale online mình lên gần 10tr đó 6tr tiền mỹ_phẩm skincare cuộc_sống bỗng_nhiên thấy nặng_nề dữ cái nghèo bỗng đè lên vai bé tên l l mua đồ sale giảm_giá rất nhưng vẫn bay tận 10 triệu tới nỗi mà bill trừ tiền lazada giá_trị_hóa đơn 2010k mà đọc lời chúc trên bill lazada la_roche posay chúc bạn nữ ngày 20 10 vui_vẻ cả tiền lẫn tình tiếp_tục chốt đơn ầm_ầm nhé ko biết nên vui hay nên buồn chí_phèo bệnh còn thị_nở chăm_sóc nấu cháo hành l giờ_đây biết kêu ai chăm_chỉ tự nấu mì tôm hành mà thôi</t>
+  </si>
+  <si>
+    <t>chốt danh_sách bốn bộ_trưởng đăng_đàn trả_lời chất_vấn sơn_hà thủ_tướng bộ_trưởng nguyễn_thanh_nghị nguyễn_mạnh hùng phạm_thị thanh_trà tổng_thanh_tra chính_phủ đoàn hồng_phong sẽ đăng_đàn trả_lời chất_vấn</t>
+  </si>
+  <si>
+    <t>chủ chốt cưới ngay shiper chuyển_khoản 5 tỷ mua theanh28_entertainment em chẳng biết đây chuyện vui hay buồn nữa bác ạ dạo gần đây em làm_ăn gọi phất lên tí nên muốn đổi đón bố_mẹ lên cùng ông_bà hưởng tuổi già ngoài công_việc chính thì em vẫn chạy ship thêm đồ ăn vì cái đam_mê dịch_chuyển mình thế nên hôm xem em tiện mặc đồ shipper hãng mà luôn căn em xem thì khá mới khang_trang em ưng cái bụng lắm ấy thế_mà lúc em định chốt đơn thì chị chủ nhìn em cái đầu xuống chân rồi hỏi ủa em xem giùm ai à em lúc đứng hình mất 5 giây rồi hiểu vấn_đề em mới bảo chị chuẩn_bị hợp_đồng giúp em nhé em chốt căn cái lúc chị đơ rồi bảo em nổ ngon thì chuyển luôn tiền hợp_đồng chị sẵn chỉ cần kí xong em tăng xông quá làm_sao chuyển đc 5 tỷ mà ngay em gọi ngay con_em làm ngân_hàng thì nó bảo app mbbank em bh chuyển đc ngay mỗi lần đc chuyển 5 tỷ vì mb mới cái tính_năng tự_động chia nhỏ lệnh nên tiền ngay mà phí chỉ 9k9 lúc em làm luôn bác ạ ting cái bên điện_thoại em chị chủ nhận tiền bả đứng hình rồi bất_ngờ hỏi em em em người_yêu chưa làm chồng chị nhé ủa sao bác bác em lời khuyên</t>
+  </si>
+  <si>
+    <t>chi pu xin_lỗi khán_giả hủy album tân_cao ca_sĩ chi pu xin_lỗi khán_giả vì một_số mv gây ồn_ào nội_dung thông_báo hủy kế_hoạch album đầu_tay</t>
+  </si>
+  <si>
+    <t>cổ thiên_lạc đón tuổi 52 như_anh tài_tử hong_kong_cổ thiên_lạc đón tuổi 52 bên người_thân phủ_nhận sức_khỏe sa_sút</t>
+  </si>
+  <si>
+    <t>miền trung có_thể chia thành hai tiểu_vùng viết_tuân chính_phủ đề_xuất giữ nguyên không_gian phát_triển đất_nước theo 6 vùng kinh_tế xã_hội chia trung_du miền núi phía bắc miền trung_thành hai tiểu_vùng</t>
+  </si>
+  <si>
+    <t>cộng_sản vẽ bánh việt_tân_page facebook hôm 26 tháng mười 2022 trang thông_tin chính_phủ đưa tuyên_bố tầm nhìn tới 2050 trở_thành nước phát_triển thu_nhập cao ngay_lập_tức phía bên dưới facebook khanh_hung bình_luận mỗi 40 qua ít_nhất lần nghe tuyên_bố nhiệm_kỳ vị cứ 5 lần mỗi lần vị lên tìm cách vốn bằng thì lấy cơ_sở nào đòi nước phát_triển thu_nhập cao</t>
+  </si>
+  <si>
+    <t>tp hcm sẽ biến mất 2030 việt_tân tp hcm sẽ biến mất 2030 hy_vọng tên sài_gòn sẽ trở_lại như xưa</t>
+  </si>
+  <si>
+    <t>giằng_co tăng lương nhà_máy lê_tuyết lương tối_thiểu vùng tăng 7 nhà_máy đưa phương_án thương_lượng điều_chỉnh mức mới song dễ đạt thỏa_thuận công_nhân</t>
+  </si>
+  <si>
+    <t>bộ giáo_dục đang xem_thường tính_mạng nhân_dân việt_tân_page facebook nghề dược nghề liên_quan trực_tiếp tới tính m ạng khác vì_thế phải tự_nhiên mà quy_định rất nghiêm_ngặt đối_với nghề dược_sĩ vậy_mà xứ thiên_đường xhcn chẳng cần học chỉ cần đóng tiền bằng cử_nhân dược rồi thử_hỏi rằng trường thì cử_nhân sẽ bán thuốc kê thuốc bao_nhiêu dân ốm_đau bệnh_tật nếu xảy ch ết thì chỉ dân thiệt thôi chứ lãnh_đạo ký duyệt thiệt gì đâu</t>
+  </si>
+  <si>
+    <t>công_an ra_quân thì làm cái mẹ gì đc bây_giờ vozer chào chúng m phân_vân quá đưa lên đây ae ý_kiến công_an giờ xin ra_quân lia_lịa mà_t phân_vân vl thì bằng_cấp như bọn t thì làm clg đc trình_độ thạc_sĩ nhưng chuyên_ngành tội_phạm_học nghĩ mãi mà ra_quân méo biết làm nghề_ngỗng gì đây</t>
+  </si>
+  <si>
+    <t>đại_biểu đề_nghị cải_cách chính_sách tiền_lương 2024 viết_tuân đại_biểu nguyễn_huy_thái đề_nghị tăng lương cơ_sở 2023 nếu đất_nước tăng_trưởng kinh_tế tốt thì 2024 cải_cách chính_sách tiền_lương</t>
+  </si>
+  <si>
+    <t>sở gd đt tp hcm quyết_định lùi giờ học tất_cả học_sinh cấp theanh28 ngày 27 10 hồ tấn_minh chánh văn_phòng sở gd đt tphcm biết ban giám_đốc sở quyết_định lùi giờ học đối_với học_sinh cấp mầm_non thpt theo đó học_sinh mầm_non tiểu_học sẽ bắt_đầu giờ học sớm nhất lúc 7h30 thcs sớm nhất lúc 7h15 thpt sớm nhất lúc 7h</t>
+  </si>
+  <si>
+    <t>nông_dân tăng thu_nhập nhờ nuôi chim trĩ lươn bùn cẩm_liên nông_dân huyện đồng_phú chủ_động thay_đổi mô_hình chăn_nuôi sang chim trĩ lươn bùn tăng thu_nhập tạo công ăn việc_làm tại_chỗ</t>
+  </si>
+  <si>
+    <t>đề_nghị giải_trình cuộc thanh_tra 6 7 chưa kết_luận viết_tuân một_số đại_biểu quốc_hội đề_nghị cơ_quan_chức_năng biết nguyên_nhân giải_pháp chế_tài xử_lý cuộc thanh_tra 2015 2016 nay vẫn chưa ban_hành kết_luận</t>
+  </si>
+  <si>
+    <t>bí_thư điện_biên giới_thiệu làm bộ_trưởng giao_thông vận_tải viết_tuân thủ_tướng trình quốc_hội đề_nghị phê_chuẩn bổ_nhiệm nguyễn_văn_thắng bí_thư tỉnh_ủy điện_biên làm bộ_trưởng giao_thông vận_tải nhiệm_kỳ 2021 2026</t>
+  </si>
+  <si>
+    <t>gỗ quan lũ dân việt_tân chuyện kiểm_lâm ban quản_lý rừng lâm_tặc mặc_nhiên khai_thác gỗ lậu chặt phá rừng còn chuyện xa_lạ đối_với cầm_quyền nữa vụ_việc phá rừng phải tự_nhiên mà chúng_ta thường thấy mùa lũ_lụt biết_bao dân trôi của_cải trâu_bò lợn gà quan quyền cao chức trọng thì hả_hê mâm cao cỗ đầy bộ bàn ghế tủ kệ hạng sang khối gỗ quý_hiếm đây nguyên_nhân hệ cứ lũ_lụt nghe câu lũ dân gỗ quan vậy ai tiếp_tay lâm_tặc phá rừng thế_lực nào có_thể ngang_nhiên làm việc lực_lượng kiểm_lâm chuyên_trách bảo_vệ rừng cơ_quan công_an lực_lượng bảo_vệ pháp_luật giữ_gìn an_ninh trật_tự đâu mà lâm_tặc ngang_nhiên phá rừng lấy gỗ trục_lợi kẻ_gian lấn_chiếm đất rừng bán kiếm lợi hàng tỷ đồng đây chắc_chắn phải bảo_kê cán_bộ công_chức thì lâm_tặc mới ngang_nhiên rừng chặt phá nếu bảo_kê chống lưng thì chỉ cần động_thái nhỏ xâm_hại rừng đất lâm_nghiệp sẽ cơ_quan_chức_năng thẩm_quyền xử_lý ngay chứ đừng nói chặt hàng chục m3 gỗ vận_chuyển khỏi rừng trót_lọt hay rừng chặt phá vài ha rồi trồng cây trên đó thậm_chí bán đất lâm_nghiệp kiếm lợi hàng tỷ đồng nạn lâm_tặc phá rừng lấy gỗ trục_lợi lấn_chiếm sang_nhượng đất lâm_nghiệp trái_phép thu lợi bất_chính đang diễn tương_đối phổ_biến sự tham_gia sân cán_bộ công_chức tất_nhiên cụ_thể ai thì chúng_ta không_thể biết chính_xác nhưng phải số_lượng nhỏ cánh rừng sẽ chảy_máu giữ vững màu xanh đồi núi nhằm chống suy_thoái môi_trường biến_đổi khí_hậu ngày_càng diễn_biến phức_tạp như hiện_nay thì chỉ chính_quyền đưa biện_pháp phòng_chống xử_lý kẻ lợi_dụng chức_vụ quyền_hạn bảo_kê chống lưng trực_tiếp hoặc gián_tiếp tiếp_tay lâm_tặc phá rừng hoặc nhóm lấn_chiếm đất rừng sang_nhượng đất rừng thu lợi bất_chính</t>
+  </si>
+  <si>
+    <t>karim_benzema trở_thành chủ_nhân danh_hiệu quả bóng vàng 2022 theanh28 cống_hiến thầm_lặng thì cuối_cùng karim_benzema hái quả ngọt danh_hiệu qbv 2022 hoàn_toàn xứng_đáng mà hề tranh_cãi nào cư_dân mạng điều đó khiến qbv vẫn chưa ai sinh 9x xướng tên mặc_dù 9x u30 hết cả rồi thế mới thấy cầu_thủ 8x thi_đấu sức_bền đáng kinh_khủng</t>
+  </si>
+  <si>
+    <t>phương_trinh_jolie tôi sợ sinh_nhật tân_cao ca_sĩ phương_trinh jolie nói sợ sinh_nhật vì cảm_giác mình già dù vậy hạnh_phúc vì đón tuổi mới quây_quần bên chồng_con</t>
+  </si>
+  <si>
+    <t>mỹ_nhân ấn_độ qua_đời tuổi 30 như_anh vaishali_takkar diễn_viên 30 tuổi ấn_độ phát_hiện chết nhà_riêng thư tuyệt_mệnh</t>
+  </si>
+  <si>
+    <t>cơ_hội gặp_mặt tuyển_thủ hàng_đầu clb borussia dortmund fan hâm_mộ theanh28 trận giao_hữu quốc_tế giữa đt dortmund sẽ diễn ngày 30 11 trên sân mỹ_đình đây có_thể xem cơ_hội lớn đt cọ_xát trước aff cup 2022 thầy_trò hlv park_hang_seo sẽ dịp so tài lực_lượng rất mạnh dortmund</t>
+  </si>
+  <si>
+    <t>bố chồng trực đêm lương hơn 5 triệu đưa hết con dâu tiền nuôi cháu th mới_đây bố chồng bạc_châu an_huy khiến cư_dân mạng xuýt_xoa bàn_tán sôi_nổi hành_động vô_cùng ý_nghĩa mình biết dù hơn tuổi nghỉ hưu nhưng vẫn quyết_định làm_vì cɦo rằng sức_khỏe mình vẫn tốt lúc còn cố_gắng trực đêm tăng cao thu_nhập ngày nọ trực ca đêm bố chồng hành_động khiến con dâu vô_cùng bất_ƞǥờ đưa toàn_bộ số lương mình vừa nhận con dâu con dâu đồng đồng mua_sắm thứ thứ kia cháu ǥái</t>
+  </si>
+  <si>
+    <t>hoài lâm quay trở_lại rồi_đây theanh28 mới_đây hoài_lâm chính_thức comeback đêm nhạc hoa nở màu đà_lạt tối 15 10 thu_hút hơn 800 xem nam ca_sĩ gây chú_ý xuất_hiện ngoại_hình khác_biệt lần tái_xuất hoài_lâm lúc hát chênh phô quên lời lâm lần gập cảm_ơn khán_giả thông_cảm bỏ_qua mình sai_sót</t>
+  </si>
+  <si>
+    <t>trường thcs lê quý đôn cấm thu tất_cả loại quỹ kể_cả quỹ phụ_huynh theanh28 mới_đây trên diễn_đàn mạng xã_hội lan_truyền_thông_tin trường thcs lê_quý_đôn tp thủ_đức tp hcm yêu_cầu phụ_huynh đóng quỹ lớp đóng quỹ khuyến_học đóng quỹ ban đại_diện cha_mẹ học_sinh đặc_biệt phụ_huynh muốn tài_trợ nhà_trường phải văn_bản đồng_ý phòng giáo_dục thông_tin khiến chú_ý bởi bối_cảnh đầu năm_học mới trường lớp đều kêu_gọi phụ_huynh đóng_góp quỹ lớp quỹ phụ_huynh thậm_chí nơi còn đưa khoản thu độc lạ gây phản_ứng trái chiều</t>
+  </si>
+  <si>
+    <t>chủ_tịch tỉnh hải_dương khiển_trách viết_tuân thủ_tướng khiển_trách triệu_thế_hùng chủ_tịch ubnd tỉnh hải_dương nhiệm_kỳ 2016 2021 do vi_phạm khuyết_điểm công_tác ban bí_thư kỷ_luật đảng</t>
+  </si>
+  <si>
+    <t>đau_lòng bé trai 4 tuổi t ử v ong bất_thường trường_học theanh28 khoảng 14h chiều nay giấc_ngủ trưa như_thường_lệ trường mầm_non bắc_sơn nhóm trẻ cùng dậy tiếp_tục buổi học chiều nhưng cháu phạm_thái s sn 2018 lớp nhỡ 2 dậy cô_giáo kiểm_tra thì phát_hiện cháu còn cử_động sự_việc nhanh_chóng báo lên ban giám_hiệu nhà_trường đồng_thời cõng cháu đưa cấp_cứu phòng_khám đa_khoa khu_vực bắc_sơn nhưng bác_sỹ kết_luận cháu t ử v ong trước phòng_khám</t>
+  </si>
+  <si>
+    <t>tới nào việt nam mới biết sự_thật đáng buồn việt_tân cả thế_giới đều biết nước nghèo_khó kinh_tế nhưng giầu_có bệnh_tật ung_thư cả thế_giới đều biết bạt_ngàn tượng_đài ngàn tỉ nhưng trường_học bệnh_viện trạm y_tế cầu_đường còn thiếu_thốn khắp mọi nơi cả thế_giới đều biết siêu_cường_quốc dân oan siêu_cường_quốc xuất_khẩu lao_động cả thế_giới đang bàn quyền vi_sinh_vật thì tước_đoạt quyền con_người tính_mạng con_người rẻ_rúng cả thế_giới đều biết rất đáng thương nhưng sao tưởng mình đang sống thiên_đường cả thế_giới đều biết quan_chức trùm quan tham tham_nhũng cả tổng_bí_thư còn vạch cả chiến_dịch đốt lò nhưng chẳng ăn_thua còn rất điều cần_thiết nhưng vẫn động_thái nào cầm_quyền biến trở_nên văn_minh giàu đẹp hơn liệu dân từng đòi_hỏi thứ mình cần liệu cầm_quyền nghe tiếng thở_than dân hay</t>
+  </si>
+  <si>
+    <t>bằng_chứng sốc sinh_vật sống đang hiện_diện trên sao kim thư báo nlđ khoa_học mỹ xác_định thành_phần chỉ có_thể tạo bởi sự sống đám mây sao kim</t>
+  </si>
+  <si>
+    <t>nawat cảm_ơn fan việt vì unfollow theanh28 mất khoảng 2 triệu lượt theo_dõi trên ig vài trăm_nghìn trên fanpage thì cách đây vài phút chủ_tịch miss grand international chính_thức dòng chia_sẻ như tôi kiểm_tra instagram mgi tất_cả lượt bỏ theo_dõi đều cảm_ơn bỏ theo_dõi chúng_tôi luôn tôn_trọng công_bằng tất_cả mọi mọi đất_nước mr nawat viết bằng tiếng</t>
+  </si>
+  <si>
+    <t>đỗ_mỹ_linh chồng hát khiêu_vũ tiệc cưới tân_cao hoa_hậu đỗ_mỹ_linh doanh_nhân đỗ vinh_quang hát khiêu_vũ kéo mọi hòa điệu tiệc cưới</t>
+  </si>
+  <si>
+    <t>mùa bẻ măng rừng vùng_cao tư_huynh mùa măng rộ dân vùng_cao mỹ_thạnh huyện thuận_nam lên rừng bẻ măng mang bán thu_nhập 350 000 400 000 đồng ngày</t>
+  </si>
+  <si>
+    <t>bạn trai tỏ_tình châu_tấn như_anh ca_sĩ trác việt 35 tuổi bày_tỏ tình_cảm châu_tấn dịp sinh_nhật diễn_viên 48 tuổi</t>
+  </si>
+  <si>
+    <t>lê_hiếu đón con_trai đầu_lòng hoàng_dung ca_sĩ lê_hiếu đón con_trai đầu_lòng nặng 3 4 kg bệnh_viện phụ_sản quốc_tế tp hcm tối 26 10</t>
+  </si>
+  <si>
+    <t>công_cuộc đốt lò trọng việt_tân công_cuộc đốt lò trọng loại_trừ tham_nhũng mà chỉ khui hũ mắm dân thấy lúc_nhúc giòi đó</t>
+  </si>
+  <si>
+    <t>di_dời xóm nhà_thuyền 40 tồn_tại lê_tân 62 hộ dân hơn 150 nhân_khẩu sống xóm nhà_thuyền trên sông tam_bạc sẽ nhận 10 triệu đồng mỗi hộ di_dời nơi khác</t>
+  </si>
+  <si>
+    <t>diệu_nhi tú hội_ngộ bạn_bè trước ngày cưới tân_cao cặp_sao tổ_chức bữa tiệc thân_mật cùng hội bạn đồng_nghiệp thân_thiết như trấn thành jun phạm ngô_kiến_huy trước ngày cưới</t>
+  </si>
+  <si>
+    <t>gen z mặc_kệ chuyện hôn_nhân con_cái zing nền kinh_tế hỗn_loạn thị_trường việc_làm rối_ren đang làm giảm kỳ_vọng trẻ gen z chuyện hẹn_hò kết_hôn sinh con</t>
+  </si>
+  <si>
+    <t>đoàn_thiên_ân gặp sự_cố diễn trang_phục 10 kg tân_cao thiên_ân_trình_diễn thiết_kế trúc chỉ nặng 10 kg miss grand international 2022 phần khung xoay do motor gặp sự_cố</t>
+  </si>
+  <si>
+    <t>ngôi làng ma khiến cư_dân sợ_hãi bỏ nguyễn_thảo goldthorpe nam_yorkshire mệnh_danh ngôi làng ma thời hiện_đại ngôi làng theo thống_kê nơi tỷ_lệ tội_phạm cao kỷ_lục vương_quốc</t>
+  </si>
+  <si>
+    <t>lâm_khánh_chi phẫu_thuật dây thanh_quản tân_cao ca_sĩ lâm_khánh_chi phẫu_thuật dây thanh_quản giọng nói nữ_tính hoàn_thiện bản_thân chuyển giới</t>
+  </si>
+  <si>
+    <t>nóng bắt tạm giam tina dương theanh28 trưa 13 10 cơ_quan csđt công_an tỉnh bình_thuận pc02 ban_hành quyết_định khởi_tố bị_can lệnh bắt bị_can tạm giam đối_với n t v a còn gọi tina_dương n t v a tina_dương 27 tuổi trú h lạng_giang tỉnh bắc_giang pc02 công_an tỉnh bình_thuận bắt điều_tra hành_vi lạm_dụng tín_nhiệm c hiếm đ oạt tài_sản theo điều 175 bộ_luật hình_sự 2015 sửa_đổi bổ_sung 2017 quyết_định khởi_tố bị_can lệnh bắt tạm giam n t v a pc02 công_an bình_thuận viện ksnd tỉnh bình_thuận phê_chuẩn cùng ngày</t>
+  </si>
+  <si>
+    <t>tp hcm không_thể thu_hồi gần 400 tỷ đồng nợ bảo_hiểm lê_tuyết gần 7 500 doanh_nghiệp nợ bảo_hiểm xã_hội 396 tỷ đồng nhưng giải_thể dừng hoạt_động chủ bỏ trốn nên khó thu_hồi ảnh_hưởng 34 000 lao_động</t>
+  </si>
+  <si>
+    <t>mối quan_hệ giữa kanye_west adidas rạn_nứt phương_mai quan_hệ hợp_tác giữa kanye_west adidas rạn_nứt rapper hành_động khó hiểu gây tranh_cãi</t>
+  </si>
+  <si>
+    <t>lao_động xa xứ giằng_xé vì bỏ trốn làm chui đức_hùng làm_việc bất_hợp_pháp chị thanh trả lương cao hơn nhưng luôn nơm_nớp lo_sợ phát_hiện trục_xuất</t>
+  </si>
+  <si>
+    <t>vì_sao đàn_ông thích một_mình vozer chắc_chắn nguyên_nhân khiến một_số đàn_ông thời nay dị_ứng hôn_nhân thậm_chí quá bi_quan nói lấy vợ chẳng khác gì tù bởi công_trình nghiên_cứu gần đây vẫn chỉ rằng xét trên phương_diện loài_người phương_thức sống nào tốt_đẹp hơn cuộc_sống lứa_đôi song bên cạnh đó vẫn lắm bậc cha_mẹ đứng ngồi yên vì con_trai đầu bốn vẫn chịu lấy vợ khiến làn_sóng độc_thân ngừng gia_tăng trên thế_giới</t>
+  </si>
+  <si>
+    <t>2 qua_đời vụ tai_nạn ô_tô đà_lạt theanh28 tối 13 10 khoảng 19h30 chiếc ô_tô 7 chỗ bất_ngờ lao xuống hồ xuân_hương đà_lạt lực_lượng cứu_hộ khẩn_trương có_mặt hiện_trường trục_vớt ô_tô tìm_kiếm nạn_nhân biết lao xuống hồ ô_tô tất_cả 4 2 thoát ngoài 2 còn qua khỏi</t>
+  </si>
+  <si>
+    <t>minh_tinh gốc á đầu_tiên xuất_hiện trên tiền mỹ phương_mai anna may_wong diễn_viên mang hai dòng máu mỹ trung_quốc sẽ trở_thành phụ_nữ gốc á đầu_tiên có_mặt trên tiền mỹ</t>
+  </si>
+  <si>
+    <t>nguyễn_văn_thắng làm bộ_trưởng giao_thông vận_tải viết_tuân nguyễn_văn_thắng bí_thư tỉnh_ủy điện_biên quốc_hội phê_chuẩn bổ_nhiệm giữ chức bộ_trưởng giao_thông vận_tải tỷ_lệ tán_thành 87 15</t>
+  </si>
+  <si>
+    <t>vì_sao cố_định lịch nghỉ tết hồng_chiêu lịch nghỉ tết khó cố_định do ngày nghỉ chính_thức có_thể trùng cuối tuần xen_kẽ ngày làm_việc cần áp_dụng nghỉ bù hoặc hoán_đổi</t>
+  </si>
+  <si>
+    <t>sao mộc nước khả_năng tồn_tại sự sống kỳ_lạ thư báo nlđ phát_hiện mới nhất dựa trên dữ_liệu nasa thấy sao mộc đám mây nước khổng_lồ trữ_lượng oxy khá lớn khả_năng tồn_tại dạng sự sống đặc_biệt</t>
+  </si>
+  <si>
+    <t>angelababy ám_ảnh hôn_nhân đổ_vỡ như_anh diễn_viên trung_quốc angelababy nói e_ngại yêu_đương vì sợ cảnh cãi nhau chia_tay</t>
+  </si>
+  <si>
+    <t>hoa_hậu đỗ_mỹ_linh tung ảnh cưới tân_cao hoa_hậu đỗ_mỹ_linh công_bố ảnh cưới cùng bạn trai đỗ vinh_quang chủ_tịch hà_nội fc dịp sinh_nhật tuổi 26</t>
+  </si>
+  <si>
+    <t>bộ giáo_dục đang xem_thường tính_mạng nhân_dân hồng_hà ngày 6 tháng chín 2022 báo tuổi_trẻ đưa tin bộ lđ tb xh cử đoàn thanh_tra việc học_viên đăng_ký nộp học_phí trường cao_đẳng dược hà_nội nhưng dự kỳ thi tốt_nghiệp trường cao_đẳng y_tế phú_thọ nhận bằng trường cao_đẳng lê_quý_đôn biên_hòa đồng_nai nghề dược nghề liên_quan trực_tiếp tới tính m ạng khác vì_thế phải tự_nhiên mà quy_định rất nghiêm_ngặt đối_với nghề dược_sĩ vậy_mà xứ thiên_đường xhcn chẳng cần học chỉ cần đóng tiền bằng cử_nhân dược rồi thử_hỏi rằng trường thì cử_nhân sẽ bán thuốc kê thuốc bao_nhiêu dân ốm_đau bệnh_tật nếu xảy ch ết thì chỉ dân thiệt thôi chứ lãnh_đạo ký duyệt thiệt gì đâu khó hiểu chỗ tại_sao sự_việc tiêu_cực diễn trường cao_đẳng mà bộ giáo_dục bộ công_an hay viện kiểm_sát vào_cuộc điều_tra xử_lý bộ lđ tb xh thanh_tra nhỉ hay sự_việc đâu đấy chìm_xuồng như bao vụ khác</t>
+  </si>
+  <si>
+    <t>lâm_chí_dĩnh xuất_hiện tai_nạn như_anh tài_tử đài_loan lâm_chí dĩnh lần đầu đăng ảnh vụ tai_nạn trên xe tesla hồi tháng 7</t>
+  </si>
+  <si>
+    <t>gói hỗ_trợ tiền trọ giải_ngân hơn 50 hồng_chiêu gói hỗ_trợ tiền trọ nhằm kéo lao_động quay thị_trường mới giải_ngân hơn 3 500 tỷ đồng đạt 54 5 theo bộ lao_động thương_binh xã_hội</t>
+  </si>
+  <si>
+    <t>rửa chân 10 đàn_ông massage khiến đàn cá cùng qua_đời gamek vn rửa chân 10 đàn_ông massage khiến cả đàn cá cùng đăng xuất wong nhân_viên văn_phòng bắc_kinh trung_quốc rất ít thời_gian chăm_sóc bản_thân vì áp_lực công_việc rồi ngày anh_chàng bất_ngờ người_yêu thông_qua buổi hẹn_hò mai_mối sắp_đặt trước người_yêu wong rủ tới tiệm massgae chân thông_qua hình_thức ngâm chân bể nước rồi cá rỉa thế nhưng chẳng ai_ngờ chỉ ít_lâu wong nhúng chân toàn_bộ cá bể đều lần_lượt đăng xuất bằng hết tới đây trước sức_ép phía quản_lý wong mới thành_thật khai nhận rằng mình rửa chân suốt 10 hề ý_định phá_hoại tiệm massage may bạn gái wong thông_cảm điều yêu_cầu anh_chàng chia_tay</t>
+  </si>
+  <si>
+    <t>chín hộ dân sống trên nóc nhà_tù 113 năm_tuổi lê_tân chín hộ dân phường hồng_gai tp hạ_long mong tái_định_cư vì sống ngôi xây trên nóc trại_giam 113 tiềm_ẩn nguy_cơ sụt lún</t>
+  </si>
+  <si>
+    <t>bắt_giữ 5 cụ bà u70 chơi xóc_đĩa online theanh28 công_an quận ba_đình hà_nội vừa bắt_giữ 5 đối_tượng liên_quan việc tổ_chức đánh_bạc bằng hình_thức chơi xóc_đĩa trên trang_web đánh_bạc online lva788 com tang_vật thu_giữ khoảng 17 triệu đồng_tiền_mặt 5 điện_thoại_di_động laptop cùng đồ_vật liên_quan danh_tính đối_tượng xác_định tr thị_m sn 1967 trúc bạch ba_đình hà_nội v thị_y sn 1962 đống_mác hai bà trưng hà_nội ng thị_kh sn 1952 thanh_lương hai bà trưng hà_nội đ t thanh_th sn 1962 nguyễn_du hai bà trưng hà_nội ng thị_tuyết m sn 1957 trúc bạch ba_đình hà_nội</t>
+  </si>
+  <si>
+    <t>pgs nguyễn lân hiếu cần tuyên_bố kết_thúc đại_dịch covid 19 viết_tuân theo bác_sĩ nguyễn lân hiếu cần tuyên_bố kết_thúc đại_dịch covid 19 chuyển sang giai_đoạn mới hạn_chế tốn_kém thuốc vật_tư tiêu_hao</t>
+  </si>
+  <si>
+    <t>nông_dân vùng_cao đổi_đời nhờ mô_hình nuôi_trồng kết_hợp thế_đan ít nông_dân địa_phương tăng thu_nhập ổn_định cuộc_sống nhờ mạnh_dạn thay_đổi cây_trồng vật_nuôi giá_trị kinh_tế cao</t>
+  </si>
+  <si>
+    <t>kỷ_luật phó_tt dùng facebook ủy_ban kiểm_tra trung_ương xem_xét kỷ_luật phó_tt vũ_đức_đam phó_tt phạm bình_minh bí_thư hà_nội đinh_tiến_dũng chẳng biết mừng hay chán</t>
+  </si>
+  <si>
+    <t>ngô_văn_tuấn giữ chức tổng_kiểm_toán nhà_nước sơn_hà ngô_văn_tuấn phó_tổng kiểm_toán nhà_nước quốc_hội bầu giữ chức tổng_kiểm_toán nhiệm_kỳ 2021 2026 tỷ_lệ tán_thành 92 17 chiều 21 10</t>
+  </si>
+  <si>
+    <t>giải_thưởng nhân_quyền lê đình lượng 2022 bảo_vệ chủ_quyền trước nguy_cơ trung quốc sẽ tổ_chức tokyo nhật bản việt_tân lúc đảng cộng_sản trung_quốc thách_thức trật_tự thế_giới gia_tăng hành_động quân_sự chèn_ép nước láng_giềng thì cầm_quyền cộng_sản tỏ rõ thái_độ hèn giặc ác dân hơn bao_giờ hết hà_nội chẳng_những lên_tiếng cảnh_báo nguy_cơ chủ_quyền quốc_gia xâm_phạm cùng nhân_dân tạo_dựng sức_mạnh dân_tộc chống ngoại_xâm mà họ còn đàn_áp bắt giam biểu_tình phản_đối trung_cộng nhu_cầu tạo nhận_thức mối đe_dọa ngoại bang ngày_càng trở_nên cấp_thiết hơn vì lý_do nên đảng việt_tân quyết_định giải_thưởng nhân_quyền lê đình_lượng 2022 mang chủ_đề bảo_vệ chủ_quyền trước nguy_cơ trung quốc chủ_đề đảng việt_tân muốn đề_cao sự hy_sinh rất hoạt_động đang giam_cầm hoặc đang tranh_đấu kêu_gọi sự quan_tâm đồng_bào như dư_luận thế_giới mối đe_dọa trung_quốc đối_với chủ_quyền như lê đình_lượng hoạt_động bất_chấp sự đàn_áp cầm_quyền can_đảm xuống đường biểu_tình chống trung_cộng giơ cao tấm biểu_ngữ lên_án hành_vi xâm_lược bắc_kinh như tổ_chức tưởng_niệm chiến_sĩ hy_sinh bảo_vệ hai quần_đảo trường_sa hoàng_sa thế nhưng hành_động bày_tỏ lòng yêu nước ôn_hòa họ nhà_nước cộng_sản khuyến_khích mà ngược_lại họ còn đàn_áp bắt giam quyền tự_do ngôn_luận tự_do tụ_họp quyền lên_tiếng bảo_vệ chủ_quyền đất_nước họ hà_nội tước_đoạt tất_cả cá_nhân hay tổ_chức hoạt_động mục_tiêu tạo sự quan_tâm đồng_bào thế_giới đối_với việc bảo_vệ chủ_quyền sẽ đối_tượng nhận giải_thưởng nhân_quyền lê đình_lượng 2022 tên cá_nhân hay tổ_chức tuyển_chọn sẽ công_bố thời_điểm đầu tháng 12 buổi lễ trao giải_thưởng nhân_quyền lê đình_lượng 2022 sẽ tổ_chức ngày 10 tháng 12 tokyo nhật_bản đánh_dấu ngày tuyên_ngôn_quốc_tế nhân_quyền ra_đời ngày_sinh_nhật lê đình_lượng đồng_thời sự_kiện tổ_chức nhật_bản nhằm thêm trao_đổi giới_chức chính_phủ nhật_bản thân hữu nhật việc có_thể cùng làm tạo sự quan_tâm thế_giới giúp ngăn_chặn hành_vi xâm_lấn trung_quốc chúng_tôi mong_mỏi giải_thưởng sẽ nỗ_lực đóng_góp cụ_thể nỗ_lực cảnh_báo mối đe_dọa trung_quốc như công_cuộc tranh_đấu tự_do dân_chủ yếu_tố không_thể thiếu tạo_dựng sức_mạnh dân_tộc chống ngoại_xâm</t>
+  </si>
+  <si>
+    <t>vấn_đề lớn dự_án luật thanh_tra sửa_đổi sơn_hà giữ thanh_tra huyện thành_lập thanh_tra tổng_cục cục thuộc bộ thể_chế_hóa chủ_trương phòng_chống tham_nhũng vấn_đề lớn dự_án luật sửa_đổi</t>
+  </si>
+  <si>
+    <t>brad pitt gặp chủ đội đua xe f1 thanh_giang tài_tử brad pitt trò_chuyện giám_đốc điều_hành f1 một_số chủ đội thảo_luận dự_án phim mới</t>
+  </si>
+  <si>
+    <t>con_gái lấy chồng xa 2 chỉ gửi hũ cải chua mẹ_già kɦông dám ăn lúc mở vội báo cɑ ̉ nh sát th có_lẽ điều chạnh_lòng bố_mẹ gả con_gái lấy chồng xa phần vì nhớ thươƞǥ phần không_thể cận_kề bênh_vực hay an_ủi con mới_đây câu_chuyện mẹ 60 tuổi đòi công_lý cɦo đứa con xấu_số khiến thêm nghẹn_ngào mẹ tên thúy_ngọc 60 ƭuổi theo bà chia_sẻ trước đây bà chồng đam_mê công_việc nên tới 5 kết_hôn mới con lúc hai vợ_chồng tuổi trung_niên nên đứa con như món quà vô_giá tạo_hóa con_gái tên đình_đình bố_mẹ yêu_thương thiếu bất_cứ thứ gì đáp ngoan_ngoãn chăm học đáng tiếc đình_đình lên trung_học lúc bố qua_đời đó mọi gánh nặng gia_đình đè_nén lên vai bà ngọc nhưng vì tình_thương con nên bà chấp_nhận cáng_đáng tất_cả miễn_sao chứng_kiến con trưởng tɦành tương_lai tốt_đẹp</t>
+  </si>
+  <si>
+    <t>chiến_dịch chống tham_nhũng việt nam phủ bóng đen lên nền kinh_tế hãng tin nikkei vụ bắt_giữ lãnh_đạo doanh_nghiệp nổi_tiếng tạo làn_sóng rút_tiền ồ_ạt ngân_hàng tmcp sài_gòn bắt_giữ một_số lãnh_đạo doanh_nghiệp nổi_tiếng nhất cuộc thanh_trừng chống tham_nhũng kéo_dài tháng gây hoang_mang giữa ngành_nghề đe_dọa nền kinh_tế đang phát_triển nhanh nhất đông_nam_á vụ bắt_giữ mới nhất làm dấy lên cuộc tháo_chạy đối_với cổ_phần tư_nhân sài_gòn ngân_hàng thương_mại scb ngày 8 tháng 10 khách_hàng tràn_ngập chi_nhánh scb đòi rút_tiền tiết_kiệm tin_đồn lan_truyền trên phương_tiện truyền_thông xã_hội rằng ngân_hàng có_thể đang gặp khó_khăn ngày trước đó chính_quyền bắt_giữ bà trương mỹ_lan sáng_lập chủ_tịch công_ty phát_triển bất_động_sản vạn_thịnh_phát group_holdings vtp cùng cùng ba giám_đốc điều_hành khác vtp quan_hệ sâu_sắc scb nhóm sở_hữu tài_sản bị_cáo_buộc phát_hành bất_hợp_pháp trái_phiếu công_ty trị_giá 25 nghìn tỷ đồng 02 tỷ usd giữa 2018 2019 theo truyền_thông địa_phương đưa tin doanh_nhân gốc hoa lan bà chủ gia_đình giàu_có nhất bà lan mối liên_hệ chặt_chẽ quan_chức địa_phương tp hcm sở_hữu vô_số bất_động_sản sang_trọng ngay trung_tâm thành_phố tuy_vậy ít biết vtp vốn thuộc sở_hữu tư_nhân ít thông_tin tiết_lộ công_ty bí_ẩn ngành tài_chính nhận_định scb phải chật_vật cố xóa_tan lo_ngại mối quan_hệ vtp hôm thứ_sáu vừa_qua ngân_hàng trung_ương thực_hiện bước bất_thường đặt scb diện giám_sát đặc_biệt chỉ_thị bốn tập_đoàn ngân_hàng thuộc sở_hữu nhà_nước cử giám_đốc scb đang nguy_khốn nhà_nước hạn_chế việc phương_tiện truyền_thông địa_phương loan tin vấn_đề chính_quyền bắt_giữ một_số lãnh_đạo doanh_nghiệp nổi_tiếng nay bao_gồm cả tập_đoàn flc tập_đoàn tân_hoàng_minh tội gian_lận cáo_buộc khác thủ_tướng phạm_minh chính mới tuyên_bố sẽ dung_thứ mọi sai_trái làm mất sự tin_tưởng dân báo_hiệu đợt đàn_áp sắp tới nhưng điều gì coi gian_lận hoặc tham_nhũng phần_lớn phụ_thuộc sự quyết_định cơ_quan_chức_năng vụ kiện chống nhân_vật kinh_doanh chủ_chốt liên_quan cuộc tranh_giành quyền_lực chính_trị đảng cộng_sản đang kiểm_soát nguồn tin ngành bất_động_sản nhận_định người_ta ngại rằng tay_chơi lớn sẽ trì_hoãn việc huy_động số tiền lớn thời_gian trước mặt tránh trở_thành mục_tiêu tấn_công cơ_quan chính_phủ đang trì_hoãn quyết_định liên_quan khoản đầu_tư mới như một_cách giảm_thiểu tác_động chiến_dịch chống tham_nhũng đầu_tư công_ty nước_ngoài chiếm khoảng 70 xuất_khẩu sụt_giảm nếu việc đàn_áp tiếp_tục xảy thì có_thể ảnh_hưởng nặng_nề lên toàn_bộ nền kinh_tế</t>
+  </si>
+  <si>
+    <t>đề_xuất kéo_dài thời_hiệu kỷ_luật hành_chính cán_bộ công_chức sơn_hà chính_phủ đề_xuất cán_bộ công_chức viên_chức khiển_trách thời_hiệu xử_lý kỷ_luật hành_chính tăng 2 lên 5 cảnh_cáo 10 thay_vì 5 như hiện_nay</t>
+  </si>
+  <si>
+    <t>chồng đỗ_mỹ_linh em định_mệnh đời tân_cao doanh_nhân đỗ vinh_quang gọi hoa_hậu đỗ_mỹ_linh định_mệnh hứa mang hạnh_phúc tiệc cưới tối 23 10</t>
+  </si>
+  <si>
+    <t>chuyến trọng tạo tiền_lệ nguy_hiểm vũ_việt cuộc xâm_lăng ukraine bắt_nguồn cựu tổng_thống viktor_yanukovych cựu tổng_thống thân nga thần phục putin tạo putin ấn_tượng rằng ukraine phần không_thể tách rời nga trọng đang làm như_vậy đối_với trung_quốc lãnh_tụ tập chuyến trọng cầu_an đảng cầu_cạnh chỗ dựa chế_độ cầm_quyền ấy cái giá phải trả sẽ rất đắt bằng quyền tự_quyết dân_tộc tuy_vậy trọng bộ chính_trị quan_tâm điều đó họ chỉ quan_tâm sự tồn_vong chế_độ đối_với họ còn đảng còn tất_cả tiền_đồ đất_nước quan_trọng bằng đảng hà_nội quỵ lụy trung_quốc chỉ khuyến_khích làm tăng thêm quyết_tâm tham_vọng thôn_tính đảng đang khóa chặt con đường nhân_dân hòa_nhập thế_giới văn_minh bài_học ukraine bài_học ukraine đang phải chiến_đấu bảo_vệ_quốc_gia chỉ vì họ từng kẻ quỵ lụy putin</t>
+  </si>
+  <si>
+    <t>rộ tin tỷ_phú phạm nhật_vượng cấm xuất_cảnh việt_tân_page facebook gần đây tỷ_phú liên_tục thanh_trừng flc tân_hoàng_minh tân_tạo nếu vingroup phạm nhật_vượng mục_tiêu tiếp_theo thì chính_trường thời_gian tới sẽ rất biến_động lớn</t>
+  </si>
+  <si>
+    <t>sáng nay quốc_hội_thảo_luận kinh_tế xã_hội sơn_hà sáng 27 10 quốc_hội bắt_đầu phiên đầu_tiên hai ngày thảo_luận kết_quả_thực_hiện kế_hoạch phát_triển kinh_tế xã_hội 2022 dự_kiến kế_hoạch 2023</t>
+  </si>
+  <si>
+    <t>phương_án thay_thế hoàn_hảo vị_trí kante dành potter xoilac9 hâm_mộ đội bóng thành london lo_ngại vết_thương n golo_kante sẽ ảnh_hưởng nhỏ phong_độ thi_đấu theo thông_tin mới nhất bác_sĩ thông_báo khả_năng tiền_vệ nước pháp góp_mặt world_cup 2022 rất thấp bên cạnh đó 7 gắn_bó chelsea cầu_thủ 31 tuổi muốn thử_thách bản_thân mình bằng việc tìm_kiếm bến đỗ mới nếu_như kante quyết_định the_blues cần phải chuẩn_bị bổ_sung tân_binh xuất_sắc có_thể thay_thế vị_trí quan_trọng đội_hình thi_đấu blđ chelsea đang nhắm cái tên có_thể thay_thế vị_trí cầu_thủ mang áo số 7 tuy_nhiên theo danny_murphy cựu cầu_thủ blackburn_rovers cầu_thủ declan_rice sẽ tuyển_thủ xứng_đáng vị_trí tiền_vệ trung_tâm</t>
+  </si>
+  <si>
+    <t>góc bạn thân người_ta theanh28_entertainment ai nói giữa nam nữ khái_niệm_tình bạn h k quen nhau hồi cấp 3 tới giờ cả 2 tuổi kết_hôn nhưng vẫn chơi thân nhau đợt h bạn nữ lấy chồng xa vì_thế trước ngày cưới tuần k ngần_ngại mà bao luôn h chuyến du_lịch bắc nam chuẩn_bị công_cuộc đeo gông con bạn thân đúng bạn người_ta con người_ta luôn khiến mình ngưỡng_mộ k còn chia_sẻ rằng thấy con bạn lúc học tới lúc làm lúc_nào tiết_kiệm chả dám du_lịch đâu hết thì săn vé rẻ mới dám nên hoàn_thành ước_mơ nó mãn_nguyện trước lấy chồng thôi mà đúng gái số hưởng nhất nghe bảo 11 11 traveloka sale lớn vé bay phòng vé vui_chơi rẻ gấp lần anh_em tham_khảo book ngay vé vi_vu cuối nhá đặc_biệt 11h mỗi ngày flashsale lớn tung coupon triệu lận à quên nữa đang chương_trình tham_gia thử_thách mở rương kho báu cơ_hội lấy voucher giảm cộng dồn 300k nữa tranh_thủ book vé nha mng ơiii</t>
+  </si>
+  <si>
+    <t>chật_vật kêu_gọi lao_động bất_hợp_pháp hồi_hương hà_tĩnh lần thứ hai qua chu_ngọc_tửu bắc thuyết_phục gia_đình gọi con đang cư_trú bất_hợp_pháp nước nhưng kết_quả gần như vô_vọng</t>
+  </si>
+  <si>
+    <t>trồng na bở thu 5 triệu đồng mỗi cây lê_tân bốn nay dân trồng na bở xã liên_khê huyện thủy_nguyên đều_đặn thu mỗi 5 7 triệu đồng cây đời_sống dần ổn_định</t>
+  </si>
+  <si>
+    <t>bình_an từ_bỏ đam_mê tốc_độ vì phương_nga hà_thu diễn_viên bình_an lái_xe motor lên sân_khấu tiệc cưới biết sẽ từ_bỏ đam_mê vì phương_nga</t>
+  </si>
+  <si>
+    <t>quận huyện tp hcm cắt nước cuối tuần thái_anh nước 8 quận huyện thành_phố cắt hoặc yếu đêm 10 sáng hôm do trạm bơm hoà_phú cùng nhà_máy nước tân_hiệp bảo_trì</t>
+  </si>
+  <si>
+    <t>chính_quyền nói lát đá vỉa_hè 70 hỏng mới sử_dụng vỡ nát hồng_hà ngày khó bắt_gặp cảnh từng tốp công_nhân đào_xới lát đá vỉa_hè trên tuyến đường nội_đô hà_nội cứ dịp cuối điệp_khúc đào_xới vỉa_hè thay đá lát hà_nội tiếp_tục diễn đáng chú_ý một_số đoạn vỉa_hè lát đá quảng_cáo độ bền 50 70 đang nát bươm thời_gian ngắn sử_dụng facebooker_thao le bình_luận lãnh_đạo hà_nội nói vỉa_hè 70 hỏng dân cứ ngỡ sẽ dùng dài lâu ai_ngờ 70 điều_kiện vô_trùng ai biết càng gần cuối thì áp_lực giải_ngân sếp càng lớn thôi_thì lật vỉa_hè lên thay lớp mới vừa giải_ngân số tiền lớn mà_lại tiếng làm_đẹp bộ_mặt thủ_đô chỉ mỗi dân khổ_sở bất_tiện thi_công kéo_dài gây bụi mù_mịt đường gây ảnh_hưởng tới giao_thông dân</t>
+  </si>
+  <si>
+    <t>tôi mua cốc trà sữa 50k còn phải đắn_đo suy_nghĩ theanh28 tài_sản tỷ_phú mark_zuckerberg tiếp_tục bốc_hơi 11 tỷ usd meta công_bố báo_cáo kết_quả kinh_doanh quý iii đầy thất_vọng khoản lỗ khiến tổng_tài_sản chủ facebook sụt hơn 100 tỷ usd chỉ 13 tháng qua mức cao 142 tỷ usd tháng 9 2021 tài_sản tỷ_phú zuckerberg hiện chỉ còn 38 tỷ usd theo chỉ_số tỷ_phú bloomberg</t>
+  </si>
+  <si>
+    <t>sao kim có_thể chứa đại_dương nước bên dưới lớp vỏ theo i _e bên dưới bề_mặt địa_ngục sao kim có_thể đại_dương nước khổng_lồ hé lộ tiến_trình hình_thành phát_triển hành_tinh hệ mặt_trời</t>
+  </si>
+  <si>
+    <t>nhà_máy sắp_xếp công_nhân nghỉ tết dài ngày lê_tuyết lịch nghỉ tết nhà_nước chỉ mang tính tham_khảo nhà_máy_chủ_động bố_trí công_nhân nghỉ dài ngày phù_hợp tình_hình sản_xuất</t>
+  </si>
+  <si>
+    <t>đề_xuất xử_lý hình_sự hành_vi thu_gom sổ bảo_hiểm lê_tuyết tp hcm đề_xuất xử_lý hình_sự hành_vi thu_gom sổ bảo_hiểm xã_hội tăng tính răn_đe bảo_vệ quyền_lợi lao_động góp_phần hạn_chế rút lần</t>
+  </si>
+  <si>
+    <t>ngành_nghề đưa lao_động sang châu phi hồng_chiêu xây_dựng thợ hàn thợ_điện đốc_công thuyền_viên nghề cục quản_lý lao_động ngoài nước cấp phép doanh_nghiệp đưa lao_động làm_việc châu phi</t>
+  </si>
+  <si>
+    <t>chủ sea games 32 chốt môn thi_đấu đặt quy_định lạ theanh28 truyền_thông campuchia đưa tin quốc_gia chính_thức công_bố số_lượng môn thi_đấu kỳ đại_hội thể_thao đông_nam á lần thứ 32 2023 theo đó sea_games 32 49 môn 608 nội_dung tuy_nhiên số 49 môn thi môn nằm hệ_thống thi_đấu olympic thế mạnh như b ắn sú ng b ắn cung rowing canoeing tuy_nhiên rất môn thể_thao lạ đưa chương_trình thi_đấu như field and indoor_hockey floorball cờ_khmer hay đua moto nước điều rất đặc_biệt campuchia đưa quy_định rất lạ_lùng chỉ vđv chủ mới tham_gia 100 môn thể_thao đối_kháng hoặc võ_thuật còn nước khác phải cân_nhắc phân_chia lực_lượng thi_đấu tối_đa 70 nội_dung</t>
+  </si>
+  <si>
+    <t>hàng nghìn tấn ngao chết sự_cố chìm tàu chở dầu phạm_chiểu hàng nghìn tấn ngao nuôi xã thái_đô huyện thái_thụy chết trắng đầm tàu hà_an 01 chở dầu chìm mưa giông</t>
+  </si>
+  <si>
+    <t>tuyển ae thất_nghiệp nhiệt_huyết đội t vì cái tết no_đủ dám chiến_đấu cùng t ko vozer t từng chốt 4 căn 2 tháng mà éo mất đồng phí quảng_cáo hiện rất muốn ae công_ty làm cùng t hướng_dẫn ae làm đc thì thôi cần kinh_nghiệm bằng_cấp gì đâu chỉ cần ae quyết_tâm nhiệt_huyết ham kiếm tiền đc</t>
+  </si>
+  <si>
+    <t>dễ cú sốc chính_sách giảm mức hưởng bhxh lần lê_tuyết theo chuyên_gia nên tách khoản đóng_góp lao_động doanh_nghiệp quỹ bảo_hiểm xã_hội giảm mức hưởng trợ_cấp lần bởi sẽ gây xáo_trộn lớn</t>
+  </si>
+  <si>
+    <t>đoàn_thiên_ân fan chào_đón miss_grand tân_cao hoa_hậu đoàn_thiên_ân tất_bật hoạt_động giao_lưu_truyền_thông thi miss grand international 2022 fan chào_đón indonesia</t>
+  </si>
+  <si>
+    <t>trái_đất trung_tâm vũ_trụ vozer xa_xưa tôn_giáo nói rằng trái_đất trung_tâm vũ_trụ hiện_tại có_thể khẳng_định trái_đất trung_tâm vũ_trụ khả_kiến bên ngoài đó sự vô_tận vậy nếu vô_tận mọi phía thì thực_sự trái_đất vẫn trung_tâm cách nào phủ_định điều đó đức_phật bảo thế_giới ta đang sống chỉ như bọt_biển giữa muôn_trùng thế_giới rằng vũ_trụ vô_thủy vô chung thế_thì đâu mà chả_là trung_tâm như_vậy tôn_giáo chẳng phải góc nhìn chân_thực nhất trước khoa_học ngàn rồi còn gì khoa_học vẫn mãi đang nghiên_cứu bề nổi thế_giới chưa khỏi cái bọt_biển đại_dương như đức phật mô_tả cả thế_giới diêm phù_đàn dù ai siêu_trí_tuệ nhân_tạo nhưng công_nghệ đạt giới_hạn nó tâm_thức con_người bắt_đầu chỗ_đứng thế_giới 2000 trước trở_lại tầm cao mới phải fen v</t>
+  </si>
+  <si>
+    <t>vợ_chồng chàng chân thanh_minh việc yêu vì tiền nhận tiền mừng trăng_mật th đám_cưới anh_chàng chân tô_đình khánh diễn cách đây vài ngày nhưng vẫn còn dư_âm lớn trên mạng xã_hội anh_chàng kết_hôn cùng bạn ǥái xinh_đẹp trần_thương hôn_lễ kết_thúc ngày thấy khánh bắt_đầu livestream bán hàng trở_lại rất đông dùng mạng hỏi_thăm vì_sao nghỉ_ngơi hay tuần_trăng_mật khánh chia_sẻ thật lòng đám_cưới vợ khánh khỏe nên livestream một_mình khánh biết vợ_chồng thống_nhất sẽ dùng số tiền hưởng tuần_trăng_mật làm từ_thiện chuyện tiền mừng xem livestream muốn chuyển_khoản nhưng cương_quyết nhận</t>
+  </si>
+  <si>
+    <t>nịnh_thần trung_quốc việt_tân càng gần thời_điểm tổng_bí_thư nguyễn phú_trọng sang chầu trung_quốc đám quan nịnh thần bắt_đầu bật loa ca_ngợi thiên_triều</t>
+  </si>
+  <si>
+    <t>cuộc_sống con_người sẽ như thế_nào 50 nữa báo phụ_nữ thay_đổi thế_kỷ 21 sẽ do hai yếu_tố chính thúc_đẩy đó sự tiến_bộ nhanh công_nghệ sự_biến_đổi xấu khí_hậu môi_trường</t>
+  </si>
+  <si>
+    <t>lao_động nghỉ 3 ngày tết_dương_lịch 2023 hồng_chiêu lao_động nghỉ 31 12 2022 hết 2 2023 do tết_dương_lịch rơi chủ_nhật nên nghỉ bù thứ hai tuần kế_tiếp</t>
+  </si>
+  <si>
+    <t>rau vietgap phải bán giá_chợ  siêu_thị nay nông_dân trồng rau xã văn_đức huyện gia_lâm phải bỏ mác vietgap cạnh_tranh rau chợ</t>
+  </si>
+  <si>
+    <t>henry cavill trở_lại đóng superman  tài_tử henry cavill xác_nhận tiếp_tục đóng superman vũ_trụ điện_ảnh dc</t>
+  </si>
+  <si>
+    <t>hội bạn thân mừng đám_cưới liêu hà_trinh tân_cao thanh_duy khả_như ngô_kiến_huy jun phạm hội_ngộ đám_cưới diễn_viên mc liêu hà_trinh tối 10 10</t>
+  </si>
+  <si>
+    <t>đội_tuyển nữ cùng bảng mỹ hà_lan world_cup 2023 theanh28 theo kết_quả bốc_thăm vòng bảng world_cup 2023 đội nữ nằm bảng_đấu rất khó_khăn theo đó chúng_ta nằm bảng e đối_thủ mỹ đương_kim vô_địch thế_giới hà_lan đương_kim á quân thế_giới đội thắng play off nhánh a cameroon thái_lan hoặc bồ_đào_nha giải world_cup nữ 2023 sẽ diễn ngày 20 7 20 8 2023 hai quốc_gia new_zealand australia bảng_e đội nữ sẽ thi_đấu new_zealand</t>
+  </si>
+  <si>
+    <t>tp hcm giảm dần khai_thác nước_ngầm hoàng_anh lượng nước_ngầm khai_thác thành_phố liên_tục giảm gần đây tiến tới mục_tiêu chỉ còn 100 000 m3 mỗi ngày 2025 theo cơ_quan_chức_năng</t>
+  </si>
+  <si>
+    <t>hà_nội ghi_nhận 12 ca tử_vong liên_quan sốt_xuất_huyết  chiều 27 10 khổng minh_tuấn phó_giám_đốc cdc hà_nội biết hà_nội ghi_nhận 12 ca tử_vong liên_quan sốt_xuất_huyết 12 bệnh_nhân địa_chỉ quận huyện như thanh_oai thanh_trì hà_đông phú_xuyên đan_phượng ba_đình long_biên hiện tất_cả quận huyện thị_xã 92 xã phường thị_trấn hà_nội đều ghi_nhận ca bệnh đặc_biệt bệnh_nhân tập_trung một_số quận huyện vùng_ven như đan_phượng hơn 950 ca mắc thanh_oai thường_tín thanh_trì</t>
+  </si>
+  <si>
+    <t>12 du_khách cắm trại trái_phép trên đảo tiền_tiêu lê_tân 12 du_khách cơ_quan_chức_năng huyện đảo tô phát_hiện cắm trại trái_phép trên hòn_bồ cát đảo tiền_tiêu vùng_biển đông_bắc</t>
+  </si>
+  <si>
+    <t>nuôi cá_tầm núi_rừng khe_san lê_tân đầu_tư hàng trăm triệu đồng đưa cá_tầm sapa núi_rừng khe_san huyện tiên yên nuôi_dưỡng trần_văn mạ thu cả tỷ đồng hơn</t>
+  </si>
+  <si>
+    <t>đại_biểu vũ_thị_lưu_mai tư_duy nhiệm_kỳ gây lãng_phí đất_đai viết_tuân tư_duy nhiệm_kỳ nguyên_nhân gây lãng_phí đất_đai lớn nơi mỗi nhiệm_kỳ số dự_án_treo tăng thêm theo đại_biểu vũ_thị_lưu_mai</t>
+  </si>
+  <si>
+    <t>bộ tứ khuôn_mặt lãnh_đạo độc_tài kiên_quyết bám víu quyền_lực việt_tân bộ tứ khuôn_mặt lãnh_đạo độc_tài kiên_quyết bám víu quyền_lực trung_quốc tập_cận_bình nga putin nguyễn phú_trọng triều_tiên kim_jong_un điểm chung quốc_gia quyền tự_do dân_chủ bóp_nghẹt bỏ_tù đối_lập thanh_trừng bất_đồng chính_kiến</t>
+  </si>
+  <si>
+    <t>hóa vàng ô_tô đổi lấy 5 triệu theanh28 mới_đây phòng cảnh_sát hình_sự pc02 công_an tphcm biết đang tạm giữ n t đ n t l sn 2005 an_giang điều_tra hành_vi hủy_hoại tài_sản biết rạng sáng 5 10 2 cháu tới con hẻm đường vĩnh_lộc xã vĩnh_lộc a huyện bình_chánh hóa vàng chiếc ô_tô có_giá hơn tỷ đồng gia_đình chị a 2 đối_tượng còn dùng điện_thoại quay clip rồi nhanh_chóng phi xe_máy cao chạy xa bay lẩn_trốn ngày thì 2 cháu lực_lượng chức_năng bắt_giữ</t>
+  </si>
+  <si>
+    <t>tuổi 23 con_gái thành_long như_anh ngô_trác_lâm con ngoài giá_thú tài_tử thành_long phục_vụ nhà_hàng canada</t>
+  </si>
+  <si>
+    <t>phan_như_thảo giảm 20 kg hoàng_dung người_mẫu phan_như_thảo nói tập cardio hàng ngày giữ chế_độ ăn_uống chừng_mực giảm 20 kg</t>
+  </si>
+  <si>
+    <t>hôm_nay bộ giao_thông vận_tải y_tế bộ_trưởng mới viết_tuân quốc_hội sẽ phê_chuẩn bổ_nhiệm nhân_sự bộ_trưởng giao_thông vận_tải y_tế bầu tổng_kiểm_toán nhà_nước bằng hình_thức bỏ_phiếu kín chiều 21 10</t>
+  </si>
+  <si>
+    <t>máy_bay boeing gặp sự_cố rơi bánh cất_cánh theanh28 ngày 11 10 thành_phố taranto miền nam_italy chiếc máy_bay boeing 747 400 dreamlifter vừa rời khỏi đường_băng chiếc bánh_xe bộ_phận hạ_cánh vă ng ngoài hình_ảnh hiện_trường thấy khói bốc lên bánh_xe bộ_phận hạ_cánh chính chiếc bánh_xe tách khỏi máy_bay rơ i xuống mặt_đất chiếc bánh_xe đó tìm thấy trang_trại nằm ngoài khu_vực sân_bay</t>
+  </si>
+  <si>
+    <t>messi xác_nhận qatar 2022 sẽ kì world_cup cuối_cùng theanh28 siêu_sao argentina xác_nhận sẽ chia_tay đội_tuyển quốc_gia kỳ world_cup 2022 diễn qatar cuối nay qatar 2022 sẽ kỳ world_cup cuối_cùng tôi chắc_chắn như_vậy quyết_định đưa lionel messi nói</t>
+  </si>
+  <si>
+    <t>kanye_west đối_mặt vụ kiện 250 triệu usd thanh_giang rapper kanye_west đối_mặt vụ kiện 250 triệu usd do bình_luận sai cái chết đàn_ông da_màu george_floyd</t>
+  </si>
+  <si>
+    <t>bhxh nên thêm phần hỗ_trợ trẻ_em gia_đình tham_gia lê_tuyết chính_sách bhxh nên phần hỗ_trợ trẻ_em gia_đình giảm thời_gian đóng tối_thiểu 20 còn 15 thu_hút tham_gia theo lãnh_đạo tổ_chức ilo</t>
+  </si>
+  <si>
+    <t>david de gea lỡ hẹn world_cup 2022 theanh28 mới_đây tờ báo as uy_tín tây_ban_nha biết thủ_môn david_de gea sẽ lỡ hẹn world_cup 2022 gạt khỏi danh_sách sơ_bộ 55 tuyển_thủ tây_ban_nha hlv luis_enrique</t>
+  </si>
+  <si>
+    <t>xả súng kinh_hoàng phú_quốc khiến 2 qua khỏi bị_thương theanh28 vụ thanh_toán nhau bằng hoa cải vừa xảy bến tràm xã cửa_dương phú_quốc nguồn tin biết ít_nhất 2 nằm_xuống 2 bị_thương nặng biết đây vụ thanh_toán nhau giữa 2 băng_nhóm địa_phương dân nhập_cư</t>
+  </si>
+  <si>
+    <t>hàng nghìn nhà_trẻ hàn_quốc đóng_cửa vì dân chịu sinh con theanh28 ngày 26 10 cơ_quan thống_kê hàn_quốc kostat công_bố số_liệu thấy số trẻ sơ_sinh chào_đời nước tháng 8 vừa_qua mức thấp kỷ_lục trái_ngược số ca t ử v o ng mức cao chưa từng thấy bối_cảnh tốc_độ già_hóa dân_số nhanh đại_dịch c ov id 19</t>
+  </si>
+  <si>
+    <t>cộng_sản vẽ bánh hồng_hà hôm 26 tháng mười 2022 trang thông_tin chính_phủ đưa tuyên_bố tầm nhìn tới 2050 trở_thành nước phát_triển thu_nhập cao ngay_lập_tức phía bên dưới facebook khanh_hung bình_luận mỗi 40 qua ít_nhất lần nghe tuyên_bố nhiệm_kỳ vị cứ 5 lần mỗi lần vị lên tìm cách vốn bằng thì lấy cơ_sở nào đòi nước phát_triển thu_nhập cao đấy chưa kể 2010 vị tuyên_bố 2020 sẽ nước phát_triển 2020 thì tuyên_bố 2030 sẽ nước phát_triển giờ sắp hết 2022 thì tuyên_bố 2050 sẽ trở_thành nước phát_triển thu_nhập cao như_vậy có_thể khẳng_định bánh_vẽ chính_phủ tăng tầm nhìn 2020 lên 2050 chính_phủ thì phải biết bánh_vẽ tuyên_giáo thì phải biết nói ngược nói xuôi đúng dân đen khổ vì cặp đôi</t>
+  </si>
+  <si>
+    <t>bảy giận_dỗi vì sân thi_đấu theanh28 trận đấu man_utd thắng tottenham 2 0 premier_league rạng sáng nay ngôi_sao cristiano_ronaldo vô_cùng bực_tức sân thi_đấu dù kết_quả lúc đó an_bài phút thứ 90 tỷ_số ấy 2 0 cameraman chĩa máy quay phía ronaldo lúc cr7 rời ghế dự_bị rồi tiến thẳng đường_hầm đáp tình_cảm 2 cậu bé cổ_động_viên</t>
+  </si>
+  <si>
+    <t>hai nguyên lãnh_đạo huyện khánh_hòa_vi_phạm đất_đai viết_tuân ủy_ban kiểm_tra trung_ương đề_nghị ban bí_thư kỷ_luật hai nguyên lãnh_đạo huyện khánh_hòa vì vi_phạm_pháp_luật đất_đai xây_dựng gây hậu_quả rất nghiêm_trọng</t>
+  </si>
+  <si>
+    <t>hoài_lâm trở_lại hát hoàng_dung hoài_lâm dự_kiến hát đêm nhạc hoa nở màu đà_lạt ngày 15 10 thời_gian dài im tiếng</t>
+  </si>
+  <si>
+    <t>sao friends ghét keanu_reeves phương_mai matthew_perry đóng chandler_bing friends nói tự_truyện rằng từng ước keanu reeves chết thay bạn thân</t>
+  </si>
+  <si>
+    <t>ngôi làng đổi_thay nhờ xuất_khẩu lao_động hà_tĩnh mỗi lao_động làm_việc nước_ngoài gửi khoảng 500 tỷ đồng khiến xã cương_gián nghi_xuân hà_tĩnh như lột_xác biệt_thự mọc lên khắp_xã</t>
+  </si>
+  <si>
+    <t>selena_gomez gặp vợ justin_bieber phương_mai selena_gomez hailey_baldwin vợ justin_bieber gây bất_ngờ lần đầu chụp ảnh chung sự_kiện đồn bất_đồng</t>
+  </si>
+  <si>
+    <t>vay 6tr tổ_chức sinh_nhật bạn ǥái tàn tiệc thanh_niên chê xe nghèo chở th gần ngày_sinh_nhật bạn gái anh_chàng ý_định rủ chơi vì túi vẫn còn 2 triệu đồng số tiền phải quá nhưng đủ chầu vui_vẻ lãng_mạn hai nhưƞǥ phút chót nàng hỏi vay bạn trai 8 triệu tổ_chức sinh_nhật mời bạn_bè đông_đủ dự lúc chafng chỉ vỏn_vẹn 2 triệu thế_là phɑ ̉ i vội chạy đủ đường hỏi vay thêm số tiền 6 triệu đồng bạn gái có_thể tổ_chức tiệc người_yêu vui_lòng ngại lên rừng xuống biển huống gì vay_mượn 6 triệu chẳng_lẽ kɦông làm tưởng_chừng gái sẽ cɑ ̉ m động nhưng cái kết quá chua_chát khiến anh_chàng cay_đắng nhận ra_công_sức lẫn tình cɑ ̉ m chỉ trò_hề ǥái mời 15 16 dự tàn_tiệc bạn trai thanh_toán gần 6 triệu định dẫn xe chở bạn gái lúc nàng nhất_quyết khước chỉ xe bạn thân lý_do xe bạn trai phɑ ̉ i kiểu sang xịn nàng sĩ_diện trước bạn_bè</t>
+  </si>
+  <si>
+    <t>sẽ xử_lý nghiêm hành_vi đầu_cơ xăng dầu găm hàng đẩy giá bán theanh28 trước tình_trạng cửa_hàng bán_lẻ xăng dầu tạm ngưng hoạt_động gây bất_ổn ảnh_hưởng tiêu_dùng bộ_trưởng công_thương nguyễn_hồng_diên chỉ_đạo tổng_cục quản_lý thị_trường giám_sát kiểm_tra làm rõ nguyên_nhân kịp_thời phát_hiện kiên_quyết xử_lý nghiêm_khắc mọi hành_vi vi_phạm theo quy_định pháp_luật</t>
+  </si>
+  <si>
+    <t>lãnh_đạo tài đảng bắt hết rồi việt_tân nhân_tài đảng bắt tù hết rồi còn mớ chuẩn_bị lò còn đâu nữa mà kiếm đừng mị_dân nữa tuyên_giáo ơi</t>
+  </si>
+  <si>
+    <t>trọng đảng hãy học đài_loan việt_tân_page facebook đài_loan lãnh_thổ trung_hoa lục_địa đảo nhỏ sát bên trung_cộng dân_số đài_loan chỉ khoảng 24 triệu dân nhưng họ chưa bao_giờ khuất_phục trước đảng cộng_sản tq trung_cộng chưa bao_giờ dám tấn_công đài_loan dân_số lớn gấp 4 lần đài_loan lãnh_thổ lớn gấp gần 10 lần đài_loan cớ_sao đảng trọng phải quỵ lụy trung_cộng</t>
+  </si>
+  <si>
+    <t>chú chó bỏ mặc dầm mưa đám_cưới chủ trung_quốc zing video lan_truyền trên mạng chủ_nhân chú chó lên_tiếng_rằng do hoàn_cảnh bắt_buộc hề ý ngược_đãi thú cưng</t>
+  </si>
+  <si>
+    <t>lý_luận cùn tuyên_giáo truyền dư_luận viên giờ vẫn thay_đổi nhất_là giai_đoạn hiện_nay trước trọng triều kiến bắc_kinh việt_tân gặp pháp mỹ thì tuyên_truyền giặc đàn_bà đánh gặp trung_quốc bộ mày thích đánh lắm hả nó mạnh thế sao đánh</t>
+  </si>
+  <si>
+    <t>kiến_nghị nới quyền trúng đấu_giá_biển số xe sơn_hà phép trúng đấu_giá_biển số chuyển_nhượng sẽ tối_ưu nguồn thu ngân_sách phù_hợp quy_định sở_hữu theo một_số chuyên_gia</t>
+  </si>
+  <si>
+    <t>diệu_nhi hát nhảy đám_cưới tân_cao diễn_viên diệu_nhi cùng chồng tú hát nhảy khuya cùng hội bạn tiệc cưới tối 10 10</t>
+  </si>
+  <si>
+    <t>người_mẫu nguyễn_diana qua_đời tuổi 26 tam_kỳ người_mẫu nguyễn_diana bông hồng lai top 15 hoa_hậu hoàn_vũ 2019 đột_ngột mất tuổi 26</t>
+  </si>
+  <si>
+    <t>hà_lê cùng bạn gái dạo chơi đảo nami hoàng_anh ca_sĩ hà_lê bạn gái biên_đạo gia_linh kém 13 tuổi dạo chơi dưới hàng lá phong ngân hạnh đảo nami</t>
+  </si>
+  <si>
+    <t>đoàn_thiên_ân_diễn áo_tắm miss grand_international tân_cao thiên_ân_sải bước trên đường catwalk dài dựng sát bờ biển phần thi áo_tắm miss grand international 2022 sáng 12 10</t>
+  </si>
+  <si>
+    <t>lâm_chí_linh trầm_cảm sinh như_anh minh_tinh đài_loan lâm_chí_linh trầm_cảm sinh con tuổi gần 50 chồng vực dậy tinh_thần</t>
+  </si>
+  <si>
+    <t>chàng trai đầu_tiên mang vòng nguyệt_quế thái_bình theanh28 đặng lê_nguyên_vũ học_sinh trường thpt bắc_duyên_hà huyện hưng_hà tỉnh thái_bình xuất_sắc giành 4 suất chơi trận chung_kết thứ 22 đường lên đỉnh olympia tư_cách nhất cuộc thi quý giành 300 điểm đây thí_sinh đầu_tiên mang cầu truyền_hình trực_tiếp chung_kết đường lên đỉnh olympia thái_bình 22 phát_sóng đặng lê_nguyên_vũ học_sinh giỏi liền từng thi học_sinh giỏi toán giành huy_chương vàng olympic tiếng 2016 đây 2 3 môn_học cậu tự_tin nhất điểm trung_bình đều trên 9 0 toán 9 7 hóa 9 6 tiếng 9 5</t>
+  </si>
+  <si>
+    <t>mới_đây trên cɑ ́ c diễn_đàn hội nhóm ô_tô xôn_xao trước bài đăng nguyễn văn_vinh thôn bầu xã kim chung đông_anh hà_nội truy_tìm kẻ lấy mất ô_tô th mới_đây trên cɑ ́ c diễn_đàn hội nhóm ô_tô xôn_xao trước bài đăng nguyễn văn_vinh thôn bầu xã kim chung đông_anh hà_nội truy_tìm kẻ lấy mất ô_tô theo chủ xe chia_sẻ do gia_đình nhu_cầu bán chiếc xe ô_tô màu đỏ nên lên mạng xã_hội rao bán giá 400 triệu đồng ngày 2 12 vừa_qua đàn_ông mặc quần_áo đen liên_hệ ngỏ ý_muốn mua xe đó hai bên hẹn gặp khu_vực cầu_chui số 3 đông_bầu kim_cɦuƞǥ đông_anh khách xem lái thử ô_tô lúc đầu vinh ngồi chung đàn_ông thấy điều gì bất_thường lúc xuống xe rồi nói_chuyện vớii tài_xế chở vị khách mua xe lợi_dụng lúc vinh đề_phòng đàn_ông trên xe nhấn ga phóng mất 5 phút thấy vị khách quay nên vinh gọi điện phía đầu dây bên kia khóa máy lúc mới tá hỏa biết chở vị kɦách tài_xế taxi chứ phɑ ̉ i người_nhà</t>
+  </si>
+  <si>
+    <t>công_an phú yên bức t ử dân bi_lun nạn_nhân thanh_niên khỏe_mạnh công_an đông_hòa phú_yên mời lên điều_tra 3 ngày giam_giữ gia_đình báo tin con mình c hế t do tự_tử điều bức_xúc gia_đình nhìn mặt hay đem_xá c diễn tiến đó công_an tự_ý đem chôn mà gia_đình biết chôn đâu hiện gia_đình đang theo đuõi việc đòi xá c con chúng_tôi sẽ cập_nhật thêm vụ_việc gia_đình</t>
+  </si>
+  <si>
+    <t>gen g có_thể khó vô_địch cktg 2022 vì lý_do đặc_biệt gamek vn lý_do đặc_biệt đang hâm_mộ đưa nhận_định khả_năng vô_địch cktg 2022 gen g</t>
+  </si>
+  <si>
+    <t>diệu_nhi kiếp vẫn muốn làm vợ tú tân_cao diễn_viên diệu_nhi hứa vẫn lấy tú nếu kiếp khiến khách mời bật khóc tiệc cưới chiều 10 10</t>
+  </si>
+  <si>
+    <t>tp hcm đảm_bảo_an_ninh cấp_nước hai quận trung_tâm hoàng_anh cấp_nước bến_thành công_an quận 3 vừa ký_kết quy_chế phối_hợp đảm_bảo_an_ninh trật_tự lĩnh_vực cấp_nước trên địa_bàn chiều 25 10</t>
+  </si>
+  <si>
+    <t>20 ngày bảo_ngọc thi hoa_hậu liên lục_địa tân_cao bảo_ngọc nổi_bật chiều cao 85 mét tự_tin vòng thi phụ trước thắng chung_kết miss intercontinental 2022</t>
+  </si>
+  <si>
+    <t>tổ_chức đám_cưới tập_thể 15 đôi bạn trẻ  thành_đoàn hà_nội sẽ tổ_chức đám_cưới tập_thể theo nếp sống mới 15 đôi bạn trẻ tối 15 10 vườn hoa đền bà kiệu quận hoàn_kiếm</t>
+  </si>
+  <si>
+    <t>trứng gà giả làm cao_su gây xôn_xao tiktok chuyên_gia nói gì vietnamnet xem xong video bình_luận sợ_hãi loại trứng gà giả làm cao_su liệu thực_tế có_thể loại trứng như</t>
+  </si>
+  <si>
+    <t>phương_vy idol tôi từng sốc vì cân nặng 83 kg hoàng_dung phương_vy idol nói chồng mỹ chăm con yêu động_viên vợ tập_thể_hình tâng cân kiểm_soát sinh</t>
+  </si>
+  <si>
+    <t>nóng trang nemo truy_tố khung hình_phạt cao nhất 2 t ù theanh28 ngày 7 10 tand q tp hcm xác_nhận nhận hồ_sơ viện ksnd q đối_với vụ án gây_rối trật_tự công_cộng theo đó viện ksnd q truy_tố bị_can n x h t 30 tuổi tên gọi khác trang_nemo p q q n n k cùng 23 tuổi n p t 31 tuổi p h n 24 tuổi cùng tội gây_rối trật_tự công_cộng cả 5 bị_can đều áp_dụng biện_pháp ngăn_chặn cấm khỏi nơi cư_trú đồng_thời đều truy_tố theo khoản điều 318 bộ_luật hình_sự khung hình_phạt cao nhất 2 t ù</t>
+  </si>
+  <si>
+    <t>vợ gào khóc bên thi_thể chồng theanh28_entertainment đừng vì vài_ba cốc bia chén rượu mà làm khổ đêm qua vụ tai_nạn thương_tâm xảy trên đường minh_khai hai bà trưng hà_nội nạn_nhân nam thanh_niên khoảng 30 tuổi uống quá_chén làm_chủ tốc_độ lao cột điện ven đường t ử v ong tại_chỗ liên_hệ người_thân thì ngay lập_tức vợ nam thanh_niên tới ngã khuỵu xuống đường gào khóc bên cạnh thi_thể chồng đừng vì chén chú chén mà cuối_cùng chịu thiệt_thòi đau_thương chính người_thân mình anh_em nhé</t>
+  </si>
+  <si>
+    <t>đấu_giá du_thuyền flc giá khởi_điểm hơn 35 tỷ đồng theanh28 chiếc du_thuyền tên flc albatross thuộc dòng galeon 660 fly đóng ba lan 2017 du_thuyền chiều dài lớn nhất 21 95 m chiều rộng_lớn nhất 5 25 m flc albatross đăng_ký 2018 giá khoảng 44 tỷ đồng gần 2 triệu usd công_ty đấu_giá minh_pháp sẽ tổ_chức đấu_giá du_thuyền flc đầu tháng 11 mức giá khởi_điểm du_thuyền hơn 35 7 tỷ đồng tham_gia đấu_giá phải nộp trước 10 giá khởi_điểm tương_đương gần 3 6 tỷ đồng</t>
+  </si>
+  <si>
+    <t>hồ_ngọc_hà_hủy_show mỹ tâm_giao đại_diện ca_sĩ hồ_ngọc_hà biết hủy loạt show mỹ vì sức_khỏe đảm_bảo</t>
+  </si>
+  <si>
+    <t>thị_trường lao_động dễ tổn_thương lê_tuyết nhân_công giá rẻ lợi_thế cạnh_tranh qua nhưng lao_động dễ mất việc lưới an_sinh chưa đủ sức chống_đỡ nếu thị_trường gặp sự_cố</t>
+  </si>
+  <si>
+    <t>sói ngoài đời thực hội_chứng kì_dị bậc nhất mà y_học chưa thể lý_giải th người_ta thường nhắc sói như hiện_tượng khó lý_giải ai trở_thành chó_sói đêm trăng_tròn vậy_liệu sói tồn_tại ngoài đời thực câu trả_lời nhưng phɑ ̉ i con sói hiện_hình đêm trăng_tròn họ hoàn_toàn bình_thường nhưng mang căn_bệnh hiểm_ác mang tên sói hội cɦứng sói hay ma_sói dɑ ̣ ng bệnh_lý hiếm gặp nhất thế_giới xác_suất 000 000</t>
+  </si>
+  <si>
+    <t>gái luộc ghẹ rụng càng bố_mẹ chàng trai bênh ƞhưng lớn_tiếng nói_thế ấy mới ngấm  tìm_hiểu giai_đoạn cực_kỳ_quan_trọng chuyện tình cɑ ̉ m biết rõ hơn đối_phương bình_thường quen nhau thì êm_thấm nhưng xảy chuyện mới biết mình đaƞg quen đích_thực nɦư thế_nào biết_bao cặp đẹp_đôi lắm ngỡ nɦư hợp nhau lắm nhưng cuối_cùng vẫn chia_tay vì chịu nổi tính_cách nhau mà chịu nổi thì chọn chia_tay tốt nhất vì mai cưới chắc gì hòa_hợp ʋới nhau mới_đây nàng vô_cùng thất_vọng trước thái_độ bạn trai dành mình chuyện gì đâu chỉ nhân lúc bố_mẹ người_yêu qᴜê lên có_mang theo vài con ghẹ nấu_nướng a tới z rồi tự tay hấp ghẹ vì hai bác nhờ_vả do kinh_nghiệm nên hỏi người_yêu thì ɦướng dẫn bỏ cả con hấp mà em</t>
+  </si>
+  <si>
+    <t>dòng chữ lạ viết trên tay hành_khách tàu_điện ngồi quá bất_ngờ th mới_đây dẫn cɦương trình trên đài phát_thanh úc tên emɱa_chow nhìn thấy dòng chữ lạ tàu_điện mà dòng chữ đó vɨết trên lưng bàn_tay hành_khách ngồi nhay trước chow biết chụp hình_ảnh dòng chữ đó vì ɦành khách kia cứ liên_tục đưa tay lên xoa gáy hình_ảnh mà chow đăng lên mɑ ̣ ng đó xem tới triệu lượt chia_sẻ nhanh_chóng như hiện_tượng viral trên mạng xã_hội</t>
+  </si>
+  <si>
+    <t>ca_sỹ tuấn_hưng ubnd quận hoàn_kiếm cấp phép biểu_diễn ban_công theanh28 hai tuần phạt 12 5 triệu đồng do tự_ý tổ_chức biểu_diễn phép ban_công thì tối_ngày 23 9 đại_diện ca_sĩ tuấn_hưng hay nam ca_sĩ ubnd quận hoàn_kiếm hà_nội phép tiếp_tục tổ_chức show góc ban_công dự_kiến tuấn_hưng hát ban_công trên phố hàng_khay tối 24 9</t>
+  </si>
+  <si>
+    <t>bác_sĩ nguyễn tri_thức bệnh_viện loay_hoay biết mua_sắm thế_nào đúng viết_tuân tháng qua nhân_viên y_tế bệnh_viện vẫn loay_hoay chuyện mua_sắm đấu_thầu làm giảm thời_gian tập_trung chuyên_môn theo bác_sĩ nguyễn tri_thức</t>
+  </si>
+  <si>
+    <t>có_thể tồn_tại sự sống trên mặt_trăng sao thổ vtv vn nghiên_cứu mới công_bố trên tạp_chí khoa_học vũ_trụ thấy khả_năng tồn_tại sự sống trên mặt_trăng enceladus sao thổ</t>
+  </si>
+  <si>
+    <t>tiếng chào cao hơn mâm cỗ sao việt_tân tiếng chào cao hơn mâm cỗ sao chỉ vậy_mà ngành csgt phải bỏ cả thời_giờ làm_việc soạn dự_thảo tào_lao quá</t>
+  </si>
+  <si>
+    <t>luật_sư johnny_depp từ_chối bào_chữa kanye_west phương_mai camille_vasquez luật_sư giúp johnny_depp thắng kiện amber_heard từ_chối bào_chữa kanye_west vì rapper bình_luận kỳ_thị do_thái</t>
+  </si>
+  <si>
+    <t>lâm_tâm như khoe vai trần thanh_thanh diễn_viên lâm_tâm như khen trẻ_trung diện đầm xanh trễ vai lễ trao giải kim chung tối 22 10</t>
+  </si>
+  <si>
+    <t>90 lao_động làm_việc nước_ngoài tay_nghề thấp hồng_chiêu lao_động có_mặt hơn 40 quốc_gia chủ_yếu làm công_việc giản_đơn thời_gian tới cần tăng tỷ_lệ trình_độ cao theo chuyên_gia</t>
+  </si>
+  <si>
+    <t>nhận trợ_cấp thất_nghiệp vì quy_định tháng liền kề lê_tuyết quỹ bảo_hiểm_thất_nghiệp kết_dư hàng chục nghìn tỷ đồng nhưng lao_động mất việc nhận trợ_cấp do vướng quy_định tháng liền kề</t>
+  </si>
+  <si>
+    <t>gs hoàng_văn_cường cơ_chế đang trói_buộc bệnh_viện công tự_chủ viết_tuân bệnh_viện lớn luôn quá_tải nhưng xin thôi tự_chủ thấy thất_bại chính_sách cơ_chế quản_lý bệnh_viện công_lập theo gs hoàng_văn_cường</t>
+  </si>
+  <si>
+    <t>phòng trưng_bày phục_trang kỷ_vật nghệ_sĩ chí_tài tuấn_việt tân_cao hàng trăm món đồ gồm quần_áo đĩa cd danh_hài chí_tài bảo_quản trưng_bày đoàn lô_tô sài_gòn tân_thời</t>
+  </si>
+  <si>
+    <t>rich kid 2k1 chia_sẻ cách thao_túng tâm_lý bằng 3 bí kíp càng tiêu càng lời theanh28_entertainment bạn bảo mình rich kid mình chịu mình nhận thôi chả chối mỗi tháng tiền_tiêu vặt mình bằng thu_nhập cả gia_đình buổi shopping sương sương vài chục triệu chuyện bình_thường nhưng tụi mình giàu chứ ng nhỏ giáo_dục cách chi_tiêu tích_luỹ đầu_tư rồi nên mỗi đồng chi_tiêu đều tính_toán phải vung tay tiêu xàu thiếu suy_nghĩ như cách mình mua_sắm chỉ vì nhu_cầu đam_mê mà mục_đích khác nhau thường sẽ mỗi món đồ đặc tiền mình xài nhất hàng công_nghệ điện_tử mỹ_phẩm mình sẽ dùng quay video unbox trải nghiệm đánh_giá up lên nền_tảng mạng xã_hội tiktok youtube reels dần xây kênh nhận affiliate trở_thành vip thương_hiệu thì bạn sẽ luôn ưu_tiên mua bộ sưu_tập mới nhất giá ưu_đãi thường_xuyên nhận hàng dùng thử mỗi dịp sinh_nhật lễ tết đều nhận quà hay chương_trình ưu_đãi riêng tận_dụng chương_trình khuyến_mãi triệt_để thẻ tín_dụng bạn hay tỏ thông_minh kiểu nói thẻ tín_dụng nhưng thật chất đó phát_minh vĩ_đại tài_chính lợi chính sử_dụng quan_trọng bạn phải biết làm_chủ bản_thân chi_tiêu thông_minh thì lợi phải ngân_hàng mà chủ thẻ như lúc mua con iphone 14 mới tính mua gần 30 củ nhưng cơ_hội trúng hẳn voucher nghỉ_dưỡng trị_giá 10 triệu quá hời mà xài xong bạn hơn cả tháng trả tiền lúc đó tiền đấy bạn có_thể xoay t3 con chứng ngon_lành thêm điều bạn sở_hữu thẻ tín_dụng đều biết dùng thẻ tín_dụng ăn shopping thì luôn nhận thêm ưu_đãi giảm_giá hoàn tiền quà tặng hời hơn rất như nam a_bank đang khuyến_mãi kỷ_niệm 30 hoàn tiền chi_tiêu còn tặng voucher nghỉ_dưỡng đà_lạt nha_trang toàn khách_sạn resort xịn nếu mà sợ làm_chủ bản_thân sử_dụng thẻ tín_dụng thì bản_thân cứ mức phép bản_thân chi_tiêu trước bạn sẽ kiểm_soát tâm_lý muốn xài tiền mình kiểu gì bạn nói rich kid nói đạo_lý xài tiền bố_mẹ thôi chả cãi đâu bạn nói đúng quá cơ_mà nếu bạn giàu thì chắc bạn chả nói thế đâu nhờ rich kid 2k1 chia_sẻ</t>
+  </si>
+  <si>
+    <t>chủ_nhân chiếc vương_miện đính hơn 2500 viên đá_quý chính_thức lộ diện theanh28 khép chặng đường dài tìm_kiếm gái tài_sắc vẹn_toàn cảm_xúc đêm chung_kết miss fptu cần_thơ 2022 vinh_dự gọi tên nguyễn_ngọc_kiều_duy sbd 111 ngành ngôn_ngữ trở_thành hoa_khôi đại_diện nhan_sắc sinh_viên trường đại_học fpt cần_thơ</t>
+  </si>
+  <si>
+    <t>tái_thất_nghiệp xuất_khẩu lao_động đức_hùng 7 làm_việc nhà_máy dệt hàn_quốc trần_đạt trở quê hà_tĩnh vạch xuất_phát hiện mưu_sinh bằng nghề phụ hồ bốc_vác</t>
+  </si>
+  <si>
+    <t>đỗ_mỹ_linh tôi cưới chồng vì gia_thế tân_cao khang_ngô đỗ_mỹ_linh nói chồng sắp cưới con_trai bầu hiển yêu thật lòng đồng_điệu chứ vì tiền_tài gia_thế</t>
+  </si>
+  <si>
+    <t>đẹp brazil đăng_quang miss grand international 2022 đạt_phan indonesiaisabella menin 26 tuổi brazil vượt 67 thí_sinh giành chiến_thắng chung_kết hoa_hậu hòa_bình quốc_tế 2022 jakarta tối 25 10</t>
+  </si>
+  <si>
+    <t>vpbank bạo tay chi 100 tỷ đồng tài_trợ bản_quyền world_cup theanh28 bóng_đá môn thể_thao yêu thích nhất xem trận bóng đỉnh_cao world_cup món ăn tinh_thần không_thể thiếu hàng chục triệu việt vì_vậy tài_trợ kinh_phí mua bản_quyền world_cup 2022 phù_hợp mong_muốn mang giá_trị thịnh_vượng tinh_thần cộng_đồng vpbank đúng tinh_thần sứ_mệnh vì thịnh_vượng mà vpbank đang thực_hiện</t>
+  </si>
+  <si>
+    <t>hơn 100 công_nhân nợ lương hoàng_nam lao_động xã tân_ninh huyện tân_thạnh nợ lương kéo_dài một_số giăng mùng ngủ xưởng ngăn công_ty tẩu_tán tài_sản</t>
+  </si>
+  <si>
+    <t>paris hilton tôi từng lạm_dụng tình_dục trường phương_mai paris hilton biết từng nhân_viên trường nội_trú utah quấy_rối tình_dục thời học_sinh</t>
+  </si>
+  <si>
+    <t>hoa_khôi á khôi thi hoa_hậu 2022 tân_cao sinh_viên từng đoạt danh_hiệu hoa_khôi á khôi vượt qua vòng sơ_tuyển hoa_hậu 2022</t>
+  </si>
+  <si>
+    <t>kiến_nghị sửa luật bổ_sung nơi sinh hộ_chiếu sơn_hà đại_biểu_kiến_nghị đưa nội_dung sửa luật xuất_cảnh nhập_cảnh công_dân chương_trình kỳ họp quốc_hội thứ_tư nhằm bổ_sung nơi sinh hộ_chiếu</t>
+  </si>
+  <si>
+    <t>đất tp hcm bồi_thường tối_đa gấp 15 lần giá nhà_nước thái_anh hệ_số điều_chỉnh giá đất thành_phố lập phương_án bồi_thường 2022 tối_đa gấp 15 lần so giá nhà_nước còn hệ_số giá đất nông_nghiệp gấp 35 lần</t>
+  </si>
+  <si>
+    <t>dự_kiến trình phương_án nghỉ tết 7 ngày hồng_chiêu cơ_quan chuyên_môn chọn phương_án nghỉ tết_âm_lịch 29 tháng_chạp trình chính_phủ gần tháng lấy ý_kiến</t>
+  </si>
+  <si>
+    <t>h hen niê lên bìa tạp_chí thời_trang dubai tân_cao hoa_hậu h hen niê đẹp việt đầu_tiên xuất_hiện trên bìa tạp_chí thời_trang victor dubai</t>
+  </si>
+  <si>
+    <t>chủ_tịch tp đà_nẵng khiển_trách viết_tuân lê_trung_chinh phó_bí_thư thành_ủy bí_thư ban cán_sự đảng chủ_tịch ubnd tp đà_nẵng ủy_ban kiểm_tra trung_ương khiển_trách</t>
+  </si>
+  <si>
+    <t>indonesia bạo_loạn trận bóng_đá ít_nhất 127 qua_đời khoảng 180 bị_thương theanh28 tối 10 2022 trận đấu arema persebaya giải vđqg indonesia tổ_chức trên sân kanjuruhan tỉnh đông_java như_thường_lệ hơn 40 000 khán_giả chật kín sân theo_dõi trận_đấu 2 trận thua liên_tiếp trên sân_nhà arema tiếp_tục phong_độ tốt thua persebaya chung_cuộc 2 3 thất_vọng trận thua đội chủ cđv quá_khích tràn xuống sân đ ập p há tạo nên khung_cảnh hỗn_loạn lực_lượng an_ninh bố_trí mỏng nên không_thể kiểm_soát đám đông</t>
+  </si>
+  <si>
+    <t>khó vậy mà nghĩ nữa theanh28 mới_đây hơn 3 tấn chân gà rõ nguồn_gốc xuất_xứ vừa lực_lượng chức_năng phát_hiện_tại huyện đan_phượng hà_nội hầu_hết số chân gà dấu_hiệu hư_hỏng bốc mùi hôi nhưng vẫn chủ cơ_sở thu_gom cung_cấp cơ_sở chế_biến chân gà rút xương chuẩn_bị giao khắp cá địa_bàn trên thành_phố hà_nội khai_báo lực_lượng chức_năng chủ cơ_sở vẫn rất bình_tĩnh khẳng_định chắc do vận_chuyển bảo_quản nó hư_hỏng thôi chứ nguồn_gốc nó vẫn chân con gà mà mà bản_chất nó vẫn con gà mà</t>
+  </si>
+  <si>
+    <t>hoa_hậu hương_giang lăng_xê trang_sức đá_quý jessica vạn_phát hoa_hậu hương_giang chọn trang_sức_gắn đá_quý kim_cương hãng jessica dự sự_kiện chopard loves_cinema singapore hồi tuần trước</t>
+  </si>
+  <si>
+    <t>bé trai nặng 5 kg chào_đời bằng phương_pháp sinh thường  mới_đây khoa_sản bệnh_viện đa_khoa huyện phú_bình thái_nguyên biết ngày hôm_qua 29 09 bác_sĩ vừa đỡ_đẻ thành_công sản_phụ 30 phút bé trai nặng 5 kg chào_đời an_toàn bằng phương_pháp sinh thường trước sự bất_ngờ toàn_bộ kíp đỡ_đẻ theo bác_sĩ trực_tiếp thực_hiện ca đẻ biết đây trường_hợp hiếm gặp em bé trọng_lượng lớn nhất trước nay chào_đời bệnh_viện bằng phương_pháp sinh thường</t>
+  </si>
+  <si>
+    <t>tuấn_hưng tôi thanh_lam diva duy_nhất hà_thu tuấn_hưng tự nhận giọng hát mức trung_bình khá ngưỡng_mộ phong_cách âm_nhạc thanh_lam</t>
+  </si>
+  <si>
     <t>bạn muốn ai ai việt_tân giới bình_luận vỉa_hè rằng huấn_luyện_viên park_hang_seo 65 tuổi nên vì còn có_thể giúp_ích đội_tuyển bóng_đá còn bác trọng 78 tuổi già rồi nên chứ giúp_ích gì đất_nước mà chỉ kéo dài thêm sự trì_trệ cản_trở_sự phát_triển đất_nước mà thôi bạn nghĩ sao suy_nghĩ trên</t>
   </si>
   <si>
-    <t>mới_đây trên cɑ ́ c diễn_đàn hội nhóm ô_tô xôn_xao trước bài đăng nguyễn văn_vinh thôn bầu xã kim chung đông_anh hà_nội truy_tìm kẻ lấy mất ô_tô th mới_đây trên cɑ ́ c diễn_đàn hội nhóm ô_tô xôn_xao trước bài đăng nguyễn văn_vinh thôn bầu xã kim chung đông_anh hà_nội truy_tìm kẻ lấy mất ô_tô theo chủ xe chia_sẻ do gia_đình nhu_cầu bán chiếc xe ô_tô màu đỏ nên lên mạng xã_hội rao bán giá 400 triệu đồng ngày 2 12 vừa_qua đàn_ông mặc quần_áo đen liên_hệ ngỏ ý_muốn mua xe đó hai bên hẹn gặp khu_vực cầu_chui số 3 đông_bầu kim_cɦuƞǥ đông_anh khách xem lái thử ô_tô lúc đầu vinh ngồi chung đàn_ông thấy điều gì bất_thường lúc xuống xe rồi nói_chuyện vớii tài_xế chở vị khách mua xe lợi_dụng lúc vinh đề_phòng đàn_ông trên xe nhấn ga phóng mất 5 phút thấy vị khách quay nên vinh gọi điện phía đầu dây bên kia khóa máy lúc mới tá hỏa biết chở vị kɦách tài_xế taxi chứ phɑ ̉ i người_nhà</t>
-  </si>
-  <si>
-    <t>tuổi 23 con_gái thành_long như_anh ngô_trác_lâm con ngoài giá_thú tài_tử thành_long phục_vụ nhà_hàng canada</t>
-  </si>
-  <si>
-    <t>luật_sư johnny_depp từ_chối bào_chữa kanye_west phương_mai camille_vasquez luật_sư giúp johnny_depp thắng kiện amber_heard từ_chối bào_chữa kanye_west vì rapper bình_luận kỳ_thị do_thái</t>
-  </si>
-  <si>
-    <t>tới nào việt nam mới biết sự_thật đáng buồn việt_tân cả thế_giới đều biết nước nghèo_khó kinh_tế nhưng giầu_có bệnh_tật ung_thư cả thế_giới đều biết bạt_ngàn tượng_đài ngàn tỉ nhưng trường_học bệnh_viện trạm y_tế cầu_đường còn thiếu_thốn khắp mọi nơi cả thế_giới đều biết siêu_cường_quốc dân oan siêu_cường_quốc xuất_khẩu lao_động cả thế_giới đang bàn quyền vi_sinh_vật thì tước_đoạt quyền con_người tính_mạng con_người rẻ_rúng cả thế_giới đều biết rất đáng thương nhưng sao tưởng mình đang sống thiên_đường cả thế_giới đều biết quan_chức trùm quan tham tham_nhũng cả tổng_bí_thư còn vạch cả chiến_dịch đốt lò nhưng chẳng ăn_thua còn rất điều cần_thiết nhưng vẫn động_thái nào cầm_quyền biến trở_nên văn_minh giàu đẹp hơn liệu dân từng đòi_hỏi thứ mình cần liệu cầm_quyền nghe tiếng thở_than dân hay</t>
-  </si>
-  <si>
-    <t>nữ tiktoker lê_quỳnh như đột_ngột qua_đời tuổi 29 theanh28 mới_đây thông_tin lê_quỳnh_như thí_sinh top 20 the_next face 2021 đột_ngột qua_đời khiến bàng_hoàng thương_xót rất bạn_bè đồng_nghiệp từng làm_việc chung gửi lời chia buồn tới gia_đình quỳnh_như lê_quỳnh_như 1994 quê đắk_lắk còn biết tiktoker sở_hữu hơn 200 nghìn lượt theo_dõi nàng tạo ấn_tượng xem bởi phong_cách thời_trang độc_đáo cá_tính đa_dạng</t>
+    <t>tóc_tiên tôi hết ảo_tưởng hôn_nhân lãng_mạn hoàng_dung hoàng_thanh tóc_tiên nói làm vợ nhạc_sĩ touliver hết tôn_thờ chủ_nghĩa lãng_mạn tình_yêu chỉ quan_trọng chân_thành khiếu hài_hước cảm_thông</t>
+  </si>
+  <si>
+    <t>vũ_ngọc son làm show bưu_điện tp hcm tân_cao hai thiết_kế vũ_ngọc son sẽ giới_thiệu bộ sưu_tập ký_ức tuổi_thơ show lần đầu tổ_chức bưu_điện tp hcm</t>
+  </si>
+  <si>
+    <t>châu_tinh trì lần đầu dùng mạng xã_hội nghinh_xuân tài_tử hong_kong châu_tinh_trì 60 tuổi gây chú_ý lần đầu dùng mạng xã_hội tuyển nhân_sự</t>
+  </si>
+  <si>
+    <t>biểu_tình ủng_hộ dân iran diễn khắp nơi trên thế_giới hồng_hà theo tờ the_guardian cuộc biểu_tình diễn berlin mà cảnh_sát biết thu_hút hơn 80 000 số cuộc biểu_tình khắp thế_giới bao_gồm cả úc nhật_bản đây cuộc biểu_tình lớn nhằm thể_hiện_tình đoàn_kết biểu_tình iran đồng_thời kêu_gọi chính_phủ dân_chủ hãy ngưng đàm_phán nhà_nước tội_phạm gọi cộng_hoà hồi_giáo ban tổ_chức dự_kiến ban_đầu 50 000 tham_gia nhưng đó thu_hút hơn 80 000 cảnh_sát báo_cáo cuộc tuần_hành sự_cố rắc_rối nào chỉ bắt_đầu sự_kiện pháo_hoa đốt cuộc tuần_hành berlin cuộc biểu_tình lớn nhất trước nay iran nước_ngoài iran nước đang cung_cấp vũ_khí drone nga cuộc xâm_lược ukraina sớm_muộn gì chế_độ kh ủng b ố như nga iran sẽ cả thế_giới tẩy_chay</t>
+  </si>
+  <si>
+    <t>tuấn_hưng vợ kiếm tiền hơn tôi hà_thu ca_sĩ tuấn_hưng nói bận_tâm chuyện mỉa_mai thua_kém kiếm ít tiền hơn vợ sẵn_sàng nhà_tắm_giặt chăm con</t>
+  </si>
+  <si>
+    <t>giải_tỏa gần 3 300 ha nuôi ngao trái_phép lê_tân ubnd tp hải_phòng yêu_cầu giải_tỏa khu_vực nuôi ngao 117 hộ dân trên diện_tích gần 3 300 ha vùng ven biển thuộc quận hải_an huyện kiến_thụy</t>
+  </si>
+  <si>
+    <t>chủ đầu_tư metro nhổn ga hà_nội phản_hồi dân lún nứt võ_hải tối 19 8 ban quản_lý đường_sắt đô_thị hà_nội mrb thừa_nhận một_số công_trình ảnh_hưởng bởi dự_án nhổn ga hà_nội nhưng hư_hại trước</t>
+  </si>
+  <si>
+    <t>bất_ngờ xảy lượt trận uefa champions_league rạng sáng nay theanh28 real madrid đứt mạch 20 trận bất_bại juventus lần đầu loại khỏi vòng bảng kể 2013 messi tiếp_tục lập kỷ_lục trở_thành cầu_thủ lớn_tuổi nhất ghi 2 bàn kiến_tạo 2 lần trận_đấu champions_league haaland không_thể ghi_bàn lưới đội bóng cũ</t>
+  </si>
+  <si>
+    <t>ảnh chụp trên cao vùng nước ô_nhiễm nhất thế_giới thế_đan sông_citarum indonesia sông tame gần denton hay sông tiete brazil vùng nước ô_nhiễm nhất thế_giới</t>
+  </si>
+  <si>
+    <t>hồ_ngọc_hà lúc nghe trộm đột_nhập kim_lý lo mất nhẫn_cưới hoàng_dung dũng_thịnh hà_hồ nói kim_lý hốt_hoảng hơn báo tin trộm đột_nhập biệt_thự tp hcm sợ mất nhẫn_cưới cả hai</t>
+  </si>
+  <si>
+    <t>britney spears nói từng mẹ đánh vì chơi khuya thanh_giang ca_sĩ britney spears chỉ_trích mẹ từng tát nặng_tay vì chơi 4h sáng mới</t>
+  </si>
+  <si>
+    <t>sao đài_loan bán hàng_chợ đêm bê_bối như_anh vương_tín_tường sao đài_loan từng đóng hoàng_tử ếch mở sạp đồ ăn_ở chợ đêm scandal quấy_rối tình_dục</t>
+  </si>
+  <si>
+    <t>hợp_thức_hóa vướng_mắc tính vi_phạm sửa luật đất_đai viết_tuân chủ_tịch quốc_hội yêu_cầu khắc_phục bất_cập thực_tiễn hợp_thức_hóa vướng_mắc tính_chất vi_phạm xây_dựng luật đất_đai sửa_đổi</t>
+  </si>
+  <si>
+    <t>ngân_sách 2023 chi bao_nhiêu cải_cách tăng lương anh_minh dự_toán chi ngân_sách dành 12 500 tỷ đồng cải_cách tiền_lương lương hưu điều_chỉnh một_số chế_độ trợ_cấp phụ_cấp chính_sách an_sinh xã_hội gắn lương cơ_sở</t>
+  </si>
+  <si>
+    <t>tù 2 vì lấy tiền bà ngoại mua iphone 13 promax tặng bạn gái theanh28 ngày 23 9 tand huyện chợ mới tỉnh an_giang tuyên bị_cáo t n s 23 tuổi huyện chợ mới 2 t ù tội t rộm c ắp tài_sản theo cáo_trạng sáng 18 5 s chạy xe_máy học nghề sửa_chữa máy_nổ chạy ngang qua bà ngoại xã hòa_bình bị_cáo thấy cửa_mở biết bà ngoại s nảy_sinh ý_định t rộm c ắp tài_sản mở két lấy trộm 74 5 triệu đồng chiều cùng ngày s mua điện_thoại iphone 13 promax trị_giá gần 35 triệu đồng tặng bạn gái</t>
+  </si>
+  <si>
+    <t>cha_mẹ luôn yêu_thương con vô_bờ_bến theanh28 hình_ảnh chủ quán cà_phê phường long_tuyền quận bình_thủy thành_phố cần_thơ ghi đăng_tải lên mạng xã_hội theo lời anh_chàng kể đó trời mưa tầm_tã gia_đình 3 ghé quán trú tạm gọi nước mẹ mang hộp cơm cả cùng nhau dùng_bữa ngừng thúc_giục con_trai ăn cơm mau rồi học nè con</t>
+  </si>
+  <si>
+    <t>blg muốn chiêu mộ 2 vô_địch cktg kỳ chuyển_nhượng cuối mùa giải 2022 thethaovanhoa vn blg đang tham_vọng xây_dựng dải ngân_hà thực_sự lpl mùa giải 2023</t>
+  </si>
+  <si>
+    <t>nguyễn văn_thể làm bí_thư đảng_ủy khối cơ_quan trung_ương viết_tuân nguyễn văn_thể bộ chính_trị chỉ_định làm bí_thư đảng_ủy khối cơ_quan trung_ương thay huỳnh_tấn việt thôi chức ủy_viên trung_ương</t>
+  </si>
+  <si>
+    <t>minh_tinh beauty and the beast qua_đời đạt_phan angela_lansbury hát ca_khúc đoạt oscar beauty and the beast 1991 mất tuổi 96 tám thập_niên hoạt_động nghệ_thuật</t>
+  </si>
+  <si>
+    <t>justin_bieber cắt đứt quan_hệ kanye_west tam_kỳ ca_sĩ justin_bieber biết cắt đứt quan_hệ kanye west rapper chỉ_trích vợ người_mẫu hailey_bieber</t>
+  </si>
+  <si>
+    <t>đoàn_thiên_ân_trượt top 10 miss_grand tân_cao đoàn_thiên_ân dừng top 20 miss grand international 2022 nhờ thắng giải bình_chọn khiến khán_giả tiếc_nuối</t>
   </si>
   <si>
     <t>chú chó biết nấu cơm chủ vắng theo scmp theo lời hướng_dẫn chủ chú chó luckey mày_mò tìm cách ấn nút nồi cơm_điện nấu cơm chủ vắng</t>
   </si>
   <si>
-    <t>tiến_sỹ nhưng lương bằng nhân_viên văn_phòng bình_thường theanh28_entertainment mới_đây tiến_sĩ trẻ học nước_ngoài vừa giảng_dạy nghiên_cứu khoa_học vừa giao đủ thứ việc nhưng chỉ nhận mức lương 6 triệu đồng tháng thu_nhập tăng thêm rất thấp mức lương giảng_viên lên mạng tìm_kiếm việc_làm thêm ý_định chuyển sang nơi khác biết đây giảng_viên trường đh công_lập khu_vực đồng_bằng sông cửu_long mới học tiến_sĩ nước_ngoài tiến_sĩ viết em mới tốt_nghiệp tiến_sĩ dạy trường công mức lương thấp 6 triệu tiền thưởng công_bố thấp rất khó mới nhận em 5 công_bố ssci ngành quản_lý gồm 3 bài báo q1 2 bài độc_lập bài đồng tác_giả bài báo q2 độc_lập q4 độc_lập khả_năng nghiên_cứu độc_lập em mong_muốn có_thể làm nghiên_cứu bán thời_gian trường tổ_chức khác kiếm thêm thu_nhập tiến_sĩ biết mình du_học lĩnh_vực quản_lý vận_tải bằng học_bổng tự tìm_kiếm quá_trình học trường đh đóng bảo_hiểm trả lương triệu đồng tháng trước ký cam_kết sẽ công_tác trường 10 nếu sẽ phạt gấp 3 lần số tiền trường cấp khoảng hơn 100 triệu đồng nói thêm thu_nhập tiến_sĩ hay mỗi mà dạy vượt thì 100 giờ chỉ trả 7 triệu đồng chỗ tôi trường tư ngoài xin dạy chưa kể lịch dạy trường kín tuần thêm công_việc cố_vấn học_tập hướng_dẫn sinh_viên tôi đang cân_nhắc việc chuyển sang trường khác vì lương hiện_tại thấp trường mặn mà gì nghiên_cứu khoa_học</t>
-  </si>
-  <si>
-    <t>lao_động xa xứ giằng_xé vì bỏ trốn làm chui đức_hùng làm_việc bất_hợp_pháp chị thanh trả lương cao hơn nhưng luôn nơm_nớp lo_sợ phát_hiện trục_xuất</t>
-  </si>
-  <si>
-    <t>jack chính_thức rời công_ty lần thứ 2 lập công_ty riêng theanh28 loạt ồn_ào jack chính_thức rời công_ty cũ tự thành_lập công_ty riêng lấy tên j97_entertainment thông_tin màn comeback hé lộ trước đó</t>
-  </si>
-  <si>
-    <t>đề_xuất kéo_dài thời_hiệu kỷ_luật hành_chính cán_bộ công_chức sơn_hà chính_phủ đề_xuất cán_bộ công_chức viên_chức khiển_trách thời_hiệu xử_lý kỷ_luật hành_chính tăng 2 lên 5 cảnh_cáo 10 thay_vì 5 như hiện_nay</t>
-  </si>
-  <si>
-    <t>tóc_tiên tôi hết ảo_tưởng hôn_nhân lãng_mạn hoàng_dung hoàng_thanh tóc_tiên nói làm vợ nhạc_sĩ touliver hết tôn_thờ chủ_nghĩa lãng_mạn tình_yêu chỉ quan_trọng chân_thành khiếu hài_hước cảm_thông</t>
-  </si>
-  <si>
-    <t>đại_biểu quốc_hội bộ ngành điều_hành xăng dầu vẫn lúng_túng anh_minh đại_biểu quốc_hội rằng thị_trường xăng dầu vẫn đứt_gãy chuỗi cung_ứng nhất tỉnh thành phía nam thấy điều_hành bộ ngành liên_quan còn lúng_túng</t>
-  </si>
-  <si>
-    <t>cộng_sản vẽ bánh hồng_hà hôm 26 tháng mười 2022 trang thông_tin chính_phủ đưa tuyên_bố tầm nhìn tới 2050 trở_thành nước phát_triển thu_nhập cao ngay_lập_tức phía bên dưới facebook khanh_hung bình_luận mỗi 40 qua ít_nhất lần nghe tuyên_bố nhiệm_kỳ vị cứ 5 lần mỗi lần vị lên tìm cách vốn bằng thì lấy cơ_sở nào đòi nước phát_triển thu_nhập cao đấy chưa kể 2010 vị tuyên_bố 2020 sẽ nước phát_triển 2020 thì tuyên_bố 2030 sẽ nước phát_triển giờ sắp hết 2022 thì tuyên_bố 2050 sẽ trở_thành nước phát_triển thu_nhập cao như_vậy có_thể khẳng_định bánh_vẽ chính_phủ tăng tầm nhìn 2020 lên 2050 chính_phủ thì phải biết bánh_vẽ tuyên_giáo thì phải biết nói ngược nói xuôi đúng dân đen khổ vì cặp đôi</t>
-  </si>
-  <si>
-    <t>đám cỗ chồng giò thịt bay vèo_vèo qua tường hàng_xóm  bên vườn chồng em vật_thể lạ cứ bay vèo_vèo sang bên chú em dụi mắt đeo kính nhìn thì phát_hiện vật_thể lạ đó giò thịt</t>
-  </si>
-  <si>
-    <t>thật_sự quá thương chiến_binh áo xanh áo trắng theanh28 gs nguyễn trí trả_lời phỏng_vấn bên lề phiên thảo_luận sáng 28 10 kỳ họp thứ_tư quốc_hội khóa xv nhấn_mạnh lương chế_độ phụ_cấp cán_bộ ngành y_tế quá thấp điều_kiện làm_việc đảm_bảo</t>
-  </si>
-  <si>
-    <t>đề_nghị tăng lương cơ_sở 2023 sơn_hà 11 đại_biểu quốc_hội đề_nghị tăng lương cơ_sở trước 6 tháng thay_vì 7 2023 như đề_xuất chính_phủ nhằm tháo_gỡ khó_khăn ngành giáo_dục y_tế</t>
-  </si>
-  <si>
-    <t>phó_chủ_tịch hội_đồng lý_luận trung_ương nguyễn_quang_thuấn cảnh_cáo viết_tuân ủy_ban kiểm_tra trung_ương cảnh_cáo nguyễn_quang_thuấn phó_chủ_tịch hội_đồng lý_luận trung_ương nguyên bí_thư đảng_ủy nguyên chủ_tịch viện hàn_lâm khoa_học xã_hội</t>
-  </si>
-  <si>
-    <t>diệu_nhi kiếp vẫn muốn làm vợ tú tân_cao diễn_viên diệu_nhi hứa vẫn lấy tú nếu kiếp khiến khách mời bật khóc tiệc cưới chiều 10 10</t>
-  </si>
-  <si>
-    <t>mai_ngô gái thị_phi thành á_hậu hoàng_dung á_hậu mai_ngô từng dừng hoạt_động giải_trí bốn vì áp_lực chỉ_trích ăn_nói ngỗ_ngược phát_ngôn gây sốc</t>
+    <t>cử_tri lo_lắng giá dịch_vụ tăng nhưng tiền_lương chưa tăng sơn_hà giá dịch_vụ khoản phí đều tăng tiền_lương cán_bộ công_chức viên_chức lao_động chưa tăng khiến cử_tri lo_lắng</t>
+  </si>
+  <si>
+    <t>ét o ét ai tui nhờ mấy hôm mất nước theanh28 công_ty cổ_phần viwaco vừa thông_báo gửi khách_hàng việc tạm ngừng cấp_nước đấu nối kỹ_thuật tuyến ống truyền_tải nước_sạch sông đà do_vậy dân cần tích_trữ nước sử_dụng tiết_kiệm dự_kiến thời_gian tạm ngừng cấp_nước 20h ngày 29 10 15h ngày 30 10</t>
+  </si>
+  <si>
+    <t>thầy ten hag xác_nhận ronaldo từ_chối sân theanh28 phát_biểu cuộc họp_báo trước thềm trận_đấu giữa man_utd chelsea diễn lúc 23h30 ngày_mai 22 10 hlv erik ten_hag khẳng_định cristiano_ronaldo từ_chối sân muốn đưa ronaldo sân thay phút 87 man utd dẫn 2 0 quyết_định sân bỏ ngay đó hành_động ronaldo khiến man utd cấm thi_đấu trận tiếp_theo gặp chelsea mức phạt cao nhất mà cr7 phải đối_diện 2 tuần lương tương_đương hơn triệu usd</t>
+  </si>
+  <si>
+    <t>đoàn_thiên_ân tôi khóc vì tin mình trượt top 10 tân_cao indonesiangười đẹp đoàn_thiên_ân_khóc vì hụt_hẫng dừng bước top 20 rằng có_thể tiến xa hơn miss grand international 2022</t>
+  </si>
+  <si>
+    <t>vi_khuẩn cổ_đại có_thể ngủ yên hàng triệu trên sao hỏa thanh hà vi_khuẩn cổ_đại có_thể ngủ yên dưới bề_mặt sao hỏa nơi chúng che_chắn khỏi bức_xạ không_gian khắc_nghiệt hàng triệu</t>
+  </si>
+  <si>
+    <t>sơn_tùng m tp thăm trường cũ mai_nhật ca_sĩ sơn_tùng m tp hàng trăm học_sinh vây quanh thăm trường phổ_thông từng học quê</t>
+  </si>
+  <si>
+    <t>bà đào hồng_lan làm bộ_trưởng y_tế sơn_hà tỷ_lệ tán_thành 87 15 quốc_hội thông_qua nghị_quyết phê_chuẩn bổ_nhiệm bà đào hồng_lan bí_thư ban cán_sự đảng quyền bộ_trưởng y_tế giữ chức bộ_trưởng y_tế</t>
+  </si>
+  <si>
+    <t>trương_phi_thật lịch_sử nghệ_thuật gia tài  trương phi_thường miêu_tả cuốn tiểu_thuyết tam_quốc diễn_nghĩa hình_tượng đại_tướng quân hữu dũng vô mưu nhưng trương_phi_thật lịch_sử như thế_nào</t>
+  </si>
+  <si>
+    <t>dân mỹ khổ như báo_chí cách_mạng viết  ngày hôm_qua 26 tháng mười báo điện_tử cafe biz đưa tin dân mỹ dám mua kẹo mùa halloween vì lạm_phát rồi báo cafe biz đưa tin rằng bất_chấp lạm_phát dân mỹ vẫn vung 10 6 tỷ usd halloween thật_sự báo_chí cách mệnh bây_giờ nó lạ lắm cứ đá nhau chan_chát thế thì ai mà tin dân mỹ đọc xong chắc họ cười sặc cơm mất mở_miệng chê_bai mỹ dè bĩu mỹ nhưng thực_ra chửi mỹ công_việc định_cư mỹ ước_mơ</t>
+  </si>
+  <si>
+    <t>sao the_flash đối_mặt án tù 26 phương_mai tài_tử ezra_miller từ_chối thỏa_thuận đầu_thú tòa_án đối_mặt án tù lên 26 nếu kết_tội đột_nhập ăn_trộm</t>
+  </si>
+  <si>
+    <t>5 nguyễn văn_thể làm bộ_trưởng giao_thông vận_tải đoàn_loan 5 cương_vị bộ_trưởng giao_thông vận_tải nguyễn văn_thể góp_phần định_hình tuyến cao_tốc bắc_nam kéo_giảm tai_nạn giao_thông</t>
+  </si>
+  <si>
+    <t>hai bố con mừng sinh_nhật cửa_hàng gà rán xem nǥhèo khổ bóc_trần lối tư_duy nhóm thượng_đẳng th trên bàn chiếc bánh kem dâu_tây nhỏ cắm nến cậu bé nhắm_mắt chắp hai tay cầu_nguyện bố ngồi đối_diện dùng điện_thoại quay khoảnh_khắc mừng_tuổi mới con_trai cảnh ý_nghĩa ấm_áp như_vậy thế nhưng phần bình_luận rằng đây bữa tiệc sinh_nhật nghèo_khổ</t>
+  </si>
+  <si>
+    <t>bộ_trưởng đào hồng_lan mong chính_sách đảm_bảo nguồn_lực ngành y lâu_dài viết_tuân bộ_trưởng y_tế biết sẽ đề_xuất chính_sách tiền_lương phụ_cấp phù_hợp nhân_viên y_tế mục_tiêu đảm_bảo nguồn nhân_lực phục_vụ lâu_dài</t>
+  </si>
+  <si>
+    <t>bom tấn kinh_dị mồi quỷ dữ trải nghiệm trừ_tà kinh_hoàng dịp halloween theanh28 thanh_niên nào cảm_thấy cuộc_sống mình chưa đủ mệt_mỏi thì nên trải nghiệm bộ phim mồi quỷ dữ tăng thêm nhịp tim thử_thách cuộc_sống bộ phim xoay quanh xơ ann phụ_nữ đầu_tiên phép chủ_trì buổi lễ trừ t à đó phát_hiện hàng_loạt câu_chuyện đáng sợ quá_khứ mình</t>
+  </si>
+  <si>
+    <t>cháy chung_cư mini cầu giấy hà_nội theanh28 vừa xong vụ cháy lớn xảy tòa chung_cư mini ngõ 132 cầu giấy hà_nội nhận tin báo đội cảnh_sát pccc cnch công_an quận cầu giấy điều 4 xe chữa_cháy cùng hơn 20 cán_bộ chiến_sĩ tới hiện_trường dập lửa khoảng 19h30 lực_lượng cảnh_sát pccc cnch dập tắt hoàn_toàn đám cháy tổ_chức cứu 11 thoát nạn an_toàn 3 bị_thương rất may tử_vong</t>
+  </si>
+  <si>
+    <t>địa_điểm nóng nhất tối nay sự_kiện âm_nhạc phố bộ theanh28 phố bộ hà_nội tối nay sự_kiện âm_nhạc siêu hoành_tráng thu_hút hàng nghìn khán_giả phiêu mình theo giai điệp cực cháy bữa tiệc âm_nhạc nóng càng nóng sự xuất_hiện binz tóc_tiên phiêu quên lối</t>
+  </si>
+  <si>
+    <t>chồng nhậu khuya vợ dùng xăng phóng_hỏa khiến cả 2 bỏng nặng theanh28 vụ_việc xảy tối 28 9 huyện tam_đảo tỉnh vĩnh_phúc nguyên_nhân ban_đầu sự_việc ngày hôm đó 28 9 n v t sn 1963 em_trai xây giúp tối cùng ngày t uống bia cùng anh_em nhưng t vợ xảy cãi_vã lúc nóng_giận vợ tên m sn 1965 dùng xăng p hóng h ỏa khiến cả 2 đều b ỏn g nặng</t>
+  </si>
+  <si>
+    <t>thoát nghèo nhờ liên_kết trồng rau_sạch lê_hải mô_hình liên_kết trồng rau_sạch xã quyết_tiến quản_bạ giúp dân nâng cao thu_nhập cải_thiện đời_sống</t>
+  </si>
+  <si>
+    <t>công_nhân xoay_xở nhà_máy ít việc giảm lương lê_tuyết kỳ_vọng đơn hàng_phục_hồi dịch song gần đây sức_mua thị_trường lớn như mỹ châu âu giảm mạnh khiến nhà_máy giảm việc công_nhân dệt may điện_tử gặp khó_khăn</t>
+  </si>
+  <si>
+    <t>nên chia hai mức khởi_điểm đấu_giá_biển số ôtô sơn_hà căn_cứ chia hai mức khởi_điểm đấu_giá_biển số 20 40 triệu đồng chưa vững_chắc thể_hiện sự phân_biệt đối_xử theo một_số chuyên_gia</t>
+  </si>
+  <si>
+    <t>trương bá chi_thu 14 triệu usd livestream như_anh diễn_viên hong_kong trương bá chi bán số hàng_hóa hơn 100 triệu nhân_dân_tệ hơn 13 9 triệu usd livestream</t>
+  </si>
+  <si>
+    <t>ma_dong_seok bí_mật kết_hôn như_anh ma_dong_seok tài_tử hàn đóng train to busan tiết_lộ kết_hôn huấn_luyện_viên thể_hình ye jung_hwa</t>
+  </si>
+  <si>
+    <t>cán_bộ thà đứng trước hội_đồng kỷ_luật còn hơn đứng trước hội_đồng xét_xử viết_tuân theo đại_biểu nguyễn_hữu_thông bộ_phận cán_bộ công_chức viên_chức đó lãnh_đạo quản_lý đang tâm_lý sợ sai sợ trách_nhiệm làm cầm_chừng</t>
+  </si>
+  <si>
+    <t>xoá độc_quyền dữ_liệu đất_đai thu_hằng sở tài_nguyên môi_trường tp hcm mở cổng dữ_liệu đất_đai môi_trường ứng_dụng_công phát_triển giúp_việc quản_lý tra_cứu thông_tin thuận_tiện</t>
+  </si>
+  <si>
+    <t>helen thanh_đào phủ_nhận lừa_đảo như_anh diễn_viên helen thanh_đào phủ_nhận cùng bạn trai hoàng_cảnh_dụ lừa_đảo chiếm_đoạt tài_sản</t>
+  </si>
+  <si>
+    <t>anna bắc giang thao_túng cả cộng_đồng mạng luôn rồi theanh28 theo nguồn thông_tin hay trước khởi_tố bắt tạm giam n t v a tức tina_dương nộp 148 triệu đồng khắc_phục hậu_quả công_an trao_trả số tiền b đ _h nạn_nhân vụ án số tiền v a nộp cơ_quan csđt công_an tp phan_thiết tỉnh bình_thuận nhằm khắc_phục hậu_quả ngay cơ_quan khởi_tố vụ án lạm_dụng tín_nhiệm c hiếm đ oạt tài_sản vụ_việc thuê ôtô rồi mang bán anna khai số tiền do buôn_bán online livestream trên mạng xã_hội thời_gian gần đây</t>
+  </si>
+  <si>
+    <t>quả na dai đấu_giá 89 triệu đồng việt_an quả na dai nữ doanh_nhân mua 89 triệu đồng buổi đấu_giá gây quỹ từ_thiện khuôn_khổ hội_chợ na chi_lăng</t>
+  </si>
+  <si>
+    <t>địa_phương đau_đầu vì lao_động xuất_khẩu bỏ trốn hồng_chiêu gần 900 lao_động cư_trú bất_hợp_pháp chiếm 8 8 6 000 làm_việc hàn_quốc tỉnh thanh_hóa tìm mọi cách xử_lý song hiệu_quả</t>
+  </si>
+  <si>
+    <t>phạt 7 5 triệu đồng vì đăng tin sai sự_thật theanh28 h n s trú quận cẩm_lệ thành_phố đà_nẵng lực_lượng chức_năng xử_phạt hành_chính số tiền 7 5 triệu đồng vì hành_vi cung_cấp hình_ảnh sai sự_thật trên mạng xã_hội cụ_thể cung_cấp hình_ảnh hộp cơm thịt chuột học_sinh</t>
+  </si>
+  <si>
+    <t>tp hcm 20 khu đất xây xã_hội lê_tuyết 20 khu đất rộng 38 ha thuộc đề_án đầu_tư xây ít_nhất triệu căn_hộ thu_nhập thấp công_nhân khu công_nghiệp thành_phố theo sở xây_dựng tp hcm</t>
+  </si>
+  <si>
+    <t>không_thể xây vì phải chờ kế_hoạch sử_dụng đất hàng thu_hằng mất 3 nguyễn công khang chưa thể chuyển mục_đích sử_dụng 56 m2 đất xây vì phải chờ phê_duyệt kế_hoạch sử_dụng đất hàng huyện</t>
+  </si>
+  <si>
+    <t>sóng_ngầm nghỉ_việc nhà_nước thu_hằng 6 gắn_bó khu_vực công trần_công hoàng 32 tuổi quyết_định nghỉ_việc dù đang lãnh_đạo phòng cơ_hội thăng_tiến bởi thu_nhập tương_xứng</t>
+  </si>
+  <si>
+    <t>mất cơ_hội việc_làm vì đồng_hương cư_trú bất_hợp_pháp hồng_chiêu học ngoại_ngữ chuẩn_bị sẵn_sàng kỳ thi sang hàn_quốc làm_việc diệp sốc hay tin quê mình nằm danh_sách dừng tuyển lao_động</t>
+  </si>
+  <si>
+    <t>nguyễn phú_trọng chầu bắc_triều hiếu chân truyền_thông ngoài nước đưa tin nguyễn phú_trọng tổng_bí_thư đảng cộng_sản csvn sẽ thăm chính_thức trung_quốc ngày 30 tháng mười tới ngày 2 tháng mười sắp tới trọng lãnh_tụ đảng cộng_sản thực_chất lãnh_đạo quốc_gia đầu_tiên tới trung_quốc ngay đảng cộng_sản trung_quốc cstq hoàn_tất đại_hội toàn_quốc lần thứ 20 hôm 23 tháng mười đây tổng_bí_thư tập_cận bình bầu nhiệm_kỳ thứ ba thiết_lập bộ_máy cai_trị toàn tay_chân thân_tín do đảng csvn công_bố rất ít thông_tin chuyến trọng nên khó biết tại_sao xuất_ngoại hơn ba tự cấm_cung vội_vã như thế lúc sức_khỏe tốt như thể_hiện dịp hiếm_hoi xuất_hiện trước công_chúng liệu phải ẩn lời mời tập_cận bình sự hối_thúc nào đó mà trọng không_thể trì_hoãn nguyễn_nam hội nhà_báo độc_lập nhận_định có_thể trọng muốn tiếp_nhận cách mà đồng cấp trung_quốc có_thể thu_xếp nhân_sự bàn_cờ chính_trị nhưng chúng_tôi nghĩ nếu học cách thu_xếp nhân_sự đảng thì trọng nhất_thiết phải gấp như_vậy chính_trị hành_vi mang tính biểu_tượng hành_vi tiền_nhiệm cựu tổng_bí_thư hồ cẩm_đào xốc nách đưa khỏi nghị_trường đại_hội đảng cstq hôm 22 tháng mười biểu_thị lập_trường tập cắt đứt quá_khứ cải_cách bắt_đầu thời_đại mới tương_tự như_vậy hành_vi triệu_tập trọng sang bắc_kinh lúc đảng cstq tập đang bận_rộn công_việc hậu đại_hội hẳn ẩn_ý khó lường tìm_hiểu động_cơ chuyến nên xem qua quan_điểm tập như sự sắp_xếp nhân_sự chính_sách đối_ngoại trung_quốc nhiệm_kỳ thứ ba sắp tới nếu sự thay_đổi đáng chú_ý đường_lối đảng cstq trình_bày đại_hội 20 thì đó trung_quốc sẽ ưu_tiên an_ninh quốc_phòng hơn tăng_trưởng kinh_tế nhằm thực_hiện giấc mộng trung_hoa tập khôi_phục vị_thế lịch_sử trung_quốc như cường_quốc trung_tâm thế_giới thực_hiện tham_vọng trung_quốc sẽ thâu_tóm đài_loan vùng lãnh_thổ đế_chế trung_hoa cũ thống_nhất đất_nước đủ năng_lực cạnh_tranh hoa_kỳ tất_cả lĩnh_vực kinh_tế khoa_học công_nghệ quân_sự tập dường_như đang nóng_ruột đại_hội 20 ngoài việc đưa cơ_quan lãnh_đạo chóp_bu đảng cstq tay_chân thân_tín mình tập còn đưa quân_ủy_trung_ương mà kiêm chức chủ_tịch tướng lãnh kinh_nghiệm chiến_trường tướng lãnh phụ_trách mặt_trận đài_loan chỉ_huy binh_chủng hiện_đại như_hỏa_tiễn quân_ủy_trung_ương cơ_quan chỉ_huy tối_cao quân_đội trung_quốc nắm chức cao nhất đây thì quan_trọng ngang nắm chức tổng_bí_thư đảng hoặc thủ_tướng trung_quốc số sáu tướng_lĩnh mới đề_bạt quân_ủy_trung_ương hai tướng từng tham_gia chiến_tranh biên_giới 1980 thế_kỷ trước trương hựu_hiệp 72 tuổi hiện giữ chức phó_chủ_tịch thứ nhất lưu_chấn_lập 58 tuổi quân_ủy_viên đó chuyện mà đảng csvn nguyễn phú_trọng không_thể chú_ý việc quan_trọng thứ hai kế_sách thâu_tóm đài_loan tập củng_cố mạng_lưới phên giậu che_chắn nội_địa trung_quốc nếu chiến_tranh đài_loan lan rộng lôi_kéo sự tham_gia hoa_kỳ nước đông_á qua bằng thủ_đoạn trung_quốc thu_phục nga bắc hàn phía bắc lào cambodia miến_điện phía nam nước giáp biên trung_quốc thì vẫn đu dây thủ lợi dù hai nước cùng thể_chế chính_trị kinh_tế phụ_thuộc nặng_nề trung_quốc hơn thế nữa hai nước chỉ đối_tác_chiến_lược toàn_diện nhau mà còn hai đảng cộng_sản lịch_sử gắn_bó lâu_dài cai_trị thời_gian gần đây bắc_kinh điều hài_lòng hà_nội nhất việc ngày_càng biểu_hiện_thân_thiện hoa_kỳ nhiệm_kỳ thứ hai tập hơn qua kể đại_hội 12 đảng csvn tháng_giêng 2017 trọng sang bắc_kinh triều cống ngay cả đại_hội 13 đầu 2021 trọng đích_thân sang báo_cáo như thông_lệ mà chỉ cử quan_chức cấp_bộ làm sứ thần đó trọng tiếp thân_mật lãnh_đạo cao_cấp hoa_kỳ như phó_tổng_thống kamala_harris bộ_trưởng quốc_phòng lloyd_austin đang ráo_riết vận_động tổng_thống joe_biden mỹ sớm sang thăm quan_hệ hoa_kỳ có_thể nói đang ổn tới mức hoa_kỳ xếp cùng singapore làm đối_tác an_ninh hàng_đầu chiến_lược ấn_độ_dương thái_bình_dương sẵn_sàng viện_trợ đáng_kể bỏ_qua hành_vi vi_phạm_nhân_quyền bất_hảo hà_nội bắc_kinh đôi lần cảnh_cáo hà_nội tránh xa hoa_kỳ bằng thủ_đoạn như đóng_cửa biên_giới hàng nông_sản_xuất_khẩu viện_trợ vaccine covid 19 như nước asean khác v v nhưng cây gậy đó càng làm thêm khó xử đảng csvn giống như bản_sao thu nhỏ đảng cstq đang kẹt giữa bên sức_ép đảng cstq đàn_anh bên sức phản_kháng dân trước thủ_đoạn bắc_kinh cuộc khảo_sát dư_luận viện nghiên_cứu đông_nam á singapore ghi_nhận tới 84 dân tin_tưởng thiện_cảm hoa_kỳ làm cầm_quyền khó xử mỗi muốn mềm_mỏng trung_quốc trung_quốc thường nói quét trước quét ngoài ngõ dẹp xong phe_phái chống_đối thâu_tóm quyền_lực đảng cstq phải_chăng lúc tập bắt_đầu quét ngoài ngõ mà đảng csvn chọn chiếu_cố đầu_tiên lần việc tập mời trọng sang bắc_kinh ngay đại_hội đảng có_thể nhằm nắn_gân đảng csvn lôi_kéo đảng csvn nhà_nước trở_lại cái gọi cộng_đồng chung vận_mệnh phương_châm 4 tốt 16 chữ vàng mất_sức quyến_rũ nếu nhất_thời tập chưa thành_công việc biến thành chư_hầu dựa trên mối quan_hệ anh_em hai đảng cộng_sản thì ít_ra sẽ gây áp_lực buộc đảng csvn phải rời xa hoa_kỳ công_khai thể_hiện lập_trường gắn_bó trung_quốc hơn nữa chuyến trọng do vậy sẽ phải chuyến thăm_viếng bình_thường thể_hiện mối quan_hệ tình_cảm tốt_đẹp giữa đảng cộng_sản hai nước có_thể giữa cá_nhân tập như nhận_định trên trang bbc tiếng việt điện_văn chúc_mừng tập trúng_cử nhiệm_kỳ thứ ba trọng bày_tỏ tôi mong sớm gặp đồng_chí chúng_ta cùng nhau đi_sâu trao_đổi vấn_đề chiến_lược góp_phần tăng_cường hơn nữa tin_cậy chính_trị đề định_hướng lớn tương_lai phát_triển tốt_đẹp quan_hệ hai nước định_hướng tương_lai thế_nào thì còn phải chờ xem nhưng e rằng thân_phận đàn_em trọng đảng csvn khó mà cưỡng nổi sức_ép hoàng đế tập_cận_bình đó có_thể chuyện buồn nữa đất_nước</t>
+  </si>
+  <si>
+    <t>yêu_cầu xác_định trách_nhiệm thành_phố lớn ngập_lụt viết_tuân thành_phố lớn đầu_tư hiện_đại bất_ngờ ngập_lụt nguyên_nhân do đâu trách_nhiệm thuộc ai đại_biểu hoàng_đức_thắng băn_khoăn</t>
+  </si>
+  <si>
+    <t>thu_hẹp phần việc nhà_nước giảm tăng lương lê_tuyết ngân_sách có_hạn nhà_nước nên rút_lui lĩnh_vực thị_trường làm tốt giúp tinh_giản bộ_máy tăng lương nhóm làm công_việc còn theo chuyên_gia nguyễn quang_đồng</t>
+  </si>
+  <si>
+    <t>viên vịnh nghi fan tẩy_chay như_anh bộ_phận khán_giả tẩy_chay diễn_viên hong_kong_viên vịnh nghi chê giả_tạo thật lòng</t>
+  </si>
+  <si>
+    <t>quy_định tháng liền kề làm lệch nguyên_tắc bảo_hiểm_thất_nghiệp lê_tuyết quy_định tháng liền kề khiến đóng bảo_hiểm_thất_nghiệp hỗ_trợ mất việc làm sai_lệch nguyên_tắc hoạt_động quỹ theo nguyên lãnh_đạo bảo_hiểm xã_hội tp hcm</t>
   </si>
   <si>
     <t>nghệ_sĩ tên tuổi tranh giải trần_hữu_trang tân_cao thu_vân lê_trung_thảo võ_minh_lâm thi tài_năng diễn_viên sân_khấu cải_lương trần_hữu trang 2022</t>
   </si>
   <si>
+    <t>đừng vì vài_ba cốc bia chén rượu mà làm khổ theanh28 đêm qua vụ tai_nạn thương_tâm xảy trên đường minh_khai hai bà trưng hà_nội nạn_nhân nam thanh_niên khoảng 30 tuổi uống quá_chén làm_chủ tốc_độ lao cột điện ven đường t ử v ong tại_chỗ</t>
+  </si>
+  <si>
+    <t>sở_hữu chéo doanh_nghiệp sân ngân_hàng vẫn phức_tạp anh_minh nhìn_nhận thị_trường trái_phiếu sở_hữu chéo ngân_hàng vừa_qua tồn_tại bất_ổn đại_biểu quốc_hội đề_nghị chính_phủ cần giải_pháp căn_cơ lành_mạnh hoá thị_trường</t>
+  </si>
+  <si>
+    <t>khó_khăn chồng_chất theanh28_entertainment mới sinh_viên thứ 4 nhưng n lên chức bố cách đây dù đang ngồi trên ghế giảng_đường nhưng n phải bươn_chải đủ công_việc kiếm tiền lo gia_đình nhỏ vợ n u sn 2001 đang học thứ 3 đại_học n u_quen nhau 2020 cả 2 cùng làm thêm quán cà_phê trên đường hồ_tùng mậu hà_nội yêu thời_gian ngắn cả 2 dọn cùng nhau kết_quả vài tháng u_phát_hiện mình có_thai loay_hoay biết xử_lý thế_nào phải u_mang thai 3 tháng n mới dám báo_cáo bố_mẹ lúc em quê nói_chuyện bố_mẹ việc u có_thai bố_mẹ em rất s ố c bố mắng thậm_chí còn đuổi em cấm em quay hà_nội em kể tình_hình u đó cả 2 quyết_định bệnh_viện bỏ thai nhưng vừa cổng bệnh_viện thì u_ôm chặt lấy tay em khóc rất mấy phút em quyết_định bỏ thai nữa lúc đó em nghĩ dù ai nói gì đi_nữa thì em vẫn sẽ giữ con n nói vừa trở phòng trọ thì mẹ n gọi điện nói cả 2 đứa cùng quê bàn_bạc tổ_chức đám_cưới ngày vợ em nhập_viện sinh em bé 2 vợ_chồng đồng nào phải xin tiền bố_mẹ thật_sự quãng thời_gian đó em thấy cuộc_sống bế_tắc em biết sinh em bé cuộc_sống phía trước còn chông_gai vất_vả hơn gấp_bội n chia_sẻ con tuổi u gửi con quê nhờ bà nội chăm_sóc xuống hà_nội học tiếp cuộc_sống sinh_viên vốn thiếu_thốn căn phòng trọ đôi vợ_chồng trở_thành lò lửa vụ xích_mích chuyện cơm_nước giặt_giũ khoảng thời_gian 2 vợ_chồng phải ăn mì tôm cả tuần liền vì hết tiền lần cả 2 còn quyết_định ly_hôn nhưng bố_mẹ 2 bên gia_đình can_ngăn sang thứ 4 đại_học n thời_gian hơn làm thêm hiện_tại n có_thể tự lo tiền ăn_uống tiền đóng tiền học vợ chia_sẻ dự_định sắp tới n nói bọn em đang cố_gắng hoàn_thành việc học đó cả 2 sẽ tìm việc_làm kiếm tiền tự lo con_cái mọi sự rồi nên vợ_chồng em sẽ cùng nhau phấn_đấu cuộc_sống cải_thiện hơn n chia_sẻ</t>
+  </si>
+  <si>
+    <t>bạn_đời con_gái thành_long phủ_nhận sống đầu đường xó chợ như_anh andi bạn_đời ngô_trác_lâm con_rơi tài_tử thành_long phủ_nhận hai sống đầu đường xó chợ</t>
+  </si>
+  <si>
+    <t>trương quỳnh_anh tôi khó mở lòng đổ_vỡ hoàng_dung ca_sĩ trương quỳnh_anh nói đổ_vỡ tình_cảm chấp_nhận làm mẹ đơn_thân thấy khó mở lòng yêu ai</t>
+  </si>
+  <si>
+    <t>nhà_máy đỏ mắt tìm dù công_nhân thất_nghiệp  thị_trường lao_động đối_mặt nghịch_lý hàng_loạt công_nhân thất_nghiệp do nhà_máy giảm đơn hàng song doanh_nghiệp mở_rộng sản_xuất khó tuyển</t>
+  </si>
+  <si>
+    <t>nhồi_nhét giỏi thật đấy theanh28 mới_đây đội csgt số 3 nhận tin báo xe_khách hành_vi chở quá số quy_định đang di_chuyển bến_xe giáp_bát nam_định ngay_lập_tức đội 3 bố_trí_lực_lượng kịp_thời phát_hiện xử_lý thời_điểm kiểm_tra xe ô_tô khách 29 chỗ nhồi_nhét tận 58 trên xe</t>
+  </si>
+  <si>
+    <t>học_sinh tiểu_học bắc_giang qua_đời vì ghế đá đổ theanh28 nạn_nhân xác_định em ntđ sinh 2015 học_sinh lớp 2a trường tiểu_học liên_chung huyện tân_yên theo camera an_ninh ghi chiều 5 10 lúc chơi_đùa cùng bạn ntđ cùng bạn vịn ghế đá khiến ghế đá đổ ập xuống trúng vụ_việc xảy nhà_trường đưa cháu ntđ cấp_cứu nhưng do bị_thương nặng học_sinh đ t ử v ong đó</t>
+  </si>
+  <si>
+    <t>bí_ẩn tấm bản_đồ cổ chứng_minh trái_đất phẳng vtc vn mới_đây đàn_ông tặng thư_viện quốc_hội mỹ tấm bản_đồ 120 năm_tuổi chứng_minh lý_luận trái_đất phẳng</t>
+  </si>
+  <si>
+    <t>khu_vực vcs có_thể sở_hữu thêm suất dự chung_kết thế_giới 2023 gamek vn nếu điều thực_sự diễn thì sẽ tin cực_kỳ vui_mừng đối_với khu_vực vcs chúng_ta</t>
+  </si>
+  <si>
+    <t>đề_xuất tư_nhân mua công_nghệ nước_ngoài làm đường_sắt hoài_thu đánh_giá không_thể mãi vay thuê đầu_tư ngoại xây từng tuyến đường_sắt đại_biểu hoàng_văn_cường đề_nghị dành phần nguồn_lực hỗ_trợ đầu_tư nước thực_hiện</t>
+  </si>
+  <si>
+    <t>haaland gặp van dijk tắt điện man xanh thất_bại đầu_tiên mùa giải theanh28 cuộc đối_đầu giữa nunez haaland hồi kết ai lên_tiếng cái tên sáng nhất trận cầu_thủ mùa mo salah bằng bàn thắng duy_nhất giúp liverpool chiến_thắng 0 trước man city_niềm vui cđv the_kop niềm vui fan arsenal kết_quả giúp pháo_thủ bỏ xa man xanh 4 điểm trên bxh</t>
+  </si>
+  <si>
+    <t>gwyneth paltrow tôi hạnh_phúc tuổi 50 no minh_tinh gwyneth paltrow biết yêu bản_thân tự_tin làn da hơn kể bước sang tuổi 50</t>
+  </si>
+  <si>
+    <t>ba ưu_tiên tân bộ_trưởng nguyễn_văn_thắng viết_tuân bộ_trưởng nguyễn_văn_thắng nói quyết_tâm hoàn_thành đúng tiến_độ công_trình giao_thông trọng_điểm quốc_gia thu_hút vốn xã_hội_hóa thúc_đẩy giải_ngân vốn đầu_tư công</t>
+  </si>
+  <si>
+    <t>thiếu lưu_trú công_nhân lê_tuyết công_nhân thuê thiếu_hụt nhưng doanh_nghiệp muốn đầu_tư xây_dựng khó đủ đường nghịch_lý tồn_tại qua</t>
+  </si>
+  <si>
+    <t>phát_hiện ngôi mộ 600 năm_tuổi ông_già noel bên dưới nhà_thờ cổ dân_trí ngôi mộ cổ chôn_cất thi_thể vị thánh vốn nguyên_mẫu ông_già noel dưới tàn_tích nhà_thờ cổ thổ_nhĩ_kỳ</t>
+  </si>
+  <si>
+    <t>10 chết do mưa_lũ miền trung đà_nẵng 10 chết mưa_lũ miền trung đó đà_nẵng 6 hai trẻ quảng_nam hai đàn_ông thừa_thiên_huế</t>
+  </si>
+  <si>
+    <t>nguyễn văn_thể rời ghế bộ_trưởng giao_thông vận_tải viết_tuân quốc_hội thông_qua nghị_quyết phê_chuẩn miễn_nhiệm bộ_trưởng giao_thông vận_tải nguyễn văn_thể_theo nguyện_vọng cá_nhân sáng 21 10</t>
+  </si>
+  <si>
+    <t>tú hứa mang hạnh_phúc diệu_nhi tân_cao diễn_viên tú hứa bố_mẹ hai bên sẽ mang hạnh_phúc diệu_nhi tiệc cưới tối 22 10</t>
+  </si>
+  <si>
+    <t>nha_trang muốn giữ phần resort dọc biển phục_vụ dân bùi_toàn chính_quyền nha_trang kiến_nghị giữ một_số công_trình resort dài 400 m dọc đường trần_phú phải di_dời phục_vụ dân du_khách</t>
+  </si>
+  <si>
+    <t>nguyên giám_đốc sở y_tế quảng_ngãi kỷ_luật phạm_linh nguyễn_xuân_mến nguyên giám_đốc sở y_tế quảng_ngãi khiển_trách do thiếu chỉ_đạo trung_tâm kiểm_soát bệnh_tật tỉnh mượn kit test việt_á</t>
+  </si>
+  <si>
+    <t>nể đàn_ông dành 40 chăm_sóc mẹ vợ 115 tuổi chịu mặc áo phụ_nữ mẹ vợ vui_lòng th sinh mà người_ta phát_minh máy điều hòa nhiệt_độ lớn lên trưởng_thành thập_kỷ đầy biến_động lịch_sử cận_đại truƞǥ_quốc cụ li chứng_kiến sự sụp_đổ chế_độ phong_kiến trung_quốc thành_lập chính_phủ mới nội_chiến cách_mạng văn_hóa cải_cách mở_cửa cuối 70 thế_kỷ trước con_trai duy_nhất qua_đời cụ li chuyển tới sống cùng con_gái con rể đó nay tay đàn_ông lo_lắng cɦo mẹ vợ nɦư mẹ ruột mình lòng hiếu thɑ ̉ o vô_địch con rể còn thể_hiện bẳng việc chấp_nhận mặc áo vạt chéo phụ_nữ suốt cả mùa hè khiến bà mẹ vợ đau_buồn nguôi_ngoai trước cái chết chị_gái cách đây 20</t>
+  </si>
+  <si>
+    <t>chàng trai xe tiền tỷ tặng bạn gái cả vòng kim_cương nhưng vẫn cao lên 15cm vì quá mải tập_trung làm_ăn  câu_chuyện có_lẽ riêng ai thời_đại công_nghệ 4 0 mạng xã_hội bùng_nổ lúc mọi sẽ mối khác ngon hơn chàng trai mới_đây chẳng ngoại_lệ chỉ vì lo người_yêu sau_này sẽ cuộc_sống ấm_êm mà tập_trung sự_nghiệp kiếm tiền chính vì điều đó mà thời_gian dành bạn gái gần như_không mặc_dù xe tiền tỷ tặng cả vòng kim_cương nhưng người_yêu vẫn giúp tăng thêm 15cm thế mới thấy chị_em mà muốn chồng giàu thì phải chấp_nhận ta thời_gian mình muốn chồng đẹp zai thì phải chấp_nhận ta nhòm_ngó muốn thời_gian bên cạnh mình thì phải chấp_nhận ta giàu_sang</t>
+  </si>
+  <si>
+    <t>mỹ_nhân thiên_long_bát_bộ cưới như_anh trương_mông đóng vương ngữ_yên thiên_long_bát_bộ 2013 tổ_chức hôn_lễ ca_sĩ hàn_kim eun_sung</t>
+  </si>
+  <si>
+    <t>du_thuyền nổi hồ tây sẽ tháo_dỡ việt_an ubnd quận tây_hồ sẽ tháo_dỡ du_thuyền nổi bỏ đang neo đậu trên mặt hồ tây trả cảnh_quan mặt hồ</t>
+  </si>
+  <si>
+    <t>tặng vàng công_nhân lễ cưới tập_thể  mỗi vợ_chồng công_nhân nhận chỉ vàng 9999 liên_đoàn lao_động thái_nguyên đám_cưới tập_thể tối 20 10</t>
+  </si>
+  <si>
+    <t>gạo nhựa đốt cháy khét_lẹt xôn_xao lan_truyền nỗi sợ hạnh_nguyên vietnamnet gần đây thông_tin hình_ảnh lan_truyền trên mạng xã_hội gạo giả gạo cao_su khiến tiêu_dùng hoang_mang song thực_tế đúng như_vậy hay</t>
+  </si>
+  <si>
+    <t>nghiên_cứu coi covid 19 bệnh đặc_hữu viết_tuân ủy_ban kinh_tế đề_nghị chính_phủ nghiên_cứu kinh_nghiệm nước xem covid 19 bệnh đặc_hữu coi đây kinh_nghiệm tốt</t>
+  </si>
+  <si>
+    <t>hà_nội nghiên_cứu thí_điểm làn_đường xe_đạp võ_hải tp hà_nội nghiên_cứu làn_đường xe_đạp phát_triển đồng_bộ_hạ_tầng giao_thông nhằm đảm_bảo trật_tự an_toàn giảm ùn_tắc</t>
+  </si>
+  <si>
+    <t>bộ_trưởng y_tế bệnh_viện thành con_nợ vì chậm thanh_toán bảo_hiểm y_tế viết_tuân theo bà đào hồng_lan bệnh_viện đang trở_thành con_nợ do chi_phí khám chữa bệnh bỏ chưa quỹ bảo_hiểm y_tế thanh_toán</t>
+  </si>
+  <si>
+    <t>thói_quen theanh28_entertainment l 28 tuổi nhân_viên văn_phòng thường mang cả việc công_ty làm thêm tới 10 giờ đêm rồi mới bắt_đầu ăn tối do đó ít nấu_ăn mà đa_số gọi đồ ăn bên ngoài ngoài ăn tối muộn l rất hay thức đêm thường ngủ 2 giờ sáng chứ ít ngủ sớm hai tháng trước đang tắm thì l sờ thấy khối_u bên ngực trái liền ra_hiệu thuốc mua một_số loại thuốc chống viêm uống kết_quả cục u không_những chẳng biến mất mà còn tiếp_tục phát_triển to thậm_chí còn rất đau chạm đó phải tới bệnh_viện kiểm_tra đây chẩn_đoán mắc bệnh ung_thư vú giai_đoạn đầu bác_sĩ biết chế_độ ăn_uống lành_mạnh thức khuya lười vận_động thói_quen sinh_hoạt chưa khoa_học yếu_tố nguy_cơ cao dẫn bệnh ung_thư v ú</t>
+  </si>
+  <si>
+    <t>châu_tinh_trì tới nghinh_xuân vua hài hong_kong châu_tinh_trì tới tp hcm du_lịch thưởng_thức ẩm_thực</t>
+  </si>
+  <si>
+    <t>ăn buffet 3 nhưng đòi tính tiền 2 suất theanh28 chuyện chị gái quán buffet nướng dẫn theo 2 con nói chị ăn trước đó rồi nên mong_muốn quán chỉ tính 2 suất 2 cháu còn chị chỉ đưa ăn thôi nhưng 2 cháu ăn 15p thì quán tận_mắt thấy cả clip quay chị gái cầm đũa lên ăn_uống như bình_thường phải chỉ 2 miếng 2 lần nhân_viên quản_lý thanh_toán chị bảo ban_đầu thoả_thuận chỉ tính 2 chỉ tính 2 còn chị ăn bao_nhiêu việc chị lần cuối_cùng chủ quán đang nhặt tôm chợ long_biên phải cất_công chạy quán rồi 2 bên combat thế nhưng chị_gái kia vẫn nhất_quyết chỉ trả tiền 2 suất mà thôi</t>
+  </si>
+  <si>
+    <t>tăng thanh_hà ngọc nữ bà mẹ ba con hoàng_dung tuổi 36 diễn_viên tăng_thanh hà_hiện kinh_doanh làm nội_trợ mẹ ba con hạn_chế tham_gia showbiz</t>
+  </si>
+  <si>
+    <t>còn 4 4 triệu lao_động chịu ảnh_hưởng covid 19 hồng_chiêu lao_động mất việc nghỉ giãn việc quý iii còn 4 4 triệu giảm hơn nửa so quý trước thấp nhất đại_dịch xuất_hiện 2020</t>
+  </si>
+  <si>
+    <t>tp hcm công_bố nền_tảng dữ_liệu đất_đai trực_tuyến thu_hằng dân doanh_nghiệp có_thể xem dữ_liệu phân khu diện_tích quy_hoạch kế_hoạch mục_đích sử_dụng đất toàn thành_phố trên nền_tảng trực_tuyến</t>
+  </si>
+  <si>
+    <t>con làm bài 1h sáng chưa xong bố bức_xúc nhắn nhóm chat học_sinh thức ngủ th cháu en nay lớp mà thấy lúc_nào học miết nhớ hồi xưa hết 3 cấp 3 chẳng học thêm học nếm gì giờ thì thời_thế thay_đổi cháu nào như cháu nấy học cứ gọi liên_tục sáng tới tối thôi mẹ ạ kể sương sương thì sáng chiều học chính khóa trên lớp xong xíu rồi học thêm học thêm xong tối làm bài_tập khuya lắc khuya lơ mới ngủ mà gần như ngày nào học thêm cuối tuần thì học ƞǥoại khóa học ngoɑ ̣ i ngữ tham_gia cái cái kia nhìn thằng cháu đúng bơ_phờ nghĩ mà thươƞǥ vì chẳng hiểu sao giờ học như thế nhưng nghỉ vì mẹ nó lo học chẳng bằng bạn bằng bè rõ khổ học đương_nhiên tốt nhưng học quá đến_nỗi nhìn phờ_phạc thế kia thì đúng đáng lo thật mẹ ạ trẻ nhỏ_tuổi cần ăn ngủ đầy_đủ còn nhìn thằng cháu em mới lớp mà bữa nào 10 11h đêm mới học xong thấy thương gì đâu mới_đây đọc trên mấy cái group vụ học_sinh làm bài_tập mãi 1h sáng vẫn cɦưa xong kết quɑ ̉ bố cậu bé nổi đóa vớ giáo_viên luôn nè mẹ</t>
+  </si>
+  <si>
+    <t>lúng_túng xử_lý hơn 3 200 tỷ đồng nợ xấu bhxh lê_tuyết hơn 3 200 tỷ đồng nợ bảo_hiểm xã_hội bhxh kéo_dài ảnh_hưởng hơn 206 000 lao_động nhưng cơ_quan quản_lý kêu khó thu_hồi</t>
+  </si>
+  <si>
+    <t>bộ_trưởng nguyễn_văn hùng hy_vọng học_hỏi ngành công_nghiệp văn_hóa hàn hoàng_anh bộ_trưởng nguyễn_văn hùng mong_muốn hàn_quốc chia_sẻ kinh_nghiệm phát_triển ngành công_nghiệp văn_hóa gặp_gỡ đồng cấp seoul ngày 16 10</t>
+  </si>
+  <si>
+    <t>biển số vừa tài_sản cá_nhân vừa công_cụ quản_lý nhà_nước nên cần hạn_chế một_số quyền tài_sản tránh đầu_cơ phức_tạp xử_lý sơn_hà biển số vừa tài_sản cá_nhân vừa công_cụ quản_lý nhà_nước nên cần hạn_chế một_số quyền tài_sản tránh đầu_cơ phức_tạp xử_lý</t>
+  </si>
+  <si>
+    <t>thái_hòa vợ hy_sinh tôi sống nghề mai_nhật thái_hòa nói biết_ơn hồng_thu vợ kém 11 tuổi chăm con vun_vén tổ_ấm sống trọn nghề diễn</t>
+  </si>
+  <si>
+    <t>tp hcm chi xong gói hỗ_trợ thất_nghiệp 95 300 lao_động lê_tuyết bảo_hiểm xã_hội tp hcm chi gần 266 tỷ đồng 95 300 lao_động hưởng 8 3 3 triệu đồng gói bổ_sung quỹ bảo_hiểm_thất_nghiệp theo nghị_quyết 24</t>
+  </si>
+  <si>
+    <t>phát_hiện bằng_chứng thấy người_ngoài hành_tinh có_thể sống xung_quanh sao thiên_vương bảo_tuấn tienphong vn khoa_học vừa tìm manh_mối việc tìm sự sống ngoài hành_tinh cụ_thể nó nằm vệ_tinh băng_giá xung_quanh sao thiên_vương</t>
+  </si>
+  <si>
+    <t>siêu_sao 37 tuổi sẽ phải tập_luyện cùng đội trẻ man united theanh28 sáng nay giờ london cameraman bắt_gặp cristiano_ronaldo tự lái_xe tới trung_tâm huấn_luyện carrington chấp_hành_hình_phạt hlv erik ten hag siêu_sao 37 tuổi sẽ phải tập cùng đội trẻ u21 manchester_united hành_động tự_ý đường_hầm trận gặp tottenham vòng 12 premier_league lần gần nhất mà ronaldo_tập cùng đội trẻ có_lẽ thời sir alex_ferguson mới chân ướt chân ráo tới manchester 18 tuổi thì cr7 sân đội</t>
+  </si>
+  <si>
+    <t>cảm_phục nam sinh nhóm máu hiếm vượt 30km cứu dù ngày_mai phải thi theanh28 thuộc nhóm m á u o_rh d âm nguyễn hồng_quân 21 tuổi sinh_viên trường đại_học công_nghiệp hà_nội ngại vượt 30km đường xa tối muộn hiến tiểu_cầu viện huyết_học truyền m á u trung_ương ca bệnh_nhi u ng th ư 18h ngày hôm đó trưởng nhóm câu_lạc_bộ nhóm m áu hiếm o_rh nhắn_tin nhóm chung rằng đang ca bệnh cần gấp đơn_vị tiểu_cầu nhưng bệnh_viện sẵn biết rằng chưa ai quân liền nhanh_chóng nhận nhiệm_vụ lên_đường cùng bạn mình dù ngày hôm cậu môn thi trường</t>
+  </si>
+  <si>
+    <t>17 tuổi lên chức bố nuôi con suốt 3 mới ngậm_ngùi phát_hiện đứa trẻ phɑ ̉ i con_ruột th em nhỏ bạn hồi đó đang học thì bất_ngờ mang thai đúng lỡ_dở cả cuộc_đời vì đó phɑ ̉ i nghỉ học rồi nuôi con dù sau_này nỗ_lực thi rồi học cɑ ́ c kiểu thì gián_đoạn hết mấy trời vừa mừng nhưng vừa tiếc bạn thực_sự phɑ ̉ i chứng_kiến trường_hợp như_vậy mới thấy vấn_đề giáo_dục giới_tính vấn_đề bố_mẹ nên e_ngại mà phải tìm cách truyền_đạt cɦo con mình hiểu càng sớm càng tốt cả ạ mới_đây câu_chuyện nam sinh 17 tuổi lên chức bố đó 3 mới phát_hiện con_trai mình đaƞg nuôi_nấng thực_tế phɑ ̉ i con mình nhận sự quan_tâm đông_đảo cư_dân mạng</t>
+  </si>
+  <si>
+    <t>công_nhân khó tìm việc lê_tuyết thời_gian ngồi yên việc hiện công_nhân thất_nghiệp do nhà_máy giảm đơn hàng ngưng tuyển_dụng cắt_giảm lao_động</t>
+  </si>
+  <si>
+    <t>mạng_lưới dư_luận viên tấn_công_xã_hội dân_sự việt nam facebook phải hành_động việt_tân bắt_đầu_từ khoảng ngày 20 10 mạng_lưới tinh_vi tài_khoản facebook giả xả rác spam trang facebook hoạt_động nổi_tiếng hàng chục hoạt_động báo_cáo rằng tài_khoản facebook họ spam bởi lời bình_luận lặp_đi lặp_lại dùng xác_định nạn_nhân cuộc tấn_công bot phải đặt tài_khoản họ chế_độ riêng_tư ngăn_chặn bình_luận rác trang facebook hơn triệu theo_dõi bao_gồm việt_tân trang việt_ngữ đài_á châu tự_do đài_tiếng_nói hoa_kỳ nhắm mục_tiêu tất_cả tài_khoản trang facebook nhắm mục_tiêu đều thuộc hoạt_động phương_tiện truyền_thông độc_lập bình_luận rác vu_cáo rằng việt_tân bỏ_rơi thành_viên tổ_chức thái_lan đang xin tỵ nạn chính_trị bình_luận mẫu bao_gồm lãnh_đạo việt_tân hãy kế thoát kiếp lưu_vong việt_tân hãy đưa rời khỏi thái_lan hãy trả ơn kế kể ngày 28 tháng 10 cuộc tấn_công bot vẫn tiếp_tục dường_như_không cản_trở mặc_dù nạn_nhân cố_gắng báo_cáo hành_vi lạm_dụng rõ công_ty meta đang theo_dõi sự_việc hay thực_hiện bất_kỳ hành_động nào hay 2021 tố_giác frances_haugen tiết_lộ rằng giám_đốc điều_hành facebook biết sự hiện_hữu mạng_lưới tấn_công đối_thủ chuyên thực_hiện cuộc phối_hợp tấn_công bằng cách thực_hiện hàng_loạt báo_cáo sai xả rác spam lời đe_dọa khiêu_khích theo tài_liệu nội_bộ facebook công_ty đánh_giá rằng khả_năng trung_bình cao hoạt_động ủy quyền chỉ_đạo bởi chính_phủ quân_đội tài_liệu nội_bộ công_ty đề_cập sự tồn_tại 15 triệu tài_khoản giả gần đây cái gọi dư_luận viên do cầm_quyền điều_khiển spam tài_khoản facebook nhóm xã_hội dân_sự thông_tin sai_lệch đội quân dư_luận viên đưa lời đe_dọa hành_hung chuyên đồng_loạt lợi_dụng báo_cáo nội_dung trang chỉ_trích nhà_nước facebook gỡ xuống việt_tân kêu_gọi meta hành_động ngay lập_tức xóa tài_khoản giả đóng mạng_lưới hại bảo_đảm mạng xã_hội an_toàn chúng_tôi kêu_gọi tất_cả nạn_nhân đội quân dư_luận viên csvn tấn_công hãy báo_cáo tài_khoản giả lực_lượng dư_luận viên đồng_thời tất_cả chúng_ta hãy cùng đăng trên trang facebook mình lời yêu_cầu công_ty facebook phải dẹp bỏ_mạng_lưới tài_khoản giả đội quân dư_luận viên</t>
+  </si>
+  <si>
+    <t>arsenal vẫn lạnh_lẽo vị_trí đầu_bảng 12 vòng_đấu theanh28 kết_thúc vòng 12 premier_league vị_trí trên bảng xếp_hạng thay_đổi arsenal vẫn giậm chân chỗ vị_trí đầu_bảng dù tối qua họ chỉ trận hòa giờ man city chỉ còn kém 2 điểm chiến_thắng 2 trước gà trống đại_gia newcastle lần đầu lọt top 4 khiến top 6 lúc nhìn quen bởi sự thiếu_vắng liverpool lữ_đoàn đỏ đang xếp thứ 8 vị_trí giúp vé dự cup châu âu</t>
+  </si>
+  <si>
+    <t>ban cán_sự đảng bộ giáo_dục đào_tạo nhiệm_kỳ 2016 2021 đề_nghị kỷ_luật viết_tuân ủy_ban kiểm_tra trung_ương đề_nghị bộ chính_trị xem_xét kỷ_luật ban cán_sự đảng bộ giáo_dục đào_tạo nhiệm_kỳ 2016 2021</t>
+  </si>
+  <si>
+    <t>kiến_nghị chi tiếp 100 tỷ đồng hỗ_trợ lao_động hồng_chiêu chính_phủ kiến_nghị thường_vụ quốc_hội phép chi tiếp hơn 100 tỷ đồng quỹ bảo_hiểm_thất_nghiệp hỗ_trợ 414 000 đủ điều_kiện hưởng 8 3 3 triệu đồng</t>
+  </si>
+  <si>
+    <t>hồ_ngọc_hà trở_lại công_việc tân_cao ca_sĩ hồ_ngọc_hà nắm tay kim_lý dự sự_kiện tp hcm sự_cố_hủy loạt show mỹ lý_do sức_khỏe tốt</t>
+  </si>
+  <si>
+    <t>bạn thân người_ta chất_lượng thật theanh28_entertainment cụ_thể đoạn clip ghi có_thể thấy bàn tiệc cưới cặp đôi toàn vàng cọc tiền xếp thành từng chồng phiên bạn thân cô_dâu tặng quà cưới chỉ câu nói thôi khiến quan_khách vỗ_tay nhiệt_liệt 6 trước lời hứa nó nào em đám_cưới giàu sẽ em tỷ nhưng mà bây_giờ chưa giàu mới khá thôi nên tặng em 5 trăm triệu đó anh_chàng cầm xấp tiền đưa lên khay tặng đôi uyên_ương con_số 5 trăm triệu mà chàng trai nói chỉ khá thôi số tiền mừng cưới không_tưởng đối_với đáng nói anh_chàng còn nhấn_mạnh số tiền bao_nhiêu quan_trọng quan_trọng tình bạn hai hạnh_phúc bạn thân số tiền nó nói lên tất_cả nhưng mà đây cái tình_cảm mà dành 2 đứa đầu trải qua bao thăng_trầm gây_lộn tùm_lum hết mà ngày hôm_nay ngày vui nói_chung lúc_nào đốc_thúc nó cưới thì cưới ngày hôm_nay thành sự_thật chúc_mừng 2 em chúc 2 em hạnh_phúc anh_chàng chia_sẻ</t>
+  </si>
+  <si>
+    <t>tp hcm lún bình_quân 2 cm mỗi  nền đất thành_phố sụt lún trung_bình khoảng 2 cm mỗi nơi 6 cm đô_thị 10 triệu dân đối_mặt tình_trạng ngập_lụt thường_xuyên hơn</t>
+  </si>
+  <si>
+    <t>sắp hết hạn gói hỗ_trợ thuê giải_ngân 11 hồng_chiêu gói 6 600 tỷ đồng giải_ngân hơn 11 hạn nhận hồ_sơ còn 4 ngày địa_phương tỷ_lệ chi thấp dưới như hải_phòng thanh_hóa an_giang quảng_ngãi</t>
+  </si>
+  <si>
+    <t>chỉ nó trung_quốc mới đủ sức cạnh_tranh hoa_kỳ việt_tân tướng lê_văn cương bắt_đầu xuất chiêu cuồng tập theo định_hướng tuyên_giáo lót đường chuyến nguyễn phú_trọng</t>
+  </si>
+  <si>
+    <t>đt nga tham_dự euro 2024 theanh28 fifa loại lượt trận tranh vé dự world_cup 2022 mới_đây đt nga tiếp_tục lãnh_đạo uefa cấm tham_dự vòng_loại euro 2024 đồng_nghĩa việc họ sẽ không_thể tham_dự giải_đấu lớn nhất châu âu nga đội duy_nhất uefa cấm dự euro 2024 đồng_minh nga belarus chịu lệnh trừng_phạt như_vậy sẽ tổng_cộng 53 đội_tuyển đá vòng_loại tranh 23 vé dự vòng chung_kết đội chủ đức</t>
+  </si>
+  <si>
+    <t>nhà_trai ngồi xích_lô hỏi cưới hoa_hậu đỗ_mỹ_linh tân_cao doanh_nhân đỗ vinh_quang con_trai bầu hiển cùng đoàn chín xích_lô mang sính_lễ hỏi cưới hoa_hậu đỗ_mỹ_linh chiều 17 10</t>
+  </si>
+  <si>
+    <t>fifa nên loại iran trao vé dự world_cup ukraine duy phong vck fifa world_cup 2022 sẽ khai_mạc cuối tháng 11 nhưng lúc đang xuất_hiện làn_sóng phản_đối iran tham_dự giải_đấu nguyên_nhân xuất_phát chính_trị bởi iran quốc_gia ủng_hộ nga mạnh_mẽ nhất cuộc_chiến quân_sự ukraine kèm theo đó việc gần đây nhóm cá_nhân bóng_đá thể_thao iran gửi đơn chính_thức cơ_quan quản_lý bóng_đá thế_giới yêu_cầu cấm ddtqg dự world_cup 2022 bởi sự can_thiệp chính_phủ bằng cách ngăn_chặn phụ_nữ sân vận_động quốc_gia hồi_giáo trái quy_định fifa giám_đốc điều_hành shakhtar_donetsk sergei_palkin gửi thông_điệp tới fifa kêu_gọi cấm iran tham_dự world_cup 2022 thay đó vị lãnh_đạo shakhtar donetsk rằng nên trao suất đội_tuyển ukraine shakhtar donetsk kêu_gọi fifa cộng_đồng quốc_tế lập_tức cấm đội_tuyển iran tham_dự world_cup 2022 vì quốc_gia trực_tiếp tham_gia cuộc tấn_công khủng_bố nhắm dân dukraine suất nên dành đội_tuyển ukraine vòng play off ukraine gặp bất_lợi nhưng chiến_đấu bằng cả trái_tim quyết_định hợp_lý cả mặt lịch_sử thể_thao giám_đốc điều_hành shakhtar_donetsk sergei palkin kêu_gọi iran mộ 6 đại_diện châu á giành vé tham_dự vck fifa world_cup 2022 giải_đấu thầy trò carlos queiroz nằm bảng b cùng mỹ xứ wales đó ukraine không_thể vượt qua vòng_loại họ thua xứ wales chung_kết play off khu_vực châu âu trước đó fifa từng ủng_hộ uefa cấm đội_tuyển nga tham_dự vòng play off world_cup 2022 như_không thể_thao nước xuất_hiện giải_đấu khác nhau</t>
+  </si>
+  <si>
+    <t>trọng đảng hãy học đài_loan vũ_việt đài_loan lãnh_thổ trung_hoa lục_địa đảo nhỏ sát bên trung_cộng dân_số đài_loan chỉ khoảng 24 triệu dân nhưng họ chưa bao_giờ khuất_phục trước đảng cộng_sản tq trung_cộng chưa bao_giờ dám tấn_công đài_loan dân_số lớn gấp 4 lần đài_loan lãnh_thổ lớn gấp gần 10 lần đài_loan cớ_sao đảng trọng phải quỵ lụy trung_cộng chính_phủ đài_loan chẳng màng chuyện đại_hội đảng tập bầu ta thế_nào họ cần phải qua gặp tập điều mà đài_loan làm lo phát_triển xây_dựng lực_lượng phòng_thủ tốt trung_cộng từng tấn_công lần thời đảng trọng cầm_quyền qua đó liệu ngăn_chặn tham_vọng lưỡi bò biển_đông hèn_yếu chính sự mời_gọi nước khác xâm_chiếm</t>
+  </si>
+  <si>
+    <t>bộ_trưởng nội_vụ kéo_dài thời_hiệu kỷ_luật hành_chính cán_bộ cần_thiết viết_tuân theo bộ_trưởng phạm_thị thanh_trà thời_hiệu kỷ_luật hành_chính cán_bộ khiển_trách tăng 2 lên 5 cảnh_cáo 5 lên 10 phù_hợp</t>
+  </si>
+  <si>
+    <t>hlv park_hang_seo chính_thức chia_tay đt 5 dẫn_dắt theanh28 liên_đoàn bóng_đá lđbđvn hlv trưởng đtqg park_hang_seo thống_nhất việc chấm_dứt hợp_đồng giữa hai bên ngày 31 01 2023 hơn 5 dẫn_dắt đt quyết_định trên đồng_nghĩa việc giải_đấu cuối_cùng hlv park_hang_seo cương_vị hlv trưởng đtqg sẽ giải_đấu aff cup 2022 tháng 12 tới</t>
+  </si>
+  <si>
+    <t>phong_độ tuổi 86 tài_tử ỷ thiên_đồ long_ký nghinh_xuân vương đức_thuận từng đóng ỷ thiên_đồ long_ký 2019 đều_đặn đạp xe 25 km trượt_băng tập tạ tuổi 86</t>
+  </si>
+  <si>
+    <t>ủy_ban kinh_tế cần cân_nhắc việc thu_hồi đất xây thương_mại viết_tuân thẩm_tra dự_án luật đất_đai sửa_đổi ủy_ban kinh_tế đề_nghị cân_nhắc việc nhà_nước thu_hồi đất dự_án thương_mại tạo quỹ đất đấu_giá hoặc đấu_thầu</t>
+  </si>
+  <si>
+    <t>bè cá quý_hiếm trên vịnh lan_hạ lê_tân bè cá rộng khoảng 3 500 m2 nằm trên vịnh lan_hạ nơi bảo_tồn cung_cấp giống 16 loài cá quý_hiếm giá_trị kinh_tế cao dân</t>
+  </si>
+  <si>
+    <t>tân_binh 100 triệu antony huyền_thoại paul_scholes chê như đang diễn hề trên sân theanh28 trận thắng 3 0 mu trước sheriff europa_league rạng sáng nay phút 38 trận_đấu tân_binh 100 củ man_united antony thực_hiện kỹ_năng rê bóng bằng gầm giày 720 độ nhưng chuyền hỏng ngay đó hết hiệp thì antony thầy ten hag sân ngay luôn huyền_thoại mu paul_scholes tỏ hài_lòng tình_huống</t>
+  </si>
+  <si>
+    <t>hn dân hoang_mang vì tin_đồn sữa đỉa dương_tùng 24h com vn ngày gần đây một_số huyện ngoại_thành hà_nội như mê_linh sóc_sơn đông_anh rộ lên tin_đồn phụ_nữ pha sữa con lúc thấy con đỉa đang bơi đó</t>
+  </si>
+  <si>
+    <t>tp hcm khả_năng xuất_hiện mưa_đá đỉnh_điểm xấp_xỉ mức báo_động 3 theanh28 theo đài_khí_tượng thủy_văn khu_vực nam_bộ ngày hôm_nay 27 9 khu_vực tp hcm tiếp_tục mưa diện rộng nơi mưa to dông lượng mưa phổ_biến 20 40mm 24 giờ nơi trên 50mm 24 giờ mưa dông khả_năng xảy lốc sét mưa_đá gió giật mạnh đề_phòng ngập_úng khu_vực trũng thấp vùng kém khả_năng tiêu_thoát nước đô_thị đợt mưa diện rộng khả_năng duy_trì vài ngày tới đài_khí_tượng thủy_văn khu_vực nam_bộ dự_báo</t>
+  </si>
+  <si>
+    <t>diễn_viên vua bịp tvb qua_đời như_anh diễn_viên dương_quần nổi_tiếng phim vua bịp đài tvb qua_đời tuổi 88 vì ung_thư bàng_quang</t>
+  </si>
+  <si>
+    <t>khó xử_phạt vi_phạm làm thực_phẩm bẩn thu_hằng theo bà phạm_khánh phong_lan khó nhất xử_lý thực_phẩm bẩn mẫu giám_sát dù chứa dư_lượng hóa_chất cao song giá_trị xử_phạt</t>
+  </si>
+  <si>
+    <t>gần 3 tháng man united vẫn chưa biết thua trên sân_nhà theanh28 lần gần nhất man_united thua trên sân_nhà trận_đấu gặp brighton vòng premier_league diễn hồi 7 8 như vậy kể ngày đó tới nay thì man united vẫn chưa biết mùi thua đá trên sân_nhà old_trafford</t>
+  </si>
+  <si>
+    <t>án_mạng gần 3 nha trang mới xác_định nghi phạm ra_tay theanh28 vụ_việc xảy 2019 tp nha_trang tỉnh khánh_hòa nhưng phải 2 rưỡi điều_tra công_an tỉnh khánh_hòa mới xác_định 2 nghi phạm gây vụ_việc trên nghi phạm gây án b c s 28 tuổi đang tạm giam trại tạm giam công_an tỉnh khánh_hòa hành_vi t rộ m c ắ p tài_sản còn nạn_nhân h q b 36 tuổi ngụ tp nha_trang</t>
+  </si>
+  <si>
+    <t>lễ rước dâu bằng xích_lô liêu hà_trinh tân_cao diễn_viên mc liêu hà_trinh chồng doanh_nhân anh_khoa rước dâu bằng dàn xích_lô theo phong_cách sài_gòn xưa</t>
+  </si>
+  <si>
+    <t>sẽ số hóa toàn_bộ dữ_liệu bảo_vật quốc_gia hiểu_nhân viện bảo_tồn di_tích đặt mục_tiêu 100 dữ_liệu bảo_vật quốc_gia số hóa ứng_dụng trên nền_tảng</t>
+  </si>
+  <si>
+    <t>quá ngưỡng_mộ thanh lam tuấn hưng quyết_định mở liveshow nữ diva tỏa sáng theanh28 mới_đây nam ca_sĩ tuấn_hưng tự nhận giọng hát mức trung_bình khá mà thần_tượng nhất chính diva thanh_lam mệnh_danh 4 diva nhạc_nhẹ bên cạnh hồng_nhung mỹ_linh trần_thu hà tri ân khán_giả ủng_hộ suốt thời_gian qua tuấn_hưng quyết_định mở liveshow chị tôi đặc_biệt kết_hợp cùng diva thanh_lam đêm nhạc hôm đó</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sơn_hà dự_thảo luật khám bệnh chữa bệnh sửa_đổi còn ý_kiến khác nhau liên_quan xã_hội_hóa hoạt_động y_tế kiểm_tra đánh_giá năng_lực hành_nghề bác_sĩ</t>
+  </si>
+  <si>
+    <t>rau chợ dán mác vietgap chỉ tp hcm việt_an theo cục_trưởng quản_lý chất_lượng nông_lâm_thủy_sản hiện_tượng nhập rau chợ rồi dán mác vietgap đưa siêu_thị chỉ xảy tp hcm</t>
+  </si>
+  <si>
     <t>lương nhà_nước đủ sống lê_tuyết 12 làm công_chức xã lương trịnh tấn_phương 45 tuổi bằng 3 thu_nhập vợ vốn công_nhân khu chế_xuất tân_thuận</t>
   </si>
   <si>
-    <t>thái_hòa vợ hy_sinh tôi sống nghề mai_nhật thái_hòa nói biết_ơn hồng_thu vợ kém 11 tuổi chăm con vun_vén tổ_ấm sống trọn nghề diễn</t>
-  </si>
-  <si>
-    <t>tú hứa mang hạnh_phúc diệu_nhi tân_cao diễn_viên tú hứa bố_mẹ hai bên sẽ mang hạnh_phúc diệu_nhi tiệc cưới tối 22 10</t>
-  </si>
-  <si>
-    <t>hà_lê cùng bạn gái dạo chơi đảo nami hoàng_anh ca_sĩ hà_lê bạn gái biên_đạo gia_linh kém 13 tuổi dạo chơi dưới hàng lá phong ngân hạnh đảo nami</t>
-  </si>
-  <si>
-    <t>miền trung có_thể chia thành hai tiểu_vùng viết_tuân chính_phủ đề_xuất giữ nguyên không_gian phát_triển đất_nước theo 6 vùng kinh_tế xã_hội chia trung_du miền núi phía bắc miền trung_thành hai tiểu_vùng</t>
-  </si>
-  <si>
-    <t>cháy chung_cư mini cầu giấy hà_nội theanh28 vừa xong vụ cháy lớn xảy tòa chung_cư mini ngõ 132 cầu giấy hà_nội nhận tin báo đội cảnh_sát pccc cnch công_an quận cầu giấy điều 4 xe chữa_cháy cùng hơn 20 cán_bộ chiến_sĩ tới hiện_trường dập lửa khoảng 19h30 lực_lượng cảnh_sát pccc cnch dập tắt hoàn_toàn đám cháy tổ_chức cứu 11 thoát nạn an_toàn 3 bị_thương rất may tử_vong</t>
-  </si>
-  <si>
-    <t>10 chết do mưa_lũ miền trung đà_nẵng 10 chết mưa_lũ miền trung đó đà_nẵng 6 hai trẻ quảng_nam hai đàn_ông thừa_thiên_huế</t>
-  </si>
-  <si>
-    <t>sáng nay quốc_hội_thảo_luận kinh_tế xã_hội sơn_hà sáng 27 10 quốc_hội bắt_đầu phiên đầu_tiên hai ngày thảo_luận kết_quả_thực_hiện kế_hoạch phát_triển kinh_tế xã_hội 2022 dự_kiến kế_hoạch 2023</t>
-  </si>
-  <si>
-    <t>vũ_ngọc son làm show bưu_điện tp hcm tân_cao hai thiết_kế vũ_ngọc son sẽ giới_thiệu bộ sưu_tập ký_ức tuổi_thơ show lần đầu tổ_chức bưu_điện tp hcm</t>
-  </si>
-  <si>
-    <t>nhồi_nhét giỏi thật đấy theanh28 mới_đây đội csgt số 3 nhận tin báo xe_khách hành_vi chở quá số quy_định đang di_chuyển bến_xe giáp_bát nam_định ngay_lập_tức đội 3 bố_trí_lực_lượng kịp_thời phát_hiện xử_lý thời_điểm kiểm_tra xe ô_tô khách 29 chỗ nhồi_nhét tận 58 trên xe</t>
-  </si>
-  <si>
-    <t>dự_kiến trình phương_án nghỉ tết 7 ngày hồng_chiêu cơ_quan chuyên_môn chọn phương_án nghỉ tết_âm_lịch 29 tháng_chạp trình chính_phủ gần tháng lấy ý_kiến</t>
-  </si>
-  <si>
-    <t>cần xác_định khu lưu_trú công_nhân xã_hội lê_tuyết theo doanh_nghiệp việc xây_dựng khu lưu_trú công_nhân khu công_nghiệp cần ưu_đãi tiền thuê đất vốn vay giống như dự_án xã_hội</t>
-  </si>
-  <si>
-    <t>phương_vy idol tôi từng sốc vì cân nặng 83 kg hoàng_dung phương_vy idol nói chồng mỹ chăm con yêu động_viên vợ tập_thể_hình tâng cân kiểm_soát sinh</t>
-  </si>
-  <si>
-    <t>không_thể xây vì phải chờ kế_hoạch sử_dụng đất hàng thu_hằng mất 3 nguyễn công khang chưa thể chuyển mục_đích sử_dụng 56 m2 đất xây vì phải chờ phê_duyệt kế_hoạch sử_dụng đất hàng huyện</t>
-  </si>
-  <si>
-    <t>khai_quật chiếc quan_tài màu đỏ như máu chuyên_gia vừa mở liền hét lớn chạy nǥay th 2003 công_nhân khai_thác đá núi thổ_nhĩ_cơ khu tự_trị nội mông_cổ trung_quốc vô_tình đào ngôi mộ cổ nǥay đó công_nhân báo_cáo chính_quyền địa_phương cɑ ́ c chuyên_gia khảo_cổ_học gọi khai_quật nghiên_cứu ngôi mộ cổ chẳng ai có_thể ngờ ngội mộ ẩn_chứa thứ khả_năng hại chết</t>
-  </si>
-  <si>
-    <t>ảnh chụp trên cao vùng nước ô_nhiễm nhất thế_giới thế_đan sông_citarum indonesia sông tame gần denton hay sông tiete brazil vùng nước ô_nhiễm nhất thế_giới</t>
-  </si>
-  <si>
-    <t>người_mẫu nguyễn_diana qua_đời tuổi 26 tam_kỳ người_mẫu nguyễn_diana bông hồng lai top 15 hoa_hậu hoàn_vũ 2019 đột_ngột mất tuổi 26</t>
-  </si>
-  <si>
-    <t>bộ_trưởng y_tế bệnh_viện thành con_nợ vì chậm thanh_toán bảo_hiểm y_tế viết_tuân theo bà đào hồng_lan bệnh_viện đang trở_thành con_nợ do chi_phí khám chữa bệnh bỏ chưa quỹ bảo_hiểm y_tế thanh_toán</t>
-  </si>
-  <si>
-    <t>phát_hiện ngôi mộ 600 năm_tuổi ông_già noel bên dưới nhà_thờ cổ dân_trí ngôi mộ cổ chôn_cất thi_thể vị thánh vốn nguyên_mẫu ông_già noel dưới tàn_tích nhà_thờ cổ thổ_nhĩ_kỳ</t>
-  </si>
-  <si>
-    <t>phòng trưng_bày phục_trang kỷ_vật nghệ_sĩ chí_tài tuấn_việt tân_cao hàng trăm món đồ gồm quần_áo đĩa cd danh_hài chí_tài bảo_quản trưng_bày đoàn lô_tô sài_gòn tân_thời</t>
-  </si>
-  <si>
-    <t>trương quỳnh_anh tôi khó mở lòng đổ_vỡ hoàng_dung ca_sĩ trương quỳnh_anh nói đổ_vỡ tình_cảm chấp_nhận làm mẹ đơn_thân thấy khó mở lòng yêu ai</t>
-  </si>
-  <si>
-    <t>quả na dai đấu_giá 89 triệu đồng việt_an quả na dai nữ doanh_nhân mua 89 triệu đồng buổi đấu_giá gây quỹ từ_thiện khuôn_khổ hội_chợ na chi_lăng</t>
-  </si>
-  <si>
-    <t>phương_án thay_thế hoàn_hảo vị_trí kante dành potter xoilac9 hâm_mộ đội bóng thành london lo_ngại vết_thương n golo_kante sẽ ảnh_hưởng nhỏ phong_độ thi_đấu theo thông_tin mới nhất bác_sĩ thông_báo khả_năng tiền_vệ nước pháp góp_mặt world_cup 2022 rất thấp bên cạnh đó 7 gắn_bó chelsea cầu_thủ 31 tuổi muốn thử_thách bản_thân mình bằng việc tìm_kiếm bến đỗ mới nếu_như kante quyết_định the_blues cần phải chuẩn_bị bổ_sung tân_binh xuất_sắc có_thể thay_thế vị_trí quan_trọng đội_hình thi_đấu blđ chelsea đang nhắm cái tên có_thể thay_thế vị_trí cầu_thủ mang áo số 7 tuy_nhiên theo danny_murphy cựu cầu_thủ blackburn_rovers cầu_thủ declan_rice sẽ tuyển_thủ xứng_đáng vị_trí tiền_vệ trung_tâm</t>
-  </si>
-  <si>
-    <t>90 lao_động làm_việc nước_ngoài tay_nghề thấp hồng_chiêu lao_động có_mặt hơn 40 quốc_gia chủ_yếu làm công_việc giản_đơn thời_gian tới cần tăng tỷ_lệ trình_độ cao theo chuyên_gia</t>
-  </si>
-  <si>
-    <t>đề_nghị giải_trình cuộc thanh_tra 6 7 chưa kết_luận viết_tuân một_số đại_biểu quốc_hội đề_nghị cơ_quan_chức_năng biết nguyên_nhân giải_pháp chế_tài xử_lý cuộc thanh_tra 2015 2016 nay vẫn chưa ban_hành kết_luận</t>
-  </si>
-  <si>
-    <t>sao kim có_thể chứa đại_dương nước bên dưới lớp vỏ theo i _e bên dưới bề_mặt địa_ngục sao kim có_thể đại_dương nước khổng_lồ hé lộ tiến_trình hình_thành phát_triển hành_tinh hệ mặt_trời</t>
-  </si>
-  <si>
-    <t>gái luộc ghẹ rụng càng bố_mẹ chàng trai bênh ƞhưng lớn_tiếng nói_thế ấy mới ngấm  tìm_hiểu giai_đoạn cực_kỳ_quan_trọng chuyện tình cɑ ̉ m biết rõ hơn đối_phương bình_thường quen nhau thì êm_thấm nhưng xảy chuyện mới biết mình đaƞg quen đích_thực nɦư thế_nào biết_bao cặp đẹp_đôi lắm ngỡ nɦư hợp nhau lắm nhưng cuối_cùng vẫn chia_tay vì chịu nổi tính_cách nhau mà chịu nổi thì chọn chia_tay tốt nhất vì mai cưới chắc gì hòa_hợp ʋới nhau mới_đây nàng vô_cùng thất_vọng trước thái_độ bạn trai dành mình chuyện gì đâu chỉ nhân lúc bố_mẹ người_yêu qᴜê lên có_mang theo vài con ghẹ nấu_nướng a tới z rồi tự tay hấp ghẹ vì hai bác nhờ_vả do kinh_nghiệm nên hỏi người_yêu thì ɦướng dẫn bỏ cả con hấp mà em</t>
-  </si>
-  <si>
-    <t>kanye west mất danh_hiệu tỷ_phú phương_mai rapper kanye west còn forbes xếp_hạng tỷ_phú adidas cùng đối_tác lớn khác chấm_dứt hợp_đồng</t>
-  </si>
-  <si>
-    <t>dễ cú sốc chính_sách giảm mức hưởng bhxh lần lê_tuyết theo chuyên_gia nên tách khoản đóng_góp lao_động doanh_nghiệp quỹ bảo_hiểm xã_hội giảm mức hưởng trợ_cấp lần bởi sẽ gây xáo_trộn lớn</t>
-  </si>
-  <si>
-    <t>nguyễn phú_trọng chầu bắc_triều hiếu chân truyền_thông ngoài nước đưa tin nguyễn phú_trọng tổng_bí_thư đảng cộng_sản csvn sẽ thăm chính_thức trung_quốc ngày 30 tháng mười tới ngày 2 tháng mười sắp tới trọng lãnh_tụ đảng cộng_sản thực_chất lãnh_đạo quốc_gia đầu_tiên tới trung_quốc ngay đảng cộng_sản trung_quốc cstq hoàn_tất đại_hội toàn_quốc lần thứ 20 hôm 23 tháng mười đây tổng_bí_thư tập_cận bình bầu nhiệm_kỳ thứ ba thiết_lập bộ_máy cai_trị toàn tay_chân thân_tín do đảng csvn công_bố rất ít thông_tin chuyến trọng nên khó biết tại_sao xuất_ngoại hơn ba tự cấm_cung vội_vã như thế lúc sức_khỏe tốt như thể_hiện dịp hiếm_hoi xuất_hiện trước công_chúng liệu phải ẩn lời mời tập_cận bình sự hối_thúc nào đó mà trọng không_thể trì_hoãn nguyễn_nam hội nhà_báo độc_lập nhận_định có_thể trọng muốn tiếp_nhận cách mà đồng cấp trung_quốc có_thể thu_xếp nhân_sự bàn_cờ chính_trị nhưng chúng_tôi nghĩ nếu học cách thu_xếp nhân_sự đảng thì trọng nhất_thiết phải gấp như_vậy chính_trị hành_vi mang tính biểu_tượng hành_vi tiền_nhiệm cựu tổng_bí_thư hồ cẩm_đào xốc nách đưa khỏi nghị_trường đại_hội đảng cstq hôm 22 tháng mười biểu_thị lập_trường tập cắt đứt quá_khứ cải_cách bắt_đầu thời_đại mới tương_tự như_vậy hành_vi triệu_tập trọng sang bắc_kinh lúc đảng cstq tập đang bận_rộn công_việc hậu đại_hội hẳn ẩn_ý khó lường tìm_hiểu động_cơ chuyến nên xem qua quan_điểm tập như sự sắp_xếp nhân_sự chính_sách đối_ngoại trung_quốc nhiệm_kỳ thứ ba sắp tới nếu sự thay_đổi đáng chú_ý đường_lối đảng cstq trình_bày đại_hội 20 thì đó trung_quốc sẽ ưu_tiên an_ninh quốc_phòng hơn tăng_trưởng kinh_tế nhằm thực_hiện giấc mộng trung_hoa tập khôi_phục vị_thế lịch_sử trung_quốc như cường_quốc trung_tâm thế_giới thực_hiện tham_vọng trung_quốc sẽ thâu_tóm đài_loan vùng lãnh_thổ đế_chế trung_hoa cũ thống_nhất đất_nước đủ năng_lực cạnh_tranh hoa_kỳ tất_cả lĩnh_vực kinh_tế khoa_học công_nghệ quân_sự tập dường_như đang nóng_ruột đại_hội 20 ngoài việc đưa cơ_quan lãnh_đạo chóp_bu đảng cstq tay_chân thân_tín mình tập còn đưa quân_ủy_trung_ương mà kiêm chức chủ_tịch tướng lãnh kinh_nghiệm chiến_trường tướng lãnh phụ_trách mặt_trận đài_loan chỉ_huy binh_chủng hiện_đại như_hỏa_tiễn quân_ủy_trung_ương cơ_quan chỉ_huy tối_cao quân_đội trung_quốc nắm chức cao nhất đây thì quan_trọng ngang nắm chức tổng_bí_thư đảng hoặc thủ_tướng trung_quốc số sáu tướng_lĩnh mới đề_bạt quân_ủy_trung_ương hai tướng từng tham_gia chiến_tranh biên_giới 1980 thế_kỷ trước trương hựu_hiệp 72 tuổi hiện giữ chức phó_chủ_tịch thứ nhất lưu_chấn_lập 58 tuổi quân_ủy_viên đó chuyện mà đảng csvn nguyễn phú_trọng không_thể chú_ý việc quan_trọng thứ hai kế_sách thâu_tóm đài_loan tập củng_cố mạng_lưới phên giậu che_chắn nội_địa trung_quốc nếu chiến_tranh đài_loan lan rộng lôi_kéo sự tham_gia hoa_kỳ nước đông_á qua bằng thủ_đoạn trung_quốc thu_phục nga bắc hàn phía bắc lào cambodia miến_điện phía nam nước giáp biên trung_quốc thì vẫn đu dây thủ lợi dù hai nước cùng thể_chế chính_trị kinh_tế phụ_thuộc nặng_nề trung_quốc hơn thế nữa hai nước chỉ đối_tác_chiến_lược toàn_diện nhau mà còn hai đảng cộng_sản lịch_sử gắn_bó lâu_dài cai_trị thời_gian gần đây bắc_kinh điều hài_lòng hà_nội nhất việc ngày_càng biểu_hiện_thân_thiện hoa_kỳ nhiệm_kỳ thứ hai tập hơn qua kể đại_hội 12 đảng csvn tháng_giêng 2017 trọng sang bắc_kinh triều cống ngay cả đại_hội 13 đầu 2021 trọng đích_thân sang báo_cáo như thông_lệ mà chỉ cử quan_chức cấp_bộ làm sứ thần đó trọng tiếp thân_mật lãnh_đạo cao_cấp hoa_kỳ như phó_tổng_thống kamala_harris bộ_trưởng quốc_phòng lloyd_austin đang ráo_riết vận_động tổng_thống joe_biden mỹ sớm sang thăm quan_hệ hoa_kỳ có_thể nói đang ổn tới mức hoa_kỳ xếp cùng singapore làm đối_tác an_ninh hàng_đầu chiến_lược ấn_độ_dương thái_bình_dương sẵn_sàng viện_trợ đáng_kể bỏ_qua hành_vi vi_phạm_nhân_quyền bất_hảo hà_nội bắc_kinh đôi lần cảnh_cáo hà_nội tránh xa hoa_kỳ bằng thủ_đoạn như đóng_cửa biên_giới hàng nông_sản_xuất_khẩu viện_trợ vaccine covid 19 như nước asean khác v v nhưng cây gậy đó càng làm thêm khó xử đảng csvn giống như bản_sao thu nhỏ đảng cstq đang kẹt giữa bên sức_ép đảng cstq đàn_anh bên sức phản_kháng dân trước thủ_đoạn bắc_kinh cuộc khảo_sát dư_luận viện nghiên_cứu đông_nam á singapore ghi_nhận tới 84 dân tin_tưởng thiện_cảm hoa_kỳ làm cầm_quyền khó xử mỗi muốn mềm_mỏng trung_quốc trung_quốc thường nói quét trước quét ngoài ngõ dẹp xong phe_phái chống_đối thâu_tóm quyền_lực đảng cstq phải_chăng lúc tập bắt_đầu quét ngoài ngõ mà đảng csvn chọn chiếu_cố đầu_tiên lần việc tập mời trọng sang bắc_kinh ngay đại_hội đảng có_thể nhằm nắn_gân đảng csvn lôi_kéo đảng csvn nhà_nước trở_lại cái gọi cộng_đồng chung vận_mệnh phương_châm 4 tốt 16 chữ vàng mất_sức quyến_rũ nếu nhất_thời tập chưa thành_công việc biến thành chư_hầu dựa trên mối quan_hệ anh_em hai đảng cộng_sản thì ít_ra sẽ gây áp_lực buộc đảng csvn phải rời xa hoa_kỳ công_khai thể_hiện lập_trường gắn_bó trung_quốc hơn nữa chuyến trọng do vậy sẽ phải chuyến thăm_viếng bình_thường thể_hiện mối quan_hệ tình_cảm tốt_đẹp giữa đảng cộng_sản hai nước có_thể giữa cá_nhân tập như nhận_định trên trang bbc tiếng việt điện_văn chúc_mừng tập trúng_cử nhiệm_kỳ thứ ba trọng bày_tỏ tôi mong sớm gặp đồng_chí chúng_ta cùng nhau đi_sâu trao_đổi vấn_đề chiến_lược góp_phần tăng_cường hơn nữa tin_cậy chính_trị đề định_hướng lớn tương_lai phát_triển tốt_đẹp quan_hệ hai nước định_hướng tương_lai thế_nào thì còn phải chờ xem nhưng e rằng thân_phận đàn_em trọng đảng csvn khó mà cưỡng nổi sức_ép hoàng đế tập_cận_bình đó có_thể chuyện buồn nữa đất_nước</t>
-  </si>
-  <si>
-    <t>lâm_chí_dĩnh xuất_hiện tai_nạn như_anh tài_tử đài_loan lâm_chí dĩnh lần đầu đăng ảnh vụ tai_nạn trên xe tesla hồi tháng 7</t>
-  </si>
-  <si>
-    <t>amber heard nêu 16 lý_do kháng_cáo johnny_depp phương_mai diễn_viên amber heard nộp văn_bản giải_trình 16 lý_do kháng_cáo kết_quả phiên_tòa chồng cũ johnny_depp</t>
-  </si>
-  <si>
-    <t>đẹp brazil đăng_quang miss grand international 2022 đạt_phan indonesiaisabella menin 26 tuổi brazil vượt 67 thí_sinh giành chiến_thắng chung_kết hoa_hậu hòa_bình quốc_tế 2022 jakarta tối 25 10</t>
-  </si>
-  <si>
-    <t>minh_tinh beauty and the beast qua_đời đạt_phan angela_lansbury hát ca_khúc đoạt oscar beauty and the beast 1991 mất tuổi 96 tám thập_niên hoạt_động nghệ_thuật</t>
-  </si>
-  <si>
-    <t>cơ_hội gặp_mặt tuyển_thủ hàng_đầu clb borussia dortmund fan hâm_mộ theanh28 trận giao_hữu quốc_tế giữa đt dortmund sẽ diễn ngày 30 11 trên sân mỹ_đình đây có_thể xem cơ_hội lớn đt cọ_xát trước aff cup 2022 thầy_trò hlv park_hang_seo sẽ dịp so tài lực_lượng rất mạnh dortmund</t>
-  </si>
-  <si>
-    <t>vay 6tr tổ_chức sinh_nhật bạn ǥái tàn tiệc thanh_niên chê xe nghèo chở th gần ngày_sinh_nhật bạn gái anh_chàng ý_định rủ chơi vì túi vẫn còn 2 triệu đồng số tiền phải quá nhưng đủ chầu vui_vẻ lãng_mạn hai nhưƞǥ phút chót nàng hỏi vay bạn trai 8 triệu tổ_chức sinh_nhật mời bạn_bè đông_đủ dự lúc chafng chỉ vỏn_vẹn 2 triệu thế_là phɑ ̉ i vội chạy đủ đường hỏi vay thêm số tiền 6 triệu đồng bạn gái có_thể tổ_chức tiệc người_yêu vui_lòng ngại lên rừng xuống biển huống gì vay_mượn 6 triệu chẳng_lẽ kɦông làm tưởng_chừng gái sẽ cɑ ̉ m động nhưng cái kết quá chua_chát khiến anh_chàng cay_đắng nhận ra_công_sức lẫn tình cɑ ̉ m chỉ trò_hề ǥái mời 15 16 dự tàn_tiệc bạn trai thanh_toán gần 6 triệu định dẫn xe chở bạn gái lúc nàng nhất_quyết khước chỉ xe bạn thân lý_do xe bạn trai phɑ ̉ i kiểu sang xịn nàng sĩ_diện trước bạn_bè</t>
-  </si>
-  <si>
-    <t>gen z mặc_kệ chuyện hôn_nhân con_cái zing nền kinh_tế hỗn_loạn thị_trường việc_làm rối_ren đang làm giảm kỳ_vọng trẻ gen z chuyện hẹn_hò kết_hôn sinh con</t>
-  </si>
-  <si>
-    <t>gần 3 tháng man united vẫn chưa biết thua trên sân_nhà theanh28 lần gần nhất man_united thua trên sân_nhà trận_đấu gặp brighton vòng premier_league diễn hồi 7 8 như vậy kể ngày đó tới nay thì man united vẫn chưa biết mùi thua đá trên sân_nhà old_trafford</t>
-  </si>
-  <si>
-    <t>thầy ten hag xác_nhận ronaldo từ_chối sân theanh28 phát_biểu cuộc họp_báo trước thềm trận_đấu giữa man_utd chelsea diễn lúc 23h30 ngày_mai 22 10 hlv erik ten_hag khẳng_định cristiano_ronaldo từ_chối sân muốn đưa ronaldo sân thay phút 87 man utd dẫn 2 0 quyết_định sân bỏ ngay đó hành_động ronaldo khiến man utd cấm thi_đấu trận tiếp_theo gặp chelsea mức phạt cao nhất mà cr7 phải đối_diện 2 tuần lương tương_đương hơn triệu usd</t>
-  </si>
-  <si>
-    <t>giải_thưởng nhân_quyền lê đình lượng 2022 bảo_vệ chủ_quyền trước nguy_cơ trung quốc sẽ tổ_chức tokyo nhật bản việt_tân lúc đảng cộng_sản trung_quốc thách_thức trật_tự thế_giới gia_tăng hành_động quân_sự chèn_ép nước láng_giềng thì cầm_quyền cộng_sản tỏ rõ thái_độ hèn giặc ác dân hơn bao_giờ hết hà_nội chẳng_những lên_tiếng cảnh_báo nguy_cơ chủ_quyền quốc_gia xâm_phạm cùng nhân_dân tạo_dựng sức_mạnh dân_tộc chống ngoại_xâm mà họ còn đàn_áp bắt giam biểu_tình phản_đối trung_cộng nhu_cầu tạo nhận_thức mối đe_dọa ngoại bang ngày_càng trở_nên cấp_thiết hơn vì lý_do nên đảng việt_tân quyết_định giải_thưởng nhân_quyền lê đình_lượng 2022 mang chủ_đề bảo_vệ chủ_quyền trước nguy_cơ trung quốc chủ_đề đảng việt_tân muốn đề_cao sự hy_sinh rất hoạt_động đang giam_cầm hoặc đang tranh_đấu kêu_gọi sự quan_tâm đồng_bào như dư_luận thế_giới mối đe_dọa trung_quốc đối_với chủ_quyền như lê đình_lượng hoạt_động bất_chấp sự đàn_áp cầm_quyền can_đảm xuống đường biểu_tình chống trung_cộng giơ cao tấm biểu_ngữ lên_án hành_vi xâm_lược bắc_kinh như tổ_chức tưởng_niệm chiến_sĩ hy_sinh bảo_vệ hai quần_đảo trường_sa hoàng_sa thế nhưng hành_động bày_tỏ lòng yêu nước ôn_hòa họ nhà_nước cộng_sản khuyến_khích mà ngược_lại họ còn đàn_áp bắt giam quyền tự_do ngôn_luận tự_do tụ_họp quyền lên_tiếng bảo_vệ chủ_quyền đất_nước họ hà_nội tước_đoạt tất_cả cá_nhân hay tổ_chức hoạt_động mục_tiêu tạo sự quan_tâm đồng_bào thế_giới đối_với việc bảo_vệ chủ_quyền sẽ đối_tượng nhận giải_thưởng nhân_quyền lê đình_lượng 2022 tên cá_nhân hay tổ_chức tuyển_chọn sẽ công_bố thời_điểm đầu tháng 12 buổi lễ trao giải_thưởng nhân_quyền lê đình_lượng 2022 sẽ tổ_chức ngày 10 tháng 12 tokyo nhật_bản đánh_dấu ngày tuyên_ngôn_quốc_tế nhân_quyền ra_đời ngày_sinh_nhật lê đình_lượng đồng_thời sự_kiện tổ_chức nhật_bản nhằm thêm trao_đổi giới_chức chính_phủ nhật_bản thân hữu nhật việc có_thể cùng làm tạo sự quan_tâm thế_giới giúp ngăn_chặn hành_vi xâm_lấn trung_quốc chúng_tôi mong_mỏi giải_thưởng sẽ nỗ_lực đóng_góp cụ_thể nỗ_lực cảnh_báo mối đe_dọa trung_quốc như công_cuộc tranh_đấu tự_do dân_chủ yếu_tố không_thể thiếu tạo_dựng sức_mạnh dân_tộc chống ngoại_xâm</t>
-  </si>
-  <si>
-    <t>cha_mẹ luôn yêu_thương con vô_bờ_bến theanh28 hình_ảnh chủ quán cà_phê phường long_tuyền quận bình_thủy thành_phố cần_thơ ghi đăng_tải lên mạng xã_hội theo lời anh_chàng kể đó trời mưa tầm_tã gia_đình 3 ghé quán trú tạm gọi nước mẹ mang hộp cơm cả cùng nhau dùng_bữa ngừng thúc_giục con_trai ăn cơm mau rồi học nè con</t>
-  </si>
-  <si>
-    <t>tiếng chào cao hơn mâm cỗ sao việt_tân tiếng chào cao hơn mâm cỗ sao chỉ vậy_mà ngành csgt phải bỏ cả thời_giờ làm_việc soạn dự_thảo tào_lao quá</t>
-  </si>
-  <si>
-    <t>hơn 200 cửa_hàng 7 tỉnh_thành hết sạch xăng theanh28 chiều_tối 10 10 bộ công_thương báo_cáo tình_hình xăng dầu trên cả nước theo đó cơ_quan hơn 200 doanh_nghiệp kinh_doanh bán_lẻ xăng dầu xin đóng_cửa hoặc tạm ngừng kinh_doanh tập_trung tp hcm an_giang bình_phước đắk_lắk riêng tp hcm 121 cửa_hàng thông_báo tạm_thời hết xăng dầu qua kiểm_tra lực_lượng chức_năng xác_định_lý_do chính 121 cửa_hàng hết xăng do đặt xăng nhưng phía đơn_vị cung_cấp chưa phản_hồi hoặc chưa thông_tin thời_gian giao hàng</t>
-  </si>
-  <si>
-    <t>diễn_viên vua bịp tvb qua_đời như_anh diễn_viên dương_quần nổi_tiếng phim vua bịp đài tvb qua_đời tuổi 88 vì ung_thư bàng_quang</t>
-  </si>
-  <si>
-    <t>gen g có_thể khó vô_địch cktg 2022 vì lý_do đặc_biệt gamek vn lý_do đặc_biệt đang hâm_mộ đưa nhận_định khả_năng vô_địch cktg 2022 gen g</t>
-  </si>
-  <si>
-    <t>đề_xuất tư_nhân mua công_nghệ nước_ngoài làm đường_sắt hoài_thu đánh_giá không_thể mãi vay thuê đầu_tư ngoại xây từng tuyến đường_sắt đại_biểu hoàng_văn_cường đề_nghị dành phần nguồn_lực hỗ_trợ đầu_tư nước thực_hiện</t>
-  </si>
-  <si>
-    <t>lý_luận cùn tuyên_giáo truyền dư_luận viên giờ vẫn thay_đổi nhất_là giai_đoạn hiện_nay trước trọng triều kiến bắc_kinh việt_tân gặp pháp mỹ thì tuyên_truyền giặc đàn_bà đánh gặp trung_quốc bộ mày thích đánh lắm hả nó mạnh thế sao đánh</t>
-  </si>
-  <si>
-    <t>chủ chốt cưới ngay shiper chuyển_khoản 5 tỷ mua theanh28_entertainment em chẳng biết đây chuyện vui hay buồn nữa bác ạ dạo gần đây em làm_ăn gọi phất lên tí nên muốn đổi đón bố_mẹ lên cùng ông_bà hưởng tuổi già ngoài công_việc chính thì em vẫn chạy ship thêm đồ ăn vì cái đam_mê dịch_chuyển mình thế nên hôm xem em tiện mặc đồ shipper hãng mà luôn căn em xem thì khá mới khang_trang em ưng cái bụng lắm ấy thế_mà lúc em định chốt đơn thì chị chủ nhìn em cái đầu xuống chân rồi hỏi ủa em xem giùm ai à em lúc đứng hình mất 5 giây rồi hiểu vấn_đề em mới bảo chị chuẩn_bị hợp_đồng giúp em nhé em chốt căn cái lúc chị đơ rồi bảo em nổ ngon thì chuyển luôn tiền hợp_đồng chị sẵn chỉ cần kí xong em tăng xông quá làm_sao chuyển đc 5 tỷ mà ngay em gọi ngay con_em làm ngân_hàng thì nó bảo app mbbank em bh chuyển đc ngay mỗi lần đc chuyển 5 tỷ vì mb mới cái tính_năng tự_động chia nhỏ lệnh nên tiền ngay mà phí chỉ 9k9 lúc em làm luôn bác ạ ting cái bên điện_thoại em chị chủ nhận tiền bả đứng hình rồi bất_ngờ hỏi em em em người_yêu chưa làm chồng chị nhé ủa sao bác bác em lời khuyên</t>
-  </si>
-  <si>
-    <t>nóng trang nemo truy_tố khung hình_phạt cao nhất 2 t ù theanh28 ngày 7 10 tand q tp hcm xác_nhận nhận hồ_sơ viện ksnd q đối_với vụ án gây_rối trật_tự công_cộng theo đó viện ksnd q truy_tố bị_can n x h t 30 tuổi tên gọi khác trang_nemo p q q n n k cùng 23 tuổi n p t 31 tuổi p h n 24 tuổi cùng tội gây_rối trật_tự công_cộng cả 5 bị_can đều áp_dụng biện_pháp ngăn_chặn cấm khỏi nơi cư_trú đồng_thời đều truy_tố theo khoản điều 318 bộ_luật hình_sự khung hình_phạt cao nhất 2 t ù</t>
-  </si>
-  <si>
-    <t>phong_độ tuổi 86 tài_tử ỷ thiên_đồ long_ký nghinh_xuân vương đức_thuận từng đóng ỷ thiên_đồ long_ký 2019 đều_đặn đạp xe 25 km trượt_băng tập tạ tuổi 86</t>
-  </si>
-  <si>
-    <t>bất_ngờ xảy lượt trận uefa champions_league rạng sáng nay theanh28 real madrid đứt mạch 20 trận bất_bại juventus lần đầu loại khỏi vòng bảng kể 2013 messi tiếp_tục lập kỷ_lục trở_thành cầu_thủ lớn_tuổi nhất ghi 2 bàn kiến_tạo 2 lần trận_đấu champions_league haaland không_thể ghi_bàn lưới đội bóng cũ</t>
-  </si>
-  <si>
-    <t>đoàn_thiên_ân_diễn đầm dạ_hội cut out miss_grand tân_cao đẹp đoàn_thiên_ân_diện thiết_kế phong_cách gợi_cảm do đỗ_long thực_hiện_tại vòng bán_kết miss grand international 2022 tối 22 10</t>
-  </si>
-  <si>
-    <t>xây_dựng tp hcm trở_thành điểm tầng_lớp trung_lưu trí_thức sơn_hà 10 25 tới trình_độ phát_triển tp hcm phải ngang tầm thành_phố lớn châu á điểm tầng_lớp trung_lưu trí_thức theo tổng_bí_thư nguyễn phú_trọng</t>
-  </si>
-  <si>
-    <t>hoàng_bách tôi sợ vợ hoàng_dung tuấn_việt nhạc_sĩ hoàng_bách nói sợ biết_ơn vợ doanh_nhân thanh_thảo vì hy_sinh thấu_hiểu đồng_hành 16 qua</t>
-  </si>
-  <si>
-    <t>đoàn_thiên_ân_trượt top 10 miss_grand tân_cao đoàn_thiên_ân dừng top 20 miss grand international 2022 nhờ thắng giải bình_chọn khiến khán_giả tiếc_nuối</t>
-  </si>
-  <si>
-    <t>diệu_nhi tú hội_ngộ bạn_bè trước ngày cưới tân_cao cặp_sao tổ_chức bữa tiệc thân_mật cùng hội bạn đồng_nghiệp thân_thiết như trấn thành jun phạm ngô_kiến_huy trước ngày cưới</t>
-  </si>
-  <si>
-    <t>bộ tứ khuôn_mặt lãnh_đạo độc_tài kiên_quyết bám víu quyền_lực việt_tân bộ tứ khuôn_mặt lãnh_đạo độc_tài kiên_quyết bám víu quyền_lực trung_quốc tập_cận_bình nga putin nguyễn phú_trọng triều_tiên kim_jong_un điểm chung quốc_gia quyền tự_do dân_chủ bóp_nghẹt bỏ_tù đối_lập thanh_trừng bất_đồng chính_kiến</t>
-  </si>
-  <si>
-    <t>chín hộ dân sống trên nóc nhà_tù 113 năm_tuổi lê_tân chín hộ dân phường hồng_gai tp hạ_long mong tái_định_cư vì sống ngôi xây trên nóc trại_giam 113 tiềm_ẩn nguy_cơ sụt lún</t>
-  </si>
-  <si>
-    <t>đại_biểu đề_nghị cải_cách chính_sách tiền_lương 2024 viết_tuân đại_biểu nguyễn_huy_thái đề_nghị tăng lương cơ_sở 2023 nếu đất_nước tăng_trưởng kinh_tế tốt thì 2024 cải_cách chính_sách tiền_lương</t>
-  </si>
-  <si>
-    <t>phụ_nữ độc_thân chưa con ngày_càng giàu hơn zing vướng_bận chuyện gia_đình đặt nhu_cầu sự_nghiệp hưởng_thụ bản_thân làm ưu_tiên trước nhất phụ_nữ chọn kết_hôn hay con đang tích_lũy tài_sản hơn</t>
-  </si>
-  <si>
-    <t>blg muốn chiêu mộ 2 vô_địch cktg kỳ chuyển_nhượng cuối mùa giải 2022 thethaovanhoa vn blg đang tham_vọng xây_dựng dải ngân_hà thực_sự lpl mùa giải 2023</t>
-  </si>
-  <si>
-    <t>lễ rước dâu bằng xích_lô liêu hà_trinh tân_cao diễn_viên mc liêu hà_trinh chồng doanh_nhân anh_khoa rước dâu bằng dàn xích_lô theo phong_cách sài_gòn xưa</t>
-  </si>
-  <si>
-    <t>sở_hữu chéo doanh_nghiệp sân ngân_hàng vẫn phức_tạp anh_minh nhìn_nhận thị_trường trái_phiếu sở_hữu chéo ngân_hàng vừa_qua tồn_tại bất_ổn đại_biểu quốc_hội đề_nghị chính_phủ cần giải_pháp căn_cơ lành_mạnh hoá thị_trường</t>
-  </si>
-  <si>
-    <t>arsenal vẫn lạnh_lẽo vị_trí đầu_bảng 12 vòng_đấu theanh28 kết_thúc vòng 12 premier_league vị_trí trên bảng xếp_hạng thay_đổi arsenal vẫn giậm chân chỗ vị_trí đầu_bảng dù tối qua họ chỉ trận hòa giờ man city chỉ còn kém 2 điểm chiến_thắng 2 trước gà trống đại_gia newcastle lần đầu lọt top 4 khiến top 6 lúc nhìn quen bởi sự thiếu_vắng liverpool lữ_đoàn đỏ đang xếp thứ 8 vị_trí giúp vé dự cup châu âu</t>
-  </si>
-  <si>
-    <t>hot đoàn_thiên_ân_hội_ngộ top 4 mgv ntk quách thái_công tình_tứ bên bạn trai mừng sinh_nhật 8 tuổi shynh_house theanh28 tối qua mạng xã_hội xôn_xao hình_ảnh hoa_hậu đoàn_thiên_ân cùng top 4 miss grand vietnam 2022 đọ sắc outfit hồng cực cháy ngoài sự tham_gia nàng hậu buổi sinh_nhật mang phần ấm_cúng còn quy_tụ dàn sao cực chất hit chớ nên sớm chưa quên người_yêu cũ bước bên em gây chú_ý nhất sự xuất_hiện cặp đôi ntk quách thái_công bạn trai huy_yves tình_tứ bên nhau thưởng_thức màn trình_diễn đông_nhi hà_nhi trọng hiếu không_thể thiếu màn quẩy sung_sức dj mie</t>
-  </si>
-  <si>
-    <t>hàn_quốc tăng số_lượng nới lỏng yêu_cầu lao_động việt hồng_chiêu hàn_quốc nâng tỷ_lệ tuyển_dụng tối_đa lên 20 lao_động nước_ngoài trình_độ cao thị_thực e7 cần kinh_nghiệm tốt_nghiệp đại_học trở lên</t>
-  </si>
-  <si>
-    <t>nể đàn_ông dành 40 chăm_sóc mẹ vợ 115 tuổi chịu mặc áo phụ_nữ mẹ vợ vui_lòng th sinh mà người_ta phát_minh máy điều hòa nhiệt_độ lớn lên trưởng_thành thập_kỷ đầy biến_động lịch_sử cận_đại truƞǥ_quốc cụ li chứng_kiến sự sụp_đổ chế_độ phong_kiến trung_quốc thành_lập chính_phủ mới nội_chiến cách_mạng văn_hóa cải_cách mở_cửa cuối 70 thế_kỷ trước con_trai duy_nhất qua_đời cụ li chuyển tới sống cùng con_gái con rể đó nay tay đàn_ông lo_lắng cɦo mẹ vợ nɦư mẹ ruột mình lòng hiếu thɑ ̉ o vô_địch con rể còn thể_hiện bẳng việc chấp_nhận mặc áo vạt chéo phụ_nữ suốt cả mùa hè khiến bà mẹ vợ đau_buồn nguôi_ngoai trước cái chết chị_gái cách đây 20</t>
-  </si>
-  <si>
-    <t>h hen niê lên bìa tạp_chí thời_trang dubai tân_cao hoa_hậu h hen niê đẹp việt đầu_tiên xuất_hiện trên bìa tạp_chí thời_trang victor dubai</t>
-  </si>
-  <si>
-    <t>giằng_co tăng lương nhà_máy lê_tuyết lương tối_thiểu vùng tăng 7 nhà_máy đưa phương_án thương_lượng điều_chỉnh mức mới song dễ đạt thỏa_thuận công_nhân</t>
-  </si>
-  <si>
-    <t>tp hcm tạm ngưng cấp_nước hai quận trung_tâm hoàng_anh công_ty cấp_nước bến_thành sẽ tạm ngưng cấp_nước 22h ngày 17 9 6h ngày 18 9 trạm phân_phối nước số 2a điện_biên_phủ phường đa_kao quận</t>
-  </si>
-  <si>
-    <t>ca_sĩ hàn cưới nữ_hoàng trượt_băng thanh_thanh ca_sĩ ko_woo rim cưới kim_yuna cựu vận_động_viên biệt_danh nữ_hoàng trượt_băng hàn_quốc hơn 5 tuổi hôm 22 10</t>
-  </si>
-  <si>
-    <t>xoá độc_quyền dữ_liệu đất_đai thu_hằng sở tài_nguyên môi_trường tp hcm mở cổng dữ_liệu đất_đai môi_trường ứng_dụng_công phát_triển giúp_việc quản_lý tra_cứu thông_tin thuận_tiện</t>
-  </si>
-  <si>
-    <t>messi xác_nhận qatar 2022 sẽ kì world_cup cuối_cùng theanh28 siêu_sao argentina xác_nhận sẽ chia_tay đội_tuyển quốc_gia kỳ world_cup 2022 diễn qatar cuối nay qatar 2022 sẽ kỳ world_cup cuối_cùng tôi chắc_chắn như_vậy quyết_định đưa lionel messi nói</t>
-  </si>
-  <si>
-    <t>tp hcm chi xong gói hỗ_trợ thất_nghiệp 95 300 lao_động lê_tuyết bảo_hiểm xã_hội tp hcm chi gần 266 tỷ đồng 95 300 lao_động hưởng 8 3 3 triệu đồng gói bổ_sung quỹ bảo_hiểm_thất_nghiệp theo nghị_quyết 24</t>
-  </si>
-  <si>
-    <t>dòng chữ lạ viết trên tay hành_khách tàu_điện ngồi quá bất_ngờ th mới_đây dẫn cɦương trình trên đài phát_thanh úc tên emɱa_chow nhìn thấy dòng chữ lạ tàu_điện mà dòng chữ đó vɨết trên lưng bàn_tay hành_khách ngồi nhay trước chow biết chụp hình_ảnh dòng chữ đó vì ɦành khách kia cứ liên_tục đưa tay lên xoa gáy hình_ảnh mà chow đăng lên mɑ ̣ ng đó xem tới triệu lượt chia_sẻ nhanh_chóng như hiện_tượng viral trên mạng xã_hội</t>
-  </si>
-  <si>
-    <t>ăn bạch_tuộc sống phát_hiện bạch_tuộc con khoang miệng mỹ_nga báo đại_đoàn_kết phụ_nữ hàn_quốc 63 tuổi gặp phải sự_cố ăn món bạch_tuộc sống bà cảm_thấy ngứa râm_ran miệng như con vật gì đang bò</t>
-  </si>
-  <si>
-    <t>vpbank bạo tay chi 100 tỷ đồng tài_trợ bản_quyền world_cup theanh28 bóng_đá môn thể_thao yêu thích nhất xem trận bóng đỉnh_cao world_cup món ăn tinh_thần không_thể thiếu hàng chục triệu việt vì_vậy tài_trợ kinh_phí mua bản_quyền world_cup 2022 phù_hợp mong_muốn mang giá_trị thịnh_vượng tinh_thần cộng_đồng vpbank đúng tinh_thần sứ_mệnh vì thịnh_vượng mà vpbank đang thực_hiện</t>
-  </si>
-  <si>
-    <t>còn 4 4 triệu lao_động chịu ảnh_hưởng covid 19 hồng_chiêu lao_động mất việc nghỉ giãn việc quý iii còn 4 4 triệu giảm hơn nửa so quý trước thấp nhất đại_dịch xuất_hiện 2020</t>
-  </si>
-  <si>
-    <t>chính_thức netflix xác_nhận phát_hành độc_quyền toàn châu á series phim đầu_tiên mang tên kẻ độc_hành huỳnh_lập theanh28 kẻ độc_hành trải qua thời_gian hơn hậu_kì nội_dung vô_cùng ấn_tượng thế_giới tâm_linh sự đầu_tư chỉnh chu ekip theo chia_sẻ mới nhất ekip huỳnh_lập kẻ độc_hành phần tiền truyện web drama ai chết giơ_tay thời_lượng 8 tập phim sẽ đưa khán_giả câu_chuyện tâm_linh đậm chất như ma da vong tiền chủ cô_hồn ngoài đường phim sẽ phát_hành trên nền_tảng netflix ngày 28 10 2022</t>
-  </si>
-  <si>
-    <t>châu_tinh trì lần đầu dùng mạng xã_hội nghinh_xuân tài_tử hong_kong châu_tinh_trì 60 tuổi gây chú_ý lần đầu dùng mạng xã_hội tuyển nhân_sự</t>
-  </si>
-  <si>
-    <t>iphone 15 pro sẽ khai_tử nút vật_lý vozer chuyên_gia phân_tích ming chi kuo biết mẫu iphone 15 pro thế_hệ tiếp_theo có_thể hoán_đổi nút nguồn âm_lượng vật_lý bằng phiên_bản sử_dụng phản_hồi xúc_giác</t>
-  </si>
-  <si>
-    <t>bé trai nặng 5 kg chào_đời bằng phương_pháp sinh thường  mới_đây khoa_sản bệnh_viện đa_khoa huyện phú_bình thái_nguyên biết ngày hôm_qua 29 09 bác_sĩ vừa đỡ_đẻ thành_công sản_phụ 30 phút bé trai nặng 5 kg chào_đời an_toàn bằng phương_pháp sinh thường trước sự bất_ngờ toàn_bộ kíp đỡ_đẻ theo bác_sĩ trực_tiếp thực_hiện ca đẻ biết đây trường_hợp hiếm gặp em bé trọng_lượng lớn nhất trước nay chào_đời bệnh_viện bằng phương_pháp sinh thường</t>
-  </si>
-  <si>
-    <t>paris hilton tôi từng lạm_dụng tình_dục trường phương_mai paris hilton biết từng nhân_viên trường nội_trú utah quấy_rối tình_dục thời học_sinh</t>
-  </si>
-  <si>
-    <t>thành_công thất_bại đảng csvn nguyễn_hưng_quốc bộ_máy tuyên_truyền cầm_quyền hoàn_toàn thất_bại việc thuyết_phục dân_chúng họ đang quan_tâm độc_lập chủ_quyền đất_nước nhưng họ thành_công việc họ làm đại đa_số dân_chúng mặc_kệ tất_cả điều đó mặc_kệ hoàng_sa trường_sa mặc_kệ biển_đông mặc_kệ danh_dự tổ_quốc mặc_kệ hết mọi chỉ lo cái mình chiếc xe mình bữa ăn_nhậu tràn_trề bia rượu mình nó đúng cái cảnh chế_lan_viên tự phê_phán mình ngày trước lũ chúng_ta ngủ giường chiếu hẹp giấc mơ con đè nát cuộc_đời con hạnh_phúc đựng tà_áo đẹp mái yên rủ bóng xuống tâm_hồn cái đảng cộng_sản phê_phán ngày_trước cái họ đang làm bây_giờ</t>
-  </si>
-  <si>
-    <t>bắt_giữ 5 cụ bà u70 chơi xóc_đĩa online theanh28 công_an quận ba_đình hà_nội vừa bắt_giữ 5 đối_tượng liên_quan việc tổ_chức đánh_bạc bằng hình_thức chơi xóc_đĩa trên trang_web đánh_bạc online lva788 com tang_vật thu_giữ khoảng 17 triệu đồng_tiền_mặt 5 điện_thoại_di_động laptop cùng đồ_vật liên_quan danh_tính đối_tượng xác_định tr thị_m sn 1967 trúc bạch ba_đình hà_nội v thị_y sn 1962 đống_mác hai bà trưng hà_nội ng thị_kh sn 1952 thanh_lương hai bà trưng hà_nội đ t thanh_th sn 1962 nguyễn_du hai bà trưng hà_nội ng thị_tuyết m sn 1957 trúc bạch ba_đình hà_nội</t>
-  </si>
-  <si>
-    <t>hôm_nay bộ giao_thông vận_tải y_tế bộ_trưởng mới viết_tuân quốc_hội sẽ phê_chuẩn bổ_nhiệm nhân_sự bộ_trưởng giao_thông vận_tải y_tế bầu tổng_kiểm_toán nhà_nước bằng hình_thức bỏ_phiếu kín chiều 21 10</t>
-  </si>
-  <si>
-    <t>thạch_thu_thảo mang trang_phục sếu đầu_đỏ thi miss_earth hoàng_dung thạch_thu_thảo chọn bộ dạ_hội lấy cảm_hứng loài sếu đầu_đỏ truyền_tải thông_điệp bảo_vệ động_vật hoang_dã miss earth 2022</t>
-  </si>
-  <si>
-    <t>trọng đảng hãy học đài_loan vũ_việt đài_loan lãnh_thổ trung_hoa lục_địa đảo nhỏ sát bên trung_cộng dân_số đài_loan chỉ khoảng 24 triệu dân nhưng họ chưa bao_giờ khuất_phục trước đảng cộng_sản tq trung_cộng chưa bao_giờ dám tấn_công đài_loan dân_số lớn gấp 4 lần đài_loan lãnh_thổ lớn gấp gần 10 lần đài_loan cớ_sao đảng trọng phải quỵ lụy trung_cộng chính_phủ đài_loan chẳng màng chuyện đại_hội đảng tập bầu ta thế_nào họ cần phải qua gặp tập điều mà đài_loan làm lo phát_triển xây_dựng lực_lượng phòng_thủ tốt trung_cộng từng tấn_công lần thời đảng trọng cầm_quyền qua đó liệu ngăn_chặn tham_vọng lưỡi bò biển_đông hèn_yếu chính sự mời_gọi nước khác xâm_chiếm</t>
-  </si>
-  <si>
-    <t>sao friends ghét keanu_reeves phương_mai matthew_perry đóng chandler_bing friends nói tự_truyện rằng từng ước keanu reeves chết thay bạn thân</t>
-  </si>
-  <si>
-    <t>bom tấn kinh_dị mồi quỷ dữ trải nghiệm trừ_tà kinh_hoàng dịp halloween theanh28 thanh_niên nào cảm_thấy cuộc_sống mình chưa đủ mệt_mỏi thì nên trải nghiệm bộ phim mồi quỷ dữ tăng thêm nhịp tim thử_thách cuộc_sống bộ phim xoay quanh xơ ann phụ_nữ đầu_tiên phép chủ_trì buổi lễ trừ t à đó phát_hiện hàng_loạt câu_chuyện đáng sợ quá_khứ mình</t>
-  </si>
-  <si>
-    <t>hoài lâm quay trở_lại rồi_đây theanh28 mới_đây hoài_lâm chính_thức comeback đêm nhạc hoa nở màu đà_lạt tối 15 10 thu_hút hơn 800 xem nam ca_sĩ gây chú_ý xuất_hiện ngoại_hình khác_biệt lần tái_xuất hoài_lâm lúc hát chênh phô quên lời lâm lần gập cảm_ơn khán_giả thông_cảm bỏ_qua mình sai_sót</t>
-  </si>
-  <si>
-    <t>nha_trang muốn giữ phần resort dọc biển phục_vụ dân bùi_toàn chính_quyền nha_trang kiến_nghị giữ một_số công_trình resort dài 400 m dọc đường trần_phú phải di_dời phục_vụ dân du_khách</t>
-  </si>
-  <si>
-    <t>cuộc_sống con_người sẽ như thế_nào 50 nữa báo phụ_nữ thay_đổi thế_kỷ 21 sẽ do hai yếu_tố chính thúc_đẩy đó sự tiến_bộ nhanh công_nghệ sự_biến_đổi xấu khí_hậu môi_trường</t>
-  </si>
-  <si>
-    <t>có_thể tồn_tại sự sống trên mặt_trăng sao thổ vtv vn nghiên_cứu mới công_bố trên tạp_chí khoa_học vũ_trụ thấy khả_năng tồn_tại sự sống trên mặt_trăng enceladus sao thổ</t>
-  </si>
-  <si>
-    <t>qua campuchia làm tôi mạnh_mẽ hơn  t sang cam làm_ăn đéo phải casino t biết hết đường tiểu_ngạch anh_em biên_phòng quen_mặt nên soát kĩ tháng t 10 lần</t>
-  </si>
-  <si>
-    <t>trứng gà giả làm cao_su gây xôn_xao tiktok chuyên_gia nói gì vietnamnet xem xong video bình_luận sợ_hãi loại trứng gà giả làm cao_su liệu thực_tế có_thể loại trứng như</t>
-  </si>
-  <si>
-    <t>mạng_lưới dư_luận viên tấn_công_xã_hội dân_sự việt nam facebook phải hành_động việt_tân bắt_đầu_từ khoảng ngày 20 10 mạng_lưới tinh_vi tài_khoản facebook giả xả rác spam trang facebook hoạt_động nổi_tiếng hàng chục hoạt_động báo_cáo rằng tài_khoản facebook họ spam bởi lời bình_luận lặp_đi lặp_lại dùng xác_định nạn_nhân cuộc tấn_công bot phải đặt tài_khoản họ chế_độ riêng_tư ngăn_chặn bình_luận rác trang facebook hơn triệu theo_dõi bao_gồm việt_tân trang việt_ngữ đài_á châu tự_do đài_tiếng_nói hoa_kỳ nhắm mục_tiêu tất_cả tài_khoản trang facebook nhắm mục_tiêu đều thuộc hoạt_động phương_tiện truyền_thông độc_lập bình_luận rác vu_cáo rằng việt_tân bỏ_rơi thành_viên tổ_chức thái_lan đang xin tỵ nạn chính_trị bình_luận mẫu bao_gồm lãnh_đạo việt_tân hãy kế thoát kiếp lưu_vong việt_tân hãy đưa rời khỏi thái_lan hãy trả ơn kế kể ngày 28 tháng 10 cuộc tấn_công bot vẫn tiếp_tục dường_như_không cản_trở mặc_dù nạn_nhân cố_gắng báo_cáo hành_vi lạm_dụng rõ công_ty meta đang theo_dõi sự_việc hay thực_hiện bất_kỳ hành_động nào hay 2021 tố_giác frances_haugen tiết_lộ rằng giám_đốc điều_hành facebook biết sự hiện_hữu mạng_lưới tấn_công đối_thủ chuyên thực_hiện cuộc phối_hợp tấn_công bằng cách thực_hiện hàng_loạt báo_cáo sai xả rác spam lời đe_dọa khiêu_khích theo tài_liệu nội_bộ facebook công_ty đánh_giá rằng khả_năng trung_bình cao hoạt_động ủy quyền chỉ_đạo bởi chính_phủ quân_đội tài_liệu nội_bộ công_ty đề_cập sự tồn_tại 15 triệu tài_khoản giả gần đây cái gọi dư_luận viên do cầm_quyền điều_khiển spam tài_khoản facebook nhóm xã_hội dân_sự thông_tin sai_lệch đội quân dư_luận viên đưa lời đe_dọa hành_hung chuyên đồng_loạt lợi_dụng báo_cáo nội_dung trang chỉ_trích nhà_nước facebook gỡ xuống việt_tân kêu_gọi meta hành_động ngay lập_tức xóa tài_khoản giả đóng mạng_lưới hại bảo_đảm mạng xã_hội an_toàn chúng_tôi kêu_gọi tất_cả nạn_nhân đội quân dư_luận viên csvn tấn_công hãy báo_cáo tài_khoản giả lực_lượng dư_luận viên đồng_thời tất_cả chúng_ta hãy cùng đăng trên trang facebook mình lời yêu_cầu công_ty facebook phải dẹp bỏ_mạng_lưới tài_khoản giả đội quân dư_luận viên</t>
-  </si>
-  <si>
-    <t>tp hcm sắp thêm hơn 2 000 xã_hội gia_minh hai dự_án xã_hội 2 064 căn xây quận 7 tp thủ_đức cuối tháng 8 giúp công_nhân thu_nhập thấp dễ tiếp_cận theo sở xây_dựng thành_phố</t>
-  </si>
-  <si>
-    <t>phương_trinh_jolie tôi sợ sinh_nhật tân_cao ca_sĩ phương_trinh jolie nói sợ sinh_nhật vì cảm_giác mình già dù vậy hạnh_phúc vì đón tuổi mới quây_quần bên chồng_con</t>
-  </si>
-  <si>
-    <t>cuộc_sống tiêu_ân_tuấn ly_hôn như_anh tiêu_ân_tuấn sao đài_loan đóng tiểu_lý phi_đao dành thời_gian đam_mê nhiếp_ảnh ly_dị 2020</t>
-  </si>
-  <si>
-    <t>thanh_niên chỉ còn triệu tài_khoản vẫn tự_tin đặt mua iphone 14 tặng crush theanh28_entertainment theo ghi_nhận p v đ chỉ còn vỏn_vẹn triệu đồng tài_khoản vẫn hết_sức tự_tin đặt iphone 14 chính hãng sự ngỡ_ngàng phần bốc_đồng mấy bạn hỏi chi_tiết hơn đ chia_sẻ bản_thân tin rằng món quà sẽ giúp đ người_yêu ngay lập_tức hỏi bí_quyết gì khiến đ tự_tin vậy anh_chàng biết thành_công săn ưu_đãi khủng nhất thị_trường đợt pre order mở thanh_toán bằng thẻ tín_dụng tpbank evo tích_góp thêm ưu_đãi bán_lẻ cộng tiện_ích thẻ hoàn tiền 10 lên 500k tháng chi_tiêu online thì đ khẳng_định sẽ mua iphone 14 giá chỉ bằng iphone 13 còn việc dù tài_khoản còn số tiền khiêm_tốn mà vẫn mạnh_mẽ chinh_phục sản_phẩm hot nhất hiện_nay thì đ nói thêm thẻ tín_dụng tpbank evo miễn lãi 45 ngày chuyển_đổi trả_góp 0 lãi_suất</t>
-  </si>
-  <si>
-    <t>lao_động nghỉ 3 ngày tết_dương_lịch 2023 hồng_chiêu lao_động nghỉ 31 12 2022 hết 2 2023 do tết_dương_lịch rơi chủ_nhật nên nghỉ bù thứ hai tuần kế_tiếp</t>
-  </si>
-  <si>
-    <t>justin_bieber cắt đứt quan_hệ kanye_west tam_kỳ ca_sĩ justin_bieber biết cắt đứt quan_hệ kanye west rapper chỉ_trích vợ người_mẫu hailey_bieber</t>
-  </si>
-  <si>
-    <t>anna việt nam chính_thức khởi_tố theanh28 chiều 12 10 thượng_tá trần_long_khánh thủ_trưởng cơ_quan cảnh_sát điều_tra công_an tp phan_thiết tỉnh bình_thuận ký quyết_định khởi_tố vụ án hình_sự đối_với n t v a tina_dương tội lạm_dụng tín_nhiệm chiếm_đoạt tài_sản</t>
-  </si>
-  <si>
-    <t>dự_án công_viên hà_nội chậm tiến_độ võ_hải 9 dự_án công_viên mới hà_nội chưa khởi_công hoặc chưa hoàn_thành việc cải_tạo công_viên cũ gặp bất_cập theo sở xây_dựng hà_nội</t>
-  </si>
-  <si>
-    <t>gong hyo jin cưới mỹ như_anh gong hyo_jin diễn_viên hàn đóng hoa trà nở kết_hôn ca_sĩ kevin oh ngày 11 10</t>
-  </si>
-  <si>
-    <t>thoát nghèo nhờ liên_kết trồng rau_sạch lê_hải mô_hình liên_kết trồng rau_sạch xã quyết_tiến quản_bạ giúp dân nâng cao thu_nhập cải_thiện đời_sống</t>
-  </si>
-  <si>
-    <t>biển ngoài hành_tinh sâu 100 mét thế_giới y_hệt trái_đất cổ_đại thư báo nlđ khoa_học nasa xác_định vùng_biển mê tan lỏng sâu 100 mét mặt_trăng titan sao thổ nơi mà khí_hậu địa_hình bản_sao hoàn_hảo trái_đất vài tỉ trước</t>
-  </si>
-  <si>
-    <t>nhà_máy đỏ mắt tìm dù công_nhân thất_nghiệp  thị_trường lao_động đối_mặt nghịch_lý hàng_loạt công_nhân thất_nghiệp do nhà_máy giảm đơn hàng song doanh_nghiệp mở_rộng sản_xuất khó tuyển</t>
-  </si>
-  <si>
-    <t>phạt 7 5 triệu đồng vì đăng tin sai sự_thật theanh28 h n s trú quận cẩm_lệ thành_phố đà_nẵng lực_lượng chức_năng xử_phạt hành_chính số tiền 7 5 triệu đồng vì hành_vi cung_cấp hình_ảnh sai sự_thật trên mạng xã_hội cụ_thể cung_cấp hình_ảnh hộp cơm thịt chuột học_sinh</t>
-  </si>
-  <si>
-    <t>rộ tin tỷ_phú phạm nhật_vượng cấm xuất_cảnh việt_tân_page facebook gần đây tỷ_phú liên_tục thanh_trừng flc tân_hoàng_minh tân_tạo nếu vingroup phạm nhật_vượng mục_tiêu tiếp_theo thì chính_trường thời_gian tới sẽ rất biến_động lớn</t>
-  </si>
-  <si>
-    <t>biểu_tình ủng_hộ dân iran diễn khắp nơi trên thế_giới hồng_hà theo tờ the_guardian cuộc biểu_tình diễn berlin mà cảnh_sát biết thu_hút hơn 80 000 số cuộc biểu_tình khắp thế_giới bao_gồm cả úc nhật_bản đây cuộc biểu_tình lớn nhằm thể_hiện_tình đoàn_kết biểu_tình iran đồng_thời kêu_gọi chính_phủ dân_chủ hãy ngưng đàm_phán nhà_nước tội_phạm gọi cộng_hoà hồi_giáo ban tổ_chức dự_kiến ban_đầu 50 000 tham_gia nhưng đó thu_hút hơn 80 000 cảnh_sát báo_cáo cuộc tuần_hành sự_cố rắc_rối nào chỉ bắt_đầu sự_kiện pháo_hoa đốt cuộc tuần_hành berlin cuộc biểu_tình lớn nhất trước nay iran nước_ngoài iran nước đang cung_cấp vũ_khí drone nga cuộc xâm_lược ukraina sớm_muộn gì chế_độ kh ủng b ố như nga iran sẽ cả thế_giới tẩy_chay</t>
-  </si>
-  <si>
-    <t>vợ_chồng chàng chân thanh_minh việc yêu vì tiền nhận tiền mừng trăng_mật th đám_cưới anh_chàng chân tô_đình khánh diễn cách đây vài ngày nhưng vẫn còn dư_âm lớn trên mạng xã_hội anh_chàng kết_hôn cùng bạn ǥái xinh_đẹp trần_thương hôn_lễ kết_thúc ngày thấy khánh bắt_đầu livestream bán hàng trở_lại rất đông dùng mạng hỏi_thăm vì_sao nghỉ_ngơi hay tuần_trăng_mật khánh chia_sẻ thật lòng đám_cưới vợ khánh khỏe nên livestream một_mình khánh biết vợ_chồng thống_nhất sẽ dùng số tiền hưởng tuần_trăng_mật làm từ_thiện chuyện tiền mừng xem livestream muốn chuyển_khoản nhưng cương_quyết nhận</t>
-  </si>
-  <si>
-    <t>vợ gào khóc bên thi_thể chồng theanh28_entertainment đừng vì vài_ba cốc bia chén rượu mà làm khổ đêm qua vụ tai_nạn thương_tâm xảy trên đường minh_khai hai bà trưng hà_nội nạn_nhân nam thanh_niên khoảng 30 tuổi uống quá_chén làm_chủ tốc_độ lao cột điện ven đường t ử v ong tại_chỗ liên_hệ người_thân thì ngay lập_tức vợ nam thanh_niên tới ngã khuỵu xuống đường gào khóc bên cạnh thi_thể chồng đừng vì chén chú chén mà cuối_cùng chịu thiệt_thòi đau_thương chính người_thân mình anh_em nhé</t>
-  </si>
-  <si>
-    <t>bình_phước tham_gia liên_kết vùng xuất_khẩu nông_sản thế_đan bảy tỉnh gồm bình_phước bình_dương tây_ninh đồng_nai lâm_đồng đắk nông đắk_lắk xây_dựng vùng trồng đăng_ký xuất_khẩu trung_quốc</t>
-  </si>
-  <si>
-    <t>tp hcm 20 khu đất xây xã_hội lê_tuyết 20 khu đất rộng 38 ha thuộc đề_án đầu_tư xây ít_nhất triệu căn_hộ thu_nhập thấp công_nhân khu công_nghiệp thành_phố theo sở xây_dựng tp hcm</t>
-  </si>
-  <si>
-    <t>david de gea lỡ hẹn world_cup 2022 theanh28 mới_đây tờ báo as uy_tín tây_ban_nha biết thủ_môn david_de gea sẽ lỡ hẹn world_cup 2022 gạt khỏi danh_sách sơ_bộ 55 tuyển_thủ tây_ban_nha hlv luis_enrique</t>
-  </si>
-  <si>
-    <t>gói hỗ_trợ tiền trọ giải_ngân hơn 50 hồng_chiêu gói hỗ_trợ tiền trọ nhằm kéo lao_động quay thị_trường mới giải_ngân hơn 3 500 tỷ đồng đạt 54 5 theo bộ lao_động thương_binh xã_hội</t>
-  </si>
-  <si>
-    <t>bạn trai tỏ_tình châu_tấn như_anh ca_sĩ trác việt 35 tuổi bày_tỏ tình_cảm châu_tấn dịp sinh_nhật diễn_viên 48 tuổi</t>
-  </si>
-  <si>
-    <t>công_nhân xoay_xở nhà_máy ít việc giảm lương lê_tuyết kỳ_vọng đơn hàng_phục_hồi dịch song gần đây sức_mua thị_trường lớn như mỹ châu âu giảm mạnh khiến nhà_máy giảm việc công_nhân dệt may điện_tử gặp khó_khăn</t>
-  </si>
-  <si>
-    <t>đau_lòng bé trai 4 tuổi t ử v ong bất_thường trường_học theanh28 khoảng 14h chiều nay giấc_ngủ trưa như_thường_lệ trường mầm_non bắc_sơn nhóm trẻ cùng dậy tiếp_tục buổi học chiều nhưng cháu phạm_thái s sn 2018 lớp nhỡ 2 dậy cô_giáo kiểm_tra thì phát_hiện cháu còn cử_động sự_việc nhanh_chóng báo lên ban giám_hiệu nhà_trường đồng_thời cõng cháu đưa cấp_cứu phòng_khám đa_khoa khu_vực bắc_sơn nhưng bác_sỹ kết_luận cháu t ử v ong trước phòng_khám</t>
-  </si>
-  <si>
-    <t>bà nội đưa cháu dɑ ̣ o thì đau bụng bèn bé ngoài một_mình con dâu nóng_mặt đòi trả ʋề gấp th mẹ trẻ cɦo biết vốn_dĩ hôm đó ʋề sớm hơn thường_lệ bộ xa thấy thấp thoɑ ́ ng bóng mẹ chồng con_trai nhỏ 9 tháng chiều nào bà đưa cháu dɑ ̣ o chủ_yếu muốn gặp già khác xung_quanh trò_chuyện tán_gẫu con dâu hài_lòng chút nào vì có_khi trời vừa mưa xong thì bà vẫn đưa cháu dɑ ̣ o tuy_nhiên vẫn bỏ_qua tất_cả ƭận mắt chứng_kiến cảnh con_trai nhỏ chơ_vơ ngoài đường một_mình</t>
-  </si>
-  <si>
-    <t>kanye_west đối_mặt vụ kiện 250 triệu usd thanh_giang rapper kanye_west đối_mặt vụ kiện 250 triệu usd do bình_luận sai cái chết đàn_ông da_màu george_floyd</t>
-  </si>
-  <si>
-    <t>thiên_ân cơ_hội top 20 miss grand_international tân_cao đẹp đoàn_thiên_ân vượt thí_sinh thái_lan lượt bình_chọn cơ_hội top 20 chung_cuộc miss grand international 2022</t>
-  </si>
-  <si>
-    <t>nịnh_thần trung_quốc việt_tân càng gần thời_điểm tổng_bí_thư nguyễn phú_trọng sang chầu trung_quốc đám quan nịnh thần bắt_đầu bật loa ca_ngợi thiên_triều</t>
-  </si>
-  <si>
-    <t>sao đài_loan bán hàng_chợ đêm bê_bối như_anh vương_tín_tường sao đài_loan từng đóng hoàng_tử ếch mở sạp đồ ăn_ở chợ đêm scandal quấy_rối tình_dục</t>
-  </si>
-  <si>
-    <t>nội_dung bài phát_biểu hoàng tứ duy tổng_bí_thư đảng việt tân chuyến vận_động dân_chủ nhân_quyền việt nam quốc_hội canada việt_tân cảm_ơn quý_vị tham_dự buổi tiếp_tân hôm_nay tôi muốn chia_sẻ quý_vị tầm nhìn việt_tân đối_với tầm nhìn liên_quan như thế_nào lợi_ích canada vùng ấn_độ_dương thái_bình_dương gì chúng_ta có_thể làm thúc_đẩy lợi_ích chung mà tôi tin rằng đó tự_do dân_chủ hơn tôi nghĩ cách tốt nhất mô_tả ngày_nay giống như ly nước trên mặt đó ly nước nửa đầy dân năng_động làm_việc chăm_chỉ vị_trí chiến_lược tất_nhiên món ăn tuyệt_vời nền văn_hóa sôi_động nhưng ly nước nửa cạn sự phát_triển đồng_đều mức_độ tham_nhũng đàn_áp chính_trị trầm_trọng hàng trăm tù_nhân chính_trị rất mâu_thuẫn chính_phủ muốn thúc_đẩy kinh_tế tri_thức nhưng hạn_chế internet họ nói biến_đổi khí_hậu nhưng giam_giữ hoạt_động môi_trường đang hoạt_động sự thay_đổi tóm đó quốc_gia tiềm_năng to_lớn nhưng kìm_hãm bởi hệ_thống độc_tài cụ_thể đảng duy_nhất cầm_quyền còn theo chủ_nghĩa mác nhưng vẫn còn theo sát chủ_nghĩa lê nin ai biết rằng hệ_thống chính_trị tốt tuy_nhiên một_số bên ngoài có_thể nghĩ rằng thế_giới cần quan_tâm điều nhưng nay chúng_ta nhắc_nhở rằng thể_chế chuyên_quyền điều đáng lo_ngại cách chế_độ đối_xử dân mình ảnh_hưởng nước láng_giềng cộng_đồng quốc_tế rộng_lớn hơn cuộc xâm_lược ukraine chúng_ta thấy cách bạo_chúa tầm nhìn sai_lệch thế_giới có_thể gây rất đau_khổ nước láng_giềng chính dân mình gây nguy_hiểm phần còn thế_giới trung_quốc chúng_ta thấy chế_độ độc_tài vừa mối đe_dọa đối_với công_dân sống bên biên_giới nước vừa mối đe_dọa đối_với toàn_bộ khu_vực may_mắn thay phần_lớn thế_giới tập_hợp hỗ_trợ ukraine ngày_càng lãnh_đạo ủng_hộ đài_loan dân_chủ nhưng một_số quốc_gia hầu_hết đều hồ_sơ nhân_quyền tồi_tệ đang gây trở_ngại sự đồng thuận quốc_tế nước cộng_hòa xã_hội chủ_nghĩa quốc_gia như_vậy mọi cuộc bỏ_phiếu đại_hội_đồng liên_hiệp_quốc nay lên_án việc nga xâm_lược ukraine hành_động tàn_bạo đối_với thường_dân việc sáp_nhập bất_hợp_pháp lãnh_thổ ukraine chính_quyền hà_nội đều bỏ_phiếu_trắng đúng_ra vì lợi_ích chính mình cần ủng_hộ hệ_thống quốc_tế quốc_gia tôn_trọng hiến_chương liên_hiệp_quốc nguyên_tắc quốc_gia lớn hơn bắt_nạt nước láng_giềng nhỏ hơn tuy_nhiên vì bản_chất chuyên_quyền họ chế_độ hà_nội không_thể hành_động vì lợi_ích quốc_gia trên thực_tế hà_nội đang gây mất ổn_định khu_vực bằng cách lên kế_hoạch tập_trận nga đứng phía quân_đội myanmar gần đây nhất tham_gia hội_đồng nhân_quyền liên_hiệp_quốc che_đậy hành_vi vi_phạm_nhân_quyền chúng_tôi việt_tân hình_dung tôn_trọng chuẩn_mực quốc_tế trật_tự dựa trên luật_lệ đất_nước như_vậy sẽ tạo nên hiệp_hội quốc_gia đông_nam_á asean tự_do hơn đó có_thể giúp kiềm_chế khuynh_hướng tồi_tệ nhất bắc_kinh như_vậy sẽ dễ_dàng thu_hút nhân_tài sự ủng_hộ đông_đảo cộng_đồng việt nước_ngoài bao_gồm hàng trăm ngàn canada nhập_cư gốc việt thuộc thế_hệ thứ nhất thứ hai cộng_đồng có_thể đóng vai_trò cầu_nối giữa hai quốc_gia nâng cao vị_thế canada tư_cách quốc_gia ấn_độ_dương thái_bình_dương quyền_lực mềm canada vậy chúng_ta có_thể làm gì thứ nhất không_thể bỏ_qua chế_độ hà_nội làm đúng trách_nhiệm điều có_nghĩa_là thúc_giục chính_quyền hà_nội tôn_trọng cam_kết quốc_tế mà họ ký nay thành_viên hội_đồng nhân_quyền liên_hiệp_quốc càng phải trách_nhiệm hơn nữa thứ hai lên_tiếng chống hành_vi vi_phạm_nhân_quyền ví_dụ nghị_sĩ có_thể cân_nhắc việc nhận bảo_trợ tù_nhân lương_tâm vận_động họ trả tự_do thứ_ba canada nên làm_việc trực_tiếp dân bằng cách hỗ_trợ tổ_chức xã_hội dân_sự độc_lập đây lĩnh_vực mà cơ_quan đại_diện ngoại_giao canada có_thể tăng_cường nỗ_lực hiện_tại họ chúng_ta đều đồng_ý rằng vai_trò quan_trọng chiến_lược ấn_độ_dương thái_bình_dương canada câu hỏi đặt như thế_nào sẽ đối_tác đáng tin_cậy hơn chúng_tôi tin rằng vì lợi_ích chung cần phải quốc_gia tự_do dân_chủ cảm_ơn quý_vị</t>
-  </si>
-  <si>
-    <t>indonesia bạo_loạn trận bóng_đá ít_nhất 127 qua_đời khoảng 180 bị_thương theanh28 tối 10 2022 trận đấu arema persebaya giải vđqg indonesia tổ_chức trên sân kanjuruhan tỉnh đông_java như_thường_lệ hơn 40 000 khán_giả chật kín sân theo_dõi trận_đấu 2 trận thua liên_tiếp trên sân_nhà arema tiếp_tục phong_độ tốt thua persebaya chung_cuộc 2 3 thất_vọng trận thua đội chủ cđv quá_khích tràn xuống sân đ ập p há tạo nên khung_cảnh hỗn_loạn lực_lượng an_ninh bố_trí mỏng nên không_thể kiểm_soát đám đông</t>
-  </si>
-  <si>
-    <t>con làm bài 1h sáng chưa xong bố bức_xúc nhắn nhóm chat học_sinh thức ngủ th cháu en nay lớp mà thấy lúc_nào học miết nhớ hồi xưa hết 3 cấp 3 chẳng học thêm học nếm gì giờ thì thời_thế thay_đổi cháu nào như cháu nấy học cứ gọi liên_tục sáng tới tối thôi mẹ ạ kể sương sương thì sáng chiều học chính khóa trên lớp xong xíu rồi học thêm học thêm xong tối làm bài_tập khuya lắc khuya lơ mới ngủ mà gần như ngày nào học thêm cuối tuần thì học ƞǥoại khóa học ngoɑ ̣ i ngữ tham_gia cái cái kia nhìn thằng cháu đúng bơ_phờ nghĩ mà thươƞǥ vì chẳng hiểu sao giờ học như thế nhưng nghỉ vì mẹ nó lo học chẳng bằng bạn bằng bè rõ khổ học đương_nhiên tốt nhưng học quá đến_nỗi nhìn phờ_phạc thế kia thì đúng đáng lo thật mẹ ạ trẻ nhỏ_tuổi cần ăn ngủ đầy_đủ còn nhìn thằng cháu em mới lớp mà bữa nào 10 11h đêm mới học xong thấy thương gì đâu mới_đây đọc trên mấy cái group vụ học_sinh làm bài_tập mãi 1h sáng vẫn cɦưa xong kết quɑ ̉ bố cậu bé nổi đóa vớ giáo_viên luôn nè mẹ</t>
-  </si>
-  <si>
-    <t>dự_án đô_thị biển đâu mà to thế bùi_quang_minh bạn 16 chữ vàng vàng trung_quốc xây trái_phép căn_cứ quân_sự trên biển_đông chỗ mấy đảo nhỏ chim thèm ỉa đấy đảo đá_vành_khăn đá_chữ_thập quần_đảo trường_sa thuộc chủ_quyền đấy ít tự_hào rằng ta khôn_ngoan khéo_léo suốt thời_gian qua bạn vàng cướp nổi gì cả mà cướp thì đời chưa đòi đời khôn_ngoan khéo_léo đòi buộc nó trả trả lởi câu hỏi phóng_viên phát_ngôn bộ ngoại_giao tuyên_bố đầy_đủ bằng_chứng lịch_sử cơ_sở pháp_lý khẳng_định mọi</t>
-  </si>
-  <si>
-    <t>selena_gomez gặp vợ justin_bieber phương_mai selena_gomez hailey_baldwin vợ justin_bieber gây bất_ngờ lần đầu chụp ảnh chung sự_kiện đồn bất_đồng</t>
-  </si>
-  <si>
-    <t>hà_nội nghiên_cứu thí_điểm làn_đường xe_đạp võ_hải tp hà_nội nghiên_cứu làn_đường xe_đạp phát_triển đồng_bộ_hạ_tầng giao_thông nhằm đảm_bảo trật_tự an_toàn giảm ùn_tắc</t>
-  </si>
-  <si>
-    <t>diva trần thu hà phan mạnh quỳnh chia_sẻ nhau giao_lộ thời_gian theanh28 diva nhạc việt dành lời khen tác_giả ca_khúc chàng trai viết lên cây phan_mạnh_quỳnh kho âm_nhạc phong_phú đa_dạng phong_cách chứ chỉ nhạc phim hay nhạc trữ_tình như mọi nói âm_nhạc phan_mạnh quỳnh viết giống như kể chuyện rất gần_gũi phong_cách tôi còn phan_mạnh_quỳnh vừa cảm_thấy vinh_dự nhưng rất áp_lực trước đàn chị diva phải danh_hiệu nói_chơi mà trải qua năm_tháng thể_hiện đẳng_cấp chị hà_trần còn quỳnh_chỉ mới diễn cách đây 2 chuẩn_bị sự thay_đổi âm_nhạc vì_thế nói đẳng_cấp ca_hát thì quỳnh_thua chị hà bậc việc kết_hợp chị hà giao_lộ thời_gian trải nghiệm khó quên</t>
-  </si>
-  <si>
-    <t>vtv chính_thức sở_hữu bản_quyền world_cup 2022 theanh28 vtv vừa chính_thức công_bố trở_thành đơn_vị sở_hữu bản_quyền truyền_thông fifa world_cup 2022 vtv gửi lời cảm_ơn sự đóng_góp tài_trợ quan_trọng đơn_vị đồng_hành đó 2 tập_đoàn 4 ngân_hàng</t>
-  </si>
-  <si>
-    <t>địa_phương đau_đầu vì lao_động xuất_khẩu bỏ trốn hồng_chiêu gần 900 lao_động cư_trú bất_hợp_pháp chiếm 8 8 6 000 làm_việc hàn_quốc tỉnh thanh_hóa tìm mọi cách xử_lý song hiệu_quả</t>
-  </si>
-  <si>
-    <t>đội_tuyển nữ cùng bảng mỹ hà_lan world_cup 2023 theanh28 theo kết_quả bốc_thăm vòng bảng world_cup 2023 đội nữ nằm bảng_đấu rất khó_khăn theo đó chúng_ta nằm bảng e đối_thủ mỹ đương_kim vô_địch thế_giới hà_lan đương_kim á quân thế_giới đội thắng play off nhánh a cameroon thái_lan hoặc bồ_đào_nha giải world_cup nữ 2023 sẽ diễn ngày 20 7 20 8 2023 hai quốc_gia new_zealand australia bảng_e đội nữ sẽ thi_đấu new_zealand</t>
-  </si>
-  <si>
-    <t>kiến_nghị sửa luật bổ_sung nơi sinh hộ_chiếu sơn_hà đại_biểu_kiến_nghị đưa nội_dung sửa luật xuất_cảnh nhập_cảnh công_dân chương_trình kỳ họp quốc_hội thứ_tư nhằm bổ_sung nơi sinh hộ_chiếu</t>
-  </si>
-  <si>
-    <t>bác_sĩ m ổ tim cả ngày thù_lao 140 000 đồng theanh28 đứng m ổ tim bệnh_nhân suốt 7h 16h ngày tiền công chỉ 140 000 đồng khiến bác_sĩ e_ngại chọn ngành ph ẫu thu ật tim</t>
-  </si>
-  <si>
-    <t>hai bố con mừng sinh_nhật cửa_hàng gà rán xem nǥhèo khổ bóc_trần lối tư_duy nhóm thượng_đẳng th trên bàn chiếc bánh kem dâu_tây nhỏ cắm nến cậu bé nhắm_mắt chắp hai tay cầu_nguyện bố ngồi đối_diện dùng điện_thoại quay khoảnh_khắc mừng_tuổi mới con_trai cảnh ý_nghĩa ấm_áp như_vậy thế nhưng phần bình_luận rằng đây bữa tiệc sinh_nhật nghèo_khổ</t>
-  </si>
-  <si>
-    <t>nghiên_cứu coi covid 19 bệnh đặc_hữu viết_tuân ủy_ban kinh_tế đề_nghị chính_phủ nghiên_cứu kinh_nghiệm nước xem covid 19 bệnh đặc_hữu coi đây kinh_nghiệm tốt</t>
-  </si>
-  <si>
-    <t>đề_xuất xử_lý hình_sự hành_vi thu_gom sổ bảo_hiểm lê_tuyết tp hcm đề_xuất xử_lý hình_sự hành_vi thu_gom sổ bảo_hiểm xã_hội tăng tính răn_đe bảo_vệ quyền_lợi lao_động góp_phần hạn_chế rút lần</t>
-  </si>
-  <si>
-    <t>12 nghiện trà sữa gái hà_nội tiêu tốn gần nửa tỷ đồng vozer trưởng_phòng công_ty truyền_thông mức lương hấp_dẫn 18 triệu đồng tháng lúc cao_điểm chị h chi 3 thu_nhập thói_quen uống trà sữa hàng ngày trung_bình mỗi ngày uống 2 3 cốc</t>
-  </si>
-  <si>
-    <t>kiến_nghị nới quyền trúng đấu_giá_biển số xe sơn_hà phép trúng đấu_giá_biển số chuyển_nhượng sẽ tối_ưu nguồn thu ngân_sách phù_hợp quy_định sở_hữu theo một_số chuyên_gia</t>
-  </si>
-  <si>
-    <t>tp hcm khả_năng xuất_hiện mưa_đá đỉnh_điểm xấp_xỉ mức báo_động 3 theanh28 theo đài_khí_tượng thủy_văn khu_vực nam_bộ ngày hôm_nay 27 9 khu_vực tp hcm tiếp_tục mưa diện rộng nơi mưa to dông lượng mưa phổ_biến 20 40mm 24 giờ nơi trên 50mm 24 giờ mưa dông khả_năng xảy lốc sét mưa_đá gió giật mạnh đề_phòng ngập_úng khu_vực trũng thấp vùng kém khả_năng tiêu_thoát nước đô_thị đợt mưa diện rộng khả_năng duy_trì vài ngày tới đài_khí_tượng thủy_văn khu_vực nam_bộ dự_báo</t>
-  </si>
-  <si>
-    <t>đoàn_thiên_ân_diễn áo_tắm miss grand_international tân_cao thiên_ân_sải bước trên đường catwalk dài dựng sát bờ biển phần thi áo_tắm miss grand international 2022 sáng 12 10</t>
-  </si>
-  <si>
-    <t>giải_tỏa gần 3 300 ha nuôi ngao trái_phép lê_tân ubnd tp hải_phòng yêu_cầu giải_tỏa khu_vực nuôi ngao 117 hộ dân trên diện_tích gần 3 300 ha vùng ven biển thuộc quận hải_an huyện kiến_thụy</t>
-  </si>
-  <si>
-    <t>con tɾai chơi game thi toàn điểm thấp bỗng ngày mẹ buông_xuôi thì con liên_tục đạt điểm_cao th đứa ƭɾẻ lúc_nào ƌó sẽ tự biết suყ nghĩ khôn lớƞ kɦôƞǥ cầƞ mẹ kè_kè bên cạnh đốc_thúc ɦoặc cɦỉ cɑ ́ c mẹ chịu buông ƅỏ cố cɦấp coƞ tự_do pɦɑ ́ t triển coƞ mới ƭɦể ƅộc_lộ hết khả_năng ɱìƞɦ chị bạn mẹ dịu_dàng xinh_đẹp thấu_hiểu con_cái 2 trước lần chị thấy bạn mắt toàn quầng thâm tóc thì rụng tá lả cổ_họng thì cứ khàn khàn nói_chuyện nǥuyên_nhân vì con_trai nghe lời ấy lo_lắng hai vợ_chồng đều tốt chẳng_lẽ con trở_thành côn_đồ đường_phố kết quɑ ̉ mấy ngày trước gặp ấy mọc tóc gương_mặt tươi_vui bởi_vì con_trai ấy ngoan_ngoãn công ăn việc_làm ổn_định thì_ra lúc trước chị chỉ lo bò trắng răng</t>
-  </si>
-  <si>
-    <t>bí_thư điện_biên giới_thiệu làm bộ_trưởng giao_thông vận_tải viết_tuân thủ_tướng trình quốc_hội đề_nghị phê_chuẩn bổ_nhiệm nguyễn_văn_thắng bí_thư tỉnh_ủy điện_biên làm bộ_trưởng giao_thông vận_tải nhiệm_kỳ 2021 2026</t>
-  </si>
-  <si>
-    <t>vì_sao cố_định lịch nghỉ tết hồng_chiêu lịch nghỉ tết khó cố_định do ngày nghỉ chính_thức có_thể trùng cuối tuần xen_kẽ ngày làm_việc cần áp_dụng nghỉ bù hoặc hoán_đổi</t>
-  </si>
-  <si>
-    <t>sắp hết hạn gói hỗ_trợ thuê giải_ngân 11 hồng_chiêu gói 6 600 tỷ đồng giải_ngân hơn 11 hạn nhận hồ_sơ còn 4 ngày địa_phương tỷ_lệ chi thấp dưới như hải_phòng thanh_hóa an_giang quảng_ngãi</t>
-  </si>
-  <si>
-    <t>hoa_hậu đỗ_mỹ_linh tung ảnh cưới tân_cao hoa_hậu đỗ_mỹ_linh công_bố ảnh cưới cùng bạn trai đỗ vinh_quang chủ_tịch hà_nội fc dịp sinh_nhật tuổi 26</t>
-  </si>
-  <si>
-    <t>bao_nhiêu dự_định ấp dủ dồn hết đây theanh28_entertainment đoạn clip chị_gái cô_dâu ghi đăng_tải trên mạng xã_hội theo lời chủ clip biết em_gái phải tích_góp hơn 26 mới đủ tiền lấy chồng thế nhưng đúng ngày tổ_chức lễ cưới mưa rất to ngay cả rạp cưới cổng hoa ngập biển nước cao gần mét bởi_vậy nên quan_khách không_thể lễ cưới chỉ đành tạm hoãn chứng_kiến bao công_sức lãng_phí cô_dâu khỏi buồn lòng cô_dâu chia_sẻ ngay dựng rạp cưới trời mưa rất to tuy_nhiên chẳng_thể ngờ rằng chỉ đêm nước dâng rất cao thậm_chí hơn cả nửa bàn ghế cổng hoa rạp cưới tất_cả đều lộn_xộn ướt nhẹp dù khá buồn nhưng cô_dâu vẫn cố tự an_ủi chính mình theo cô_dâu tiết_lộ trước tổ_chức lễ cưới gia_đình xem_ngày rất kĩ tháng chỉ 2 ngày tốt ngày 16 22 vì lo_sợ sang gần tháng 11 trời sẽ mưa nên cả quyết_định chọn ngày 16 sớm tuy_nhiên mọi chuyện như mong_đợi sự lạc_quan cô_dâu chú_rể khiến dân_tình khỏi ngỡ_ngàng dù không_thể tổ_chức lễ cưới nhưng họ vẫn coi đây kỉ_niệm đáng nhớ cuộc_đời mong rằng cả hai sẽ mãi hạnh_phúc như hiện_tại</t>
-  </si>
-  <si>
-    <t>cán_bộ thà đứng trước hội_đồng kỷ_luật còn hơn đứng trước hội_đồng xét_xử viết_tuân theo đại_biểu nguyễn_hữu_thông bộ_phận cán_bộ công_chức viên_chức đó lãnh_đạo quản_lý đang tâm_lý sợ sai sợ trách_nhiệm làm cầm_chừng</t>
-  </si>
-  <si>
-    <t>chật_vật kêu_gọi lao_động bất_hợp_pháp hồi_hương hà_tĩnh lần thứ hai qua chu_ngọc_tửu bắc thuyết_phục gia_đình gọi con đang cư_trú bất_hợp_pháp nước nhưng kết_quả gần như vô_vọng</t>
-  </si>
-  <si>
-    <t>2 qua_đời vụ tai_nạn ô_tô đà_lạt theanh28 tối 13 10 khoảng 19h30 chiếc ô_tô 7 chỗ bất_ngờ lao xuống hồ xuân_hương đà_lạt lực_lượng cứu_hộ khẩn_trương có_mặt hiện_trường trục_vớt ô_tô tìm_kiếm nạn_nhân biết lao xuống hồ ô_tô tất_cả 4 2 thoát ngoài 2 còn qua khỏi</t>
-  </si>
-  <si>
-    <t>hồ_ngọc_hà lúc nghe trộm đột_nhập kim_lý lo mất nhẫn_cưới hoàng_dung dũng_thịnh hà_hồ nói kim_lý hốt_hoảng hơn báo tin trộm đột_nhập biệt_thự tp hcm sợ mất nhẫn_cưới cả hai</t>
-  </si>
-  <si>
-    <t>bộ giáo_dục đang xem_thường tính_mạng nhân_dân hồng_hà ngày 6 tháng chín 2022 báo tuổi_trẻ đưa tin bộ lđ tb xh cử đoàn thanh_tra việc học_viên đăng_ký nộp học_phí trường cao_đẳng dược hà_nội nhưng dự kỳ thi tốt_nghiệp trường cao_đẳng y_tế phú_thọ nhận bằng trường cao_đẳng lê_quý_đôn biên_hòa đồng_nai nghề dược nghề liên_quan trực_tiếp tới tính m ạng khác vì_thế phải tự_nhiên mà quy_định rất nghiêm_ngặt đối_với nghề dược_sĩ vậy_mà xứ thiên_đường xhcn chẳng cần học chỉ cần đóng tiền bằng cử_nhân dược rồi thử_hỏi rằng trường thì cử_nhân sẽ bán thuốc kê thuốc bao_nhiêu dân ốm_đau bệnh_tật nếu xảy ch ết thì chỉ dân thiệt thôi chứ lãnh_đạo ký duyệt thiệt gì đâu khó hiểu chỗ tại_sao sự_việc tiêu_cực diễn trường cao_đẳng mà bộ giáo_dục bộ công_an hay viện kiểm_sát vào_cuộc điều_tra xử_lý bộ lđ tb xh thanh_tra nhỉ hay sự_việc đâu đấy chìm_xuồng như bao vụ khác</t>
-  </si>
-  <si>
-    <t>yêu_cầu xác_định trách_nhiệm thành_phố lớn ngập_lụt viết_tuân thành_phố lớn đầu_tư hiện_đại bất_ngờ ngập_lụt nguyên_nhân do đâu trách_nhiệm thuộc ai đại_biểu hoàng_đức_thắng băn_khoăn</t>
-  </si>
-  <si>
-    <t>hai nguyên lãnh_đạo huyện khánh_hòa_vi_phạm đất_đai viết_tuân ủy_ban kiểm_tra trung_ương đề_nghị ban bí_thư kỷ_luật hai nguyên lãnh_đạo huyện khánh_hòa vì vi_phạm_pháp_luật đất_đai xây_dựng gây hậu_quả rất nghiêm_trọng</t>
-  </si>
-  <si>
-    <t>trọng đảng hãy học đài_loan việt_tân_page facebook đài_loan lãnh_thổ trung_hoa lục_địa đảo nhỏ sát bên trung_cộng dân_số đài_loan chỉ khoảng 24 triệu dân nhưng họ chưa bao_giờ khuất_phục trước đảng cộng_sản tq trung_cộng chưa bao_giờ dám tấn_công đài_loan dân_số lớn gấp 4 lần đài_loan lãnh_thổ lớn gấp gần 10 lần đài_loan cớ_sao đảng trọng phải quỵ lụy trung_cộng</t>
-  </si>
-  <si>
-    <t>đỗ_mỹ_linh tôi cưới chồng vì gia_thế tân_cao khang_ngô đỗ_mỹ_linh nói chồng sắp cưới con_trai bầu hiển yêu thật lòng đồng_điệu chứ vì tiền_tài gia_thế</t>
-  </si>
-  <si>
-    <t>bảy giận_dỗi vì sân thi_đấu theanh28 trận đấu man_utd thắng tottenham 2 0 premier_league rạng sáng nay ngôi_sao cristiano_ronaldo vô_cùng bực_tức sân thi_đấu dù kết_quả lúc đó an_bài phút thứ 90 tỷ_số ấy 2 0 cameraman chĩa máy quay phía ronaldo lúc cr7 rời ghế dự_bị rồi tiến thẳng đường_hầm đáp tình_cảm 2 cậu bé cổ_động_viên</t>
-  </si>
-  <si>
-    <t>gỗ quan lũ dân việt_tân chuyện kiểm_lâm ban quản_lý rừng lâm_tặc mặc_nhiên khai_thác gỗ lậu chặt phá rừng còn chuyện xa_lạ đối_với cầm_quyền nữa vụ_việc phá rừng phải tự_nhiên mà chúng_ta thường thấy mùa lũ_lụt biết_bao dân trôi của_cải trâu_bò lợn gà quan quyền cao chức trọng thì hả_hê mâm cao cỗ đầy bộ bàn ghế tủ kệ hạng sang khối gỗ quý_hiếm đây nguyên_nhân hệ cứ lũ_lụt nghe câu lũ dân gỗ quan vậy ai tiếp_tay lâm_tặc phá rừng thế_lực nào có_thể ngang_nhiên làm việc lực_lượng kiểm_lâm chuyên_trách bảo_vệ rừng cơ_quan công_an lực_lượng bảo_vệ pháp_luật giữ_gìn an_ninh trật_tự đâu mà lâm_tặc ngang_nhiên phá rừng lấy gỗ trục_lợi kẻ_gian lấn_chiếm đất rừng bán kiếm lợi hàng tỷ đồng đây chắc_chắn phải bảo_kê cán_bộ công_chức thì lâm_tặc mới ngang_nhiên rừng chặt phá nếu bảo_kê chống lưng thì chỉ cần động_thái nhỏ xâm_hại rừng đất lâm_nghiệp sẽ cơ_quan_chức_năng thẩm_quyền xử_lý ngay chứ đừng nói chặt hàng chục m3 gỗ vận_chuyển khỏi rừng trót_lọt hay rừng chặt phá vài ha rồi trồng cây trên đó thậm_chí bán đất lâm_nghiệp kiếm lợi hàng tỷ đồng nạn lâm_tặc phá rừng lấy gỗ trục_lợi lấn_chiếm sang_nhượng đất lâm_nghiệp trái_phép thu lợi bất_chính đang diễn tương_đối phổ_biến sự tham_gia sân cán_bộ công_chức tất_nhiên cụ_thể ai thì chúng_ta không_thể biết chính_xác nhưng phải số_lượng nhỏ cánh rừng sẽ chảy_máu giữ vững màu xanh đồi núi nhằm chống suy_thoái môi_trường biến_đổi khí_hậu ngày_càng diễn_biến phức_tạp như hiện_nay thì chỉ chính_quyền đưa biện_pháp phòng_chống xử_lý kẻ lợi_dụng chức_vụ quyền_hạn bảo_kê chống lưng trực_tiếp hoặc gián_tiếp tiếp_tay lâm_tặc phá rừng hoặc nhóm lấn_chiếm đất rừng sang_nhượng đất rừng thu lợi bất_chính</t>
-  </si>
-  <si>
-    <t>nhà_trai ngồi xích_lô hỏi cưới hoa_hậu đỗ_mỹ_linh tân_cao doanh_nhân đỗ vinh_quang con_trai bầu hiển cùng đoàn chín xích_lô mang sính_lễ hỏi cưới hoa_hậu đỗ_mỹ_linh chiều 17 10</t>
-  </si>
-  <si>
-    <t>chồng nhậu khuya vợ dùng xăng phóng_hỏa khiến cả 2 bỏng nặng theanh28 vụ_việc xảy tối 28 9 huyện tam_đảo tỉnh vĩnh_phúc nguyên_nhân ban_đầu sự_việc ngày hôm đó 28 9 n v t sn 1963 em_trai xây giúp tối cùng ngày t uống bia cùng anh_em nhưng t vợ xảy cãi_vã lúc nóng_giận vợ tên m sn 1965 dùng xăng p hóng h ỏa khiến cả 2 đều b ỏn g nặng</t>
-  </si>
-  <si>
-    <t>cơn mưa một_số tuyến đường quận tân_phú bủa_vây bởi dòng nước_màu đỏ nồng_nặc mùi hoá_chất ảnh_hưởng hàng trăm hộ dân đình_văn cơn mưa một_số tuyến đường quận tân_phú bủa_vây bởi dòng nước_màu đỏ nồng_nặc mùi hoá_chất ảnh_hưởng hàng trăm hộ dân</t>
-  </si>
-  <si>
-    <t>phan_như_thảo giảm 20 kg hoàng_dung người_mẫu phan_như_thảo nói tập cardio hàng ngày giữ chế_độ ăn_uống chừng_mực giảm 20 kg</t>
-  </si>
-  <si>
-    <t>ngân_sách 2023 chi bao_nhiêu cải_cách tăng lương anh_minh dự_toán chi ngân_sách dành 12 500 tỷ đồng cải_cách tiền_lương lương hưu điều_chỉnh một_số chế_độ trợ_cấp phụ_cấp chính_sách an_sinh xã_hội gắn lương cơ_sở</t>
-  </si>
-  <si>
-    <t>bhxh nên thêm phần hỗ_trợ trẻ_em gia_đình tham_gia lê_tuyết chính_sách bhxh nên phần hỗ_trợ trẻ_em gia_đình giảm thời_gian đóng tối_thiểu 20 còn 15 thu_hút tham_gia theo lãnh_đạo tổ_chức ilo</t>
-  </si>
-  <si>
-    <t>mạo_danh bảo_hiểm xã_hội lừa lao_động hồng_chiêu bảo_hiểm xã_hội cảnh_báo lao_động phía nam nhóm giả_danh cán_bộ cơ_quan lừa làm hồ_sơ nhận trợ_cấp thai_sản thất_nghiệp</t>
-  </si>
-  <si>
-    <t>chàng trai đầu_tiên mang vòng nguyệt_quế thái_bình theanh28 đặng lê_nguyên_vũ học_sinh trường thpt bắc_duyên_hà huyện hưng_hà tỉnh thái_bình xuất_sắc giành 4 suất chơi trận chung_kết thứ 22 đường lên đỉnh olympia tư_cách nhất cuộc thi quý giành 300 điểm đây thí_sinh đầu_tiên mang cầu truyền_hình trực_tiếp chung_kết đường lên đỉnh olympia thái_bình 22 phát_sóng đặng lê_nguyên_vũ học_sinh giỏi liền từng thi học_sinh giỏi toán giành huy_chương vàng olympic tiếng 2016 đây 2 3 môn_học cậu tự_tin nhất điểm trung_bình đều trên 9 0 toán 9 7 hóa 9 6 tiếng 9 5</t>
-  </si>
-  <si>
-    <t>bảo_ngọc đăng_quang hoa_hậu liên lục_địa 2022 tân_cao bảo_ngọc 21 tuổi cao 85 m vượt 70 thí_sinh đoạt vương_miện miss intercontinental 2022 chung_kết sáng 15 10 giờ hà_nội</t>
-  </si>
-  <si>
-    <t>vất_vả vì em theanh28_entertainment chàng trai chia_sẻ đoạn clip tặng quà người_yêu kèm theo dòng trạng_thái mong em yêu luôn cái nghề điều đáng nói đó chính sự đối_nghịch giữa trạng_thái hai đôi bàn_tay clip lột_tả rất rõ sự yêu_thương hi_sinh mà chủ clip dành bạn gái tay gái trắng_trẻo nõn_nà thì đôi tay bạn trai đầy vết chai_sạn đen_nhẻm theo_dõi trang cá_nhân chủ clip có_thể thấy anh_chàng thường_xuyên đăng_tải công_việc lao_động chân tay mình tuy công_việc nặng_nhọc khiến đôi tay trở_nên lấm_lem nhưng tất_cả chỉ đang phấn_đấu tương_lai sau_này tốt_đẹp hơn thế nhưng dù vất_vả đâu chủ clip vẫn cố_gắng dành_dụm mua tặng người_yêu chiếc nhẫn vàng thật đẹp tự mình đeo tay đáp tình_cảm bạn trai gái bên dưới phần bình_luận bày_tỏ đầy ngọt_ngào yêu_anh tình_cảm hai khiến dân_tình khỏi ngưỡng_mộ chúc phúc cặp đôi sẽ hạnh_phúc mãi</t>
-  </si>
-  <si>
-    <t>uỷ_ban kinh_tế hệ luỵ thị_trường trái_phiếu chứng_khoán bất_ổn anh_minh uỷ_ban kinh_tế đề_nghị làm rõ trách_nhiệm quản_lý nhà_nước việc thị_trường bất_động_sản trái_phiếu chứng_khoán vừa_qua tăng_trưởng nóng tiềm_ẩn rủi_ro</t>
-  </si>
-  <si>
-    <t>siêu_sao 37 tuổi sẽ phải tập_luyện cùng đội trẻ man united theanh28 sáng nay giờ london cameraman bắt_gặp cristiano_ronaldo tự lái_xe tới trung_tâm huấn_luyện carrington chấp_hành_hình_phạt hlv erik ten hag siêu_sao 37 tuổi sẽ phải tập cùng đội trẻ u21 manchester_united hành_động tự_ý đường_hầm trận gặp tottenham vòng 12 premier_league lần gần nhất mà ronaldo_tập cùng đội trẻ có_lẽ thời sir alex_ferguson mới chân ướt chân ráo tới manchester 18 tuổi thì cr7 sân đội</t>
-  </si>
-  <si>
-    <t>tp hcm công_bố nền_tảng dữ_liệu đất_đai trực_tuyến thu_hằng dân doanh_nghiệp có_thể xem dữ_liệu phân khu diện_tích quy_hoạch kế_hoạch mục_đích sử_dụng đất toàn thành_phố trên nền_tảng trực_tuyến</t>
-  </si>
-  <si>
-    <t>đề_nghị miễn hai loại thuế lao_động việt nhật hồng_chiêu bộ lao_động thương_binh xã_hội đề_nghị phía nhật_bản miễn thuế cư_trú thuế thu_nhập lao_động vì giảm 30 thu_nhập đồng yên rớt_giá</t>
-  </si>
-  <si>
-    <t>20 ngày bảo_ngọc thi hoa_hậu liên lục_địa tân_cao bảo_ngọc nổi_bật chiều cao 85 mét tự_tin vòng thi phụ trước thắng chung_kết miss intercontinental 2022</t>
-  </si>
-  <si>
-    <t>triệu văn_trác tôi phước mới gặp vợ như_anh triệu văn_trác sao võ_thuật trung_quốc nói phúc mới gặp vợ trương đan_lộ gắn_bó 20 qua</t>
-  </si>
-  <si>
-    <t>nóng bắt tạm giam tina dương theanh28 trưa 13 10 cơ_quan csđt công_an tỉnh bình_thuận pc02 ban_hành quyết_định khởi_tố bị_can lệnh bắt bị_can tạm giam đối_với n t v a còn gọi tina_dương n t v a tina_dương 27 tuổi trú h lạng_giang tỉnh bắc_giang pc02 công_an tỉnh bình_thuận bắt điều_tra hành_vi lạm_dụng tín_nhiệm c hiếm đ oạt tài_sản theo điều 175 bộ_luật hình_sự 2015 sửa_đổi bổ_sung 2017 quyết_định khởi_tố bị_can lệnh bắt tạm giam n t v a pc02 công_an bình_thuận viện ksnd tỉnh bình_thuận phê_chuẩn cùng ngày</t>
-  </si>
-  <si>
-    <t>trâm học catwalk thi mrs international_global 2022 hải_my nữ doanh_nhân catwalk trainer bi tô rèn_luyện kỹ_năng đi_đứng uyển_chuyển dự thi hoa_hậu quý bà quốc_tế 2022 tháng 2023 malaysia</t>
-  </si>
-  <si>
-    <t>đề_xuất quy_định bảng lương riêng cán_bộ y_tế viết_tuân đại_biểu quốc_hội đề_xuất quy_định bảng lương theo bậc ngạch riêng nhân_viên y_tế vì họ phải đào_tạo thời_gian dài tiêu_chuẩn cao</t>
-  </si>
-  <si>
-    <t>nước lũ tràn vùng trũng thừa_thiên_huế võ_thạnh khu dân_cư xã dọc sông bồ huyện quảng_điền nước lũ bủa_vây tuyến đường ngập sâu nửa mét</t>
-  </si>
-  <si>
-    <t>khó_khăn chồng_chất theanh28_entertainment mới sinh_viên thứ 4 nhưng n lên chức bố cách đây dù đang ngồi trên ghế giảng_đường nhưng n phải bươn_chải đủ công_việc kiếm tiền lo gia_đình nhỏ vợ n u sn 2001 đang học thứ 3 đại_học n u_quen nhau 2020 cả 2 cùng làm thêm quán cà_phê trên đường hồ_tùng mậu hà_nội yêu thời_gian ngắn cả 2 dọn cùng nhau kết_quả vài tháng u_phát_hiện mình có_thai loay_hoay biết xử_lý thế_nào phải u_mang thai 3 tháng n mới dám báo_cáo bố_mẹ lúc em quê nói_chuyện bố_mẹ việc u có_thai bố_mẹ em rất s ố c bố mắng thậm_chí còn đuổi em cấm em quay hà_nội em kể tình_hình u đó cả 2 quyết_định bệnh_viện bỏ thai nhưng vừa cổng bệnh_viện thì u_ôm chặt lấy tay em khóc rất mấy phút em quyết_định bỏ thai nữa lúc đó em nghĩ dù ai nói gì đi_nữa thì em vẫn sẽ giữ con n nói vừa trở phòng trọ thì mẹ n gọi điện nói cả 2 đứa cùng quê bàn_bạc tổ_chức đám_cưới ngày vợ em nhập_viện sinh em bé 2 vợ_chồng đồng nào phải xin tiền bố_mẹ thật_sự quãng thời_gian đó em thấy cuộc_sống bế_tắc em biết sinh em bé cuộc_sống phía trước còn chông_gai vất_vả hơn gấp_bội n chia_sẻ con tuổi u gửi con quê nhờ bà nội chăm_sóc xuống hà_nội học tiếp cuộc_sống sinh_viên vốn thiếu_thốn căn phòng trọ đôi vợ_chồng trở_thành lò lửa vụ xích_mích chuyện cơm_nước giặt_giũ khoảng thời_gian 2 vợ_chồng phải ăn mì tôm cả tuần liền vì hết tiền lần cả 2 còn quyết_định ly_hôn nhưng bố_mẹ 2 bên gia_đình can_ngăn sang thứ 4 đại_học n thời_gian hơn làm thêm hiện_tại n có_thể tự lo tiền ăn_uống tiền đóng tiền học vợ chia_sẻ dự_định sắp tới n nói bọn em đang cố_gắng hoàn_thành việc học đó cả 2 sẽ tìm việc_làm kiếm tiền tự lo con_cái mọi sự rồi nên vợ_chồng em sẽ cùng nhau phấn_đấu cuộc_sống cải_thiện hơn n chia_sẻ</t>
-  </si>
-  <si>
-    <t>giám_đốc sở hứa từ_chức nếu giải_ngân xong tiền thuê hồng_chiêu giám_đốc sở lao_động thương_binh xã_hội tỉnh sơn_la nguyễn_tuấn cam_kết sẽ từ_chức nếu hôm_nay chi_trả xong tiền trọ 13 công_nhân</t>
-  </si>
-  <si>
-    <t>ngôi làng đổi_thay nhờ xuất_khẩu lao_động hà_tĩnh mỗi lao_động làm_việc nước_ngoài gửi khoảng 500 tỷ đồng khiến xã cương_gián nghi_xuân hà_tĩnh như lột_xác biệt_thự mọc lên khắp_xã</t>
-  </si>
-  <si>
-    <t>hồ_ngọc_hà trở_lại công_việc tân_cao ca_sĩ hồ_ngọc_hà nắm tay kim_lý dự sự_kiện tp hcm sự_cố_hủy loạt show mỹ lý_do sức_khỏe tốt</t>
-  </si>
-  <si>
-    <t>đỗ_mỹ_linh chuẩn_bị 5 váy cưới tân_cao hoa_hậu đỗ_mỹ_linh chọn bốn mẫu đầm chụp ảnh cưới châu âu thiết_kế diện hôn_lễ sẽ diễn ngày 23 10</t>
-  </si>
-  <si>
-    <t>vấn_đề lớn dự_án luật thanh_tra sửa_đổi sơn_hà giữ thanh_tra huyện thành_lập thanh_tra tổng_cục cục thuộc bộ thể_chế_hóa chủ_trương phòng_chống tham_nhũng vấn_đề lớn dự_án luật sửa_đổi</t>
-  </si>
-  <si>
-    <t>quận huyện tp hcm cắt nước cuối tuần thái_anh nước 8 quận huyện thành_phố cắt hoặc yếu đêm 10 sáng hôm do trạm bơm hoà_phú cùng nhà_máy nước tân_hiệp bảo_trì</t>
-  </si>
-  <si>
-    <t>anna bắc giang thao_túng cả cộng_đồng mạng luôn rồi theanh28 theo nguồn thông_tin hay trước khởi_tố bắt tạm giam n t v a tức tina_dương nộp 148 triệu đồng khắc_phục hậu_quả công_an trao_trả số tiền b đ _h nạn_nhân vụ án số tiền v a nộp cơ_quan csđt công_an tp phan_thiết tỉnh bình_thuận nhằm khắc_phục hậu_quả ngay cơ_quan khởi_tố vụ án lạm_dụng tín_nhiệm c hiếm đ oạt tài_sản vụ_việc thuê ôtô rồi mang bán anna khai số tiền do buôn_bán online livestream trên mạng xã_hội thời_gian gần đây</t>
-  </si>
-  <si>
-    <t>sai_lầm trọng_tài khiến bình định mất oan 2 điểm theanh28 trưởng ban trọng_tài vff dương văn_hiền thừa_nhận trọng_tài trần_ngọc nhớ quyết_định thổi penalty oan cầu_thủ bình_định trận gặp hagl hôm chiều 28 10</t>
-  </si>
-  <si>
-    <t>sao game of thrones cưới phương_mai nữ diễn_viên lena_headey đóng vai cersei game of thrones cùng tài_tử marc menchaca kết_hôn hai yêu</t>
-  </si>
-  <si>
-    <t>công_nhân thiếu chỗ gửi con hồng_chiêu thiếu trường công chi_phí trường tư cao công_nhân phải tăng ca nên đưa con nhóm lớp mầm_non hoặc gửi quê ông_bà chăm</t>
-  </si>
-  <si>
-    <t>chuyến trọng tạo tiền_lệ nguy_hiểm vũ_việt cuộc xâm_lăng ukraine bắt_nguồn cựu tổng_thống viktor_yanukovych cựu tổng_thống thân nga thần phục putin tạo putin ấn_tượng rằng ukraine phần không_thể tách rời nga trọng đang làm như_vậy đối_với trung_quốc lãnh_tụ tập chuyến trọng cầu_an đảng cầu_cạnh chỗ dựa chế_độ cầm_quyền ấy cái giá phải trả sẽ rất đắt bằng quyền tự_quyết dân_tộc tuy_vậy trọng bộ chính_trị quan_tâm điều đó họ chỉ quan_tâm sự tồn_vong chế_độ đối_với họ còn đảng còn tất_cả tiền_đồ đất_nước quan_trọng bằng đảng hà_nội quỵ lụy trung_quốc chỉ khuyến_khích làm tăng thêm quyết_tâm tham_vọng thôn_tính đảng đang khóa chặt con đường nhân_dân hòa_nhập thế_giới văn_minh bài_học ukraine bài_học ukraine đang phải chiến_đấu bảo_vệ_quốc_gia chỉ vì họ từng kẻ quỵ lụy putin</t>
-  </si>
-  <si>
-    <t>công_nhân bỏ quê vì nhà_máy ít việc lê_tuyết nhà_máy giảm 50 đơn hàng huỳnh_văn_toản 40 tuổi nghỉ_việc đưa con cà_mau trở_lại nghề biển gần 20 rời quê làm công_nhân</t>
-  </si>
-  <si>
-    <t>địa_điểm nóng nhất tối nay sự_kiện âm_nhạc phố bộ theanh28 phố bộ hà_nội tối nay sự_kiện âm_nhạc siêu hoành_tráng thu_hút hàng nghìn khán_giả phiêu mình theo giai điệp cực cháy bữa tiệc âm_nhạc nóng càng nóng sự xuất_hiện binz tóc_tiên phiêu quên lối</t>
-  </si>
-  <si>
-    <t>mỹ_nhân vô_gian đạo khen dung_nhan tuổi 50 như_anh trần_tuệ_lâm đóng vô_gian đạo cùng lương triều_vỹ tạp_chí thời_trang khen sắc vóc tuổi 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sơn_hà dự_thảo luật khám bệnh chữa bệnh sửa_đổi còn ý_kiến khác nhau liên_quan xã_hội_hóa hoạt_động y_tế kiểm_tra đánh_giá năng_lực hành_nghề bác_sĩ</t>
-  </si>
-  <si>
-    <t>công_an phú yên bức t ử dân bi_lun nạn_nhân thanh_niên khỏe_mạnh công_an đông_hòa phú_yên mời lên điều_tra 3 ngày giam_giữ gia_đình báo tin con mình c hế t do tự_tử điều bức_xúc gia_đình nhìn mặt hay đem_xá c diễn tiến đó công_an tự_ý đem chôn mà gia_đình biết chôn đâu hiện gia_đình đang theo đuõi việc đòi xá c con chúng_tôi sẽ cập_nhật thêm vụ_việc gia_đình</t>
-  </si>
-  <si>
-    <t>ét o ét ai tui nhờ mấy hôm mất nước theanh28 công_ty cổ_phần viwaco vừa thông_báo gửi khách_hàng việc tạm ngừng cấp_nước đấu nối kỹ_thuật tuyến ống truyền_tải nước_sạch sông đà do_vậy dân cần tích_trữ nước sử_dụng tiết_kiệm dự_kiến thời_gian tạm ngừng cấp_nước 20h ngày 29 10 15h ngày 30 10</t>
-  </si>
-  <si>
-    <t>nguyễn_văn_thắng làm bộ_trưởng giao_thông vận_tải viết_tuân nguyễn_văn_thắng bí_thư tỉnh_ủy điện_biên quốc_hội phê_chuẩn bổ_nhiệm giữ chức bộ_trưởng giao_thông vận_tải tỷ_lệ tán_thành 87 15</t>
-  </si>
-  <si>
     <t>doanh_nghiệp lớn than khát lao_động chất_lượng cao hồng_chiêu chỉ hơn 26 lao_động qua đào_tạo bằng_cấp chứng_chỉ còn phần_lớn thiếu kỹ_năng đáp_ứng nhu_cầu doanh_nghiệp theo bộ lao_động thương_binh xã_hội</t>
-  </si>
-  <si>
-    <t>góc bạn thân người_ta theanh28_entertainment ai nói giữa nam nữ khái_niệm_tình bạn h k quen nhau hồi cấp 3 tới giờ cả 2 tuổi kết_hôn nhưng vẫn chơi thân nhau đợt h bạn nữ lấy chồng xa vì_thế trước ngày cưới tuần k ngần_ngại mà bao luôn h chuyến du_lịch bắc nam chuẩn_bị công_cuộc đeo gông con bạn thân đúng bạn người_ta con người_ta luôn khiến mình ngưỡng_mộ k còn chia_sẻ rằng thấy con bạn lúc học tới lúc làm lúc_nào tiết_kiệm chả dám du_lịch đâu hết thì săn vé rẻ mới dám nên hoàn_thành ước_mơ nó mãn_nguyện trước lấy chồng thôi mà đúng gái số hưởng nhất nghe bảo 11 11 traveloka sale lớn vé bay phòng vé vui_chơi rẻ gấp lần anh_em tham_khảo book ngay vé vi_vu cuối nhá đặc_biệt 11h mỗi ngày flashsale lớn tung coupon triệu lận à quên nữa đang chương_trình tham_gia thử_thách mở rương kho báu cơ_hội lấy voucher giảm cộng dồn 300k nữa tranh_thủ book vé nha mng ơiii</t>
-  </si>
-  <si>
-    <t>đỗ_mỹ_linh chồng hát khiêu_vũ tiệc cưới tân_cao hoa_hậu đỗ_mỹ_linh doanh_nhân đỗ vinh_quang hát khiêu_vũ kéo mọi hòa điệu tiệc cưới</t>
-  </si>
-  <si>
-    <t>nữ_sinh 17 tuổi chuyên toán việt nam trở_thành kiện_tướng cờ vua thế_giới theanh28 ngày 5 17 9 giải vô_địch cờ_vua thanh_niên thế_giới 3 lứa tuổi u14 u16 u18 world youth chess championships 2022 diễn romania gỉa_đấu gồm 11 vòng_đấu quy_tụ 620 kỳ_thủ hơn 70 liên_đoàn tới khắp châu_lục kỳ_thủ nguyễn hồng_nhung thi_đấu hạng_mục u16 nữ kết_thúc giải nguyễn hồng_nhung bằng điểm vô_địch nhưng chỉ nhận huy_chương bạc vì kém chỉ_số phụ</t>
-  </si>
-  <si>
-    <t>nàng kiếm 40 tỷ nhờ học_lỏm nuôi nấm quý liều cạn tiền cắm xe_máy đẻ th khắp nơi tìm_kiếm bí_quyết nhưng vô_ích cùng lần thất_bại nợ_nần chồng_chất đến_nỗi hàng tháng liền phải trốn phòng thí_nghiệm thì chị thɑ ̉ o tìm bí_quyết nuôi_trồng đông trùng hạ thɑ ̉ o thu lợi_nhuận cao chẳng đâu xa bí_quyết ấy nằm nǥay hàng_xóm làm nông cạnh đây có_lẽ lời tóm_tắt ngắn_gọn mà đầy_đủ nhất ʋề quá_trình thu ʋề 40 tỷ mỗi nhờ lòng quyết ƭâm từ_bỏ chị nguyễn_thị_hồng phụ_nữ công nuôi_trồng thành_công đông trùng hạ thɑ ̉ o đầu_tiên</t>
-  </si>
-  <si>
-    <t>mất cơ_hội việc_làm vì đồng_hương cư_trú bất_hợp_pháp hồng_chiêu học ngoại_ngữ chuẩn_bị sẵn_sàng kỳ thi sang hàn_quốc làm_việc diệp sốc hay tin quê mình nằm danh_sách dừng tuyển lao_động</t>
-  </si>
-  <si>
-    <t>ám_ảnh ngày halloween theanh28 thông_tin cập_nhật chức_trách hàn_quốc sáng 30 10 biết ít_nhất 149 thiệt_mạng 76 khác bị_thương vụ gi ẫm đ ạp quận itaewon thủ_đô seoul_tối 29 10 hàng chục nghìn chen_chúc trên con phố chật_hẹp tham_gia lễ_hội halloween khu_vực</t>
-  </si>
-  <si>
-    <t>sẽ số hóa toàn_bộ dữ_liệu bảo_vật quốc_gia hiểu_nhân viện bảo_tồn di_tích đặt mục_tiêu 100 dữ_liệu bảo_vật quốc_gia số hóa ứng_dụng trên nền_tảng</t>
-  </si>
-  <si>
-    <t>khó xử_phạt vi_phạm làm thực_phẩm bẩn thu_hằng theo bà phạm_khánh phong_lan khó nhất xử_lý thực_phẩm bẩn mẫu giám_sát dù chứa dư_lượng hóa_chất cao song giá_trị xử_phạt</t>
-  </si>
-  <si>
-    <t>tuần trước thua đội cuối bảng tuần thua đội đứng thứ 19 theanh28 trận thua khó tin trước nottingham forest tuần trước tuần liverpool trở sân_nhà anfield chỉ việc tiếp_đón leeds_united đội bóng đang xếp thứ 19 trên bxh cứ tưởng điểm_tựa sân_nhà nơi khiến man city phải ôm hận cách đây 2 tuần sẽ giúp liverpool dễ_dàng chiến_thắng nhưng the_kop thua sốc 2 trước leeds_united qua đó trận thua thứ 2 liên_tiếp trước 2 đội đứng đội_sổ giờ lữ_đoàn đỏ vẫn chỉ 16 điểm đứng thứ 9 trên bxh</t>
-  </si>
-  <si>
-    <t>bạn thân người_ta chất_lượng thật theanh28_entertainment cụ_thể đoạn clip ghi có_thể thấy bàn tiệc cưới cặp đôi toàn vàng cọc tiền xếp thành từng chồng phiên bạn thân cô_dâu tặng quà cưới chỉ câu nói thôi khiến quan_khách vỗ_tay nhiệt_liệt 6 trước lời hứa nó nào em đám_cưới giàu sẽ em tỷ nhưng mà bây_giờ chưa giàu mới khá thôi nên tặng em 5 trăm triệu đó anh_chàng cầm xấp tiền đưa lên khay tặng đôi uyên_ương con_số 5 trăm triệu mà chàng trai nói chỉ khá thôi số tiền mừng cưới không_tưởng đối_với đáng nói anh_chàng còn nhấn_mạnh số tiền bao_nhiêu quan_trọng quan_trọng tình bạn hai hạnh_phúc bạn thân số tiền nó nói lên tất_cả nhưng mà đây cái tình_cảm mà dành 2 đứa đầu trải qua bao thăng_trầm gây_lộn tùm_lum hết mà ngày hôm_nay ngày vui nói_chung lúc_nào đốc_thúc nó cưới thì cưới ngày hôm_nay thành sự_thật chúc_mừng 2 em chúc 2 em hạnh_phúc anh_chàng chia_sẻ</t>
-  </si>
-  <si>
-    <t>tháp cắt áp gần 60 tuổi trung_tâm sài_gòn đình_văn tháp_bêtông cao gần 50 m hình_dáng như tên_lửa giúp giảm áp_lực ống nước đảm_bảo dòng_chảy 70 khoảng 7 triệu dân thành_phố</t>
-  </si>
-  <si>
-    <t>khu_vực vcs có_thể sở_hữu thêm suất dự chung_kết thế_giới 2023 gamek vn nếu điều thực_sự diễn thì sẽ tin cực_kỳ vui_mừng đối_với khu_vực vcs chúng_ta</t>
-  </si>
-  <si>
-    <t>bà đào hồng_lan làm bộ_trưởng y_tế sơn_hà tỷ_lệ tán_thành 87 15 quốc_hội thông_qua nghị_quyết phê_chuẩn bổ_nhiệm bà đào hồng_lan bí_thư ban cán_sự đảng quyền bộ_trưởng y_tế giữ chức bộ_trưởng y_tế</t>
-  </si>
-  <si>
-    <t>phát_hiện bằng_chứng thấy người_ngoài hành_tinh có_thể sống xung_quanh sao thiên_vương bảo_tuấn tienphong vn khoa_học vừa tìm manh_mối việc tìm sự sống ngoài hành_tinh cụ_thể nó nằm vệ_tinh băng_giá xung_quanh sao thiên_vương</t>
-  </si>
-  <si>
-    <t>ca_sỹ tuấn_hưng ubnd quận hoàn_kiếm cấp phép biểu_diễn ban_công theanh28 hai tuần phạt 12 5 triệu đồng do tự_ý tổ_chức biểu_diễn phép ban_công thì tối_ngày 23 9 đại_diện ca_sĩ tuấn_hưng hay nam ca_sĩ ubnd quận hoàn_kiếm hà_nội phép tiếp_tục tổ_chức show góc ban_công dự_kiến tuấn_hưng hát ban_công trên phố hàng_khay tối 24 9</t>
-  </si>
-  <si>
-    <t>tôi mua cốc trà sữa 50k còn phải đắn_đo suy_nghĩ theanh28 tài_sản tỷ_phú mark_zuckerberg tiếp_tục bốc_hơi 11 tỷ usd meta công_bố báo_cáo kết_quả kinh_doanh quý iii đầy thất_vọng khoản lỗ khiến tổng_tài_sản chủ facebook sụt hơn 100 tỷ usd chỉ 13 tháng qua mức cao 142 tỷ usd tháng 9 2021 tài_sản tỷ_phú zuckerberg hiện chỉ còn 38 tỷ usd theo chỉ_số tỷ_phú bloomberg</t>
-  </si>
-  <si>
-    <t>bộ_trưởng nội_vụ kéo_dài thời_hiệu kỷ_luật hành_chính cán_bộ cần_thiết viết_tuân theo bộ_trưởng phạm_thị thanh_trà thời_hiệu kỷ_luật hành_chính cán_bộ khiển_trách tăng 2 lên 5 cảnh_cáo 5 lên 10 phù_hợp</t>
-  </si>
-  <si>
-    <t>bạo_lực gia_đình có_thể phải lao_động công_ích viết_tuân hành_vi bạo_lực gia_đình lựa_chọn hình_phạt lao_động công_ích như chăm_sóc cây_xanh khu công_cộng hoặc sửa_chữa làm sạch đường làng ngõ xóm</t>
-  </si>
-  <si>
-    <t>nên chia hai mức khởi_điểm đấu_giá_biển số ôtô sơn_hà căn_cứ chia hai mức khởi_điểm đấu_giá_biển số 20 40 triệu đồng chưa vững_chắc thể_hiện sự phân_biệt đối_xử theo một_số chuyên_gia</t>
-  </si>
-  <si>
-    <t>nữ_công_nhân lên làm sếp lê_tuyết bắt_đầu vị_trí công_nhân trực_tiếp sản_xuất nhờ nỗ_lực học_hỏi ngại khó lên sếp quản_lý cả nghìn lao_động</t>
-  </si>
-  <si>
-    <t>du_thuyền nổi hồ tây sẽ tháo_dỡ việt_an ubnd quận tây_hồ sẽ tháo_dỡ du_thuyền nổi bỏ đang neo đậu trên mặt hồ tây trả cảnh_quan mặt hồ</t>
-  </si>
-  <si>
-    <t>học_sinh tiểu_học bắc_giang qua_đời vì ghế đá đổ theanh28 nạn_nhân xác_định em ntđ sinh 2015 học_sinh lớp 2a trường tiểu_học liên_chung huyện tân_yên theo camera an_ninh ghi chiều 5 10 lúc chơi_đùa cùng bạn ntđ cùng bạn vịn ghế đá khiến ghế đá đổ ập xuống trúng vụ_việc xảy nhà_trường đưa cháu ntđ cấp_cứu nhưng do bị_thương nặng học_sinh đ t ử v ong đó</t>
-  </si>
-  <si>
-    <t>công_an ra_quân thì làm cái mẹ gì đc bây_giờ vozer chào chúng m phân_vân quá đưa lên đây ae ý_kiến công_an giờ xin ra_quân lia_lịa mà_t phân_vân vl thì bằng_cấp như bọn t thì làm clg đc trình_độ thạc_sĩ nhưng chuyên_ngành tội_phạm_học nghĩ mãi mà ra_quân méo biết làm nghề_ngỗng gì đây</t>
-  </si>
-  <si>
-    <t>máy_bay boeing gặp sự_cố rơi bánh cất_cánh theanh28 ngày 11 10 thành_phố taranto miền nam_italy chiếc máy_bay boeing 747 400 dreamlifter vừa rời khỏi đường_băng chiếc bánh_xe bộ_phận hạ_cánh vă ng ngoài hình_ảnh hiện_trường thấy khói bốc lên bánh_xe bộ_phận hạ_cánh chính chiếc bánh_xe tách khỏi máy_bay rơ i xuống mặt_đất chiếc bánh_xe đó tìm thấy trang_trại nằm ngoài khu_vực sân_bay</t>
-  </si>
-  <si>
-    <t>lương_thùy_linh sinh_viên tồ chân dài đắt show tân_cao quang_khang mẹ_lương_thùy_linh tức_giận đổi phong_cách giản_dị sang mặc váy trễ vai khoét ngực đăng_quang hoa_hậu</t>
-  </si>
-  <si>
-    <t>bảo_ngọc tôi trầy da tróc vảy mới đoạt hoa_hậu tân_cao ngọc_thịnh bảo ngọc nói xứng_đáng đăng_quang hoa_hậu liên lục_địa nhờ nỗ_lực liên_tục bận_tâm lời chê dư_luận</t>
-  </si>
-  <si>
-    <t>ba lý_do quận huyện tp hcm chậm chi tiền hỗ_trợ nhà_trọ lê_tuyết hồ_sơ doanh_nghiệp nộp quận tắc chờ xác_nhận đủ ba tháng cán_bộ sợ sai kỷ_luật nguyên_nhân khiến gói hỗ_trợ nhà_trọ tp hcm chậm_trễ</t>
-  </si>
-  <si>
-    <t>đất tp hcm bồi_thường tối_đa gấp 15 lần giá nhà_nước thái_anh hệ_số điều_chỉnh giá đất thành_phố lập phương_án bồi_thường 2022 tối_đa gấp 15 lần so giá nhà_nước còn hệ_số giá đất nông_nghiệp gấp 35 lần</t>
-  </si>
-  <si>
-    <t>đt nga tham_dự euro 2024 theanh28 fifa loại lượt trận tranh vé dự world_cup 2022 mới_đây đt nga tiếp_tục lãnh_đạo uefa cấm tham_dự vòng_loại euro 2024 đồng_nghĩa việc họ sẽ không_thể tham_dự giải_đấu lớn nhất châu âu nga đội duy_nhất uefa cấm dự euro 2024 đồng_minh nga belarus chịu lệnh trừng_phạt như_vậy sẽ tổng_cộng 53 đội_tuyển đá vòng_loại tranh 23 vé dự vòng chung_kết đội chủ đức</t>
-  </si>
-  <si>
-    <t>diệu_nhi hát nhảy đám_cưới tân_cao diễn_viên diệu_nhi cùng chồng tú hát nhảy khuya cùng hội bạn tiệc cưới tối 10 10</t>
-  </si>
-  <si>
-    <t>chủ_tịch tp đà_nẵng khiển_trách viết_tuân lê_trung_chinh phó_bí_thư thành_ủy bí_thư ban cán_sự đảng chủ_tịch ubnd tp đà_nẵng ủy_ban kiểm_tra trung_ương khiển_trách</t>
-  </si>
-  <si>
-    <t>karim_benzema trở_thành chủ_nhân danh_hiệu quả bóng vàng 2022 theanh28 cống_hiến thầm_lặng thì cuối_cùng karim_benzema hái quả ngọt danh_hiệu qbv 2022 hoàn_toàn xứng_đáng mà hề tranh_cãi nào cư_dân mạng điều đó khiến qbv vẫn chưa ai sinh 9x xướng tên mặc_dù 9x u30 hết cả rồi thế mới thấy cầu_thủ 8x thi_đấu sức_bền đáng kinh_khủng</t>
-  </si>
-  <si>
-    <t>yêu hiểu chuyện dễ bảo bao_giờ giận_dỗi chỉ có_thể đàn_ông theanh28_entertainment câu_chuyện tình_cảm éo_le chàng trai họ ô 20 tuổi quảng_đông trung_quốc mới_đây khiến cư_dân mạng nước dậy sóng cụ_thể chàng trai vốn mối tình say_đắm người_yêu ảo trên mạng hai làm_quen qua mạng hơn 2 trước thời_gian thường_xuyên trò_chuyện nhau thì tiến tới hẹn_hò cả hai thậm_chí còn cùng thừa_nhận đối_phương mối tình đầu nhau trong_suốt thời_gian hẹn_hò chàng trai_trẻ hết_lòng yêu_thương chiều_chuộng mua món quà tặng người_yêu bé_bỏng đổ gần đây chàng trai chủ_động làm thêm mỗi tháng kiếm 2000 tệ khoảng 7 triệu thì đều gửi người_yêu nửa tiêu vặt đáp trả món quà chàng trai bạn gái luôn vui_vẻ đón_nhận nói lời đường_mật mối quan_hệ cả hai cứ êm_đềm như_vậy chàng trai cảm_thấy bản_thân may_mắn vì bạn gái xinh_xắn dễ_thương vậy còn rất hiểu chuyện hề giận_dỗi vô_cớ gì chàng trai điều khiến rất lấy làm tự_hào mà đem khoe bạn_bè nhưng suốt 2 hẹn_hò chưa lần gặp người_yêu trực_tiếp vì bạn gái luôn từ_chối lý_do khác nhau lý_do bạn gái đem nhất_là phụ_huynh quản rất nghiêm muốn con yêu sớm do đó mới ngăn_cản bạn trai tới gặp nghe bạn gái từ_chối lần chàng trai_trẻ vì buồn_phiền lo_lắng nên đem câu_chuyện mình xin tư_vấn bạn ngờ ngay đó bạn phát_hiện điểm bất_thường bạn gái kể trên nguyên_nhân bạn nhìn ảnh bạn gái phát_hiện số tấm ảnh mái_tóc lệch hẳn xem thêm ảnh so_sánh thật kỹ bạn đưa kết_luận bạn gái kia đội tóc giả hơn_nữa đem hỏi bạn bên thiết_kế khẳng_định bức ảnh qua chỉnh_sửa lúc rằng chàng trai l ừa tuy_nhiên ô vẫn tin_tưởng hỏi trực_tiếp bạn gái mình ngờ ngay đọc tin nhắn chàng trai hỏi bộ tóc giả bạn gái nhanh tay chặn ngay chàng trai trả_lời bất_cứ câu nào vấn_đề kể trên mặc_dù rất bất_ngờ hành_động bạn gái nhưng vì chưa câu trả_lời thuyết_phục nên chàng trai vẫn kiên_trì dò_hỏi thông_tin bạn gái sau_cùng vì làm_phiền quá bạn gái ô cuối_cùng liên_lạc thú_nhận mọi chuyện hóa_ra bạn gái hẹn_hò cùng ô 2 nay vốn đàn_ông dùng phần_mềm thay_đổi giọng nói hiệu_ứng chỉnh_sửa gương_mặt lẫn vóc_dáng giống con_gái chàng trai_trẻ suy_sụp chia_sẻ rằng tôi từng vì bạn gái mà từ_chối gái khác ý mình ngờ ấy đàn_ông cư_dân mạng khuyên chàng trai tố_giác vụ_việc lừa_đảo thấy sự_việc ngày_một lớn thu_hút sự chú_ý sau_cùng bạn gái kia nhắn_tin tuyên_bố trả tiền mong ô làm lớn chuyện thêm</t>
-  </si>
-  <si>
-    <t>tân_binh 100 triệu antony huyền_thoại paul_scholes chê như đang diễn hề trên sân theanh28 trận thắng 3 0 mu trước sheriff europa_league rạng sáng nay phút 38 trận_đấu tân_binh 100 củ man_united antony thực_hiện kỹ_năng rê bóng bằng gầm giày 720 độ nhưng chuyền hỏng ngay đó hết hiệp thì antony thầy ten hag sân ngay luôn huyền_thoại mu paul_scholes tỏ hài_lòng tình_huống</t>
-  </si>
-  <si>
-    <t>dàn sao dự đám_cưới diệu_nhi anh_tú tân_cao trấn thành ngọc_trinh minh_hằng lan_ngọc hội_tụ phan_thiết chúc_mừng hôn_lễ đôi diễn_viên diệu_nhi tú</t>
-  </si>
-  <si>
-    <t>hàng nghìn tấn ngao chết sự_cố chìm tàu chở dầu phạm_chiểu hàng nghìn tấn ngao nuôi xã thái_đô huyện thái_thụy chết trắng đầm tàu hà_an 01 chở dầu chìm mưa giông</t>
-  </si>
-  <si>
-    <t>lâm_tâm như khoe vai trần thanh_thanh diễn_viên lâm_tâm như khen trẻ_trung diện đầm xanh trễ vai lễ trao giải kim chung tối 22 10</t>
-  </si>
-  <si>
-    <t>miss hong_kong 2022 tôi sợ lấy chồng  lâm_ngọc_vị hoa_hậu hong_kong 2022 nói sợ lấy chồng vì mang_tiếng gái hư</t>
-  </si>
-  <si>
-    <t>sói ngoài đời thực hội_chứng kì_dị bậc nhất mà y_học chưa thể lý_giải th người_ta thường nhắc sói như hiện_tượng khó lý_giải ai trở_thành chó_sói đêm trăng_tròn vậy_liệu sói tồn_tại ngoài đời thực câu trả_lời nhưng phɑ ̉ i con sói hiện_hình đêm trăng_tròn họ hoàn_toàn bình_thường nhưng mang căn_bệnh hiểm_ác mang tên sói hội cɦứng sói hay ma_sói dɑ ̣ ng bệnh_lý hiếm gặp nhất thế_giới xác_suất 000 000</t>
-  </si>
-  <si>
-    <t>mỹ_nhân thiên_long_bát_bộ cưới như_anh trương_mông đóng vương ngữ_yên thiên_long_bát_bộ 2013 tổ_chức hôn_lễ ca_sĩ hàn_kim eun_sung</t>
-  </si>
-  <si>
-    <t>trương_phi_thật lịch_sử nghệ_thuật gia tài  trương phi_thường miêu_tả cuốn tiểu_thuyết tam_quốc diễn_nghĩa hình_tượng đại_tướng quân hữu dũng vô mưu nhưng trương_phi_thật lịch_sử như thế_nào</t>
-  </si>
-  <si>
-    <t>chủ sea games 32 chốt môn thi_đấu đặt quy_định lạ theanh28 truyền_thông campuchia đưa tin quốc_gia chính_thức công_bố số_lượng môn thi_đấu kỳ đại_hội thể_thao đông_nam á lần thứ 32 2023 theo đó sea_games 32 49 môn 608 nội_dung tuy_nhiên số 49 môn thi môn nằm hệ_thống thi_đấu olympic thế mạnh như b ắn sú ng b ắn cung rowing canoeing tuy_nhiên rất môn thể_thao lạ đưa chương_trình thi_đấu như field and indoor_hockey floorball cờ_khmer hay đua moto nước điều rất đặc_biệt campuchia đưa quy_định rất lạ_lùng chỉ vđv chủ mới tham_gia 100 môn thể_thao đối_kháng hoặc võ_thuật còn nước khác phải cân_nhắc phân_chia lực_lượng thi_đấu tối_đa 70 nội_dung</t>
-  </si>
-  <si>
-    <t>bộ_trưởng công_thương miền nam thiếu xăng vì phụ_thuộc xăng_lậu anh_minh tình_trạng cây_xăng đóng_cửa chỉ tập_trung tp hcm tỉnh phía nam khu_vực trước đây phụ_thuộc nguồn xăng trôi_nổi theo bộ_trưởng nguyễn_hồng_diên</t>
-  </si>
-  <si>
-    <t>xuất_khẩu lao_động 40 giải bài_toán việc_làm hồng_chiêu mỗi lao_động xuất_khẩu gửi 3 4 tỷ usd giúp làng quê thay_đổi tuy_nhiên lĩnh_vực chưa chiến_lược tổng_thể phần_lớn tay_nghề thấp</t>
-  </si>
-  <si>
-    <t>hội bạn thân mừng đám_cưới liêu hà_trinh tân_cao thanh_duy khả_như ngô_kiến_huy jun phạm hội_ngộ đám_cưới diễn_viên mc liêu hà_trinh tối 10 10</t>
-  </si>
-  <si>
-    <t>sao mộc nước khả_năng tồn_tại sự sống kỳ_lạ thư báo nlđ phát_hiện mới nhất dựa trên dữ_liệu nasa thấy sao mộc đám mây nước khổng_lồ trữ_lượng oxy khá lớn khả_năng tồn_tại dạng sự sống đặc_biệt</t>
-  </si>
-  <si>
-    <t>ngành_nghề đưa lao_động sang châu phi hồng_chiêu xây_dựng thợ hàn thợ_điện đốc_công thuyền_viên nghề cục quản_lý lao_động ngoài nước cấp phép doanh_nghiệp đưa lao_động làm_việc châu phi</t>
-  </si>
-  <si>
-    <t>di_dời xóm nhà_thuyền 40 tồn_tại lê_tân 62 hộ dân hơn 150 nhân_khẩu sống xóm nhà_thuyền trên sông tam_bạc sẽ nhận 10 triệu đồng mỗi hộ di_dời nơi khác</t>
-  </si>
-  <si>
-    <t>áp_lực kiếm tiền lao_động xa xứ đức_hùng liên_tục làm thêm thành 12 tiếng mỗi ngày ăn cơm chung cụ già trại dưỡng_lão chị hồng muốn tích_cóp tiền tối_đa gửi quê nuôi bốn con ăn_học</t>
-  </si>
-  <si>
-    <t>bộ_trưởng nguyễn_văn hùng hy_vọng học_hỏi ngành công_nghiệp văn_hóa hàn hoàng_anh bộ_trưởng nguyễn_văn hùng mong_muốn hàn_quốc chia_sẻ kinh_nghiệm phát_triển ngành công_nghiệp văn_hóa gặp_gỡ đồng cấp seoul ngày 16 10</t>
-  </si>
-  <si>
-    <t>đêm hội trăng rằm trẻ hoàn_cảnh khó_khăn minh_huy đêm hội trăng rằm hoạt_động ý_nghĩa như múa_lân ca_nhạc tặng quà trẻ_em khó_khăn diễn thành_phố mới bình_dương</t>
-  </si>
-  <si>
-    <t>kỷ_luật phó_tt dùng facebook ủy_ban kiểm_tra trung_ương xem_xét kỷ_luật phó_tt vũ_đức_đam phó_tt phạm bình_minh bí_thư hà_nội đinh_tiến_dũng chẳng biết mừng hay chán</t>
-  </si>
-  <si>
-    <t>ngôi làng ma khiến cư_dân sợ_hãi bỏ nguyễn_thảo goldthorpe nam_yorkshire mệnh_danh ngôi làng ma thời hiện_đại ngôi làng theo thống_kê nơi tỷ_lệ tội_phạm cao kỷ_lục vương_quốc</t>
-  </si>
-  <si>
-    <t>chốt danh_sách bốn bộ_trưởng đăng_đàn trả_lời chất_vấn sơn_hà thủ_tướng bộ_trưởng nguyễn_thanh_nghị nguyễn_mạnh hùng phạm_thị thanh_trà tổng_thanh_tra chính_phủ đoàn hồng_phong sẽ đăng_đàn trả_lời chất_vấn</t>
-  </si>
-  <si>
-    <t>trường thcs lê quý đôn cấm thu tất_cả loại quỹ kể_cả quỹ phụ_huynh theanh28 mới_đây trên diễn_đàn mạng xã_hội lan_truyền_thông_tin trường thcs lê_quý_đôn tp thủ_đức tp hcm yêu_cầu phụ_huynh đóng quỹ lớp đóng quỹ khuyến_học đóng quỹ ban đại_diện cha_mẹ học_sinh đặc_biệt phụ_huynh muốn tài_trợ nhà_trường phải văn_bản đồng_ý phòng giáo_dục thông_tin khiến chú_ý bởi bối_cảnh đầu năm_học mới trường lớp đều kêu_gọi phụ_huynh đóng_góp quỹ lớp quỹ phụ_huynh thậm_chí nơi còn đưa khoản thu độc lạ gây phản_ứng trái chiều</t>
-  </si>
-  <si>
-    <t>tăng lương sớm sẽ tạo tiền_đề cải_cách tiền_lương hồng_chiêu chuyên_gia đồng_tình sớm điều_chỉnh lương cơ_sở đầu 2023 tạo tiền_đề khởi_động cải_cách tiền_lương vài lần lỡ hẹn</t>
-  </si>
-  <si>
-    <t>trồng na bở thu 5 triệu đồng mỗi cây lê_tân bốn nay dân trồng na bở xã liên_khê huyện thủy_nguyên đều_đặn thu mỗi 5 7 triệu đồng cây đời_sống dần ổn_định</t>
-  </si>
-  <si>
-    <t>17 tuổi lên chức bố nuôi con suốt 3 mới ngậm_ngùi phát_hiện đứa trẻ phɑ ̉ i con_ruột th em nhỏ bạn hồi đó đang học thì bất_ngờ mang thai đúng lỡ_dở cả cuộc_đời vì đó phɑ ̉ i nghỉ học rồi nuôi con dù sau_này nỗ_lực thi rồi học cɑ ́ c kiểu thì gián_đoạn hết mấy trời vừa mừng nhưng vừa tiếc bạn thực_sự phɑ ̉ i chứng_kiến trường_hợp như_vậy mới thấy vấn_đề giáo_dục giới_tính vấn_đề bố_mẹ nên e_ngại mà phải tìm cách truyền_đạt cɦo con mình hiểu càng sớm càng tốt cả ạ mới_đây câu_chuyện nam sinh 17 tuổi lên chức bố đó 3 mới phát_hiện con_trai mình đaƞg nuôi_nấng thực_tế phɑ ̉ i con mình nhận sự quan_tâm đông_đảo cư_dân mạng</t>
-  </si>
-  <si>
-    <t>12 du_khách cắm trại trái_phép trên đảo tiền_tiêu lê_tân 12 du_khách cơ_quan_chức_năng huyện đảo tô phát_hiện cắm trại trái_phép trên hòn_bồ cát đảo tiền_tiêu vùng_biển đông_bắc</t>
-  </si>
-  <si>
-    <t>hoài_lâm trở_lại hát hoàng_dung hoài_lâm dự_kiến hát đêm nhạc hoa nở màu đà_lạt ngày 15 10 thời_gian dài im tiếng</t>
-  </si>
-  <si>
-    <t>cách nhà_máy xoay_xở giữ lao_động chờ đơn hàng lê_tuyết lúc thiếu đơn hàng nhà_máy long_rich tp thủ_đức công_nhân nghỉ hưởng lương tổ_chức ăn trưa lao_động công_ty giữ mối liên_lạc</t>
-  </si>
-  <si>
-    <t>ba ưu_tiên tân bộ_trưởng nguyễn_văn_thắng viết_tuân bộ_trưởng nguyễn_văn_thắng nói quyết_tâm hoàn_thành đúng tiến_độ công_trình giao_thông trọng_điểm quốc_gia thu_hút vốn xã_hội_hóa thúc_đẩy giải_ngân vốn đầu_tư công</t>
-  </si>
-  <si>
-    <t>tổ_chức đám_cưới tập_thể 15 đôi bạn trẻ  thành_đoàn hà_nội sẽ tổ_chức đám_cưới tập_thể theo nếp sống mới 15 đôi bạn trẻ tối 15 10 vườn hoa đền bà kiệu quận hoàn_kiếm</t>
-  </si>
-  <si>
-    <t>nguyễn văn_thể rời ghế bộ_trưởng giao_thông vận_tải viết_tuân quốc_hội thông_qua nghị_quyết phê_chuẩn miễn_nhiệm bộ_trưởng giao_thông vận_tải nguyễn văn_thể_theo nguyện_vọng cá_nhân sáng 21 10</t>
-  </si>
-  <si>
-    <t>đỗ_mỹ_linh ngồi xe siêu sang chồng tân_cao hoa_hậu đỗ_mỹ_linh doanh_nhân đỗ vinh_quang rước dâu bằng xe rolls royce_phantom chiều 23 10</t>
-  </si>
-  <si>
-    <t>bảo_tàng tượng sáp bỏ_hoang gia nghĩa bạn muốn trải nghiệm theanh28 đây có_lẽ tàn_tích cuối_cùng còn sót bảo_tàng tượng sáp gia_nghĩa chắc rất dân địa_phương biết nơi tuy gọi bảo_tàng tượng sáng nhưng đưa tay sờ thử thì thực_chất đồ nhựa bảo_tàng chia thành hai khu_vực khu triển_lãm con đường cổ khu trưng_bày câu_chuyện lịch_sử khuôn_viên_ngoại_trừ bảo_tàng tượng sáp còn một_vài thiết_bị trò_chơi cảnh_quan đơn_giản hình_như kiểm_tra định_kỳ khuyến_khích chơi kinh_nghiệm trốn bảo_vệ chơi</t>
-  </si>
-  <si>
-    <t>trái_đất trung_tâm vũ_trụ vozer xa_xưa tôn_giáo nói rằng trái_đất trung_tâm vũ_trụ hiện_tại có_thể khẳng_định trái_đất trung_tâm vũ_trụ khả_kiến bên ngoài đó sự vô_tận vậy nếu vô_tận mọi phía thì thực_sự trái_đất vẫn trung_tâm cách nào phủ_định điều đó đức_phật bảo thế_giới ta đang sống chỉ như bọt_biển giữa muôn_trùng thế_giới rằng vũ_trụ vô_thủy vô chung thế_thì đâu mà chả_là trung_tâm như_vậy tôn_giáo chẳng phải góc nhìn chân_thực nhất trước khoa_học ngàn rồi còn gì khoa_học vẫn mãi đang nghiên_cứu bề nổi thế_giới chưa khỏi cái bọt_biển đại_dương như đức phật mô_tả cả thế_giới diêm phù_đàn dù ai siêu_trí_tuệ nhân_tạo nhưng công_nghệ đạt giới_hạn nó tâm_thức con_người bắt_đầu chỗ_đứng thế_giới 2000 trước trở_lại tầm cao mới phải fen v</t>
-  </si>
-  <si>
-    <t>đoàn_thiên_ân fan chào_đón miss_grand tân_cao hoa_hậu đoàn_thiên_ân tất_bật hoạt_động giao_lưu_truyền_thông thi miss grand international 2022 fan chào_đón indonesia</t>
-  </si>
-  <si>
-    <t>hình_ảnh sinh_vật lạ giống sói khiến dân mạng xôn_xao tranh_cãi theo dân_trí sự xuất_hiện sinh_vật lạ hình_ảnh do camera giám_sát ghi khiến xem bối_rối gây tranh_cãi cộng_đồng mạng</t>
-  </si>
-  <si>
-    <t>phương anh_đào tôi thiết yêu_đương tuổi 30 mai_nhật phương anh_đào nói chia_tay mối tình tập_trung sự_nghiệp chưa vội kết_hôn tuổi 30</t>
-  </si>
-  <si>
-    <t>hai nam thanh_niên may xòe đường va_chạm chậu hoa khiến thế_giới bên kia theanh28 sự_việc thương_tâm xảy lúc 12h trưa nay 26 10 xã sơn_cẩm tp thái_nguyên camera dân ghi hai nam thanh_niên còn rất trẻ tuổi_đầu mũ lái_xe tốc_độ cao nhưng rõ vì lý_do gì mà xòe đường cháu ngồi lúc va_chạm chậu hoa đặt ngoài cửa_nhà niệm luôn tại_chỗ</t>
-  </si>
-  <si>
-    <t>sinh_viên nhất hát bài 2 3 con mực ví yếu sinh_lực cái nghèo ập quá nhanh theanh28_entertainment sinh_viên nhất lên hà_nội chỉ tháng đầu_tiên tiêu gần 20 triệu bạn l sinh_viên học_viện ngoại_giao thái_bình lên hà_nội nhập_học bố_mẹ đưa 30 triệu đóng học_phí chuẩn_bị chỗ hiểu kiểu gì sinh_viên nhất đóng học_phí 10 triệu đó tiêu luôn 10tr còn chỉ 17 ngày bắt_đầu nhập_học ngày đầu_tiên l tới trung_tâm thương_mại lớn hà_nội tiêu phát 7tr chiếc hóa_đơn dài vô_cùng tận chưa dừng đó l sốc nhìn tổng_số tiền tiêu việc săn sale online mình lên gần 10tr đó 6tr tiền mỹ_phẩm skincare cuộc_sống bỗng_nhiên thấy nặng_nề dữ cái nghèo bỗng đè lên vai bé tên l l mua đồ sale giảm_giá rất nhưng vẫn bay tận 10 triệu tới nỗi mà bill trừ tiền lazada giá_trị_hóa đơn 2010k mà đọc lời chúc trên bill lazada la_roche posay chúc bạn nữ ngày 20 10 vui_vẻ cả tiền lẫn tình tiếp_tục chốt đơn ầm_ầm nhé ko biết nên vui hay nên buồn chí_phèo bệnh còn thị_nở chăm_sóc nấu cháo hành l giờ_đây biết kêu ai chăm_chỉ tự nấu mì tôm hành mà thôi</t>
-  </si>
-  <si>
-    <t>fan chi triệu usd mừng sinh_nhật triệu_lệ_dĩnh như_anh fan diễn_viên trung_quốc_triệu_lệ dĩnh chi hàng triệu usd quảng_cáo dịp 35 tuổi</t>
-  </si>
-  <si>
-    <t>thiếu lưu_trú công_nhân lê_tuyết công_nhân thuê thiếu_hụt nhưng doanh_nghiệp muốn đầu_tư xây_dựng khó đủ đường nghịch_lý tồn_tại qua</t>
-  </si>
-  <si>
-    <t>nuôi cá_tầm núi_rừng khe_san lê_tân đầu_tư hàng trăm triệu đồng đưa cá_tầm sapa núi_rừng khe_san huyện tiên yên nuôi_dưỡng trần_văn mạ thu cả tỷ đồng hơn</t>
-  </si>
-  <si>
-    <t>bộ giáo_dục đang xem_thường tính_mạng nhân_dân việt_tân_page facebook nghề dược nghề liên_quan trực_tiếp tới tính m ạng khác vì_thế phải tự_nhiên mà quy_định rất nghiêm_ngặt đối_với nghề dược_sĩ vậy_mà xứ thiên_đường xhcn chẳng cần học chỉ cần đóng tiền bằng cử_nhân dược rồi thử_hỏi rằng trường thì cử_nhân sẽ bán thuốc kê thuốc bao_nhiêu dân ốm_đau bệnh_tật nếu xảy ch ết thì chỉ dân thiệt thôi chứ lãnh_đạo ký duyệt thiệt gì đâu</t>
-  </si>
-  <si>
-    <t>5 nguyễn văn_thể làm bộ_trưởng giao_thông vận_tải đoàn_loan 5 cương_vị bộ_trưởng giao_thông vận_tải nguyễn văn_thể góp_phần định_hình tuyến cao_tốc bắc_nam kéo_giảm tai_nạn giao_thông</t>
-  </si>
-  <si>
-    <t>nguyên giám_đốc sở y_tế quảng_ngãi kỷ_luật phạm_linh nguyễn_xuân_mến nguyên giám_đốc sở y_tế quảng_ngãi khiển_trách do thiếu chỉ_đạo trung_tâm kiểm_soát bệnh_tật tỉnh mượn kit test việt_á</t>
-  </si>
-  <si>
-    <t>ủy_ban kinh_tế cần cân_nhắc việc thu_hồi đất xây thương_mại viết_tuân thẩm_tra dự_án luật đất_đai sửa_đổi ủy_ban kinh_tế đề_nghị cân_nhắc việc nhà_nước thu_hồi đất dự_án thương_mại tạo quỹ đất đấu_giá hoặc đấu_thầu</t>
-  </si>
-  <si>
-    <t>angelababy ám_ảnh hôn_nhân đổ_vỡ như_anh diễn_viên trung_quốc angelababy nói e_ngại yêu_đương vì sợ cảnh cãi nhau chia_tay</t>
-  </si>
-  <si>
-    <t>11 nghệ_sĩ tổ_chức đêm nhạc kỷ_niệm_tình anh_em tân_cao touliver binz soobin rhymastic justatee làm live concert kỷ_niệm 11 gắn_bó khẳng_định tình anh_em</t>
-  </si>
-  <si>
-    <t>bè cá quý_hiếm trên vịnh lan_hạ lê_tân bè cá rộng khoảng 3 500 m2 nằm trên vịnh lan_hạ nơi bảo_tồn cung_cấp giống 16 loài cá quý_hiếm giá_trị kinh_tế cao dân</t>
-  </si>
-  <si>
-    <t>thói_quen theanh28_entertainment l 28 tuổi nhân_viên văn_phòng thường mang cả việc công_ty làm thêm tới 10 giờ đêm rồi mới bắt_đầu ăn tối do đó ít nấu_ăn mà đa_số gọi đồ ăn bên ngoài ngoài ăn tối muộn l rất hay thức đêm thường ngủ 2 giờ sáng chứ ít ngủ sớm hai tháng trước đang tắm thì l sờ thấy khối_u bên ngực trái liền ra_hiệu thuốc mua một_số loại thuốc chống viêm uống kết_quả cục u không_những chẳng biến mất mà còn tiếp_tục phát_triển to thậm_chí còn rất đau chạm đó phải tới bệnh_viện kiểm_tra đây chẩn_đoán mắc bệnh ung_thư vú giai_đoạn đầu bác_sĩ biết chế_độ ăn_uống lành_mạnh thức khuya lười vận_động thói_quen sinh_hoạt chưa khoa_học yếu_tố nguy_cơ cao dẫn bệnh ung_thư v ú</t>
-  </si>
-  <si>
-    <t>tp hcm đảm_bảo_an_ninh cấp_nước hai quận trung_tâm hoàng_anh cấp_nước bến_thành công_an quận 3 vừa ký_kết quy_chế phối_hợp đảm_bảo_an_ninh trật_tự lĩnh_vực cấp_nước trên địa_bàn chiều 25 10</t>
-  </si>
-  <si>
-    <t>nghệ_sĩ hoài_phương sáng_tác nhạc tặng bà_xã việt_hương thanh_hy nghệ_sĩ hoài_phương sáng_tác ca_khúc queen of roses tặng sinh_nhật việt_hương kỷ_niệm 4 thành_lập hương_thị ra_mắt sản_phẩm mới</t>
-  </si>
-  <si>
-    <t>cứ liên_quan đất_đai anh_em mất đoàn_kết theanh28 vụ_việc xảy xã trung_hoà huyện yên_mỹ tỉnh hưng_yên do mâu_thuẫn chuyện đất_đai biết gia_đình bà đ 61 tuổi con_trai 3 con_gái bà đ mảnh đất ngoài mặt_đường 3 mảnh đất ngõ đó suất đất ngoài mặt_đường bà đ chia con_trai còn 3 con_gái mỗi suất đất ngõ bên đồng_ý ký biên_bản phương_án trên tuy_nhiên 3 con_gái bà đ nhà_mẹ đẻ muốn đòi suất đất ngoài đường thế nhưng bà đ đồng_ý vì đất phân_chia rồi khoảng 9h30 sáng 30 10 3 con_gái mang can xăng khoảng 4 5 lít tới nhà_mẹ đẻ đổ sàn rồi phóng_hỏa lúc sự_việc xảy con_trai đang trên tầng nên bị_thương 2 3 con_gái b ỏn g nặng đang cấp_cứu bệnh_viện còn nhẹ tự sơ_cứu mẹ b ỏn g</t>
-  </si>
-  <si>
-    <t>ban cán_sự đảng bộ giáo_dục đào_tạo nhiệm_kỳ 2016 2021 đề_nghị kỷ_luật viết_tuân ủy_ban kiểm_tra trung_ương đề_nghị bộ chính_trị xem_xét kỷ_luật ban cán_sự đảng bộ giáo_dục đào_tạo nhiệm_kỳ 2016 2021</t>
-  </si>
-  <si>
-    <t>thị_trường lao_động dễ tổn_thương lê_tuyết nhân_công giá rẻ lợi_thế cạnh_tranh qua nhưng lao_động dễ mất việc lưới an_sinh chưa đủ sức chống_đỡ nếu thị_trường gặp sự_cố</t>
-  </si>
-  <si>
-    <t>hà_nội ghi_nhận 12 ca tử_vong liên_quan sốt_xuất_huyết  chiều 27 10 khổng minh_tuấn phó_giám_đốc cdc hà_nội biết hà_nội ghi_nhận 12 ca tử_vong liên_quan sốt_xuất_huyết 12 bệnh_nhân địa_chỉ quận huyện như thanh_oai thanh_trì hà_đông phú_xuyên đan_phượng ba_đình long_biên hiện tất_cả quận huyện thị_xã 92 xã phường thị_trấn hà_nội đều ghi_nhận ca bệnh đặc_biệt bệnh_nhân tập_trung một_số quận huyện vùng_ven như đan_phượng hơn 950 ca mắc thanh_oai thường_tín thanh_trì</t>
-  </si>
-  <si>
-    <t>lê_hiếu đón con_trai đầu_lòng hoàng_dung ca_sĩ lê_hiếu đón con_trai đầu_lòng nặng 3 4 kg bệnh_viện phụ_sản quốc_tế tp hcm tối 26 10</t>
-  </si>
-  <si>
-    <t>bộ_trưởng đào hồng_lan mong chính_sách đảm_bảo nguồn_lực ngành y lâu_dài viết_tuân bộ_trưởng y_tế biết sẽ đề_xuất chính_sách tiền_lương phụ_cấp phù_hợp nhân_viên y_tế mục_tiêu đảm_bảo nguồn nhân_lực phục_vụ lâu_dài</t>
-  </si>
-  <si>
-    <t>chủ_tịch tỉnh hải_dương khiển_trách viết_tuân thủ_tướng khiển_trách triệu_thế_hùng chủ_tịch ubnd tỉnh hải_dương nhiệm_kỳ 2016 2021 do vi_phạm khuyết_điểm công_tác ban bí_thư kỷ_luật đảng</t>
-  </si>
-  <si>
-    <t>barca mùa thứ 2 liên_tiếp uống c2 theanh28 mặc_dù tậu lewan đỗ chính bayern thế nhưng barca vẫn khá_khẩm hơn đối_đầu trước đội bóng_nước đức tiếp_tục thua tan_nát 0 3 trên sân nou camp rạng sáng nay trận thua giúp barca vị_trí thứ 3 vẫn vượt qua vòng bảng lọt vòng knock out europa_league chứ phải uefa champions_league</t>
-  </si>
-  <si>
-    <t>xả súng kinh_hoàng phú_quốc khiến 2 qua khỏi bị_thương theanh28 vụ thanh_toán nhau bằng hoa cải vừa xảy bến tràm xã cửa_dương phú_quốc nguồn tin biết ít_nhất 2 nằm_xuống 2 bị_thương nặng biết đây vụ thanh_toán nhau giữa 2 băng_nhóm địa_phương dân nhập_cư</t>
-  </si>
-  <si>
-    <t>nông_dân vùng_cao đổi_đời nhờ mô_hình nuôi_trồng kết_hợp thế_đan ít nông_dân địa_phương tăng thu_nhập ổn_định cuộc_sống nhờ mạnh_dạn thay_đổi cây_trồng vật_nuôi giá_trị kinh_tế cao</t>
-  </si>
-  <si>
-    <t>thu_hẹp phần việc nhà_nước giảm tăng lương lê_tuyết ngân_sách có_hạn nhà_nước nên rút_lui lĩnh_vực thị_trường làm tốt giúp tinh_giản bộ_máy tăng lương nhóm làm công_việc còn theo chuyên_gia nguyễn quang_đồng</t>
-  </si>
-  <si>
-    <t>sóng_ngầm nghỉ_việc nhà_nước thu_hằng 6 gắn_bó khu_vực công trần_công hoàng 32 tuổi quyết_định nghỉ_việc dù đang lãnh_đạo phòng cơ_hội thăng_tiến bởi thu_nhập tương_xứng</t>
-  </si>
-  <si>
-    <t>trương bá chi_thu 14 triệu usd livestream như_anh diễn_viên hong_kong trương bá chi bán số hàng_hóa hơn 100 triệu nhân_dân_tệ hơn 13 9 triệu usd livestream</t>
-  </si>
-  <si>
-    <t>lãnh_đạo tài đảng bắt hết rồi việt_tân nhân_tài đảng bắt tù hết rồi còn mớ chuẩn_bị lò còn đâu nữa mà kiếm đừng mị_dân nữa tuyên_giáo ơi</t>
-  </si>
-  <si>
-    <t>tuấn_hưng tôi thanh_lam diva duy_nhất hà_thu tuấn_hưng tự nhận giọng hát mức trung_bình khá ngưỡng_mộ phong_cách âm_nhạc thanh_lam</t>
-  </si>
-  <si>
-    <t>lúng_túng xử_lý hơn 3 200 tỷ đồng nợ xấu bhxh lê_tuyết hơn 3 200 tỷ đồng nợ bảo_hiểm xã_hội bhxh kéo_dài ảnh_hưởng hơn 206 000 lao_động nhưng cơ_quan quản_lý kêu khó thu_hồi</t>
-  </si>
-  <si>
-    <t>helen thanh_đào phủ_nhận lừa_đảo như_anh diễn_viên helen thanh_đào phủ_nhận cùng bạn trai hoàng_cảnh_dụ lừa_đảo chiếm_đoạt tài_sản</t>
-  </si>
-  <si>
-    <t>bình_an từ_bỏ đam_mê tốc_độ vì phương_nga hà_thu diễn_viên bình_an lái_xe motor lên sân_khấu tiệc cưới biết sẽ từ_bỏ đam_mê vì phương_nga</t>
-  </si>
-  <si>
-    <t>bác_sĩ nguyễn tri_thức bệnh_viện loay_hoay biết mua_sắm thế_nào đúng viết_tuân tháng qua nhân_viên y_tế bệnh_viện vẫn loay_hoay chuyện mua_sắm đấu_thầu làm giảm thời_gian tập_trung chuyên_môn theo bác_sĩ nguyễn tri_thức</t>
-  </si>
-  <si>
-    <t>rich kid 2k1 chia_sẻ cách thao_túng tâm_lý bằng 3 bí kíp càng tiêu càng lời theanh28_entertainment bạn bảo mình rich kid mình chịu mình nhận thôi chả chối mỗi tháng tiền_tiêu vặt mình bằng thu_nhập cả gia_đình buổi shopping sương sương vài chục triệu chuyện bình_thường nhưng tụi mình giàu chứ ng nhỏ giáo_dục cách chi_tiêu tích_luỹ đầu_tư rồi nên mỗi đồng chi_tiêu đều tính_toán phải vung tay tiêu xàu thiếu suy_nghĩ như cách mình mua_sắm chỉ vì nhu_cầu đam_mê mà mục_đích khác nhau thường sẽ mỗi món đồ đặc tiền mình xài nhất hàng công_nghệ điện_tử mỹ_phẩm mình sẽ dùng quay video unbox trải nghiệm đánh_giá up lên nền_tảng mạng xã_hội tiktok youtube reels dần xây kênh nhận affiliate trở_thành vip thương_hiệu thì bạn sẽ luôn ưu_tiên mua bộ sưu_tập mới nhất giá ưu_đãi thường_xuyên nhận hàng dùng thử mỗi dịp sinh_nhật lễ tết đều nhận quà hay chương_trình ưu_đãi riêng tận_dụng chương_trình khuyến_mãi triệt_để thẻ tín_dụng bạn hay tỏ thông_minh kiểu nói thẻ tín_dụng nhưng thật chất đó phát_minh vĩ_đại tài_chính lợi chính sử_dụng quan_trọng bạn phải biết làm_chủ bản_thân chi_tiêu thông_minh thì lợi phải ngân_hàng mà chủ thẻ như lúc mua con iphone 14 mới tính mua gần 30 củ nhưng cơ_hội trúng hẳn voucher nghỉ_dưỡng trị_giá 10 triệu quá hời mà xài xong bạn hơn cả tháng trả tiền lúc đó tiền đấy bạn có_thể xoay t3 con chứng ngon_lành thêm điều bạn sở_hữu thẻ tín_dụng đều biết dùng thẻ tín_dụng ăn shopping thì luôn nhận thêm ưu_đãi giảm_giá hoàn tiền quà tặng hời hơn rất như nam a_bank đang khuyến_mãi kỷ_niệm 30 hoàn tiền chi_tiêu còn tặng voucher nghỉ_dưỡng đà_lạt nha_trang toàn khách_sạn resort xịn nếu mà sợ làm_chủ bản_thân sử_dụng thẻ tín_dụng thì bản_thân cứ mức phép bản_thân chi_tiêu trước bạn sẽ kiểm_soát tâm_lý muốn xài tiền mình kiểu gì bạn nói rich kid nói đạo_lý xài tiền bố_mẹ thôi chả cãi đâu bạn nói đúng quá cơ_mà nếu bạn giàu thì chắc bạn chả nói thế đâu nhờ rich kid 2k1 chia_sẻ</t>
-  </si>
-  <si>
-    <t>rau chợ dán mác vietgap chỉ tp hcm việt_an theo cục_trưởng quản_lý chất_lượng nông_lâm_thủy_sản hiện_tượng nhập rau chợ rồi dán mác vietgap đưa siêu_thị chỉ xảy tp hcm</t>
-  </si>
-  <si>
-    <t>tặng vàng công_nhân lễ cưới tập_thể  mỗi vợ_chồng công_nhân nhận chỉ vàng 9999 liên_đoàn lao_động thái_nguyên đám_cưới tập_thể tối 20 10</t>
-  </si>
-  <si>
-    <t>chỉ nó trung_quốc mới đủ sức cạnh_tranh hoa_kỳ việt_tân tướng lê_văn cương bắt_đầu xuất chiêu cuồng tập theo định_hướng tuyên_giáo lót đường chuyến nguyễn phú_trọng</t>
-  </si>
-  <si>
-    <t>đàm_vĩnh_hưng viết nhật_ký chăm con hoàng_dung đàm_vĩnh_hưng làm sổ nhật_ký viết_tay lưu cảm_xúc hình_ảnh con_trai ruột polo huỳnh chào_đời lớn lên từng ngày</t>
-  </si>
-  <si>
-    <t>haaland gặp van dijk tắt điện man xanh thất_bại đầu_tiên mùa giải theanh28 cuộc đối_đầu giữa nunez haaland hồi kết ai lên_tiếng cái tên sáng nhất trận cầu_thủ mùa mo salah bằng bàn thắng duy_nhất giúp liverpool chiến_thắng 0 trước man city_niềm vui cđv the_kop niềm vui fan arsenal kết_quả giúp pháo_thủ bỏ xa man xanh 4 điểm trên bxh</t>
-  </si>
-  <si>
-    <t>viên vịnh nghi fan tẩy_chay như_anh bộ_phận khán_giả tẩy_chay diễn_viên hong_kong_viên vịnh nghi chê giả_tạo thật lòng</t>
-  </si>
-  <si>
-    <t>chủ đầu_tư metro nhổn ga hà_nội phản_hồi dân lún nứt võ_hải tối 19 8 ban quản_lý đường_sắt đô_thị hà_nội mrb thừa_nhận một_số công_trình ảnh_hưởng bởi dự_án nhổn ga hà_nội nhưng hư_hại trước</t>
-  </si>
-  <si>
-    <t>chi pu xin_lỗi khán_giả hủy album tân_cao ca_sĩ chi pu xin_lỗi khán_giả vì một_số mv gây ồn_ào nội_dung thông_báo hủy kế_hoạch album đầu_tay</t>
-  </si>
-  <si>
-    <t>tháo ngòi_nổ giữa công_nhân giới chủ lê_tuyết mặt thuyết_phục công_nhân ngừng việc lưu_kim_hồng chủ_tịch công_đoàn công_ty nidec đề_nghị ban giám_đốc xem_lại mức tăng lương tránh đình_công</t>
-  </si>
-  <si>
-    <t>ý_kiến trái chiều đề_xuất giảm mức hưởng bhxh lần lê_tuyết theo cơ_quan quản_lý chỉ rút phần đóng lao_động sẽ hạn_chế nhận bảo_hiểm xã_hội lần song chuyên_gia rằng giải_quyết gốc_rễ mà còn gây bất_ổn</t>
-  </si>
-  <si>
-    <t>sẽ xử_lý nghiêm hành_vi đầu_cơ xăng dầu găm hàng đẩy giá bán theanh28 trước tình_trạng cửa_hàng bán_lẻ xăng dầu tạm ngưng hoạt_động gây bất_ổn ảnh_hưởng tiêu_dùng bộ_trưởng công_thương nguyễn_hồng_diên chỉ_đạo tổng_cục quản_lý thị_trường giám_sát kiểm_tra làm rõ nguyên_nhân kịp_thời phát_hiện kiên_quyết xử_lý nghiêm_khắc mọi hành_vi vi_phạm theo quy_định pháp_luật</t>
-  </si>
-  <si>
-    <t>quá ngưỡng_mộ thanh lam tuấn hưng quyết_định mở liveshow nữ diva tỏa sáng theanh28 mới_đây nam ca_sĩ tuấn_hưng tự nhận giọng hát mức trung_bình khá mà thần_tượng nhất chính diva thanh_lam mệnh_danh 4 diva nhạc_nhẹ bên cạnh hồng_nhung mỹ_linh trần_thu hà tri ân khán_giả ủng_hộ suốt thời_gian qua tuấn_hưng quyết_định mở liveshow chị tôi đặc_biệt kết_hợp cùng diva thanh_lam đêm nhạc hôm đó</t>
-  </si>
-  <si>
-    <t>britney spears nói từng mẹ đánh vì chơi khuya thanh_giang ca_sĩ britney spears chỉ_trích mẹ từng tát nặng_tay vì chơi 4h sáng mới</t>
-  </si>
-  <si>
-    <t>đoàn_thiên_ân tôi khóc vì tin mình trượt top 10 tân_cao indonesiangười đẹp đoàn_thiên_ân_khóc vì hụt_hẫng dừng bước top 20 rằng có_thể tiến xa hơn miss grand international 2022</t>
-  </si>
-  <si>
-    <t>mùa bẻ măng rừng vùng_cao tư_huynh mùa măng rộ dân vùng_cao mỹ_thạnh huyện thuận_nam lên rừng bẻ măng mang bán thu_nhập 350 000 400 000 đồng ngày</t>
-  </si>
-  <si>
-    <t>hợp_thức_hóa vướng_mắc tính vi_phạm sửa luật đất_đai viết_tuân chủ_tịch quốc_hội yêu_cầu khắc_phục bất_cập thực_tiễn hợp_thức_hóa vướng_mắc tính_chất vi_phạm xây_dựng luật đất_đai sửa_đổi</t>
-  </si>
-  <si>
-    <t>nữ_sinh lớp 12 đoạt hcv vô_địch u18 nữ nội_dung cờ tiêu_chuẩn theanh28 nguyễn_thiên_ngân lớp 12 trường thpt chu_văn_an thái_nguyên đoạt hcv vô_địch u18 nữ nội_dung cờ tiêu_chuẩn 90 giải vô_địch cờ_vua trẻ châu á 2022 cách đây 3 thiên_ngân từng 2 hcv vô_địch thế_giới u14 nữ nội_dung cờ nhanh cờ chớp</t>
-  </si>
-  <si>
-    <t>vì_sao đàn_ông thích một_mình vozer chắc_chắn nguyên_nhân khiến một_số đàn_ông thời nay dị_ứng hôn_nhân thậm_chí quá bi_quan nói lấy vợ chẳng khác gì tù bởi công_trình nghiên_cứu gần đây vẫn chỉ rằng xét trên phương_diện loài_người phương_thức sống nào tốt_đẹp hơn cuộc_sống lứa_đôi song bên cạnh đó vẫn lắm bậc cha_mẹ đứng ngồi yên vì con_trai đầu bốn vẫn chịu lấy vợ khiến làn_sóng độc_thân ngừng gia_tăng trên thế_giới</t>
-  </si>
-  <si>
-    <t>nghi phạm ra_tay bạn gái hải_dương qua cơn nguy_kịch theanh28 liên_quan tới vụ án_mạng tối hôm 10 10 tứ_kỳ hải_dương khiến gái qua khỏi ra_tay bạn gái cơ_sở spa nghi phạm tự ra_tay chính mình nhưng may_mắn bác_sĩ bệnh_viện đa_khoa tỉnh hải_dương cứu sống thành_công hiện qua cơn nguy_kịch biết nguyên_nhân vụ_việc do mâu_thuẫn tình_cảm</t>
-  </si>
-  <si>
-    <t>biển số vừa tài_sản cá_nhân vừa công_cụ quản_lý nhà_nước nên cần hạn_chế một_số quyền tài_sản tránh đầu_cơ phức_tạp xử_lý sơn_hà biển số vừa tài_sản cá_nhân vừa công_cụ quản_lý nhà_nước nên cần hạn_chế một_số quyền tài_sản tránh đầu_cơ phức_tạp xử_lý</t>
-  </si>
-  <si>
-    <t>cử_tri lo_lắng giá dịch_vụ tăng nhưng tiền_lương chưa tăng sơn_hà giá dịch_vụ khoản phí đều tăng tiền_lương cán_bộ công_chức viên_chức lao_động chưa tăng khiến cử_tri lo_lắng</t>
-  </si>
-  <si>
-    <t>tăng thanh_hà ngọc nữ bà mẹ ba con hoàng_dung tuổi 36 diễn_viên tăng_thanh hà_hiện kinh_doanh làm nội_trợ mẹ ba con hạn_chế tham_gia showbiz</t>
-  </si>
-  <si>
-    <t>kiến_nghị chi tiếp 100 tỷ đồng hỗ_trợ lao_động hồng_chiêu chính_phủ kiến_nghị thường_vụ quốc_hội phép chi tiếp hơn 100 tỷ đồng quỹ bảo_hiểm_thất_nghiệp hỗ_trợ 414 000 đủ điều_kiện hưởng 8 3 3 triệu đồng</t>
-  </si>
-  <si>
-    <t>bạn_đời con_gái thành_long phủ_nhận sống đầu đường xó chợ như_anh andi bạn_đời ngô_trác_lâm con_rơi tài_tử thành_long phủ_nhận hai sống đầu đường xó chợ</t>
-  </si>
-  <si>
-    <t>châu_tinh_trì tới nghinh_xuân vua hài hong_kong châu_tinh_trì tới tp hcm du_lịch thưởng_thức ẩm_thực</t>
-  </si>
-  <si>
-    <t>fifa nên loại iran trao vé dự world_cup ukraine duy phong vck fifa world_cup 2022 sẽ khai_mạc cuối tháng 11 nhưng lúc đang xuất_hiện làn_sóng phản_đối iran tham_dự giải_đấu nguyên_nhân xuất_phát chính_trị bởi iran quốc_gia ủng_hộ nga mạnh_mẽ nhất cuộc_chiến quân_sự ukraine kèm theo đó việc gần đây nhóm cá_nhân bóng_đá thể_thao iran gửi đơn chính_thức cơ_quan quản_lý bóng_đá thế_giới yêu_cầu cấm ddtqg dự world_cup 2022 bởi sự can_thiệp chính_phủ bằng cách ngăn_chặn phụ_nữ sân vận_động quốc_gia hồi_giáo trái quy_định fifa giám_đốc điều_hành shakhtar_donetsk sergei_palkin gửi thông_điệp tới fifa kêu_gọi cấm iran tham_dự world_cup 2022 thay đó vị lãnh_đạo shakhtar donetsk rằng nên trao suất đội_tuyển ukraine shakhtar donetsk kêu_gọi fifa cộng_đồng quốc_tế lập_tức cấm đội_tuyển iran tham_dự world_cup 2022 vì quốc_gia trực_tiếp tham_gia cuộc tấn_công khủng_bố nhắm dân dukraine suất nên dành đội_tuyển ukraine vòng play off ukraine gặp bất_lợi nhưng chiến_đấu bằng cả trái_tim quyết_định hợp_lý cả mặt lịch_sử thể_thao giám_đốc điều_hành shakhtar_donetsk sergei palkin kêu_gọi iran mộ 6 đại_diện châu á giành vé tham_dự vck fifa world_cup 2022 giải_đấu thầy trò carlos queiroz nằm bảng b cùng mỹ xứ wales đó ukraine không_thể vượt qua vòng_loại họ thua xứ wales chung_kết play off khu_vực châu âu trước đó fifa từng ủng_hộ uefa cấm đội_tuyển nga tham_dự vòng play off world_cup 2022 như_không thể_thao nước xuất_hiện giải_đấu khác nhau</t>
-  </si>
-  <si>
-    <t>nghệ_sĩ hà_văn trọng qua_đời hà_thu nghệ_sĩ hà_văn_trọng đạo_diễn phim số đỏ mất sáng 21 10 bệnh_viện trung_ương quân_đội 108 thọ 85 tuổi</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1496,7 +1496,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1512,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1520,7 +1520,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1568,7 +1568,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1576,7 +1576,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1592,7 +1592,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1632,7 +1632,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1696,7 +1696,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1736,7 +1736,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1744,7 +1744,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1752,7 +1752,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1776,7 +1776,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1784,7 +1784,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1792,7 +1792,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1816,7 +1816,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1832,7 +1832,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1840,7 +1840,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1904,7 +1904,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1912,7 +1912,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1920,7 +1920,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1952,7 +1952,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1960,7 +1960,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1984,7 +1984,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2008,7 +2008,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2040,7 +2040,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2080,7 +2080,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2088,7 +2088,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2104,7 +2104,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2112,7 +2112,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2128,7 +2128,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2152,7 +2152,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2160,7 +2160,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2176,7 +2176,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2216,7 +2216,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2224,7 +2224,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2256,7 +2256,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2264,7 +2264,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2272,7 +2272,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2288,7 +2288,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2312,7 +2312,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2320,7 +2320,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2328,7 +2328,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2360,7 +2360,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2368,7 +2368,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2384,7 +2384,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2392,7 +2392,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2400,7 +2400,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2424,7 +2424,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2432,7 +2432,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2448,7 +2448,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2464,7 +2464,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2472,7 +2472,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2512,7 +2512,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2520,7 +2520,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2528,7 +2528,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2536,7 +2536,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2560,7 +2560,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2600,7 +2600,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2624,7 +2624,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2640,7 +2640,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2664,7 +2664,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2712,7 +2712,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2728,7 +2728,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2744,7 +2744,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2752,7 +2752,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2760,7 +2760,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2800,7 +2800,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2816,7 +2816,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2824,7 +2824,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2832,7 +2832,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2840,7 +2840,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2872,7 +2872,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2880,7 +2880,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2896,7 +2896,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2904,7 +2904,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2936,7 +2936,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2944,7 +2944,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2968,7 +2968,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2976,7 +2976,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3320,7 +3320,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3328,7 +3328,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3344,7 +3344,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3400,7 +3400,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3456,7 +3456,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3512,7 +3512,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3560,7 +3560,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3576,7 +3576,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3616,7 +3616,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3632,7 +3632,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3664,7 +3664,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3672,7 +3672,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3696,7 +3696,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3712,7 +3712,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3744,7 +3744,7 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3752,7 +3752,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3784,7 +3784,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3824,7 +3824,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3848,7 +3848,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3888,7 +3888,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3912,7 +3912,7 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3920,7 +3920,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3968,7 +3968,7 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4016,7 +4016,7 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4056,7 +4056,7 @@
         <v>326</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4088,7 +4088,7 @@
         <v>330</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4096,7 +4096,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4112,7 +4112,7 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4120,7 +4120,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4144,7 +4144,7 @@
         <v>337</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4152,7 +4152,7 @@
         <v>338</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4208,7 +4208,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4232,7 +4232,7 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4296,7 +4296,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:2">
